--- a/TrungThau/20191261297-DLCM-CaiTaoLuoiDien--/PhuongAnThiCong-Ngay.xlsx
+++ b/TrungThau/20191261297-DLCM-CaiTaoLuoiDien--/PhuongAnThiCong-Ngay.xlsx
@@ -14,7 +14,7 @@
     <sheet name="DangKyCatDien" sheetId="10" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">DangKyCatDien!$A$1:$P$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">DangKyCatDien!$A$1:$U$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">DS_CongNhan!$C$1:$L$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">NhanSu!$C$1:$Q$55</definedName>
     <definedName name="data">Data!$A:$Z</definedName>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="228">
   <si>
     <t>STT</t>
   </si>
@@ -539,9 +539,6 @@
     <t>Cắt</t>
   </si>
   <si>
-    <t xml:space="preserve">MCCB </t>
-  </si>
-  <si>
     <t>Bảo vệ</t>
   </si>
   <si>
@@ -566,18 +563,12 @@
     <t>Nâng cấp đường dây hạ thế và TBA Sông Ray 7 từ 1 pha lên 3 pha, cấy TBA Sông Ray 7A</t>
   </si>
   <si>
-    <t xml:space="preserve">hạ thế TBA Sông Ray 7, trụ trung thế 038 </t>
-  </si>
-  <si>
     <t>Nhánh rẽ Lâm San 10, 11, 12</t>
   </si>
   <si>
     <t xml:space="preserve">3xFCO </t>
   </si>
   <si>
-    <t>trung hạ áp tại TBA Lâm San 11A, 11D</t>
-  </si>
-  <si>
     <t xml:space="preserve">Recloser + 3 LTD </t>
   </si>
   <si>
@@ -587,9 +578,6 @@
     <t>Trồng trụ trung thế 015A đấu nối trung thế, tách lưới, sang tải TBA Sông Ray 2, Sông Ray 2A. Đấu nối trung thế và di dời TBA Sông Ray 4A</t>
   </si>
   <si>
-    <t xml:space="preserve">trụ trung thế 075 </t>
-  </si>
-  <si>
     <t>Nhánh rẽ Cánh đồng Xuân Tây 1</t>
   </si>
   <si>
@@ -663,6 +651,141 @@
   </si>
   <si>
     <t>DVTC-AT</t>
+  </si>
+  <si>
+    <t>Cắt FCO + MCCB TBA Nam Hà 1
+Tiếp địa hạ thế tại MCCB TBA Nam Hà 1</t>
+  </si>
+  <si>
+    <t>Cắt FCO + MCCB TBA Nam Hà 1A
+Tiếp địa hạ thế tại MCCB TBA Nam Hà 1A</t>
+  </si>
+  <si>
+    <t>Cắt FCO + MCCB TBA Nam Hà 3
+Tiếp địa hạ thế tại MCCB TBA Nam Hà 3</t>
+  </si>
+  <si>
+    <t>NgàyKS</t>
+  </si>
+  <si>
+    <t>Cắt FCO + MCCB TBA TBA Xuân Tây 10A
+Tiếp địa hạ thế tại MCCB TBA TBA Xuân Tây 10A</t>
+  </si>
+  <si>
+    <t>Tiếp địa hạ thế tại MCCB TBA TBA Sông Ray 8A</t>
+  </si>
+  <si>
+    <t>Cắt FCO + MCCB TBA TBA TBA Sông Ray 8A</t>
+  </si>
+  <si>
+    <t>Tiếp địa trụ trung thế 381 
+Tiếp địa hạ thế TBA Sông Ray 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cắt LBS khí Đồng Tâm 1 + 3 LTD Đồng Tâm 1
+Cắt LBS khí Sông Ray + 3 LTD Sông Ray 1
+Tiếp địa trụ trung thế 357 </t>
+  </si>
+  <si>
+    <t>Tiếp địa trung hạ áp tại TBA Lâm San 11A, 11D</t>
+  </si>
+  <si>
+    <t>Cắt 3xFCO Nhánh rẽ Lâm San 10, 11, 12
+Tiếp địa trụ trung thế 357 Nhánh rẽ Lâm San 10, 11, 12</t>
+  </si>
+  <si>
+    <t>Cắt Recloser + 3 LTD Lâm San
+Tiếp địa trụ trung thế 011A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiếp địa trụ trung thế 075 </t>
+  </si>
+  <si>
+    <t>Cắt 3xFCO Nhánh rẽ Cánh đồng Xuân Tây 1</t>
+  </si>
+  <si>
+    <t>Tiếp địa trung hạ áp tại TBA Cánh đồng Xuân Tây 1</t>
+  </si>
+  <si>
+    <t>Cắt Recloser + 3 LTD Láng Me
+Tiếp địa trụ trung thế 079</t>
+  </si>
+  <si>
+    <t>Tiếp địa trụ trung thế 094
+ Tiếp địa hạ thế TBA Láng Me 3</t>
+  </si>
+  <si>
+    <t>Cắt FCO Nhánh rẽ Thoại Hương 3, 4</t>
+  </si>
+  <si>
+    <t>Cắt FCO Nhánh rẽ Xuân Tây 19</t>
+  </si>
+  <si>
+    <t>Tiếp địa trung hạ áp tại TBA Thoại Hương 3, 4</t>
+  </si>
+  <si>
+    <t>Tiếp địa trung hạ áp tại TBA Xuân Tây 19</t>
+  </si>
+  <si>
+    <t>Cắt 3xFCO Nhánh rẽ Láng Me 5
+Tiếp địa trụ trung thế 107</t>
+  </si>
+  <si>
+    <t>Tiếp địa trụ trung thế 131
+ Tiếp địa hạ thế TBA Láng Me 5, 5A, 5B</t>
+  </si>
+  <si>
+    <t>Cắt Recloser + 3 LTD Nhánh rẽ Sông Nhạn
+Tiếp địa trụ trung thế 006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiếp địa trụ trung thế 023A </t>
+  </si>
+  <si>
+    <t>Phạm vi làm việc</t>
+  </si>
+  <si>
+    <t>Cắt Recloser + 3 LTD Nhánh rẽ Nam Hà
+Cắt 3 LTD Xuân Bảo - Nam Hà
+Tiếp địa trụ trung thế 326</t>
+  </si>
+  <si>
+    <t>Tiếp địa trụ trung thế 351</t>
+  </si>
+  <si>
+    <t>Tại trụ trung thế 334/003, 334/003/019 và lưới điện hạ thế thuộc TBA Nam Hà 3</t>
+  </si>
+  <si>
+    <t>Thời gian</t>
+  </si>
+  <si>
+    <t>Ngày dự kiến</t>
+  </si>
+  <si>
+    <t>Ngày đăng ký</t>
+  </si>
+  <si>
+    <t>Tại trụ trung thế 018 nhánh Xuân Bảo - Bảo Bình và lưới điện hạ thế thuộc trạm Tân Bảo 3</t>
+  </si>
+  <si>
+    <t>Cắt Recloser + 3 LTD Nhánh rẽ Tân Bảo
+Tiếp địa trụ trung thế 117</t>
+  </si>
+  <si>
+    <t>Tiếp địa trụ trung thế 147</t>
+  </si>
+  <si>
+    <t>Tại trụ trung thế 334, 334/001, 335A, 348A, 339A nhánh rẽ Xuân Bảo - Nam Hà</t>
+  </si>
+  <si>
+    <t>Tại trụ trung thế TBA Tân Bảo 3 và trụ trung thế 131 nhánh rẽ Xuân Bảo - Bảo Bình</t>
+  </si>
+  <si>
+    <t>Cắt FCO Nhánh rẽ Thừa Đức 11
+Tiếp địa trung hạ thế tại TBA Thừa Đức 11</t>
+  </si>
+  <si>
+    <t>Tại trụ trung thế 010, 032 và lưới điện hạ thế thuộc TBA Thừa Đức 11</t>
   </si>
 </sst>
 </file>
@@ -917,7 +1040,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1029,6 +1152,10 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="23">
@@ -1763,7 +1890,7 @@
         <v>87</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="K4" s="24" t="s">
         <v>107</v>
@@ -3399,7 +3526,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F3" s="17"/>
       <c r="G3" s="17"/>
@@ -4821,1517 +4948,1607 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P33"/>
+  <dimension ref="A1:V26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" style="26" customWidth="1"/>
-    <col min="4" max="5" width="30.42578125" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" customWidth="1"/>
-    <col min="7" max="7" width="43.85546875" style="26" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" style="35" customWidth="1"/>
-    <col min="10" max="10" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.28515625" style="26" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="41.7109375" style="26" customWidth="1"/>
-    <col min="15" max="15" width="25" style="26" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" style="26" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="39.7109375" customWidth="1"/>
+    <col min="6" max="7" width="30.42578125" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="19.140625" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" style="26" customWidth="1"/>
+    <col min="12" max="12" width="25.7109375" customWidth="1"/>
+    <col min="13" max="13" width="21.85546875" style="26" customWidth="1"/>
+    <col min="14" max="14" width="43.85546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.28515625" style="35" customWidth="1"/>
+    <col min="16" max="16" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.28515625" style="26" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="41.7109375" style="26" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="20" width="25" style="26" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="12.5703125" style="26" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="9.140625" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="36" customFormat="1" ht="30">
+    <row r="1" spans="1:21" s="36" customFormat="1" ht="30">
       <c r="A1" s="36" t="s">
         <v>66</v>
       </c>
       <c r="B1" s="36" t="s">
+        <v>192</v>
+      </c>
+      <c r="C1" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="D1" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>214</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="J1" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="K1" s="37" t="s">
+        <v>219</v>
+      </c>
+      <c r="L1" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="M1" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="N1" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="O1" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="P1" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q1" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="R1" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="S1" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="T1" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="U1" s="37" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="K2" s="26">
+        <f>J2+14</f>
+        <v>14</v>
+      </c>
+      <c r="M2" s="26">
+        <f>D2</f>
+        <v>0</v>
+      </c>
+      <c r="N2" s="26" t="str">
+        <f>L2&amp;D2</f>
+        <v/>
+      </c>
+      <c r="P2" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q2">
+        <f t="shared" ref="Q2:Q6" si="0">WEEKDAY(O2)</f>
+        <v>7</v>
+      </c>
+      <c r="R2" s="26" t="str">
+        <f>L2&amp;D2</f>
+        <v/>
+      </c>
+      <c r="S2" s="26" t="str">
+        <f>H2&amp;LOWER(L2)&amp;D2</f>
+        <v/>
+      </c>
+      <c r="T2" s="26" t="str">
+        <f>"Cắt "&amp;C2&amp;M2</f>
+        <v>Cắt 0</v>
+      </c>
+      <c r="U2" s="26" t="str">
+        <f>"Tiếp địa tại "&amp;F2&amp;D2</f>
+        <v xml:space="preserve">Tiếp địa tại </v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="K3" s="26">
+        <f t="shared" ref="K3:K26" si="1">J3+14</f>
+        <v>14</v>
+      </c>
+      <c r="M3" s="26">
+        <f>D3</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="26" t="str">
+        <f>L3&amp;D3</f>
+        <v/>
+      </c>
+      <c r="P3" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="R3" s="26" t="str">
+        <f>L3&amp;D3</f>
+        <v/>
+      </c>
+      <c r="S3" s="26" t="str">
+        <f>H3&amp;LOWER(L3)&amp;D3</f>
+        <v/>
+      </c>
+      <c r="T3" s="26" t="str">
+        <f>"Cắt "&amp;C3&amp;M3</f>
+        <v>Cắt 0</v>
+      </c>
+      <c r="U3" s="26" t="str">
+        <f>"Tiếp địa tại "&amp;F3&amp;D3</f>
+        <v xml:space="preserve">Tiếp địa tại </v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="K4" s="26">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="M4" s="26">
+        <f>D4</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="26" t="str">
+        <f>L4&amp;D4</f>
+        <v/>
+      </c>
+      <c r="P4" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="R4" s="26" t="str">
+        <f>L4&amp;D4</f>
+        <v/>
+      </c>
+      <c r="S4" s="26" t="str">
+        <f>H4&amp;LOWER(L4)&amp;D4</f>
+        <v/>
+      </c>
+      <c r="T4" s="26" t="str">
+        <f>"Cắt "&amp;C4&amp;M4</f>
+        <v>Cắt 0</v>
+      </c>
+      <c r="U4" s="26" t="str">
+        <f>"Tiếp địa tại "&amp;F4&amp;D4</f>
+        <v xml:space="preserve">Tiếp địa tại </v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="K5" s="26">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="M5" s="26">
+        <f>D5</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="26" t="str">
+        <f>L5&amp;D5</f>
+        <v/>
+      </c>
+      <c r="P5" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="R5" s="26" t="str">
+        <f>L5&amp;D5</f>
+        <v/>
+      </c>
+      <c r="S5" s="26" t="str">
+        <f>H5&amp;LOWER(L5)&amp;D5</f>
+        <v/>
+      </c>
+      <c r="T5" s="26" t="str">
+        <f>"Cắt "&amp;C5&amp;M5</f>
+        <v>Cắt 0</v>
+      </c>
+      <c r="U5" s="26" t="str">
+        <f>"Tiếp địa tại "&amp;F5&amp;D5</f>
+        <v xml:space="preserve">Tiếp địa tại </v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="K6" s="26">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="M6" s="26">
+        <f>D6</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="26" t="str">
+        <f>L6&amp;D6</f>
+        <v/>
+      </c>
+      <c r="P6" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="R6" s="26" t="str">
+        <f>L6&amp;D6</f>
+        <v/>
+      </c>
+      <c r="S6" s="26" t="str">
+        <f>H6&amp;LOWER(L6)&amp;D6</f>
+        <v/>
+      </c>
+      <c r="T6" s="26" t="str">
+        <f>"Cắt "&amp;C6&amp;M6</f>
+        <v>Cắt 0</v>
+      </c>
+      <c r="U6" s="26" t="str">
+        <f>"Tiếp địa tại "&amp;F6&amp;D6</f>
+        <v xml:space="preserve">Tiếp địa tại </v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="K7" s="26">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="M7" s="26">
+        <f>D7</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="26" t="str">
+        <f>L7&amp;D7</f>
+        <v/>
+      </c>
+      <c r="P7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" ref="Q7" si="2">WEEKDAY(O7)</f>
+        <v>7</v>
+      </c>
+      <c r="R7" s="26" t="str">
+        <f>L7&amp;D7</f>
+        <v/>
+      </c>
+      <c r="S7" s="26" t="str">
+        <f>H7&amp;LOWER(L7)&amp;D7</f>
+        <v/>
+      </c>
+      <c r="T7" s="26" t="str">
+        <f>"Cắt "&amp;C7&amp;M7</f>
+        <v>Cắt 0</v>
+      </c>
+      <c r="U7" s="26" t="str">
+        <f>"Tiếp địa tại "&amp;F7&amp;D7</f>
+        <v xml:space="preserve">Tiếp địa tại </v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="31.5" customHeight="1">
+      <c r="B8" s="44">
+        <v>44061</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="26">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="M8" s="26" t="str">
+        <f>D8</f>
+        <v>TBA Nam Hà 1</v>
+      </c>
+      <c r="N8" s="26" t="str">
+        <f>L8&amp;D8</f>
+        <v>Lưới điện hạ thế sau TBA Nam Hà 1</v>
+      </c>
+      <c r="O8" s="35">
+        <v>44079</v>
+      </c>
+      <c r="P8" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" ref="Q8:Q13" si="3">WEEKDAY(O8)</f>
+        <v>7</v>
+      </c>
+      <c r="R8" s="26" t="str">
+        <f>L8&amp;D8</f>
+        <v>Lưới điện hạ thế sau TBA Nam Hà 1</v>
+      </c>
+      <c r="S8" s="26" t="str">
+        <f>H8&amp;LOWER(L8)&amp;D8</f>
+        <v>Thay dây hạ thế lưới điện hạ thế sau TBA Nam Hà 1</v>
+      </c>
+      <c r="T8" s="26" t="str">
+        <f>"Cắt "&amp;C8&amp;M8</f>
+        <v>Cắt FCO + MCCB TBA Nam Hà 1</v>
+      </c>
+      <c r="U8" s="26" t="str">
+        <f>"Tiếp địa tại "&amp;F8&amp;D8</f>
+        <v>Tiếp địa tại TBA Nam Hà 1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="30">
+      <c r="B9" s="44">
+        <v>44061</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D9" t="s">
+        <v>139</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="26">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="M9" s="26" t="str">
+        <f>D9</f>
+        <v>TBA Nam Hà 1A</v>
+      </c>
+      <c r="N9" s="26" t="str">
+        <f>L9&amp;D9</f>
+        <v>Lưới điện hạ thế sau TBA Nam Hà 1A</v>
+      </c>
+      <c r="O9" s="35">
+        <v>44079</v>
+      </c>
+      <c r="P9" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="R9" s="26" t="str">
+        <f>L9&amp;D9</f>
+        <v>Lưới điện hạ thế sau TBA Nam Hà 1A</v>
+      </c>
+      <c r="S9" s="26" t="str">
+        <f>H9&amp;LOWER(L9)&amp;D9</f>
+        <v>Thay dây hạ thế lưới điện hạ thế sau TBA Nam Hà 1A</v>
+      </c>
+      <c r="T9" s="26" t="str">
+        <f>"Cắt "&amp;C9&amp;M9</f>
+        <v>Cắt FCO + MCCB TBA Nam Hà 1A</v>
+      </c>
+      <c r="U9" s="26" t="str">
+        <f>"Tiếp địa tại "&amp;F9&amp;D9</f>
+        <v>Tiếp địa tại TBA Nam Hà 1A</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="30">
+      <c r="B10" s="44">
+        <v>44061</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D10" t="s">
+        <v>140</v>
+      </c>
+      <c r="E10" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="E1" s="36" t="s">
-        <v>192</v>
-      </c>
-      <c r="F1" s="36" t="s">
-        <v>130</v>
-      </c>
-      <c r="G1" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="H1" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="I1" s="38" t="s">
-        <v>133</v>
-      </c>
-      <c r="J1" s="36" t="s">
-        <v>134</v>
-      </c>
-      <c r="K1" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="L1" s="36" t="s">
-        <v>136</v>
-      </c>
-      <c r="M1" s="37" t="s">
-        <v>149</v>
-      </c>
-      <c r="N1" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="O1" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="P1" s="37" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="C2" s="26">
-        <f>H2</f>
-        <v>0</v>
-      </c>
-      <c r="G2" s="26" t="str">
-        <f t="shared" ref="G2:G6" si="0">F2&amp;H2</f>
-        <v/>
-      </c>
-      <c r="K2" t="s">
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="26">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="M10" s="26" t="str">
+        <f>D10</f>
+        <v>TBA Nam Hà 3</v>
+      </c>
+      <c r="N10" s="26" t="str">
+        <f>L10&amp;D10</f>
+        <v>Lưới điện hạ thế sau TBA Nam Hà 3</v>
+      </c>
+      <c r="O10" s="35">
+        <v>44079</v>
+      </c>
+      <c r="P10" t="s">
         <v>138</v>
       </c>
-      <c r="L2">
-        <f t="shared" ref="L2:L6" si="1">WEEKDAY(I2)</f>
+      <c r="Q10">
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="M2" s="26" t="str">
-        <f t="shared" ref="M2:M6" si="2">F2&amp;H2</f>
-        <v/>
-      </c>
-      <c r="N2" s="26" t="str">
-        <f t="shared" ref="N2:N6" si="3">J2&amp;LOWER(F2)&amp;H2</f>
-        <v/>
-      </c>
-      <c r="O2" s="26" t="str">
-        <f>"Cắt "&amp;B2&amp;C2</f>
-        <v>Cắt 0</v>
-      </c>
-      <c r="P2" s="26" t="str">
-        <f t="shared" ref="P2:P6" si="4">"Tiếp địa tại "&amp;E2&amp;H2</f>
-        <v xml:space="preserve">Tiếp địa tại </v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="C3" s="26">
-        <f>H3</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K3" t="s">
+      <c r="R10" s="26" t="str">
+        <f>L10&amp;D10</f>
+        <v>Lưới điện hạ thế sau TBA Nam Hà 3</v>
+      </c>
+      <c r="S10" s="26" t="str">
+        <f>H10&amp;LOWER(L10)&amp;D10</f>
+        <v>Thay dây hạ thế lưới điện hạ thế sau TBA Nam Hà 3</v>
+      </c>
+      <c r="T10" s="26" t="str">
+        <f>"Cắt "&amp;C10&amp;M10</f>
+        <v>Cắt FCO + MCCB TBA Nam Hà 3</v>
+      </c>
+      <c r="U10" s="26" t="str">
+        <f>"Tiếp địa tại "&amp;F10&amp;D10</f>
+        <v>Tiếp địa tại TBA Nam Hà 3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="45">
+      <c r="B11" s="44">
+        <v>44061</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D11" t="s">
+        <v>141</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="26">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="M11" s="26" t="str">
+        <f>D11</f>
+        <v>TBA Xuân Tây 10A</v>
+      </c>
+      <c r="N11" s="26" t="str">
+        <f>L11&amp;D11</f>
+        <v>Lưới điện hạ thế sau TBA Xuân Tây 10A</v>
+      </c>
+      <c r="O11" s="35">
+        <v>44081</v>
+      </c>
+      <c r="P11" t="s">
         <v>138</v>
       </c>
-      <c r="L3">
-        <f t="shared" si="1"/>
+      <c r="Q11">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="R11" s="26" t="str">
+        <f>L11&amp;D11</f>
+        <v>Lưới điện hạ thế sau TBA Xuân Tây 10A</v>
+      </c>
+      <c r="S11" s="26" t="str">
+        <f>H11&amp;LOWER(L11)&amp;D11</f>
+        <v>Thay dây hạ thế lưới điện hạ thế sau TBA Xuân Tây 10A</v>
+      </c>
+      <c r="T11" s="26" t="str">
+        <f>"Cắt "&amp;C11&amp;M11</f>
+        <v>Cắt FCO + MCCB TBA Xuân Tây 10A</v>
+      </c>
+      <c r="U11" s="26" t="str">
+        <f>"Tiếp địa tại "&amp;F11&amp;D11</f>
+        <v>Tiếp địa tại TBA Xuân Tây 10A</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="B12" s="44">
+        <v>44061</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="26">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="M12" s="26" t="str">
+        <f>D12</f>
+        <v>TBA Sông Ray 8A</v>
+      </c>
+      <c r="N12" s="26" t="str">
+        <f>L12&amp;D12</f>
+        <v>Lưới điện hạ thế sau TBA Sông Ray 8A</v>
+      </c>
+      <c r="O12" s="35">
+        <v>44083</v>
+      </c>
+      <c r="P12" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="R12" s="26" t="str">
+        <f>L12&amp;D12</f>
+        <v>Lưới điện hạ thế sau TBA Sông Ray 8A</v>
+      </c>
+      <c r="S12" s="26" t="str">
+        <f>H12&amp;LOWER(L12)&amp;D12</f>
+        <v>Thay dây hạ thế lưới điện hạ thế sau TBA Sông Ray 8A</v>
+      </c>
+      <c r="T12" s="26" t="str">
+        <f>"Cắt "&amp;C12&amp;M12</f>
+        <v>Cắt FCO + MCCB TBA Sông Ray 8A</v>
+      </c>
+      <c r="U12" s="26" t="str">
+        <f>"Tiếp địa tại "&amp;F12&amp;D12</f>
+        <v>Tiếp địa tại Tiếp địa hạ thế tại MCCB TBA TBA Sông Ray 8ATBA Sông Ray 8A</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="45">
+      <c r="B13" s="44">
+        <v>44061</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="G13" s="24"/>
+      <c r="H13" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="26">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="M13" s="26" t="str">
+        <f>D13</f>
+        <v>Nhánh rẽ Đồng Tâm 1</v>
+      </c>
+      <c r="N13" s="26" t="str">
+        <f>L13&amp;D13</f>
+        <v>Lưới điện trung thế sau Nhánh rẽ Đồng Tâm 1</v>
+      </c>
+      <c r="O13" s="35">
+        <v>44086</v>
+      </c>
+      <c r="P13" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="M3" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N3" s="26" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O3" s="26" t="str">
-        <f>"Cắt "&amp;B3&amp;C3</f>
-        <v>Cắt 0</v>
-      </c>
-      <c r="P3" s="26" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">Tiếp địa tại </v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="C4" s="26">
-        <f>H4</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K4" t="s">
+      <c r="R13" s="26" t="str">
+        <f>L13&amp;D13</f>
+        <v>Lưới điện trung thế sau Nhánh rẽ Đồng Tâm 1</v>
+      </c>
+      <c r="S13" s="26" t="str">
+        <f>H13&amp;LOWER(L13)&amp;D13</f>
+        <v>Nâng cấp đường dây hạ thế và TBA Sông Ray 7 từ 1 pha lên 3 pha, cấy TBA Sông Ray 7Alưới điện trung thế sau Nhánh rẽ Đồng Tâm 1</v>
+      </c>
+      <c r="T13" s="26" t="str">
+        <f>"Cắt "&amp;C13&amp;M13</f>
+        <v>Cắt LBS khí + 3 LTDNhánh rẽ Đồng Tâm 1</v>
+      </c>
+      <c r="U13" s="26" t="str">
+        <f>"Tiếp địa tại "&amp;F13&amp;D13</f>
+        <v>Tiếp địa tại Tiếp địa trụ trung thế 381 
+Tiếp địa hạ thế TBA Sông Ray 7Nhánh rẽ Đồng Tâm 1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="45">
+      <c r="B14" s="44">
+        <v>44062</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="26">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="M14" s="26" t="str">
+        <f>D14</f>
+        <v>Nhánh rẽ Lâm San 10, 11, 12</v>
+      </c>
+      <c r="N14" s="26" t="str">
+        <f>L14&amp;D14</f>
+        <v>Lưới điện trung thế sau Nhánh rẽ Lâm San 10, 11, 12</v>
+      </c>
+      <c r="O14" s="35">
+        <v>44086</v>
+      </c>
+      <c r="P14" t="s">
         <v>138</v>
       </c>
-      <c r="L4">
-        <f t="shared" si="1"/>
+      <c r="Q14">
+        <f t="shared" ref="Q14" si="4">WEEKDAY(O14)</f>
         <v>7</v>
       </c>
-      <c r="M4" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N4" s="26" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O4" s="26" t="str">
-        <f>"Cắt "&amp;B4&amp;C4</f>
-        <v>Cắt 0</v>
-      </c>
-      <c r="P4" s="26" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">Tiếp địa tại </v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="C5" s="26">
-        <f>H5</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K5" t="s">
+      <c r="R14" s="26" t="str">
+        <f>L14&amp;D14</f>
+        <v>Lưới điện trung thế sau Nhánh rẽ Lâm San 10, 11, 12</v>
+      </c>
+      <c r="S14" s="26" t="str">
+        <f>H14&amp;LOWER(L14)&amp;D14</f>
+        <v>Nâng cấp đường dây hạ thế và TBA Sông Ray 7 từ 1 pha lên 3 pha, cấy TBA Sông Ray 7Alưới điện trung thế sau Nhánh rẽ Lâm San 10, 11, 12</v>
+      </c>
+      <c r="T14" s="26" t="str">
+        <f>"Cắt "&amp;C14&amp;M14</f>
+        <v>Cắt 3xFCO Nhánh rẽ Lâm San 10, 11, 12</v>
+      </c>
+      <c r="U14" s="26" t="str">
+        <f>"Tiếp địa tại "&amp;F14&amp;D14</f>
+        <v>Tiếp địa tại Tiếp địa trung hạ áp tại TBA Lâm San 11A, 11DNhánh rẽ Lâm San 10, 11, 12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="30">
+      <c r="B15" s="44">
+        <v>44062</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="26">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="M15" s="26" t="str">
+        <f>D15</f>
+        <v>Nhánh rẽ Lâm San</v>
+      </c>
+      <c r="N15" s="26" t="str">
+        <f>L15&amp;D15</f>
+        <v>Lưới điện trung thế sau Nhánh rẽ Lâm San</v>
+      </c>
+      <c r="O15" s="35">
+        <v>44093</v>
+      </c>
+      <c r="P15" t="s">
         <v>138</v>
       </c>
-      <c r="L5">
-        <f t="shared" si="1"/>
+      <c r="Q15">
+        <f t="shared" ref="Q15:Q25" si="5">WEEKDAY(O15)</f>
         <v>7</v>
       </c>
-      <c r="M5" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N5" s="26" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O5" s="26" t="str">
-        <f>"Cắt "&amp;B5&amp;C5</f>
-        <v>Cắt 0</v>
-      </c>
-      <c r="P5" s="26" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">Tiếp địa tại </v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="C6" s="26">
-        <f>H6</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K6" t="s">
+      <c r="R15" s="26" t="str">
+        <f>L15&amp;D15</f>
+        <v>Lưới điện trung thế sau Nhánh rẽ Lâm San</v>
+      </c>
+      <c r="S15" s="26" t="str">
+        <f>H15&amp;LOWER(L15)&amp;D15</f>
+        <v>Trồng trụ trung thế 015A đấu nối trung thế, tách lưới, sang tải TBA Sông Ray 2, Sông Ray 2A. Đấu nối trung thế và di dời TBA Sông Ray 4Alưới điện trung thế sau Nhánh rẽ Lâm San</v>
+      </c>
+      <c r="T15" s="26" t="str">
+        <f>"Cắt "&amp;C15&amp;M15</f>
+        <v>Cắt Recloser + 3 LTD Nhánh rẽ Lâm San</v>
+      </c>
+      <c r="U15" s="26" t="str">
+        <f>"Tiếp địa tại "&amp;F15&amp;D15</f>
+        <v>Tiếp địa tại Tiếp địa trụ trung thế 075 Nhánh rẽ Lâm San</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="B16" s="44">
+        <v>44062</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="26">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="M16" s="26" t="str">
+        <f>D16</f>
+        <v>Nhánh rẽ Cánh đồng Xuân Tây 1</v>
+      </c>
+      <c r="N16" s="26" t="str">
+        <f>L16&amp;D16</f>
+        <v>Lưới điện trung thế sau Nhánh rẽ Cánh đồng Xuân Tây 1</v>
+      </c>
+      <c r="O16" s="35">
+        <v>44090</v>
+      </c>
+      <c r="P16" t="s">
         <v>138</v>
       </c>
-      <c r="L6">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="M6" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N6" s="26" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O6" s="26" t="str">
-        <f>"Cắt "&amp;B6&amp;C6</f>
-        <v>Cắt 0</v>
-      </c>
-      <c r="P6" s="26" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">Tiếp địa tại </v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="C7" s="26">
-        <f>H7</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="26" t="str">
-        <f t="shared" ref="G7" si="5">F7&amp;H7</f>
-        <v/>
-      </c>
-      <c r="K7" t="s">
+      <c r="Q16">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="R16" s="26" t="str">
+        <f>L16&amp;D16</f>
+        <v>Lưới điện trung thế sau Nhánh rẽ Cánh đồng Xuân Tây 1</v>
+      </c>
+      <c r="S16" s="26" t="str">
+        <f>H16&amp;LOWER(L16)&amp;D16</f>
+        <v>Đấu nối trung thế trụ 009A, 013. Tách lưới hạ thế sau TBA Cánh đồng Xuân Tây 1A, Cánh đồng Xuân Tây 1Blưới điện trung thế sau Nhánh rẽ Cánh đồng Xuân Tây 1</v>
+      </c>
+      <c r="T16" s="26" t="str">
+        <f>"Cắt "&amp;C16&amp;M16</f>
+        <v>Cắt 3xFCO Nhánh rẽ Cánh đồng Xuân Tây 1</v>
+      </c>
+      <c r="U16" s="26" t="str">
+        <f>"Tiếp địa tại "&amp;F16&amp;D16</f>
+        <v>Tiếp địa tại Tiếp địa trung hạ áp tại TBA Cánh đồng Xuân Tây 1Nhánh rẽ Cánh đồng Xuân Tây 1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="30">
+      <c r="B17" s="44">
+        <v>44062</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="G17" s="24"/>
+      <c r="H17" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="26">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="M17" s="26" t="str">
+        <f>D17</f>
+        <v>Nhánh rẽ Láng Me</v>
+      </c>
+      <c r="N17" s="26" t="str">
+        <f>L17&amp;D17</f>
+        <v>Lưới điện trung thế sau Nhánh rẽ Láng Me</v>
+      </c>
+      <c r="O17" s="35">
+        <v>44089</v>
+      </c>
+      <c r="P17" t="s">
         <v>138</v>
       </c>
-      <c r="L7">
-        <f t="shared" ref="L7" si="6">WEEKDAY(I7)</f>
-        <v>7</v>
-      </c>
-      <c r="M7" s="26" t="str">
-        <f t="shared" ref="M7" si="7">F7&amp;H7</f>
-        <v/>
-      </c>
-      <c r="N7" s="26" t="str">
-        <f t="shared" ref="N7" si="8">J7&amp;LOWER(F7)&amp;H7</f>
-        <v/>
-      </c>
-      <c r="O7" s="26" t="str">
-        <f>"Cắt "&amp;B7&amp;C7</f>
-        <v>Cắt 0</v>
-      </c>
-      <c r="P7" s="26" t="str">
-        <f t="shared" ref="P7" si="9">"Tiếp địa tại "&amp;E7&amp;H7</f>
-        <v xml:space="preserve">Tiếp địa tại </v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="B8" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="C8" s="26" t="str">
-        <f>H8</f>
-        <v>TBA Nam Hà 1</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="G8" s="26" t="str">
-        <f>F8&amp;H8</f>
-        <v>Lưới điện hạ thế sau TBA Nam Hà 1</v>
-      </c>
-      <c r="H8" t="s">
-        <v>137</v>
-      </c>
-      <c r="I8" s="35">
-        <v>44079</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="K8" t="s">
-        <v>138</v>
-      </c>
-      <c r="L8">
-        <f t="shared" ref="L8:L13" si="10">WEEKDAY(I8)</f>
-        <v>7</v>
-      </c>
-      <c r="M8" s="26" t="str">
-        <f>F8&amp;H8</f>
-        <v>Lưới điện hạ thế sau TBA Nam Hà 1</v>
-      </c>
-      <c r="N8" s="26" t="str">
-        <f t="shared" ref="N8:N13" si="11">J8&amp;LOWER(F8)&amp;H8</f>
-        <v>Thay dây hạ thế lưới điện hạ thế sau TBA Nam Hà 1</v>
-      </c>
-      <c r="O8" s="26" t="str">
-        <f t="shared" ref="O8:O25" si="12">"Cắt "&amp;B8&amp;C8</f>
-        <v>Cắt FCO + MCCB TBA Nam Hà 1</v>
-      </c>
-      <c r="P8" s="26" t="str">
-        <f t="shared" ref="P8:P25" si="13">"Tiếp địa tại "&amp;E8&amp;H8</f>
-        <v>Tiếp địa tại TBA Nam Hà 1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="B9" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="C9" s="26" t="str">
-        <f>H9</f>
-        <v>TBA Nam Hà 1A</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="G9" s="26" t="str">
-        <f t="shared" ref="G9:G33" si="14">F9&amp;H9</f>
-        <v>Lưới điện hạ thế sau TBA Nam Hà 1A</v>
-      </c>
-      <c r="H9" t="s">
-        <v>139</v>
-      </c>
-      <c r="I9" s="35">
-        <v>44079</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="K9" t="s">
-        <v>138</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="10"/>
-        <v>7</v>
-      </c>
-      <c r="M9" s="26" t="str">
-        <f>F9&amp;H9</f>
-        <v>Lưới điện hạ thế sau TBA Nam Hà 1A</v>
-      </c>
-      <c r="N9" s="26" t="str">
-        <f t="shared" si="11"/>
-        <v>Thay dây hạ thế lưới điện hạ thế sau TBA Nam Hà 1A</v>
-      </c>
-      <c r="O9" s="26" t="str">
-        <f t="shared" si="12"/>
-        <v>Cắt FCO + MCCB TBA Nam Hà 1A</v>
-      </c>
-      <c r="P9" s="26" t="str">
-        <f t="shared" si="13"/>
-        <v>Tiếp địa tại TBA Nam Hà 1A</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="B10" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="C10" s="26" t="str">
-        <f>H10</f>
-        <v>TBA Nam Hà 3</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="G10" s="26" t="str">
-        <f t="shared" si="14"/>
-        <v>Lưới điện hạ thế sau TBA Nam Hà 3</v>
-      </c>
-      <c r="H10" t="s">
-        <v>140</v>
-      </c>
-      <c r="I10" s="35">
-        <v>44079</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="K10" t="s">
-        <v>138</v>
-      </c>
-      <c r="L10">
-        <f t="shared" si="10"/>
-        <v>7</v>
-      </c>
-      <c r="M10" s="26" t="str">
-        <f>F10&amp;H10</f>
-        <v>Lưới điện hạ thế sau TBA Nam Hà 3</v>
-      </c>
-      <c r="N10" s="26" t="str">
-        <f t="shared" si="11"/>
-        <v>Thay dây hạ thế lưới điện hạ thế sau TBA Nam Hà 3</v>
-      </c>
-      <c r="O10" s="26" t="str">
-        <f t="shared" si="12"/>
-        <v>Cắt FCO + MCCB TBA Nam Hà 3</v>
-      </c>
-      <c r="P10" s="26" t="str">
-        <f t="shared" si="13"/>
-        <v>Tiếp địa tại TBA Nam Hà 3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="B11" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="C11" s="26" t="str">
-        <f>H11</f>
-        <v>TBA Xuân Tây 10A</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="G11" s="26" t="str">
-        <f t="shared" si="14"/>
-        <v>Lưới điện hạ thế sau TBA Xuân Tây 10A</v>
-      </c>
-      <c r="H11" t="s">
-        <v>141</v>
-      </c>
-      <c r="I11" s="35">
-        <v>44081</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="K11" t="s">
-        <v>138</v>
-      </c>
-      <c r="L11">
-        <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="M11" s="26" t="str">
-        <f>F11&amp;H11</f>
-        <v>Lưới điện hạ thế sau TBA Xuân Tây 10A</v>
-      </c>
-      <c r="N11" s="26" t="str">
-        <f t="shared" si="11"/>
-        <v>Thay dây hạ thế lưới điện hạ thế sau TBA Xuân Tây 10A</v>
-      </c>
-      <c r="O11" s="26" t="str">
-        <f t="shared" si="12"/>
-        <v>Cắt FCO + MCCB TBA Xuân Tây 10A</v>
-      </c>
-      <c r="P11" s="26" t="str">
-        <f t="shared" si="13"/>
-        <v>Tiếp địa tại TBA Xuân Tây 10A</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="B12" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="C12" s="26" t="str">
-        <f t="shared" ref="C12" si="15">H12</f>
-        <v>TBA Sông Ray 8A</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="G12" s="26" t="str">
-        <f t="shared" si="14"/>
-        <v>Lưới điện hạ thế sau TBA Sông Ray 8A</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="I12" s="35">
-        <v>44083</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="K12" t="s">
-        <v>138</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="10"/>
-        <v>4</v>
-      </c>
-      <c r="M12" s="26" t="str">
-        <f t="shared" ref="M12" si="16">F12&amp;H12</f>
-        <v>Lưới điện hạ thế sau TBA Sông Ray 8A</v>
-      </c>
-      <c r="N12" s="26" t="str">
-        <f t="shared" si="11"/>
-        <v>Thay dây hạ thế lưới điện hạ thế sau TBA Sông Ray 8A</v>
-      </c>
-      <c r="O12" s="26" t="str">
-        <f t="shared" si="12"/>
-        <v>Cắt FCO + MCCB TBA Sông Ray 8A</v>
-      </c>
-      <c r="P12" s="26" t="str">
-        <f t="shared" si="13"/>
-        <v>Tiếp địa tại TBA Sông Ray 8A</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="B13" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="C13" s="26" t="str">
-        <f t="shared" ref="C13:C25" si="17">H13</f>
-        <v>Nhánh rẽ Đồng Tâm 1</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="G13" s="26" t="str">
-        <f t="shared" si="14"/>
-        <v>Lưới điện trung thế sau Nhánh rẽ Đồng Tâm 1</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I13" s="35">
-        <v>44086</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="K13" t="s">
-        <v>138</v>
-      </c>
-      <c r="L13">
-        <f t="shared" si="10"/>
-        <v>7</v>
-      </c>
-      <c r="M13" s="26" t="str">
-        <f>F13&amp;H13</f>
-        <v>Lưới điện trung thế sau Nhánh rẽ Đồng Tâm 1</v>
-      </c>
-      <c r="N13" s="26" t="str">
-        <f t="shared" si="11"/>
-        <v>Nâng cấp đường dây hạ thế và TBA Sông Ray 7 từ 1 pha lên 3 pha, cấy TBA Sông Ray 7Alưới điện trung thế sau Nhánh rẽ Đồng Tâm 1</v>
-      </c>
-      <c r="O13" s="26" t="str">
-        <f t="shared" si="12"/>
-        <v>Cắt LBS khí + 3 LTDNhánh rẽ Đồng Tâm 1</v>
-      </c>
-      <c r="P13" s="26" t="str">
-        <f t="shared" si="13"/>
-        <v>Tiếp địa tại Nhánh rẽ Đồng Tâm 1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="B14" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="C14" s="26" t="str">
-        <f t="shared" si="17"/>
-        <v>Nhánh rẽ Lâm San 10, 11, 12</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="G14" s="26" t="str">
-        <f t="shared" si="14"/>
-        <v>Lưới điện trung thế sau Nhánh rẽ Lâm San 10, 11, 12</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="I14" s="35">
-        <v>44086</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="K14" t="s">
-        <v>138</v>
-      </c>
-      <c r="L14">
-        <f t="shared" ref="L14" si="18">WEEKDAY(I14)</f>
-        <v>7</v>
-      </c>
-      <c r="M14" s="26" t="str">
-        <f t="shared" ref="M14" si="19">F14&amp;H14</f>
-        <v>Lưới điện trung thế sau Nhánh rẽ Lâm San 10, 11, 12</v>
-      </c>
-      <c r="N14" s="26" t="str">
-        <f t="shared" ref="N14" si="20">J14&amp;LOWER(F14)&amp;H14</f>
-        <v>Nâng cấp đường dây hạ thế và TBA Sông Ray 7 từ 1 pha lên 3 pha, cấy TBA Sông Ray 7Alưới điện trung thế sau Nhánh rẽ Lâm San 10, 11, 12</v>
-      </c>
-      <c r="O14" s="26" t="str">
-        <f t="shared" si="12"/>
-        <v>Cắt 3xFCO Nhánh rẽ Lâm San 10, 11, 12</v>
-      </c>
-      <c r="P14" s="26" t="str">
-        <f t="shared" si="13"/>
-        <v>Tiếp địa tại Nhánh rẽ Lâm San 10, 11, 12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="B15" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="C15" s="26" t="str">
-        <f t="shared" si="17"/>
-        <v>Nhánh rẽ Lâm San</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="G15" s="26" t="str">
-        <f t="shared" si="14"/>
-        <v>Lưới điện trung thế sau Nhánh rẽ Lâm San</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="I15" s="35">
-        <v>44093</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="K15" t="s">
-        <v>138</v>
-      </c>
-      <c r="L15">
-        <f t="shared" ref="L15:L25" si="21">WEEKDAY(I15)</f>
-        <v>7</v>
-      </c>
-      <c r="M15" s="26" t="str">
-        <f t="shared" ref="M15:M25" si="22">F15&amp;H15</f>
-        <v>Lưới điện trung thế sau Nhánh rẽ Lâm San</v>
-      </c>
-      <c r="N15" s="26" t="str">
-        <f t="shared" ref="N15:N25" si="23">J15&amp;LOWER(F15)&amp;H15</f>
-        <v>Trồng trụ trung thế 015A đấu nối trung thế, tách lưới, sang tải TBA Sông Ray 2, Sông Ray 2A. Đấu nối trung thế và di dời TBA Sông Ray 4Alưới điện trung thế sau Nhánh rẽ Lâm San</v>
-      </c>
-      <c r="O15" s="26" t="str">
-        <f t="shared" si="12"/>
-        <v>Cắt Recloser + 3 LTD Nhánh rẽ Lâm San</v>
-      </c>
-      <c r="P15" s="26" t="str">
-        <f t="shared" si="13"/>
-        <v>Tiếp địa tại Nhánh rẽ Lâm San</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="B16" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="C16" s="26" t="str">
-        <f t="shared" si="17"/>
-        <v>Nhánh rẽ Cánh đồng Xuân Tây 1</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="G16" s="26" t="str">
-        <f t="shared" si="14"/>
-        <v>Lưới điện trung thế sau Nhánh rẽ Cánh đồng Xuân Tây 1</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="I16" s="35">
-        <v>44090</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="K16" t="s">
-        <v>138</v>
-      </c>
-      <c r="L16">
-        <f t="shared" si="21"/>
-        <v>4</v>
-      </c>
-      <c r="M16" s="26" t="str">
-        <f t="shared" si="22"/>
-        <v>Lưới điện trung thế sau Nhánh rẽ Cánh đồng Xuân Tây 1</v>
-      </c>
-      <c r="N16" s="26" t="str">
-        <f t="shared" si="23"/>
-        <v>Đấu nối trung thế trụ 009A, 013. Tách lưới hạ thế sau TBA Cánh đồng Xuân Tây 1A, Cánh đồng Xuân Tây 1Blưới điện trung thế sau Nhánh rẽ Cánh đồng Xuân Tây 1</v>
-      </c>
-      <c r="O16" s="26" t="str">
-        <f t="shared" si="12"/>
-        <v>Cắt 3xFCO Nhánh rẽ Cánh đồng Xuân Tây 1</v>
-      </c>
-      <c r="P16" s="26" t="str">
-        <f t="shared" si="13"/>
-        <v>Tiếp địa tại Nhánh rẽ Cánh đồng Xuân Tây 1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
-      <c r="B17" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="C17" s="26" t="str">
-        <f t="shared" si="17"/>
-        <v>Nhánh rẽ Láng Me</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="G17" s="26" t="str">
-        <f>F17&amp;H17</f>
+      <c r="Q17">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="R17" s="26" t="str">
+        <f>L17&amp;D17</f>
         <v>Lưới điện trung thế sau Nhánh rẽ Láng Me</v>
       </c>
-      <c r="H17" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="I17" s="35">
-        <v>44089</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="K17" t="s">
-        <v>138</v>
-      </c>
-      <c r="L17">
-        <f t="shared" si="21"/>
-        <v>3</v>
-      </c>
-      <c r="M17" s="26" t="str">
-        <f t="shared" si="22"/>
-        <v>Lưới điện trung thế sau Nhánh rẽ Láng Me</v>
-      </c>
-      <c r="N17" s="26" t="str">
-        <f t="shared" si="23"/>
+      <c r="S17" s="26" t="str">
+        <f>H17&amp;LOWER(L17)&amp;D17</f>
         <v>Đấu nối trung thế trụ 087 nhánh rẽ Láng Me. Cấy TBA Láng Me 3B, Tách lưới hạ thế sau TBA Láng Me 3 sang Láng Me 3Blưới điện trung thế sau Nhánh rẽ Láng Me</v>
       </c>
-      <c r="O17" s="26" t="str">
-        <f t="shared" si="12"/>
+      <c r="T17" s="26" t="str">
+        <f>"Cắt "&amp;C17&amp;M17</f>
         <v>Cắt Recloser + 3 LTD Nhánh rẽ Láng Me</v>
       </c>
-      <c r="P17" s="26" t="str">
-        <f t="shared" si="13"/>
-        <v>Tiếp địa tại Nhánh rẽ Láng Me</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+      <c r="U17" s="26" t="str">
+        <f>"Tiếp địa tại "&amp;F17&amp;D17</f>
+        <v>Tiếp địa tại Tiếp địa trụ trung thế 094
+ Tiếp địa hạ thế TBA Láng Me 3Nhánh rẽ Láng Me</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
       <c r="A18" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="44">
+        <v>44062</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="26">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="M18" s="26" t="str">
+        <f>D18</f>
+        <v>Nhánh rẽ Thoại Hương 3, 4</v>
+      </c>
+      <c r="N18" s="26" t="str">
+        <f>L18&amp;D18</f>
+        <v>Lưới điện trung thế sau Nhánh rẽ Thoại Hương 3, 4</v>
+      </c>
+      <c r="O18" s="35">
+        <v>44088</v>
+      </c>
+      <c r="P18" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="R18" s="26" t="str">
+        <f>L18&amp;D18</f>
+        <v>Lưới điện trung thế sau Nhánh rẽ Thoại Hương 3, 4</v>
+      </c>
+      <c r="S18" s="26" t="str">
+        <f>H18&amp;LOWER(L18)&amp;D18</f>
+        <v>Đấu nối trung thế trụ 021 Nhánh rẽ Thoại Hương 3, 4. Di dời TBA Thoại Hương 4lưới điện trung thế sau Nhánh rẽ Thoại Hương 3, 4</v>
+      </c>
+      <c r="T18" s="26" t="str">
+        <f>"Cắt "&amp;C18&amp;M18</f>
+        <v>Cắt FCO Nhánh rẽ Thoại Hương 3, 4</v>
+      </c>
+      <c r="U18" s="26" t="str">
+        <f>"Tiếp địa tại "&amp;F18&amp;D18</f>
+        <v>Tiếp địa tại Tiếp địa trung hạ áp tại TBA Thoại Hương 3, 4Nhánh rẽ Thoại Hương 3, 4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
+      <c r="B19" s="44">
+        <v>44062</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="E19" t="s">
+        <v>207</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="26">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="M19" s="26" t="str">
+        <f>D19</f>
+        <v>Nhánh rẽ Xuân Tây 19</v>
+      </c>
+      <c r="N19" s="26" t="str">
+        <f>L19&amp;D19</f>
+        <v>Lưới điện trung thế sau Nhánh rẽ Xuân Tây 19</v>
+      </c>
+      <c r="O19" s="35">
+        <v>44086</v>
+      </c>
+      <c r="P19" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="R19" s="26" t="str">
+        <f>L19&amp;D19</f>
+        <v>Lưới điện trung thế sau Nhánh rẽ Xuân Tây 19</v>
+      </c>
+      <c r="S19" s="26" t="str">
+        <f>H19&amp;LOWER(L19)&amp;D19</f>
+        <v>Đấu nối trung thế trụ 017 Nhánh rẽ Xuân Tây 19.Cấy TBA Xuân Tây 19A, tách lưới hạ thế TBA Xuân Tây 19 sang TBA Xuân Tây 19Alưới điện trung thế sau Nhánh rẽ Xuân Tây 19</v>
+      </c>
+      <c r="T19" s="26" t="str">
+        <f>"Cắt "&amp;C19&amp;M19</f>
+        <v>Cắt FCO Nhánh rẽ Xuân Tây 19</v>
+      </c>
+      <c r="U19" s="26" t="str">
+        <f>"Tiếp địa tại "&amp;F19&amp;D19</f>
+        <v>Tiếp địa tại Tiếp địa trung hạ áp tại TBA Xuân Tây 19Nhánh rẽ Xuân Tây 19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="45">
+      <c r="B20" s="44">
+        <v>44062</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="C18" s="26" t="str">
-        <f t="shared" si="17"/>
-        <v>Nhánh rẽ Thoại Hương 3, 4</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="G18" s="26" t="str">
-        <f>F18&amp;H18</f>
-        <v>Lưới điện trung thế sau Nhánh rẽ Thoại Hương 3, 4</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="I18" s="35">
-        <v>44088</v>
-      </c>
-      <c r="J18" s="6" t="s">
+      <c r="E20" s="45" t="s">
+        <v>210</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="G20" s="24"/>
+      <c r="H20" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="K18" t="s">
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="26">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="M20" s="26" t="str">
+        <f>D20</f>
+        <v>Nhánh rẽ Láng Me 5</v>
+      </c>
+      <c r="N20" s="26" t="str">
+        <f>L20&amp;D20</f>
+        <v>Lưới điện trung thế sau Nhánh rẽ Láng Me 5</v>
+      </c>
+      <c r="O20" s="35">
+        <v>44089</v>
+      </c>
+      <c r="P20" t="s">
         <v>138</v>
       </c>
-      <c r="L18">
-        <f t="shared" si="21"/>
+      <c r="Q20">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="R20" s="26" t="str">
+        <f>L20&amp;D20</f>
+        <v>Lưới điện trung thế sau Nhánh rẽ Láng Me 5</v>
+      </c>
+      <c r="S20" s="26" t="str">
+        <f>H20&amp;LOWER(L20)&amp;D20</f>
+        <v>Nâng cấp đường dây trung thế và trạm biến áp Láng Me 5B từ 1 pha lên 3 pha, di dời TBA Láng Me 5, cấy trạm biến áp lá me 5A-1lưới điện trung thế sau Nhánh rẽ Láng Me 5</v>
+      </c>
+      <c r="T20" s="26" t="str">
+        <f>"Cắt "&amp;C20&amp;M20</f>
+        <v>Cắt 3xFCO Nhánh rẽ Láng Me 5</v>
+      </c>
+      <c r="U20" s="26" t="str">
+        <f>"Tiếp địa tại "&amp;F20&amp;D20</f>
+        <v>Tiếp địa tại Tiếp địa trụ trung thế 131
+ Tiếp địa hạ thế TBA Láng Me 5, 5A, 5BNhánh rẽ Láng Me 5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="30">
+      <c r="B21" s="44">
+        <v>44062</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="E21" s="45" t="s">
+        <v>212</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="26">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="M21" s="26" t="str">
+        <f>D21</f>
+        <v>Nhánh rẽ Sông Nhạn</v>
+      </c>
+      <c r="N21" s="26" t="str">
+        <f>L21&amp;D21</f>
+        <v>Lưới điện trung thế sau Nhánh rẽ Sông Nhạn</v>
+      </c>
+      <c r="O21" s="35">
+        <v>44095</v>
+      </c>
+      <c r="P21" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="M18" s="26" t="str">
-        <f t="shared" si="22"/>
-        <v>Lưới điện trung thế sau Nhánh rẽ Thoại Hương 3, 4</v>
-      </c>
-      <c r="N18" s="26" t="str">
-        <f t="shared" si="23"/>
-        <v>Đấu nối trung thế trụ 021 Nhánh rẽ Thoại Hương 3, 4. Di dời TBA Thoại Hương 4lưới điện trung thế sau Nhánh rẽ Thoại Hương 3, 4</v>
-      </c>
-      <c r="O18" s="26" t="str">
-        <f t="shared" si="12"/>
-        <v>Cắt FCO Nhánh rẽ Thoại Hương 3, 4</v>
-      </c>
-      <c r="P18" s="26" t="str">
-        <f t="shared" si="13"/>
-        <v>Tiếp địa tại Nhánh rẽ Thoại Hương 3, 4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
-      <c r="B19" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="C19" s="26" t="str">
-        <f t="shared" si="17"/>
-        <v>Nhánh rẽ Xuân Tây 19</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="G19" s="26" t="str">
-        <f t="shared" si="14"/>
-        <v>Lưới điện trung thế sau Nhánh rẽ Xuân Tây 19</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="I19" s="35">
-        <v>44086</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="K19" t="s">
+      <c r="R21" s="26" t="str">
+        <f>L21&amp;D21</f>
+        <v>Lưới điện trung thế sau Nhánh rẽ Sông Nhạn</v>
+      </c>
+      <c r="S21" s="26" t="str">
+        <f>H21&amp;LOWER(L21)&amp;D21</f>
+        <v>Di dời TBA Suối Râm 7lưới điện trung thế sau Nhánh rẽ Sông Nhạn</v>
+      </c>
+      <c r="T21" s="26" t="str">
+        <f>"Cắt "&amp;C21&amp;M21</f>
+        <v>Cắt Recloser + 3 LTD Nhánh rẽ Sông Nhạn</v>
+      </c>
+      <c r="U21" s="26" t="str">
+        <f>"Tiếp địa tại "&amp;F21&amp;D21</f>
+        <v>Tiếp địa tại Tiếp địa trụ trung thế 023A Nhánh rẽ Sông Nhạn</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="45">
+      <c r="B22" s="44">
+        <v>44062</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="26">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="M22" s="26" t="str">
+        <f>D22</f>
+        <v>Nhánh rẽ Nam Hà</v>
+      </c>
+      <c r="N22" s="26" t="str">
+        <f>L22&amp;D22</f>
+        <v>Lưới điện trung thế sau Nhánh rẽ Nam Hà</v>
+      </c>
+      <c r="O22" s="35">
+        <v>44096</v>
+      </c>
+      <c r="P22" t="s">
         <v>138</v>
       </c>
-      <c r="L19">
-        <f t="shared" si="21"/>
-        <v>7</v>
-      </c>
-      <c r="M19" s="26" t="str">
-        <f t="shared" si="22"/>
-        <v>Lưới điện trung thế sau Nhánh rẽ Xuân Tây 19</v>
-      </c>
-      <c r="N19" s="26" t="str">
-        <f t="shared" si="23"/>
-        <v>Đấu nối trung thế trụ 017 Nhánh rẽ Xuân Tây 19.Cấy TBA Xuân Tây 19A, tách lưới hạ thế TBA Xuân Tây 19 sang TBA Xuân Tây 19Alưới điện trung thế sau Nhánh rẽ Xuân Tây 19</v>
-      </c>
-      <c r="O19" s="26" t="str">
-        <f t="shared" si="12"/>
-        <v>Cắt FCO Nhánh rẽ Xuân Tây 19</v>
-      </c>
-      <c r="P19" s="26" t="str">
-        <f t="shared" si="13"/>
-        <v>Tiếp địa tại Nhánh rẽ Xuân Tây 19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
-      <c r="B20" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="C20" s="26" t="str">
-        <f t="shared" si="17"/>
-        <v>Nhánh rẽ Láng Me 5</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="G20" s="26" t="str">
-        <f t="shared" si="14"/>
-        <v>Lưới điện trung thế sau Nhánh rẽ Láng Me 5</v>
-      </c>
-      <c r="H20" s="6" t="s">
+      <c r="Q22">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="R22" s="26" t="str">
+        <f>L22&amp;D22</f>
+        <v>Lưới điện trung thế sau Nhánh rẽ Nam Hà</v>
+      </c>
+      <c r="S22" s="26" t="str">
+        <f>H22&amp;LOWER(L22)&amp;D22</f>
+        <v>Lắp đặt trạm biến áp Nam Hà 3B tách lưới hạ thế trạm Nam Hà 3 sang nhận điện trạm Nam Hà 3B đấu nối đường dây trung thế xây dựng mớilưới điện trung thế sau Nhánh rẽ Nam Hà</v>
+      </c>
+      <c r="T22" s="26" t="str">
+        <f>"Cắt "&amp;C22&amp;M22</f>
+        <v>Cắt Recloser + 3 LTD Nhánh rẽ Nam Hà</v>
+      </c>
+      <c r="U22" s="26" t="str">
+        <f>"Tiếp địa tại "&amp;F22&amp;D22</f>
+        <v>Tiếp địa tại Tiếp địa trụ trung thế 351Nhánh rẽ Nam Hà</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="30">
+      <c r="B23" s="44">
+        <v>44061</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="26">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="M23" s="26" t="str">
+        <f>D23</f>
+        <v>Nhánh rẽ Tân Bảo</v>
+      </c>
+      <c r="N23" s="26" t="str">
+        <f>L23&amp;D23</f>
+        <v>Lưới điện trung thế sau Nhánh rẽ Tân Bảo</v>
+      </c>
+      <c r="O23" s="35">
+        <v>44097</v>
+      </c>
+      <c r="P23" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="R23" s="26" t="str">
+        <f>L23&amp;D23</f>
+        <v>Lưới điện trung thế sau Nhánh rẽ Tân Bảo</v>
+      </c>
+      <c r="S23" s="26" t="str">
+        <f>H23&amp;LOWER(L23)&amp;D23</f>
+        <v>Lắp đặt trạm biến áp Tân Bảo 3A, tách lưới hạ thế trạm Tân Bảo 3 sang nhận điện trạm Tân Bảo 3Alưới điện trung thế sau Nhánh rẽ Tân Bảo</v>
+      </c>
+      <c r="T23" s="26" t="str">
+        <f>"Cắt "&amp;C23&amp;M23</f>
+        <v>Cắt Recloser + 3 LTD Nhánh rẽ Tân Bảo</v>
+      </c>
+      <c r="U23" s="26" t="str">
+        <f>"Tiếp địa tại "&amp;F23&amp;D23</f>
+        <v>Tiếp địa tại Tiếp địa trụ trung thế 147Nhánh rẽ Tân Bảo</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="45">
+      <c r="B24" s="44">
+        <v>44062</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="I20" s="35">
-        <v>44089</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="K20" t="s">
-        <v>138</v>
-      </c>
-      <c r="L20">
-        <f t="shared" si="21"/>
-        <v>3</v>
-      </c>
-      <c r="M20" s="26" t="str">
-        <f t="shared" si="22"/>
-        <v>Lưới điện trung thế sau Nhánh rẽ Láng Me 5</v>
-      </c>
-      <c r="N20" s="26" t="str">
-        <f t="shared" si="23"/>
-        <v>Nâng cấp đường dây trung thế và trạm biến áp Láng Me 5B từ 1 pha lên 3 pha, di dời TBA Láng Me 5, cấy trạm biến áp lá me 5A-1lưới điện trung thế sau Nhánh rẽ Láng Me 5</v>
-      </c>
-      <c r="O20" s="26" t="str">
-        <f t="shared" si="12"/>
-        <v>Cắt 3xFCO Nhánh rẽ Láng Me 5</v>
-      </c>
-      <c r="P20" s="26" t="str">
-        <f t="shared" si="13"/>
-        <v>Tiếp địa tại Nhánh rẽ Láng Me 5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
-      <c r="B21" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="C21" s="26" t="str">
-        <f t="shared" si="17"/>
-        <v>Nhánh rẽ Sông Nhạn</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="G21" s="26" t="str">
-        <f t="shared" si="14"/>
-        <v>Lưới điện trung thế sau Nhánh rẽ Sông Nhạn</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="I21" s="35">
-        <v>44095</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="K21" t="s">
-        <v>138</v>
-      </c>
-      <c r="L21">
-        <f t="shared" si="21"/>
-        <v>2</v>
-      </c>
-      <c r="M21" s="26" t="str">
-        <f t="shared" si="22"/>
-        <v>Lưới điện trung thế sau Nhánh rẽ Sông Nhạn</v>
-      </c>
-      <c r="N21" s="26" t="str">
-        <f t="shared" si="23"/>
-        <v>Di dời TBA Suối Râm 7lưới điện trung thế sau Nhánh rẽ Sông Nhạn</v>
-      </c>
-      <c r="O21" s="26" t="str">
-        <f t="shared" si="12"/>
-        <v>Cắt Recloser + 3 LTD Nhánh rẽ Sông Nhạn</v>
-      </c>
-      <c r="P21" s="26" t="str">
-        <f t="shared" si="13"/>
-        <v>Tiếp địa tại Nhánh rẽ Sông Nhạn</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
-      <c r="B22" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="C22" s="26" t="str">
-        <f t="shared" si="17"/>
-        <v>Nhánh rẽ Nam Hà</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="G22" s="26" t="str">
-        <f t="shared" si="14"/>
-        <v>Lưới điện trung thế sau Nhánh rẽ Nam Hà</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="I22" s="35">
-        <v>44096</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="K22" t="s">
-        <v>138</v>
-      </c>
-      <c r="L22">
-        <f t="shared" si="21"/>
-        <v>3</v>
-      </c>
-      <c r="M22" s="26" t="str">
-        <f t="shared" si="22"/>
-        <v>Lưới điện trung thế sau Nhánh rẽ Nam Hà</v>
-      </c>
-      <c r="N22" s="26" t="str">
-        <f t="shared" si="23"/>
-        <v>Lắp đặt trạm biến áp Nam Hà 3B tách lưới hạ thế trạm Nam Hà 3 sang nhận điện trạm Nam Hà 3B đấu nối đường dây trung thế xây dựng mớilưới điện trung thế sau Nhánh rẽ Nam Hà</v>
-      </c>
-      <c r="O22" s="26" t="str">
-        <f t="shared" si="12"/>
-        <v>Cắt Recloser + 3 LTD Nhánh rẽ Nam Hà</v>
-      </c>
-      <c r="P22" s="26" t="str">
-        <f t="shared" si="13"/>
-        <v>Tiếp địa tại Nhánh rẽ Nam Hà</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
-      <c r="B23" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="C23" s="26" t="str">
-        <f t="shared" si="17"/>
-        <v>Nhánh rẽ Tân Bảo</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="G23" s="26" t="str">
-        <f t="shared" si="14"/>
-        <v>Lưới điện trung thế sau Nhánh rẽ Tân Bảo</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="I23" s="35">
-        <v>44097</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="K23" t="s">
-        <v>138</v>
-      </c>
-      <c r="L23">
-        <f t="shared" si="21"/>
-        <v>4</v>
-      </c>
-      <c r="M23" s="26" t="str">
-        <f t="shared" si="22"/>
-        <v>Lưới điện trung thế sau Nhánh rẽ Tân Bảo</v>
-      </c>
-      <c r="N23" s="26" t="str">
-        <f t="shared" si="23"/>
-        <v>Lắp đặt trạm biến áp Tân Bảo 3A, tách lưới hạ thế trạm Tân Bảo 3 sang nhận điện trạm Tân Bảo 3Alưới điện trung thế sau Nhánh rẽ Tân Bảo</v>
-      </c>
-      <c r="O23" s="26" t="str">
-        <f t="shared" si="12"/>
-        <v>Cắt Recloser + 3 LTD Nhánh rẽ Tân Bảo</v>
-      </c>
-      <c r="P23" s="26" t="str">
-        <f t="shared" si="13"/>
-        <v>Tiếp địa tại Nhánh rẽ Tân Bảo</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
-      <c r="B24" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="C24" s="26" t="str">
-        <f t="shared" si="17"/>
-        <v>Nhánh rẽ Nam Hà</v>
+      <c r="E24" s="24" t="s">
+        <v>215</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="G24" s="26" t="str">
-        <f t="shared" si="14"/>
-        <v>Lưới điện trung thế sau Nhánh rẽ Nam Hà</v>
+        <v>216</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>224</v>
       </c>
       <c r="H24" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="I24" s="35">
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="26">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="M24" s="26" t="str">
+        <f>D24</f>
+        <v>Nhánh rẽ Nam Hà</v>
+      </c>
+      <c r="N24" s="26" t="str">
+        <f>L24&amp;D24</f>
+        <v>Lưới điện trung thế sau Nhánh rẽ Nam Hà</v>
+      </c>
+      <c r="O24" s="35">
         <v>44096</v>
       </c>
-      <c r="J24" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="K24" t="s">
+      <c r="P24" t="s">
         <v>138</v>
       </c>
-      <c r="L24">
-        <f t="shared" si="21"/>
+      <c r="Q24">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="M24" s="26" t="str">
-        <f t="shared" si="22"/>
+      <c r="R24" s="26" t="str">
+        <f>L24&amp;D24</f>
         <v>Lưới điện trung thế sau Nhánh rẽ Nam Hà</v>
       </c>
-      <c r="N24" s="26" t="str">
-        <f t="shared" si="23"/>
+      <c r="S24" s="26" t="str">
+        <f>H24&amp;LOWER(L24)&amp;D24</f>
         <v>Di dời TBA Nam Hà 1, trồng trụ đôn lướilưới điện trung thế sau Nhánh rẽ Nam Hà</v>
       </c>
-      <c r="O24" s="26" t="str">
-        <f t="shared" si="12"/>
+      <c r="T24" s="26" t="str">
+        <f>"Cắt "&amp;C24&amp;M24</f>
         <v>Cắt Recloser + 3 LTD Nhánh rẽ Nam Hà</v>
       </c>
-      <c r="P24" s="26" t="str">
-        <f t="shared" si="13"/>
-        <v>Tiếp địa tại Nhánh rẽ Nam Hà</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
-      <c r="B25" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="C25" s="26" t="str">
-        <f t="shared" si="17"/>
+      <c r="U24" s="26" t="str">
+        <f>"Tiếp địa tại "&amp;F24&amp;D24</f>
+        <v>Tiếp địa tại Tiếp địa trụ trung thế 351Nhánh rẽ Nam Hà</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="30">
+      <c r="B25" s="44">
+        <v>44062</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="26">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="M25" s="26" t="str">
+        <f>D25</f>
         <v>Nhánh rẽ Tân Bảo</v>
       </c>
-      <c r="F25" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="G25" s="26" t="str">
-        <f t="shared" si="14"/>
+      <c r="N25" s="26" t="str">
+        <f>L25&amp;D25</f>
         <v>Lưới điện trung thế sau Nhánh rẽ Tân Bảo</v>
       </c>
-      <c r="H25" s="6" t="s">
+      <c r="O25" s="35">
+        <v>44097</v>
+      </c>
+      <c r="P25" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="R25" s="26" t="str">
+        <f>L25&amp;D25</f>
+        <v>Lưới điện trung thế sau Nhánh rẽ Tân Bảo</v>
+      </c>
+      <c r="S25" s="26" t="str">
+        <f>H25&amp;LOWER(L25)&amp;D25</f>
+        <v>Di dời TBA Tân Bảo 3lưới điện trung thế sau Nhánh rẽ Tân Bảo</v>
+      </c>
+      <c r="T25" s="26" t="str">
+        <f>"Cắt "&amp;C25&amp;M25</f>
+        <v>Cắt Recloser + 3 LTD Nhánh rẽ Tân Bảo</v>
+      </c>
+      <c r="U25" s="26" t="str">
+        <f>"Tiếp địa tại "&amp;F25&amp;D25</f>
+        <v>Tiếp địa tại Tiếp địa trụ trung thế 147Nhánh rẽ Tân Bảo</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="30">
+      <c r="B26" s="44">
+        <v>44062</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="I25" s="35">
-        <v>44097</v>
-      </c>
-      <c r="J25" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="K25" t="s">
+      <c r="E26" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="26">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="M26" s="26" t="str">
+        <f>D26</f>
+        <v>Nhánh rẽ Thừa Đức 11</v>
+      </c>
+      <c r="N26" s="26" t="str">
+        <f>L26&amp;D26</f>
+        <v>Lưới điện trung thế sau Nhánh rẽ Thừa Đức 11</v>
+      </c>
+      <c r="O26" s="35">
+        <v>44098</v>
+      </c>
+      <c r="P26" t="s">
         <v>138</v>
       </c>
-      <c r="L25">
-        <f t="shared" si="21"/>
-        <v>4</v>
-      </c>
-      <c r="M25" s="26" t="str">
-        <f t="shared" si="22"/>
-        <v>Lưới điện trung thế sau Nhánh rẽ Tân Bảo</v>
-      </c>
-      <c r="N25" s="26" t="str">
-        <f t="shared" si="23"/>
-        <v>Di dời TBA Tân Bảo 3lưới điện trung thế sau Nhánh rẽ Tân Bảo</v>
-      </c>
-      <c r="O25" s="26" t="str">
-        <f t="shared" si="12"/>
-        <v>Cắt Recloser + 3 LTD Nhánh rẽ Tân Bảo</v>
-      </c>
-      <c r="P25" s="26" t="str">
-        <f t="shared" si="13"/>
-        <v>Tiếp địa tại Nhánh rẽ Tân Bảo</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16">
-      <c r="B26" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="C26" s="26" t="str">
-        <f t="shared" ref="C26:C33" si="24">H26</f>
-        <v>Nhánh rẽ Thừa Đức 11</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="G26" s="26" t="str">
-        <f t="shared" si="14"/>
+      <c r="Q26">
+        <f>WEEKDAY(O26)</f>
+        <v>5</v>
+      </c>
+      <c r="R26" s="26" t="str">
+        <f>L26&amp;D26</f>
         <v>Lưới điện trung thế sau Nhánh rẽ Thừa Đức 11</v>
       </c>
-      <c r="H26" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="I26" s="35">
-        <v>44098</v>
-      </c>
-      <c r="J26" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="K26" t="s">
-        <v>138</v>
-      </c>
-      <c r="L26">
-        <f t="shared" ref="L26:L33" si="25">WEEKDAY(I26)</f>
-        <v>5</v>
-      </c>
-      <c r="M26" s="26" t="str">
-        <f t="shared" ref="M26:M33" si="26">F26&amp;H26</f>
-        <v>Lưới điện trung thế sau Nhánh rẽ Thừa Đức 11</v>
-      </c>
-      <c r="N26" s="26" t="str">
-        <f t="shared" ref="N26:N33" si="27">J26&amp;LOWER(F26)&amp;H26</f>
+      <c r="S26" s="26" t="str">
+        <f>H26&amp;LOWER(L26)&amp;D26</f>
         <v>Lắp đặt trạm biến áp Thừa Đức 11A, đấu nối trung thế nhánh rẽ Thừa Đức 11A, tách lưới hạ thế trạm Thừa Đức 11 sang nhận điện trạm Thừa Đức 11Alưới điện trung thế sau Nhánh rẽ Thừa Đức 11</v>
       </c>
-      <c r="O26" s="26" t="str">
-        <f t="shared" ref="O26:O33" si="28">"Cắt "&amp;B26&amp;C26</f>
+      <c r="T26" s="26" t="str">
+        <f>"Cắt "&amp;C26&amp;M26</f>
         <v>Cắt FCO Nhánh rẽ Thừa Đức 11</v>
       </c>
-      <c r="P26" s="26" t="str">
-        <f t="shared" ref="P26:P33" si="29">"Tiếp địa tại "&amp;E26&amp;H26</f>
+      <c r="U26" s="26" t="str">
+        <f>"Tiếp địa tại "&amp;F26&amp;D26</f>
         <v>Tiếp địa tại Nhánh rẽ Thừa Đức 11</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
-      <c r="C27" s="26">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="G27" s="26" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="K27" t="s">
-        <v>138</v>
-      </c>
-      <c r="L27">
-        <f t="shared" si="25"/>
-        <v>7</v>
-      </c>
-      <c r="M27" s="26" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="N27" s="26" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="O27" s="26" t="str">
-        <f t="shared" si="28"/>
-        <v>Cắt 0</v>
-      </c>
-      <c r="P27" s="26" t="str">
-        <f t="shared" si="29"/>
-        <v xml:space="preserve">Tiếp địa tại </v>
-      </c>
-    </row>
-    <row r="28" spans="1:16">
-      <c r="C28" s="26">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="G28" s="26" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="K28" t="s">
-        <v>138</v>
-      </c>
-      <c r="L28">
-        <f t="shared" si="25"/>
-        <v>7</v>
-      </c>
-      <c r="M28" s="26" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="N28" s="26" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="O28" s="26" t="str">
-        <f t="shared" si="28"/>
-        <v>Cắt 0</v>
-      </c>
-      <c r="P28" s="26" t="str">
-        <f t="shared" si="29"/>
-        <v xml:space="preserve">Tiếp địa tại </v>
-      </c>
-    </row>
-    <row r="29" spans="1:16">
-      <c r="C29" s="26">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="G29" s="26" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="K29" t="s">
-        <v>138</v>
-      </c>
-      <c r="L29">
-        <f t="shared" si="25"/>
-        <v>7</v>
-      </c>
-      <c r="M29" s="26" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="N29" s="26" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="O29" s="26" t="str">
-        <f t="shared" si="28"/>
-        <v>Cắt 0</v>
-      </c>
-      <c r="P29" s="26" t="str">
-        <f t="shared" si="29"/>
-        <v xml:space="preserve">Tiếp địa tại </v>
-      </c>
-    </row>
-    <row r="30" spans="1:16">
-      <c r="C30" s="26">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="G30" s="26" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="K30" t="s">
-        <v>138</v>
-      </c>
-      <c r="L30">
-        <f t="shared" si="25"/>
-        <v>7</v>
-      </c>
-      <c r="M30" s="26" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="N30" s="26" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="O30" s="26" t="str">
-        <f t="shared" si="28"/>
-        <v>Cắt 0</v>
-      </c>
-      <c r="P30" s="26" t="str">
-        <f t="shared" si="29"/>
-        <v xml:space="preserve">Tiếp địa tại </v>
-      </c>
-    </row>
-    <row r="31" spans="1:16">
-      <c r="C31" s="26">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="G31" s="26" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="K31" t="s">
-        <v>138</v>
-      </c>
-      <c r="L31">
-        <f t="shared" si="25"/>
-        <v>7</v>
-      </c>
-      <c r="M31" s="26" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="N31" s="26" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="O31" s="26" t="str">
-        <f t="shared" si="28"/>
-        <v>Cắt 0</v>
-      </c>
-      <c r="P31" s="26" t="str">
-        <f t="shared" si="29"/>
-        <v xml:space="preserve">Tiếp địa tại </v>
-      </c>
-    </row>
-    <row r="32" spans="1:16">
-      <c r="C32" s="26">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="G32" s="26" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="K32" t="s">
-        <v>138</v>
-      </c>
-      <c r="L32">
-        <f t="shared" si="25"/>
-        <v>7</v>
-      </c>
-      <c r="M32" s="26" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="N32" s="26" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="O32" s="26" t="str">
-        <f t="shared" si="28"/>
-        <v>Cắt 0</v>
-      </c>
-      <c r="P32" s="26" t="str">
-        <f t="shared" si="29"/>
-        <v xml:space="preserve">Tiếp địa tại </v>
-      </c>
-    </row>
-    <row r="33" spans="3:16">
-      <c r="C33" s="26">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="G33" s="26" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="K33" t="s">
-        <v>138</v>
-      </c>
-      <c r="L33">
-        <f t="shared" si="25"/>
-        <v>7</v>
-      </c>
-      <c r="M33" s="26" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="N33" s="26" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="O33" s="26" t="str">
-        <f t="shared" si="28"/>
-        <v>Cắt 0</v>
-      </c>
-      <c r="P33" s="26" t="str">
-        <f t="shared" si="29"/>
-        <v xml:space="preserve">Tiếp địa tại </v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:P33"/>
-  <conditionalFormatting sqref="L1:M1 L13 L15:L22 L26:L33 L8:L11">
+  <autoFilter ref="A1:U26"/>
+  <conditionalFormatting sqref="Q1:R1 Q13 Q15:Q22 Q26 Q8:Q11">
     <cfRule type="cellIs" dxfId="13" priority="14" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L12">
+  <conditionalFormatting sqref="Q12">
     <cfRule type="cellIs" dxfId="12" priority="13" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L14">
+  <conditionalFormatting sqref="Q14">
     <cfRule type="cellIs" dxfId="11" priority="12" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I26:I1048576 I1 I8:I22">
+  <conditionalFormatting sqref="O26:O1048576 O1 O8:O22">
     <cfRule type="duplicateValues" dxfId="10" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L23">
+  <conditionalFormatting sqref="Q23">
     <cfRule type="cellIs" dxfId="9" priority="10" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I23">
+  <conditionalFormatting sqref="O23">
     <cfRule type="duplicateValues" dxfId="8" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L24">
+  <conditionalFormatting sqref="Q24">
     <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I24">
+  <conditionalFormatting sqref="O24">
     <cfRule type="duplicateValues" dxfId="6" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L25">
+  <conditionalFormatting sqref="Q25">
     <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I25">
+  <conditionalFormatting sqref="O25">
     <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L6">
+  <conditionalFormatting sqref="Q2:Q6">
     <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L7">
+  <conditionalFormatting sqref="Q7">
     <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I6">
+  <conditionalFormatting sqref="O2:O6">
     <cfRule type="duplicateValues" dxfId="1" priority="17"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7">
+  <conditionalFormatting sqref="O7">
     <cfRule type="duplicateValues" dxfId="0" priority="18"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/TrungThau/20191261297-DLCM-CaiTaoLuoiDien--/PhuongAnThiCong-Ngay.xlsx
+++ b/TrungThau/20191261297-DLCM-CaiTaoLuoiDien--/PhuongAnThiCong-Ngay.xlsx
@@ -1,28 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ThucTran\HSTT\TrungThau\20191261297-DLCM-CaiTaoLuoiDien--\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B77D5E29-482C-42E6-A1D3-6DA9372A69E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" activeTab="4"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
     <sheet name="Merge" sheetId="3" r:id="rId2"/>
     <sheet name="DS_CongNhan" sheetId="7" r:id="rId3"/>
     <sheet name="NhanSu" sheetId="8" r:id="rId4"/>
-    <sheet name="DangKyCatDien" sheetId="10" r:id="rId5"/>
+    <sheet name="KhaoSatHienTruong" sheetId="10" r:id="rId5"/>
+    <sheet name="Merge-PATC" sheetId="11" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">DangKyCatDien!$A$1:$U$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">DS_CongNhan!$C$1:$L$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">KhaoSatHienTruong!$A$1:$U$21</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">NhanSu!$C$1:$Q$55</definedName>
+    <definedName name="DangKyCatDien">KhaoSatHienTruong!$A:$W</definedName>
     <definedName name="data">Data!$A:$Z</definedName>
     <definedName name="HoaDon">#REF!</definedName>
     <definedName name="NhanSu">NhanSu!$D:$I</definedName>
     <definedName name="tab">REPT(" ",10)</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,14 +45,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -59,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="245">
   <si>
     <t>STT</t>
   </si>
@@ -476,9 +484,6 @@
     <t>CHTT</t>
   </si>
   <si>
-    <t>HẠNG MỤC</t>
-  </si>
-  <si>
     <t>KHU VỰC</t>
   </si>
   <si>
@@ -488,9 +493,6 @@
     <t>THỜI GIAN DỰ KIẾN CẮT ĐIỆN</t>
   </si>
   <si>
-    <t>NỘI DUNG CÔNG TÁC</t>
-  </si>
-  <si>
     <t>ĐƠN VỊ CÔNG TÁC</t>
   </si>
   <si>
@@ -515,9 +517,6 @@
     <t>Cải tạo lưới điện trung hạ thế huyện Cẩm Mỹ năm 2020</t>
   </si>
   <si>
-    <t xml:space="preserve">Thay dây hạ thế </t>
-  </si>
-  <si>
     <t>Thay dây hạ thế TBA Nam Hà 1</t>
   </si>
   <si>
@@ -548,12 +547,6 @@
     <t>TBA Sông Ray 8A</t>
   </si>
   <si>
-    <t xml:space="preserve">Lưới điện hạ thế sau </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lưới điện trung thế sau </t>
-  </si>
-  <si>
     <t>Nhánh rẽ Đồng Tâm 1</t>
   </si>
   <si>
@@ -633,12 +626,6 @@
   </si>
   <si>
     <t>Di dời TBA Tân Bảo 3</t>
-  </si>
-  <si>
-    <t>Nhánh rẽ Thừa Đức 11</t>
-  </si>
-  <si>
-    <t>Lắp đặt trạm biến áp Thừa Đức 11A, đấu nối trung thế nhánh rẽ Thừa Đức 11A, tách lưới hạ thế trạm Thừa Đức 11 sang nhận điện trạm Thừa Đức 11A</t>
   </si>
   <si>
     <t>Đinh Minh Trí</t>
@@ -663,19 +650,6 @@
   <si>
     <t>Cắt FCO + MCCB TBA Nam Hà 3
 Tiếp địa hạ thế tại MCCB TBA Nam Hà 3</t>
-  </si>
-  <si>
-    <t>NgàyKS</t>
-  </si>
-  <si>
-    <t>Cắt FCO + MCCB TBA TBA Xuân Tây 10A
-Tiếp địa hạ thế tại MCCB TBA TBA Xuân Tây 10A</t>
-  </si>
-  <si>
-    <t>Tiếp địa hạ thế tại MCCB TBA TBA Sông Ray 8A</t>
-  </si>
-  <si>
-    <t>Cắt FCO + MCCB TBA TBA TBA Sông Ray 8A</t>
   </si>
   <si>
     <t>Tiếp địa trụ trung thế 381 
@@ -742,9 +716,6 @@
     <t xml:space="preserve">Tiếp địa trụ trung thế 023A </t>
   </si>
   <si>
-    <t>Phạm vi làm việc</t>
-  </si>
-  <si>
     <t>Cắt Recloser + 3 LTD Nhánh rẽ Nam Hà
 Cắt 3 LTD Xuân Bảo - Nam Hà
 Tiếp địa trụ trung thế 326</t>
@@ -781,23 +752,110 @@
     <t>Tại trụ trung thế TBA Tân Bảo 3 và trụ trung thế 131 nhánh rẽ Xuân Bảo - Bảo Bình</t>
   </si>
   <si>
-    <t>Cắt FCO Nhánh rẽ Thừa Đức 11
-Tiếp địa trung hạ thế tại TBA Thừa Đức 11</t>
-  </si>
-  <si>
-    <t>Tại trụ trung thế 010, 032 và lưới điện hạ thế thuộc TBA Thừa Đức 11</t>
+    <t> Lưới hạ thế thuộc trạm Nam Hà 1</t>
+  </si>
+  <si>
+    <t>Lưới điện hạ thế thuộc trạm Nam Hà 1A</t>
+  </si>
+  <si>
+    <t>Lưới điện hạ thế thuộc trạm Nam Hà 3</t>
+  </si>
+  <si>
+    <t>Đường dây hạ thế thuộc trạm biến áp Xuân Tây 10A</t>
+  </si>
+  <si>
+    <t>Đường dây hạ thế thuộc Trạm Sông Ray 8A</t>
+  </si>
+  <si>
+    <t>Tại trạm biến áp Sông Ray 7</t>
+  </si>
+  <si>
+    <t>Nhánh rẽ Lâm San 10 11 12 tiếng 471 Xuân Mỹ</t>
+  </si>
+  <si>
+    <t>Từ khoản trụ 015, 016, 072 nhánh Lâm San tuyến 471 Xuân Mỹ</t>
+  </si>
+  <si>
+    <t>Từ sau 3xFCO nhánh Cánh Đồng Xuân Tây 1</t>
+  </si>
+  <si>
+    <t>Tại trụ 087 nhánh Láng Me tuyến 471 Xuân Mỹ</t>
+  </si>
+  <si>
+    <t>Tại trụ trạm biến áp Thoại Hương 4 tuyến 471 Xuân Mỹ</t>
+  </si>
+  <si>
+    <t>Nhấn vẽ Xuân Tây 19 tuyến 471 Xuân Mỹ</t>
+  </si>
+  <si>
+    <t>Từ sau 3 FCO nhánh Láng Me 5 tuyến 471 Xuân Mỹ</t>
+  </si>
+  <si>
+    <t>Tại trụ trạm suối râm 7 và trụ trung thế 023/007</t>
+  </si>
+  <si>
+    <t>NgayKhaoSat</t>
+  </si>
+  <si>
+    <t>Thay dây hạ thế  sau TBA Nam Hà 1</t>
+  </si>
+  <si>
+    <t>Thay dây hạ thế  sau TBA Nam Hà 1A</t>
+  </si>
+  <si>
+    <t>Thay dây hạ thế  sau TBA Nam Hà 3</t>
+  </si>
+  <si>
+    <t>Thay dây hạ thế  sau TBA Xuân Tây 10A</t>
+  </si>
+  <si>
+    <t>Thay dây hạ thế  sau TBA Sông Ray 8A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Từ 07 giờ 30 phút – 15 giờ 00 phút. </t>
+  </si>
+  <si>
+    <t>PhamViLamViec</t>
+  </si>
+  <si>
+    <t>BienPhapKyThuat</t>
+  </si>
+  <si>
+    <t>TBA Sông Ray 7</t>
+  </si>
+  <si>
+    <t>Tiếp địa hạ thế tại MCCB TBA Sông Ray 7</t>
+  </si>
+  <si>
+    <t>Cắt FCO + MCCB TBA Sông Ray 7</t>
+  </si>
+  <si>
+    <t>Lưới điện hạ thế thuộc trạm Sông Ray 7</t>
+  </si>
+  <si>
+    <t>Nâng cấp đường dây hạ thế sau TBA Sông Ray 7</t>
+  </si>
+  <si>
+    <t>Cắt FCO + MCCB TBA Sông Ray 8A</t>
+  </si>
+  <si>
+    <t>Tiếp địa hạ thế tại MCCB TBA Sông Ray 8A</t>
+  </si>
+  <si>
+    <t>Cắt FCO + MCCB TBA Xuân Tây 10A
+Tiếp địa hạ thế tại MCCB TBA Xuân Tây 10A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="00"/>
     <numFmt numFmtId="165" formatCode="dd/mm"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -934,6 +992,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1040,7 +1105,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1157,73 +1222,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="23">
-    <cellStyle name="Comma 2" xfId="1"/>
-    <cellStyle name="Comma 2 2" xfId="20"/>
-    <cellStyle name="Comma 3" xfId="19"/>
-    <cellStyle name="Comma 4" xfId="21"/>
-    <cellStyle name="DUNG" xfId="2"/>
-    <cellStyle name="LIEM" xfId="3"/>
+    <cellStyle name="Comma 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Comma 2 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Comma 3" xfId="19" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Comma 4" xfId="21" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="DUNG" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="LIEM" xfId="3" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="4"/>
-    <cellStyle name="Normal 2 2" xfId="5"/>
-    <cellStyle name="Normal 2 3" xfId="6"/>
-    <cellStyle name="Normal 3" xfId="7"/>
-    <cellStyle name="Normal 3 2" xfId="22"/>
-    <cellStyle name="Normal 4" xfId="8"/>
-    <cellStyle name="Normal 4 2" xfId="9"/>
-    <cellStyle name="Normal 4 3" xfId="10"/>
-    <cellStyle name="Normal 5" xfId="11"/>
-    <cellStyle name="Normal 6" xfId="12"/>
-    <cellStyle name="Normal 6 2" xfId="13"/>
-    <cellStyle name="Normal 7" xfId="14"/>
-    <cellStyle name="Normal 9" xfId="15"/>
-    <cellStyle name="Percent 2" xfId="16"/>
-    <cellStyle name="Style 1" xfId="17"/>
-    <cellStyle name="THUC" xfId="18"/>
+    <cellStyle name="Normal 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Normal 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Normal 2 3" xfId="6" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Normal 3" xfId="7" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Normal 3 2" xfId="22" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Normal 4" xfId="8" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Normal 4 2" xfId="9" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Normal 4 3" xfId="10" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Normal 5" xfId="11" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Normal 6" xfId="12" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Normal 6 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Normal 7" xfId="14" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Normal 9" xfId="15" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Percent 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Style 1" xfId="17" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="THUC" xfId="18" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
   </cellStyles>
-  <dxfs count="21">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="17">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1455,7 +1492,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1488,9 +1525,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1523,6 +1577,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1698,38 +1769,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y9"/>
   <sheetViews>
     <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="24.95" customHeight="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="4.88671875" defaultRowHeight="24.9" customHeight="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="7" customWidth="1"/>
-    <col min="2" max="2" width="98.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.5703125" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="26" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" customWidth="1"/>
-    <col min="7" max="7" width="25.5703125" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="98.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5546875" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" style="26" customWidth="1"/>
+    <col min="6" max="6" width="22.44140625" customWidth="1"/>
+    <col min="7" max="7" width="25.5546875" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" customWidth="1"/>
+    <col min="10" max="10" width="15.44140625" customWidth="1"/>
     <col min="11" max="11" width="20" customWidth="1"/>
     <col min="12" max="12" width="23" customWidth="1"/>
-    <col min="13" max="13" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" customWidth="1"/>
+    <col min="13" max="13" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" customWidth="1"/>
     <col min="15" max="15" width="22" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25.28515625" customWidth="1"/>
-    <col min="17" max="17" width="26.7109375" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="21" width="8.7109375" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="32" width="8.7109375" customWidth="1"/>
+    <col min="16" max="16" width="25.33203125" customWidth="1"/>
+    <col min="17" max="17" width="26.6640625" customWidth="1"/>
+    <col min="18" max="18" width="14.5546875" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="21" width="8.6640625" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="32" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="9" customFormat="1" ht="24.95" customHeight="1">
+    <row r="1" spans="1:25" s="9" customFormat="1" ht="24.9" customHeight="1">
       <c r="A1" s="8">
         <f>ROW()</f>
         <v>1</v>
@@ -1807,11 +1878,11 @@
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="9" customFormat="1" ht="24.95" customHeight="1">
+    <row r="2" spans="1:25" s="9" customFormat="1" ht="24.9" customHeight="1">
       <c r="A2" s="8"/>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:25" ht="24.95" customHeight="1">
+    <row r="3" spans="1:25" ht="24.9" customHeight="1">
       <c r="A3" s="7">
         <f>ROW()</f>
         <v>3</v>
@@ -1840,13 +1911,13 @@
       <c r="O3" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="P3" s="25" t="e">
-        <f t="array" aca="1" ref="P3" ca="1">"Đơn vị công tác 1: Thực hiện công tác theo PCT/LCT............. Nội dung công việc: thực hiện trong phạm vi "&amp;_xlfn.TEXTJOIN(CHAR(10),TRUE,R3:U3)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="Q3" s="25" t="e">
-        <f t="array" aca="1" ref="Q3" ca="1">_xlfn.TEXTJOIN(CHAR(10),TRUE,V3:X3)</f>
-        <v>#NAME?</v>
+      <c r="P3" s="25" t="str">
+        <f t="array" ref="P3">"Đơn vị công tác 1: Thực hiện công tác theo PCT/LCT............. Nội dung công việc: thực hiện trong phạm vi "&amp;_xlfn.TEXTJOIN(CHAR(10),TRUE,R3:U3)</f>
+        <v xml:space="preserve">Đơn vị công tác 1: Thực hiện công tác theo PCT/LCT............. Nội dung công việc: thực hiện trong phạm vi từ trụ 03/01 đến trụ 03/11 </v>
+      </c>
+      <c r="Q3" s="25" t="str">
+        <f t="array" ref="Q3">_xlfn.TEXTJOIN(CHAR(10),TRUE,V3:X3)</f>
+        <v>Không</v>
       </c>
       <c r="R3" s="6" t="s">
         <v>99</v>
@@ -1859,7 +1930,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="24.95" customHeight="1">
+    <row r="4" spans="1:25" ht="24.9" customHeight="1">
       <c r="A4" s="7">
         <f>ROW()</f>
         <v>4</v>
@@ -1890,7 +1961,7 @@
         <v>87</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="K4" s="24" t="s">
         <v>107</v>
@@ -1907,13 +1978,13 @@
       <c r="O4" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="P4" s="25" t="e">
-        <f t="array" aca="1" ref="P4" ca="1">"Đơn vị công tác 1: Thực hiện công tác theo PCT/LCT............. Nội dung công việc: thực hiện trong phạm vi "&amp;_xlfn.TEXTJOIN(CHAR(10),TRUE,R4:U4)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="Q4" s="25" t="e">
-        <f t="array" aca="1" ref="Q4" ca="1">_xlfn.TEXTJOIN(CHAR(10),TRUE,V4:X4)</f>
-        <v>#NAME?</v>
+      <c r="P4" s="25" t="str">
+        <f t="array" ref="P4">"Đơn vị công tác 1: Thực hiện công tác theo PCT/LCT............. Nội dung công việc: thực hiện trong phạm vi "&amp;_xlfn.TEXTJOIN(CHAR(10),TRUE,R4:U4)</f>
+        <v xml:space="preserve">Đơn vị công tác 1: Thực hiện công tác theo PCT/LCT............. Nội dung công việc: thực hiện trong phạm vi từ trụ 03/01 đến trụ 03/11 </v>
+      </c>
+      <c r="Q4" s="25" t="str">
+        <f t="array" ref="Q4">_xlfn.TEXTJOIN(CHAR(10),TRUE,V4:X4)</f>
+        <v>Không</v>
       </c>
       <c r="R4" s="6" t="s">
         <v>99</v>
@@ -1974,13 +2045,15 @@
       <c r="O5" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="P5" s="26" t="e">
-        <f t="array" aca="1" ref="P5" ca="1">_xlfn.TEXTJOIN(CHAR(10),TRUE,R5:U5)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="Q5" s="25" t="e">
-        <f t="array" aca="1" ref="Q5" ca="1">_xlfn.TEXTJOIN(CHAR(10),TRUE,V5:X5)</f>
-        <v>#NAME?</v>
+      <c r="P5" s="26" t="str">
+        <f t="array" ref="P5">_xlfn.TEXTJOIN(CHAR(10),TRUE,R5:U5)</f>
+        <v>từ trụ 001A đến trụ 012 lưới hạ thế trạm Xuân Bắc 6A, 6C thuộc nhánh rẽ Thọ Vực
+từ trụ 001A đến trụ 054 thuộc nhánh rẽ Thọ Vực
+từ trụ 054 đến trụ 055 và trụ 054/001 thuộc nhánh rẽ Thọ Vực</v>
+      </c>
+      <c r="Q5" s="25" t="str">
+        <f t="array" ref="Q5">_xlfn.TEXTJOIN(CHAR(10),TRUE,V5:X5)</f>
+        <v>Không</v>
       </c>
       <c r="R5" s="6" t="s">
         <v>115</v>
@@ -1999,16 +2072,16 @@
         <v>127</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="24.95" customHeight="1">
+    <row r="6" spans="1:25" ht="24.9" customHeight="1">
       <c r="A6" s="7">
         <f>ROW()</f>
         <v>6</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D6" s="23">
         <v>44079</v>
@@ -2018,19 +2091,19 @@
         <v>44079</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" ht="24.95" customHeight="1">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="24.9" customHeight="1">
       <c r="A7" s="7">
         <f>ROW()</f>
         <v>7</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" t="s">
         <v>142</v>
-      </c>
-      <c r="C7" t="s">
-        <v>145</v>
       </c>
       <c r="D7" s="23">
         <v>44080</v>
@@ -2040,16 +2113,16 @@
         <v>44080</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="24.95" customHeight="1">
+    <row r="8" spans="1:25" ht="24.9" customHeight="1">
       <c r="A8" s="7">
         <f>ROW()</f>
         <v>8</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D8" s="23">
         <v>44081</v>
@@ -2059,16 +2132,16 @@
         <v>44081</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="24.95" customHeight="1">
+    <row r="9" spans="1:25" ht="24.9" customHeight="1">
       <c r="A9" s="7">
         <f>ROW()</f>
         <v>9</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C9" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D9" s="23">
         <v>44083</v>
@@ -2086,34 +2159,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="3"/>
-    <col min="2" max="2" width="26.28515625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="3"/>
+    <col min="2" max="2" width="26.33203125" style="3" customWidth="1"/>
     <col min="3" max="3" width="11" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="34.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="36.140625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="29.140625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.28515625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="16.7109375" style="3" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" style="3" customWidth="1"/>
-    <col min="14" max="14" width="8.85546875" style="3"/>
-    <col min="15" max="15" width="13.7109375" style="3" customWidth="1"/>
-    <col min="16" max="16384" width="8.85546875" style="3"/>
+    <col min="4" max="4" width="19.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="34.44140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="36.109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="29.109375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.33203125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="16.6640625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="20.6640625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="8.88671875" style="3"/>
+    <col min="15" max="15" width="13.6640625" style="3" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" ht="34.15" customHeight="1">
+    <row r="1" spans="1:25" s="1" customFormat="1" ht="34.200000000000003" customHeight="1">
       <c r="A1" s="1">
         <f>ROW()</f>
         <v>1</v>
@@ -2211,7 +2284,7 @@
         <v>BanGiao3</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="1" customFormat="1" ht="34.15" customHeight="1">
+    <row r="2" spans="1:25" s="1" customFormat="1" ht="34.200000000000003" customHeight="1">
       <c r="B2" s="1" t="s">
         <v>111</v>
       </c>
@@ -2347,13 +2420,13 @@
         <f t="shared" si="1"/>
         <v>Trực tiếp</v>
       </c>
-      <c r="P3" s="27" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="Q3" s="27" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
+      <c r="P3" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Đơn vị công tác 1: Thực hiện công tác theo PCT/LCT............. Nội dung công việc: thực hiện trong phạm vi từ trụ 03/01 đến trụ 03/11 </v>
+      </c>
+      <c r="Q3" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>Không</v>
       </c>
       <c r="R3" s="27" t="str">
         <f t="shared" si="1"/>
@@ -2450,13 +2523,13 @@
         <f t="shared" si="1"/>
         <v>Trực tiếp</v>
       </c>
-      <c r="P4" s="27" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="Q4" s="27" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
+      <c r="P4" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Đơn vị công tác 1: Thực hiện công tác theo PCT/LCT............. Nội dung công việc: thực hiện trong phạm vi từ trụ 03/01 đến trụ 03/11 </v>
+      </c>
+      <c r="Q4" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>Không</v>
       </c>
       <c r="R4" s="27" t="str">
         <f t="shared" si="1"/>
@@ -2520,28 +2593,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:N27"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="14"/>
-    <col min="3" max="3" width="6.28515625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" style="33" customWidth="1"/>
+    <col min="1" max="2" width="9.109375" style="14"/>
+    <col min="3" max="3" width="6.33203125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="26.88671875" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" style="33" customWidth="1"/>
     <col min="6" max="7" width="18" style="22" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="11.140625" style="14" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="11.109375" style="14" customWidth="1" outlineLevel="1"/>
     <col min="9" max="9" width="19" style="14" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" style="14" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="14"/>
-    <col min="12" max="12" width="26.28515625" style="14" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" style="14" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="14"/>
+    <col min="10" max="10" width="11.109375" style="14" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="14"/>
+    <col min="12" max="12" width="26.33203125" style="14" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" style="14" customWidth="1"/>
+    <col min="14" max="14" width="10.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.109375" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" s="10" customFormat="1" ht="33" customHeight="1">
@@ -2861,7 +2934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:14" ht="16.5">
+    <row r="11" spans="2:14" ht="16.8">
       <c r="B11" s="13"/>
       <c r="C11" s="12">
         <f t="shared" si="2"/>
@@ -3418,26 +3491,26 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:L26"/>
+  <autoFilter ref="C1:L26" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="C1:Q55"/>
   <sheetViews>
     <sheetView showZeros="0" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="5" max="5" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" customWidth="1"/>
+    <col min="8" max="8" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.88671875" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3492,7 +3565,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="3:17" ht="16.5">
+    <row r="2" spans="3:17" ht="16.8">
       <c r="C2" t="s">
         <v>66</v>
       </c>
@@ -3517,7 +3590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="3:17" ht="16.5">
+    <row r="3" spans="3:17" ht="16.8">
       <c r="C3" t="s">
         <v>66</v>
       </c>
@@ -3526,7 +3599,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F3" s="17"/>
       <c r="G3" s="17"/>
@@ -3542,7 +3615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="3:17" ht="16.5">
+    <row r="4" spans="3:17" ht="16.8">
       <c r="C4" t="s">
         <v>66</v>
       </c>
@@ -3577,7 +3650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="3:17" ht="16.5">
+    <row r="5" spans="3:17" ht="16.8">
       <c r="C5" t="s">
         <v>66</v>
       </c>
@@ -3609,7 +3682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="3:17" ht="16.5">
+    <row r="6" spans="3:17" ht="16.8">
       <c r="C6" t="s">
         <v>66</v>
       </c>
@@ -3641,7 +3714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="3:17" ht="16.5">
+    <row r="7" spans="3:17" ht="16.8">
       <c r="C7" t="s">
         <v>66</v>
       </c>
@@ -3676,7 +3749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="3:17" ht="16.5">
+    <row r="8" spans="3:17" ht="16.8">
       <c r="C8" t="s">
         <v>66</v>
       </c>
@@ -3711,7 +3784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="3:17" ht="16.5">
+    <row r="9" spans="3:17" ht="16.8">
       <c r="C9" t="s">
         <v>66</v>
       </c>
@@ -3746,7 +3819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="3:17" ht="16.5">
+    <row r="10" spans="3:17" ht="16.8">
       <c r="C10" t="s">
         <v>66</v>
       </c>
@@ -3781,7 +3854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="3:17" ht="16.5">
+    <row r="11" spans="3:17" ht="16.8">
       <c r="C11" t="s">
         <v>66</v>
       </c>
@@ -3816,7 +3889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="3:17" ht="16.5">
+    <row r="12" spans="3:17" ht="16.8">
       <c r="C12" t="s">
         <v>66</v>
       </c>
@@ -3848,7 +3921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="3:17" ht="16.5">
+    <row r="13" spans="3:17" ht="16.8">
       <c r="C13" t="s">
         <v>66</v>
       </c>
@@ -3883,7 +3956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="3:17" ht="16.5">
+    <row r="14" spans="3:17" ht="16.8">
       <c r="C14" t="s">
         <v>66</v>
       </c>
@@ -3918,7 +3991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="3:17" ht="16.5">
+    <row r="15" spans="3:17" ht="16.8">
       <c r="C15" t="s">
         <v>66</v>
       </c>
@@ -3953,7 +4026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="3:17" ht="16.5">
+    <row r="16" spans="3:17" ht="16.8">
       <c r="C16" t="s">
         <v>66</v>
       </c>
@@ -3985,7 +4058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="3:13" ht="16.5">
+    <row r="17" spans="3:13" ht="16.8">
       <c r="C17" t="s">
         <v>66</v>
       </c>
@@ -4017,7 +4090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="3:13" ht="16.5">
+    <row r="18" spans="3:13" ht="16.8">
       <c r="C18" t="s">
         <v>66</v>
       </c>
@@ -4049,7 +4122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="3:13" ht="16.5">
+    <row r="19" spans="3:13" ht="16.8">
       <c r="C19" t="s">
         <v>66</v>
       </c>
@@ -4084,7 +4157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="3:13" ht="16.5">
+    <row r="20" spans="3:13" ht="16.8">
       <c r="C20" t="s">
         <v>66</v>
       </c>
@@ -4119,7 +4192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="3:13" ht="16.5">
+    <row r="21" spans="3:13" ht="16.8">
       <c r="C21" t="s">
         <v>66</v>
       </c>
@@ -4154,7 +4227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="3:13" ht="16.5">
+    <row r="22" spans="3:13" ht="16.8">
       <c r="C22" t="s">
         <v>66</v>
       </c>
@@ -4189,7 +4262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="3:13" ht="16.5">
+    <row r="23" spans="3:13" ht="16.8">
       <c r="C23" t="s">
         <v>66</v>
       </c>
@@ -4224,7 +4297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="3:13" ht="16.5">
+    <row r="24" spans="3:13" ht="16.8">
       <c r="D24" s="15">
         <f>SUM($J$2:J24)</f>
         <v>16</v>
@@ -4247,7 +4320,7 @@
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
     </row>
-    <row r="25" spans="3:13" ht="16.5">
+    <row r="25" spans="3:13" ht="16.8">
       <c r="D25" s="15">
         <f>SUM($J$2:J25)</f>
         <v>16</v>
@@ -4268,7 +4341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="3:13" ht="16.5">
+    <row r="26" spans="3:13" ht="16.8">
       <c r="D26" s="15">
         <f>SUM($J$2:J26)</f>
         <v>16</v>
@@ -4294,7 +4367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="3:13" ht="16.5">
+    <row r="27" spans="3:13" ht="16.8">
       <c r="D27" s="15">
         <f>SUM($J$2:J27)</f>
         <v>16</v>
@@ -4320,7 +4393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="3:13" ht="16.5">
+    <row r="28" spans="3:13" ht="16.8">
       <c r="D28" s="15">
         <f>SUM($J$2:J28)</f>
         <v>16</v>
@@ -4341,7 +4414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="3:13" ht="16.5">
+    <row r="29" spans="3:13" ht="16.8">
       <c r="D29" s="15">
         <f>SUM($J$2:J29)</f>
         <v>16</v>
@@ -4360,7 +4433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="3:13" ht="16.5">
+    <row r="30" spans="3:13" ht="16.8">
       <c r="D30" s="15">
         <f>SUM($J$2:J30)</f>
         <v>16</v>
@@ -4381,7 +4454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="3:13" ht="16.5">
+    <row r="31" spans="3:13" ht="16.8">
       <c r="D31" s="15">
         <f>SUM($J$2:J31)</f>
         <v>16</v>
@@ -4402,7 +4475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="3:13" ht="16.5">
+    <row r="32" spans="3:13" ht="16.8">
       <c r="D32" s="15">
         <f>SUM($J$2:J32)</f>
         <v>16</v>
@@ -4423,7 +4496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="4:12" ht="16.5">
+    <row r="33" spans="4:12" ht="16.8">
       <c r="D33" s="15">
         <f>SUM($J$2:J33)</f>
         <v>16</v>
@@ -4444,7 +4517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="4:12" ht="16.5">
+    <row r="34" spans="4:12" ht="16.8">
       <c r="D34" s="15">
         <f>SUM($J$2:J34)</f>
         <v>16</v>
@@ -4465,7 +4538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="4:12" ht="16.5">
+    <row r="35" spans="4:12" ht="16.8">
       <c r="D35" s="15">
         <f>SUM($J$2:J35)</f>
         <v>16</v>
@@ -4492,7 +4565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="4:12" ht="16.5">
+    <row r="36" spans="4:12" ht="16.8">
       <c r="D36" s="15">
         <f>SUM($J$2:J36)</f>
         <v>16</v>
@@ -4513,7 +4586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="4:12" ht="16.5">
+    <row r="37" spans="4:12" ht="16.8">
       <c r="D37" s="15">
         <f>SUM($J$2:J37)</f>
         <v>16</v>
@@ -4530,7 +4603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="4:12" ht="16.5">
+    <row r="38" spans="4:12" ht="16.8">
       <c r="D38" s="15">
         <f>SUM($J$2:J38)</f>
         <v>16</v>
@@ -4551,7 +4624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="4:12" ht="16.5">
+    <row r="39" spans="4:12" ht="16.8">
       <c r="D39" s="15">
         <f>SUM($J$2:J39)</f>
         <v>16</v>
@@ -4568,7 +4641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="4:12" ht="16.5">
+    <row r="40" spans="4:12" ht="16.8">
       <c r="D40" s="15">
         <f>SUM($J$2:J40)</f>
         <v>16</v>
@@ -4594,7 +4667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="4:12" ht="16.5">
+    <row r="41" spans="4:12" ht="16.8">
       <c r="D41" s="15">
         <f>SUM($J$2:J41)</f>
         <v>16</v>
@@ -4615,7 +4688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="4:12" ht="16.5">
+    <row r="42" spans="4:12" ht="16.8">
       <c r="D42" s="15">
         <f>SUM($J$2:J42)</f>
         <v>16</v>
@@ -4636,7 +4709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="4:12" ht="16.5">
+    <row r="43" spans="4:12" ht="16.8">
       <c r="D43" s="15">
         <f>SUM($J$2:J43)</f>
         <v>16</v>
@@ -4657,7 +4730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="4:12" ht="16.5">
+    <row r="44" spans="4:12" ht="16.8">
       <c r="D44" s="15">
         <f>SUM($J$2:J44)</f>
         <v>16</v>
@@ -4678,7 +4751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="4:12" ht="16.5">
+    <row r="45" spans="4:12" ht="16.8">
       <c r="D45" s="15">
         <f>SUM($J$2:J45)</f>
         <v>16</v>
@@ -4699,7 +4772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="4:12" ht="16.5">
+    <row r="46" spans="4:12" ht="16.8">
       <c r="D46" s="15">
         <f>SUM($J$2:J46)</f>
         <v>16</v>
@@ -4722,7 +4795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="4:12" ht="16.5">
+    <row r="47" spans="4:12" ht="16.8">
       <c r="D47" s="15">
         <f>SUM($J$2:J47)</f>
         <v>16</v>
@@ -4743,7 +4816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="4:12" ht="16.5">
+    <row r="48" spans="4:12" ht="16.8">
       <c r="D48" s="15">
         <f>SUM($J$2:J48)</f>
         <v>16</v>
@@ -4766,7 +4839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="4:12" ht="16.5">
+    <row r="49" spans="4:12" ht="16.8">
       <c r="D49" s="15">
         <f>SUM($J$2:J49)</f>
         <v>16</v>
@@ -4787,7 +4860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="4:12" ht="16.5">
+    <row r="50" spans="4:12" ht="16.8">
       <c r="D50" s="15">
         <f>SUM($J$2:J50)</f>
         <v>16</v>
@@ -4808,7 +4881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="4:12" ht="16.5">
+    <row r="51" spans="4:12" ht="16.8">
       <c r="D51" s="15">
         <f>SUM($J$2:J51)</f>
         <v>16</v>
@@ -4829,7 +4902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="4:12" ht="16.5">
+    <row r="52" spans="4:12" ht="16.8">
       <c r="D52" s="15">
         <f>SUM($J$2:J52)</f>
         <v>16</v>
@@ -4855,7 +4928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="4:12" ht="16.5">
+    <row r="53" spans="4:12" ht="16.8">
       <c r="D53" s="15">
         <f>SUM($J$2:J53)</f>
         <v>16</v>
@@ -4874,7 +4947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="4:12" ht="16.5">
+    <row r="54" spans="4:12" ht="16.8">
       <c r="D54" s="15">
         <f>SUM($J$2:J54)</f>
         <v>16</v>
@@ -4893,7 +4966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="4:12" ht="16.5">
+    <row r="55" spans="4:12" ht="16.8">
       <c r="D55" s="15">
         <f>SUM($J$2:J55)</f>
         <v>16</v>
@@ -4920,120 +4993,120 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:Q55"/>
+  <autoFilter ref="C1:Q55" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <conditionalFormatting sqref="E10">
-    <cfRule type="duplicateValues" dxfId="20" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53:E54">
-    <cfRule type="duplicateValues" dxfId="19" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="duplicateValues" dxfId="18" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E52 E1:E2 E4:E9">
-    <cfRule type="duplicateValues" dxfId="17" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E2 E4:E1048576">
-    <cfRule type="duplicateValues" dxfId="16" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="duplicateValues" dxfId="15" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:V93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="39.7109375" customWidth="1"/>
-    <col min="6" max="7" width="30.42578125" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="19.140625" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" style="26" customWidth="1"/>
-    <col min="12" max="12" width="25.7109375" customWidth="1"/>
-    <col min="13" max="13" width="21.85546875" style="26" customWidth="1"/>
-    <col min="14" max="14" width="43.85546875" style="26" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.28515625" style="35" customWidth="1"/>
-    <col min="16" max="16" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.28515625" style="26" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="19" width="41.7109375" style="26" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="5" max="5" width="39.6640625" customWidth="1"/>
+    <col min="6" max="6" width="30.44140625" customWidth="1"/>
+    <col min="7" max="8" width="28.88671875" style="49" customWidth="1"/>
+    <col min="9" max="10" width="19.109375" customWidth="1"/>
+    <col min="11" max="11" width="12.5546875" style="26" customWidth="1"/>
+    <col min="12" max="12" width="25.6640625" customWidth="1"/>
+    <col min="13" max="13" width="21.88671875" style="26" customWidth="1"/>
+    <col min="14" max="14" width="43.88671875" style="26" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.33203125" style="35" customWidth="1"/>
+    <col min="16" max="16" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.33203125" style="26" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="41.6640625" style="26" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="20" max="20" width="25" style="26" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="21" width="12.5703125" style="26" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="9.140625" collapsed="1"/>
+    <col min="21" max="21" width="12.5546875" style="26" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="9.109375" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="36" customFormat="1" ht="30">
+    <row r="1" spans="1:21" s="36" customFormat="1" ht="28.8">
       <c r="A1" s="36" t="s">
         <v>66</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>192</v>
+        <v>228</v>
       </c>
       <c r="C1" s="36" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D1" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="G1" s="47" t="s">
+        <v>235</v>
+      </c>
+      <c r="H1" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="J1" s="36" t="s">
+        <v>208</v>
+      </c>
+      <c r="K1" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="L1" s="36" t="s">
+        <v>236</v>
+      </c>
+      <c r="M1" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="N1" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="O1" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="E1" s="36" t="s">
-        <v>187</v>
-      </c>
-      <c r="F1" s="36" t="s">
-        <v>188</v>
-      </c>
-      <c r="G1" s="36" t="s">
-        <v>214</v>
-      </c>
-      <c r="H1" s="36" t="s">
+      <c r="P1" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q1" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="I1" s="36" t="s">
-        <v>218</v>
-      </c>
-      <c r="J1" s="36" t="s">
-        <v>220</v>
-      </c>
-      <c r="K1" s="37" t="s">
-        <v>219</v>
-      </c>
-      <c r="L1" s="36" t="s">
-        <v>130</v>
-      </c>
-      <c r="M1" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="N1" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="O1" s="38" t="s">
-        <v>133</v>
-      </c>
-      <c r="P1" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q1" s="36" t="s">
-        <v>136</v>
-      </c>
       <c r="R1" s="37" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="S1" s="37" t="s">
         <v>6</v>
@@ -5045,1510 +5118,2669 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
-      <c r="K2" s="26">
-        <f>J2+14</f>
+    <row r="2" spans="1:21" s="36" customFormat="1">
+      <c r="A2" s="36">
+        <f>COLUMN()</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="36">
+        <f>COLUMN()</f>
+        <v>2</v>
+      </c>
+      <c r="C2" s="36">
+        <f>COLUMN()</f>
+        <v>3</v>
+      </c>
+      <c r="D2" s="36">
+        <f>COLUMN()</f>
+        <v>4</v>
+      </c>
+      <c r="E2" s="36">
+        <f>COLUMN()</f>
+        <v>5</v>
+      </c>
+      <c r="F2" s="36">
+        <f>COLUMN()</f>
+        <v>6</v>
+      </c>
+      <c r="G2" s="47">
+        <f>COLUMN()</f>
+        <v>7</v>
+      </c>
+      <c r="H2" s="47">
+        <f>COLUMN()</f>
+        <v>8</v>
+      </c>
+      <c r="I2" s="36">
+        <f>COLUMN()</f>
+        <v>9</v>
+      </c>
+      <c r="J2" s="36">
+        <f>COLUMN()</f>
+        <v>10</v>
+      </c>
+      <c r="K2" s="36">
+        <f>COLUMN()</f>
+        <v>11</v>
+      </c>
+      <c r="L2" s="36">
+        <f>COLUMN()</f>
+        <v>12</v>
+      </c>
+      <c r="M2" s="36">
+        <f>COLUMN()</f>
+        <v>13</v>
+      </c>
+      <c r="N2" s="36">
+        <f>COLUMN()</f>
         <v>14</v>
       </c>
-      <c r="M2" s="26">
-        <f>D2</f>
-        <v>0</v>
-      </c>
-      <c r="N2" s="26" t="str">
-        <f>L2&amp;D2</f>
-        <v/>
-      </c>
-      <c r="P2" t="s">
+      <c r="O2" s="36">
+        <f>COLUMN()</f>
+        <v>15</v>
+      </c>
+      <c r="P2" s="36">
+        <f>COLUMN()</f>
+        <v>16</v>
+      </c>
+      <c r="Q2" s="36">
+        <f>COLUMN()</f>
+        <v>17</v>
+      </c>
+      <c r="R2" s="36">
+        <f>COLUMN()</f>
+        <v>18</v>
+      </c>
+      <c r="S2" s="36">
+        <f>COLUMN()</f>
+        <v>19</v>
+      </c>
+      <c r="T2" s="36">
+        <f>COLUMN()</f>
+        <v>20</v>
+      </c>
+      <c r="U2" s="36">
+        <f>COLUMN()</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="31.5" customHeight="1">
+      <c r="A3">
+        <f>ROW()</f>
+        <v>3</v>
+      </c>
+      <c r="B3" s="44">
+        <v>44061</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="48" t="s">
+        <v>214</v>
+      </c>
+      <c r="H3" s="48" t="s">
+        <v>229</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="J3" s="6"/>
+      <c r="K3" s="26">
+        <f t="shared" ref="K3:K21" si="0">J3+14</f>
+        <v>14</v>
+      </c>
+      <c r="L3" s="6" t="str">
+        <f t="array" ref="L3">_xlfn.TEXTJOIN(CHAR(10),TRUE,E3:F3)</f>
+        <v>Cắt FCO + MCCB TBA Nam Hà 1
+Tiếp địa hạ thế tại MCCB TBA Nam Hà 1</v>
+      </c>
+      <c r="M3" s="26" t="str">
+        <f t="shared" ref="M3:M21" si="1">D3</f>
+        <v>TBA Nam Hà 1</v>
+      </c>
+      <c r="N3" s="26" t="str">
+        <f t="shared" ref="N3:N21" si="2">L3&amp;D3</f>
+        <v>Cắt FCO + MCCB TBA Nam Hà 1
+Tiếp địa hạ thế tại MCCB TBA Nam Hà 1TBA Nam Hà 1</v>
+      </c>
+      <c r="O3" s="35">
+        <v>44079</v>
+      </c>
+      <c r="P3" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q8" si="3">WEEKDAY(O3)</f>
+        <v>7</v>
+      </c>
+      <c r="R3" s="26" t="str">
+        <f t="shared" ref="R3:R21" si="4">L3&amp;D3</f>
+        <v>Cắt FCO + MCCB TBA Nam Hà 1
+Tiếp địa hạ thế tại MCCB TBA Nam Hà 1TBA Nam Hà 1</v>
+      </c>
+      <c r="S3" s="26" t="str">
+        <f t="shared" ref="S3:S21" si="5">H3&amp;LOWER(L3)&amp;D3</f>
+        <v>Thay dây hạ thế  sau TBA Nam Hà 1cắt fco + mccb tba nam hà 1
+tiếp địa hạ thế tại mccb tba nam hà 1TBA Nam Hà 1</v>
+      </c>
+      <c r="T3" s="26" t="str">
+        <f t="shared" ref="T3:T21" si="6">"Cắt "&amp;C3&amp;M3</f>
+        <v>Cắt FCO + MCCB TBA Nam Hà 1</v>
+      </c>
+      <c r="U3" s="26" t="str">
+        <f t="shared" ref="U3:U21" si="7">"Tiếp địa tại "&amp;F3&amp;D3</f>
+        <v>Tiếp địa tại TBA Nam Hà 1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="28.8">
+      <c r="A4">
+        <f>ROW()</f>
+        <v>4</v>
+      </c>
+      <c r="B4" s="44">
+        <v>44061</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="48" t="s">
+        <v>215</v>
+      </c>
+      <c r="H4" s="48" t="s">
+        <v>230</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="J4" s="6"/>
+      <c r="K4" s="26">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="L4" s="6" t="str">
+        <f t="array" ref="L4">_xlfn.TEXTJOIN(CHAR(10),TRUE,E4:F4)</f>
+        <v>Cắt FCO + MCCB TBA Nam Hà 1A
+Tiếp địa hạ thế tại MCCB TBA Nam Hà 1A</v>
+      </c>
+      <c r="M4" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>TBA Nam Hà 1A</v>
+      </c>
+      <c r="N4" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>Cắt FCO + MCCB TBA Nam Hà 1A
+Tiếp địa hạ thế tại MCCB TBA Nam Hà 1ATBA Nam Hà 1A</v>
+      </c>
+      <c r="O4" s="35">
+        <v>44079</v>
+      </c>
+      <c r="P4" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="R4" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v>Cắt FCO + MCCB TBA Nam Hà 1A
+Tiếp địa hạ thế tại MCCB TBA Nam Hà 1ATBA Nam Hà 1A</v>
+      </c>
+      <c r="S4" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v>Thay dây hạ thế  sau TBA Nam Hà 1Acắt fco + mccb tba nam hà 1a
+tiếp địa hạ thế tại mccb tba nam hà 1aTBA Nam Hà 1A</v>
+      </c>
+      <c r="T4" s="26" t="str">
+        <f t="shared" si="6"/>
+        <v>Cắt FCO + MCCB TBA Nam Hà 1A</v>
+      </c>
+      <c r="U4" s="26" t="str">
+        <f t="shared" si="7"/>
+        <v>Tiếp địa tại TBA Nam Hà 1A</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="28.8">
+      <c r="A5">
+        <f>ROW()</f>
+        <v>5</v>
+      </c>
+      <c r="B5" s="44">
+        <v>44061</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D5" t="s">
         <v>138</v>
       </c>
-      <c r="Q2">
-        <f t="shared" ref="Q2:Q6" si="0">WEEKDAY(O2)</f>
+      <c r="E5" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="48" t="s">
+        <v>216</v>
+      </c>
+      <c r="H5" s="48" t="s">
+        <v>231</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="J5" s="6"/>
+      <c r="K5" s="26">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="L5" s="6" t="str">
+        <f t="array" ref="L5">_xlfn.TEXTJOIN(CHAR(10),TRUE,E5:F5)</f>
+        <v>Cắt FCO + MCCB TBA Nam Hà 3
+Tiếp địa hạ thế tại MCCB TBA Nam Hà 3</v>
+      </c>
+      <c r="M5" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>TBA Nam Hà 3</v>
+      </c>
+      <c r="N5" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>Cắt FCO + MCCB TBA Nam Hà 3
+Tiếp địa hạ thế tại MCCB TBA Nam Hà 3TBA Nam Hà 3</v>
+      </c>
+      <c r="O5" s="35">
+        <v>44079</v>
+      </c>
+      <c r="P5" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="R2" s="26" t="str">
-        <f>L2&amp;D2</f>
-        <v/>
-      </c>
-      <c r="S2" s="26" t="str">
-        <f>H2&amp;LOWER(L2)&amp;D2</f>
-        <v/>
-      </c>
-      <c r="T2" s="26" t="str">
-        <f>"Cắt "&amp;C2&amp;M2</f>
-        <v>Cắt 0</v>
-      </c>
-      <c r="U2" s="26" t="str">
-        <f>"Tiếp địa tại "&amp;F2&amp;D2</f>
-        <v xml:space="preserve">Tiếp địa tại </v>
-      </c>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="K3" s="26">
-        <f t="shared" ref="K3:K26" si="1">J3+14</f>
+      <c r="R5" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v>Cắt FCO + MCCB TBA Nam Hà 3
+Tiếp địa hạ thế tại MCCB TBA Nam Hà 3TBA Nam Hà 3</v>
+      </c>
+      <c r="S5" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v>Thay dây hạ thế  sau TBA Nam Hà 3cắt fco + mccb tba nam hà 3
+tiếp địa hạ thế tại mccb tba nam hà 3TBA Nam Hà 3</v>
+      </c>
+      <c r="T5" s="26" t="str">
+        <f t="shared" si="6"/>
+        <v>Cắt FCO + MCCB TBA Nam Hà 3</v>
+      </c>
+      <c r="U5" s="26" t="str">
+        <f t="shared" si="7"/>
+        <v>Tiếp địa tại TBA Nam Hà 3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="28.8">
+      <c r="A6">
+        <f>ROW()</f>
+        <v>6</v>
+      </c>
+      <c r="B6" s="44">
+        <v>44061</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D6" t="s">
+        <v>139</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="48" t="s">
+        <v>217</v>
+      </c>
+      <c r="H6" s="48" t="s">
+        <v>232</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="J6" s="6"/>
+      <c r="K6" s="26">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="M3" s="26">
-        <f>D3</f>
-        <v>0</v>
-      </c>
-      <c r="N3" s="26" t="str">
-        <f>L3&amp;D3</f>
-        <v/>
-      </c>
-      <c r="P3" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q3">
+      <c r="L6" s="6" t="str">
+        <f t="array" ref="L6">_xlfn.TEXTJOIN(CHAR(10),TRUE,E6:F6)</f>
+        <v>Cắt FCO + MCCB TBA Xuân Tây 10A
+Tiếp địa hạ thế tại MCCB TBA Xuân Tây 10A</v>
+      </c>
+      <c r="M6" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>TBA Xuân Tây 10A</v>
+      </c>
+      <c r="N6" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>Cắt FCO + MCCB TBA Xuân Tây 10A
+Tiếp địa hạ thế tại MCCB TBA Xuân Tây 10ATBA Xuân Tây 10A</v>
+      </c>
+      <c r="O6" s="35">
+        <v>44081</v>
+      </c>
+      <c r="P6" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="R6" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v>Cắt FCO + MCCB TBA Xuân Tây 10A
+Tiếp địa hạ thế tại MCCB TBA Xuân Tây 10ATBA Xuân Tây 10A</v>
+      </c>
+      <c r="S6" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v>Thay dây hạ thế  sau TBA Xuân Tây 10Acắt fco + mccb tba xuân tây 10a
+tiếp địa hạ thế tại mccb tba xuân tây 10aTBA Xuân Tây 10A</v>
+      </c>
+      <c r="T6" s="26" t="str">
+        <f t="shared" si="6"/>
+        <v>Cắt FCO + MCCB TBA Xuân Tây 10A</v>
+      </c>
+      <c r="U6" s="26" t="str">
+        <f t="shared" si="7"/>
+        <v>Tiếp địa tại TBA Xuân Tây 10A</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7">
+        <f>ROW()</f>
+        <v>7</v>
+      </c>
+      <c r="B7" s="44">
+        <v>44061</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="G7" s="48" t="s">
+        <v>218</v>
+      </c>
+      <c r="H7" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="J7" s="6"/>
+      <c r="K7" s="26">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="R3" s="26" t="str">
-        <f>L3&amp;D3</f>
-        <v/>
-      </c>
-      <c r="S3" s="26" t="str">
-        <f>H3&amp;LOWER(L3)&amp;D3</f>
-        <v/>
-      </c>
-      <c r="T3" s="26" t="str">
-        <f>"Cắt "&amp;C3&amp;M3</f>
-        <v>Cắt 0</v>
-      </c>
-      <c r="U3" s="26" t="str">
-        <f>"Tiếp địa tại "&amp;F3&amp;D3</f>
-        <v xml:space="preserve">Tiếp địa tại </v>
-      </c>
-    </row>
-    <row r="4" spans="1:21">
-      <c r="K4" s="26">
+        <v>14</v>
+      </c>
+      <c r="L7" s="6" t="str">
+        <f t="array" ref="L7">_xlfn.TEXTJOIN(CHAR(10),TRUE,E7:F7)</f>
+        <v>Cắt FCO + MCCB TBA Sông Ray 8A
+Tiếp địa hạ thế tại MCCB TBA Sông Ray 8A</v>
+      </c>
+      <c r="M7" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="M4" s="26">
-        <f>D4</f>
-        <v>0</v>
-      </c>
-      <c r="N4" s="26" t="str">
-        <f>L4&amp;D4</f>
-        <v/>
-      </c>
-      <c r="P4" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q4">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="R4" s="26" t="str">
-        <f>L4&amp;D4</f>
-        <v/>
-      </c>
-      <c r="S4" s="26" t="str">
-        <f>H4&amp;LOWER(L4)&amp;D4</f>
-        <v/>
-      </c>
-      <c r="T4" s="26" t="str">
-        <f>"Cắt "&amp;C4&amp;M4</f>
-        <v>Cắt 0</v>
-      </c>
-      <c r="U4" s="26" t="str">
-        <f>"Tiếp địa tại "&amp;F4&amp;D4</f>
-        <v xml:space="preserve">Tiếp địa tại </v>
-      </c>
-    </row>
-    <row r="5" spans="1:21">
-      <c r="K5" s="26">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="M5" s="26">
-        <f>D5</f>
-        <v>0</v>
-      </c>
-      <c r="N5" s="26" t="str">
-        <f>L5&amp;D5</f>
-        <v/>
-      </c>
-      <c r="P5" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q5">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="R5" s="26" t="str">
-        <f>L5&amp;D5</f>
-        <v/>
-      </c>
-      <c r="S5" s="26" t="str">
-        <f>H5&amp;LOWER(L5)&amp;D5</f>
-        <v/>
-      </c>
-      <c r="T5" s="26" t="str">
-        <f>"Cắt "&amp;C5&amp;M5</f>
-        <v>Cắt 0</v>
-      </c>
-      <c r="U5" s="26" t="str">
-        <f>"Tiếp địa tại "&amp;F5&amp;D5</f>
-        <v xml:space="preserve">Tiếp địa tại </v>
-      </c>
-    </row>
-    <row r="6" spans="1:21">
-      <c r="K6" s="26">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="M6" s="26">
-        <f>D6</f>
-        <v>0</v>
-      </c>
-      <c r="N6" s="26" t="str">
-        <f>L6&amp;D6</f>
-        <v/>
-      </c>
-      <c r="P6" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q6">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="R6" s="26" t="str">
-        <f>L6&amp;D6</f>
-        <v/>
-      </c>
-      <c r="S6" s="26" t="str">
-        <f>H6&amp;LOWER(L6)&amp;D6</f>
-        <v/>
-      </c>
-      <c r="T6" s="26" t="str">
-        <f>"Cắt "&amp;C6&amp;M6</f>
-        <v>Cắt 0</v>
-      </c>
-      <c r="U6" s="26" t="str">
-        <f>"Tiếp địa tại "&amp;F6&amp;D6</f>
-        <v xml:space="preserve">Tiếp địa tại </v>
-      </c>
-    </row>
-    <row r="7" spans="1:21">
-      <c r="K7" s="26">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="M7" s="26">
-        <f>D7</f>
-        <v>0</v>
+        <v>TBA Sông Ray 8A</v>
       </c>
       <c r="N7" s="26" t="str">
-        <f>L7&amp;D7</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>Cắt FCO + MCCB TBA Sông Ray 8A
+Tiếp địa hạ thế tại MCCB TBA Sông Ray 8ATBA Sông Ray 8A</v>
+      </c>
+      <c r="O7" s="35">
+        <v>44083</v>
       </c>
       <c r="P7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="Q7">
-        <f t="shared" ref="Q7" si="2">WEEKDAY(O7)</f>
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="R7" s="26" t="str">
-        <f>L7&amp;D7</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>Cắt FCO + MCCB TBA Sông Ray 8A
+Tiếp địa hạ thế tại MCCB TBA Sông Ray 8ATBA Sông Ray 8A</v>
       </c>
       <c r="S7" s="26" t="str">
-        <f>H7&amp;LOWER(L7)&amp;D7</f>
-        <v/>
+        <f t="shared" si="5"/>
+        <v>Thay dây hạ thế  sau TBA Sông Ray 8Acắt fco + mccb tba sông ray 8a
+tiếp địa hạ thế tại mccb tba sông ray 8aTBA Sông Ray 8A</v>
       </c>
       <c r="T7" s="26" t="str">
-        <f>"Cắt "&amp;C7&amp;M7</f>
-        <v>Cắt 0</v>
+        <f t="shared" si="6"/>
+        <v>Cắt FCO + MCCB TBA Sông Ray 8A</v>
       </c>
       <c r="U7" s="26" t="str">
-        <f>"Tiếp địa tại "&amp;F7&amp;D7</f>
-        <v xml:space="preserve">Tiếp địa tại </v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="31.5" customHeight="1">
+        <f t="shared" si="7"/>
+        <v>Tiếp địa tại Tiếp địa hạ thế tại MCCB TBA Sông Ray 8ATBA Sông Ray 8A</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="43.2">
+      <c r="A8">
+        <f>ROW()</f>
+        <v>8</v>
+      </c>
       <c r="B8" s="44">
         <v>44061</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="D8" t="s">
-        <v>137</v>
+      <c r="D8" s="6" t="s">
+        <v>151</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>189</v>
-      </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="I8" s="6"/>
+        <v>186</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="G8" s="48" t="s">
+        <v>219</v>
+      </c>
+      <c r="H8" s="48" t="s">
+        <v>153</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>234</v>
+      </c>
       <c r="J8" s="6"/>
       <c r="K8" s="26">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="L8" s="6" t="str">
+        <f t="array" ref="L8">_xlfn.TEXTJOIN(CHAR(10),TRUE,E8:F8)</f>
+        <v>Cắt LBS khí Đồng Tâm 1 + 3 LTD Đồng Tâm 1
+Cắt LBS khí Sông Ray + 3 LTD Sông Ray 1
+Tiếp địa trụ trung thế 357 
+Tiếp địa trụ trung thế 381 
+Tiếp địa hạ thế TBA Sông Ray 7</v>
+      </c>
+      <c r="M8" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="L8" s="6" t="s">
+        <v>Nhánh rẽ Đồng Tâm 1</v>
+      </c>
+      <c r="N8" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>Cắt LBS khí Đồng Tâm 1 + 3 LTD Đồng Tâm 1
+Cắt LBS khí Sông Ray + 3 LTD Sông Ray 1
+Tiếp địa trụ trung thế 357 
+Tiếp địa trụ trung thế 381 
+Tiếp địa hạ thế TBA Sông Ray 7Nhánh rẽ Đồng Tâm 1</v>
+      </c>
+      <c r="O8" s="35">
+        <v>44086</v>
+      </c>
+      <c r="P8" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="R8" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v>Cắt LBS khí Đồng Tâm 1 + 3 LTD Đồng Tâm 1
+Cắt LBS khí Sông Ray + 3 LTD Sông Ray 1
+Tiếp địa trụ trung thế 357 
+Tiếp địa trụ trung thế 381 
+Tiếp địa hạ thế TBA Sông Ray 7Nhánh rẽ Đồng Tâm 1</v>
+      </c>
+      <c r="S8" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v>Nâng cấp đường dây hạ thế và TBA Sông Ray 7 từ 1 pha lên 3 pha, cấy TBA Sông Ray 7Acắt lbs khí đồng tâm 1 + 3 ltd đồng tâm 1
+cắt lbs khí sông ray + 3 ltd sông ray 1
+tiếp địa trụ trung thế 357 
+tiếp địa trụ trung thế 381 
+tiếp địa hạ thế tba sông ray 7Nhánh rẽ Đồng Tâm 1</v>
+      </c>
+      <c r="T8" s="26" t="str">
+        <f t="shared" si="6"/>
+        <v>Cắt LBS khí + 3 LTDNhánh rẽ Đồng Tâm 1</v>
+      </c>
+      <c r="U8" s="26" t="str">
+        <f t="shared" si="7"/>
+        <v>Tiếp địa tại Tiếp địa trụ trung thế 381 
+Tiếp địa hạ thế TBA Sông Ray 7Nhánh rẽ Đồng Tâm 1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="43.2">
+      <c r="A9">
+        <f>ROW()</f>
+        <v>9</v>
+      </c>
+      <c r="B9" s="44">
+        <v>44062</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="M8" s="26" t="str">
-        <f>D8</f>
-        <v>TBA Nam Hà 1</v>
-      </c>
-      <c r="N8" s="26" t="str">
-        <f>L8&amp;D8</f>
-        <v>Lưới điện hạ thế sau TBA Nam Hà 1</v>
-      </c>
-      <c r="O8" s="35">
-        <v>44079</v>
-      </c>
-      <c r="P8" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q8">
-        <f t="shared" ref="Q8:Q13" si="3">WEEKDAY(O8)</f>
-        <v>7</v>
-      </c>
-      <c r="R8" s="26" t="str">
-        <f>L8&amp;D8</f>
-        <v>Lưới điện hạ thế sau TBA Nam Hà 1</v>
-      </c>
-      <c r="S8" s="26" t="str">
-        <f>H8&amp;LOWER(L8)&amp;D8</f>
-        <v>Thay dây hạ thế lưới điện hạ thế sau TBA Nam Hà 1</v>
-      </c>
-      <c r="T8" s="26" t="str">
-        <f>"Cắt "&amp;C8&amp;M8</f>
-        <v>Cắt FCO + MCCB TBA Nam Hà 1</v>
-      </c>
-      <c r="U8" s="26" t="str">
-        <f>"Tiếp địa tại "&amp;F8&amp;D8</f>
-        <v>Tiếp địa tại TBA Nam Hà 1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" ht="30">
-      <c r="B9" s="44">
-        <v>44061</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="D9" t="s">
-        <v>139</v>
-      </c>
       <c r="E9" s="24" t="s">
-        <v>190</v>
-      </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="I9" s="6"/>
+        <v>188</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="G9" s="48" t="s">
+        <v>220</v>
+      </c>
+      <c r="H9" s="48" t="s">
+        <v>153</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>234</v>
+      </c>
       <c r="J9" s="6"/>
       <c r="K9" s="26">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="L9" s="6" t="str">
+        <f t="array" ref="L9">_xlfn.TEXTJOIN(CHAR(10),TRUE,E9:F9)</f>
+        <v>Cắt 3xFCO Nhánh rẽ Lâm San 10, 11, 12
+Tiếp địa trụ trung thế 357 Nhánh rẽ Lâm San 10, 11, 12
+Tiếp địa trung hạ áp tại TBA Lâm San 11A, 11D</v>
+      </c>
+      <c r="M9" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="M9" s="26" t="str">
-        <f>D9</f>
-        <v>TBA Nam Hà 1A</v>
+        <v>Nhánh rẽ Lâm San 10, 11, 12</v>
       </c>
       <c r="N9" s="26" t="str">
-        <f>L9&amp;D9</f>
-        <v>Lưới điện hạ thế sau TBA Nam Hà 1A</v>
+        <f t="shared" si="2"/>
+        <v>Cắt 3xFCO Nhánh rẽ Lâm San 10, 11, 12
+Tiếp địa trụ trung thế 357 Nhánh rẽ Lâm San 10, 11, 12
+Tiếp địa trung hạ áp tại TBA Lâm San 11A, 11DNhánh rẽ Lâm San 10, 11, 12</v>
       </c>
       <c r="O9" s="35">
-        <v>44079</v>
+        <v>44086</v>
       </c>
       <c r="P9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="Q9" si="8">WEEKDAY(O9)</f>
         <v>7</v>
       </c>
       <c r="R9" s="26" t="str">
-        <f>L9&amp;D9</f>
-        <v>Lưới điện hạ thế sau TBA Nam Hà 1A</v>
+        <f t="shared" si="4"/>
+        <v>Cắt 3xFCO Nhánh rẽ Lâm San 10, 11, 12
+Tiếp địa trụ trung thế 357 Nhánh rẽ Lâm San 10, 11, 12
+Tiếp địa trung hạ áp tại TBA Lâm San 11A, 11DNhánh rẽ Lâm San 10, 11, 12</v>
       </c>
       <c r="S9" s="26" t="str">
-        <f>H9&amp;LOWER(L9)&amp;D9</f>
-        <v>Thay dây hạ thế lưới điện hạ thế sau TBA Nam Hà 1A</v>
+        <f t="shared" si="5"/>
+        <v>Nâng cấp đường dây hạ thế và TBA Sông Ray 7 từ 1 pha lên 3 pha, cấy TBA Sông Ray 7Acắt 3xfco nhánh rẽ lâm san 10, 11, 12
+tiếp địa trụ trung thế 357 nhánh rẽ lâm san 10, 11, 12
+tiếp địa trung hạ áp tại tba lâm san 11a, 11dNhánh rẽ Lâm San 10, 11, 12</v>
       </c>
       <c r="T9" s="26" t="str">
-        <f>"Cắt "&amp;C9&amp;M9</f>
-        <v>Cắt FCO + MCCB TBA Nam Hà 1A</v>
+        <f t="shared" si="6"/>
+        <v>Cắt 3xFCO Nhánh rẽ Lâm San 10, 11, 12</v>
       </c>
       <c r="U9" s="26" t="str">
-        <f>"Tiếp địa tại "&amp;F9&amp;D9</f>
-        <v>Tiếp địa tại TBA Nam Hà 1A</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" ht="30">
+        <f t="shared" si="7"/>
+        <v>Tiếp địa tại Tiếp địa trung hạ áp tại TBA Lâm San 11A, 11DNhánh rẽ Lâm San 10, 11, 12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="28.8">
+      <c r="A10">
+        <f>ROW()</f>
+        <v>10</v>
+      </c>
       <c r="B10" s="44">
-        <v>44061</v>
+        <v>44062</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="D10" t="s">
-        <v>140</v>
+        <v>156</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>157</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>191</v>
-      </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="I10" s="6"/>
+        <v>189</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="G10" s="48" t="s">
+        <v>221</v>
+      </c>
+      <c r="H10" s="48" t="s">
+        <v>158</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>234</v>
+      </c>
       <c r="J10" s="6"/>
       <c r="K10" s="26">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="L10" s="6" t="str">
+        <f t="array" ref="L10">_xlfn.TEXTJOIN(CHAR(10),TRUE,E10:F10)</f>
+        <v xml:space="preserve">Cắt Recloser + 3 LTD Lâm San
+Tiếp địa trụ trung thế 011A
+Tiếp địa trụ trung thế 075 </v>
+      </c>
+      <c r="M10" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="M10" s="26" t="str">
-        <f>D10</f>
-        <v>TBA Nam Hà 3</v>
+        <v>Nhánh rẽ Lâm San</v>
       </c>
       <c r="N10" s="26" t="str">
-        <f>L10&amp;D10</f>
-        <v>Lưới điện hạ thế sau TBA Nam Hà 3</v>
+        <f t="shared" si="2"/>
+        <v>Cắt Recloser + 3 LTD Lâm San
+Tiếp địa trụ trung thế 011A
+Tiếp địa trụ trung thế 075 Nhánh rẽ Lâm San</v>
       </c>
       <c r="O10" s="35">
-        <v>44079</v>
+        <v>44093</v>
       </c>
       <c r="P10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="Q10:Q20" si="9">WEEKDAY(O10)</f>
         <v>7</v>
       </c>
       <c r="R10" s="26" t="str">
-        <f>L10&amp;D10</f>
-        <v>Lưới điện hạ thế sau TBA Nam Hà 3</v>
+        <f t="shared" si="4"/>
+        <v>Cắt Recloser + 3 LTD Lâm San
+Tiếp địa trụ trung thế 011A
+Tiếp địa trụ trung thế 075 Nhánh rẽ Lâm San</v>
       </c>
       <c r="S10" s="26" t="str">
-        <f>H10&amp;LOWER(L10)&amp;D10</f>
-        <v>Thay dây hạ thế lưới điện hạ thế sau TBA Nam Hà 3</v>
+        <f t="shared" si="5"/>
+        <v>Trồng trụ trung thế 015A đấu nối trung thế, tách lưới, sang tải TBA Sông Ray 2, Sông Ray 2A. Đấu nối trung thế và di dời TBA Sông Ray 4Acắt recloser + 3 ltd lâm san
+tiếp địa trụ trung thế 011a
+tiếp địa trụ trung thế 075 Nhánh rẽ Lâm San</v>
       </c>
       <c r="T10" s="26" t="str">
-        <f>"Cắt "&amp;C10&amp;M10</f>
-        <v>Cắt FCO + MCCB TBA Nam Hà 3</v>
+        <f t="shared" si="6"/>
+        <v>Cắt Recloser + 3 LTD Nhánh rẽ Lâm San</v>
       </c>
       <c r="U10" s="26" t="str">
-        <f>"Tiếp địa tại "&amp;F10&amp;D10</f>
-        <v>Tiếp địa tại TBA Nam Hà 3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" ht="45">
+        <f t="shared" si="7"/>
+        <v>Tiếp địa tại Tiếp địa trụ trung thế 075 Nhánh rẽ Lâm San</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11">
+        <f>ROW()</f>
+        <v>11</v>
+      </c>
       <c r="B11" s="44">
-        <v>44061</v>
+        <v>44062</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="D11" t="s">
-        <v>141</v>
+        <v>155</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>159</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>193</v>
-      </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="I11" s="6"/>
+        <v>191</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="G11" s="48" t="s">
+        <v>222</v>
+      </c>
+      <c r="H11" s="48" t="s">
+        <v>161</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>234</v>
+      </c>
       <c r="J11" s="6"/>
       <c r="K11" s="26">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="L11" s="6" t="str">
+        <f t="array" ref="L11">_xlfn.TEXTJOIN(CHAR(10),TRUE,E11:F11)</f>
+        <v>Cắt 3xFCO Nhánh rẽ Cánh đồng Xuân Tây 1
+Tiếp địa trung hạ áp tại TBA Cánh đồng Xuân Tây 1</v>
+      </c>
+      <c r="M11" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="M11" s="26" t="str">
-        <f>D11</f>
-        <v>TBA Xuân Tây 10A</v>
+        <v>Nhánh rẽ Cánh đồng Xuân Tây 1</v>
       </c>
       <c r="N11" s="26" t="str">
-        <f>L11&amp;D11</f>
-        <v>Lưới điện hạ thế sau TBA Xuân Tây 10A</v>
+        <f t="shared" si="2"/>
+        <v>Cắt 3xFCO Nhánh rẽ Cánh đồng Xuân Tây 1
+Tiếp địa trung hạ áp tại TBA Cánh đồng Xuân Tây 1Nhánh rẽ Cánh đồng Xuân Tây 1</v>
       </c>
       <c r="O11" s="35">
-        <v>44081</v>
+        <v>44090</v>
       </c>
       <c r="P11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>4</v>
       </c>
       <c r="R11" s="26" t="str">
-        <f>L11&amp;D11</f>
-        <v>Lưới điện hạ thế sau TBA Xuân Tây 10A</v>
+        <f t="shared" si="4"/>
+        <v>Cắt 3xFCO Nhánh rẽ Cánh đồng Xuân Tây 1
+Tiếp địa trung hạ áp tại TBA Cánh đồng Xuân Tây 1Nhánh rẽ Cánh đồng Xuân Tây 1</v>
       </c>
       <c r="S11" s="26" t="str">
-        <f>H11&amp;LOWER(L11)&amp;D11</f>
-        <v>Thay dây hạ thế lưới điện hạ thế sau TBA Xuân Tây 10A</v>
+        <f t="shared" si="5"/>
+        <v>Đấu nối trung thế trụ 009A, 013. Tách lưới hạ thế sau TBA Cánh đồng Xuân Tây 1A, Cánh đồng Xuân Tây 1Bcắt 3xfco nhánh rẽ cánh đồng xuân tây 1
+tiếp địa trung hạ áp tại tba cánh đồng xuân tây 1Nhánh rẽ Cánh đồng Xuân Tây 1</v>
       </c>
       <c r="T11" s="26" t="str">
-        <f>"Cắt "&amp;C11&amp;M11</f>
-        <v>Cắt FCO + MCCB TBA Xuân Tây 10A</v>
+        <f t="shared" si="6"/>
+        <v>Cắt 3xFCO Nhánh rẽ Cánh đồng Xuân Tây 1</v>
       </c>
       <c r="U11" s="26" t="str">
-        <f>"Tiếp địa tại "&amp;F11&amp;D11</f>
-        <v>Tiếp địa tại TBA Xuân Tây 10A</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21">
+        <f t="shared" si="7"/>
+        <v>Tiếp địa tại Tiếp địa trung hạ áp tại TBA Cánh đồng Xuân Tây 1Nhánh rẽ Cánh đồng Xuân Tây 1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="28.8">
+      <c r="A12">
+        <f>ROW()</f>
+        <v>12</v>
+      </c>
       <c r="B12" s="44">
-        <v>44061</v>
+        <v>44062</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>195</v>
-      </c>
-      <c r="F12" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="F12" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="I12" s="6"/>
+      <c r="G12" s="48" t="s">
+        <v>223</v>
+      </c>
+      <c r="H12" s="48" t="s">
+        <v>162</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>234</v>
+      </c>
       <c r="J12" s="6"/>
       <c r="K12" s="26">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="L12" s="6" t="str">
+        <f t="array" ref="L12">_xlfn.TEXTJOIN(CHAR(10),TRUE,E12:F12)</f>
+        <v>Cắt Recloser + 3 LTD Láng Me
+Tiếp địa trụ trung thế 079
+Tiếp địa trụ trung thế 094
+ Tiếp địa hạ thế TBA Láng Me 3</v>
+      </c>
+      <c r="M12" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="M12" s="26" t="str">
-        <f>D12</f>
-        <v>TBA Sông Ray 8A</v>
+        <v>Nhánh rẽ Láng Me</v>
       </c>
       <c r="N12" s="26" t="str">
-        <f>L12&amp;D12</f>
-        <v>Lưới điện hạ thế sau TBA Sông Ray 8A</v>
+        <f t="shared" si="2"/>
+        <v>Cắt Recloser + 3 LTD Láng Me
+Tiếp địa trụ trung thế 079
+Tiếp địa trụ trung thế 094
+ Tiếp địa hạ thế TBA Láng Me 3Nhánh rẽ Láng Me</v>
       </c>
       <c r="O12" s="35">
-        <v>44083</v>
+        <v>44089</v>
       </c>
       <c r="P12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="3"/>
-        <v>4</v>
+        <f t="shared" si="9"/>
+        <v>3</v>
       </c>
       <c r="R12" s="26" t="str">
-        <f>L12&amp;D12</f>
-        <v>Lưới điện hạ thế sau TBA Sông Ray 8A</v>
+        <f t="shared" si="4"/>
+        <v>Cắt Recloser + 3 LTD Láng Me
+Tiếp địa trụ trung thế 079
+Tiếp địa trụ trung thế 094
+ Tiếp địa hạ thế TBA Láng Me 3Nhánh rẽ Láng Me</v>
       </c>
       <c r="S12" s="26" t="str">
-        <f>H12&amp;LOWER(L12)&amp;D12</f>
-        <v>Thay dây hạ thế lưới điện hạ thế sau TBA Sông Ray 8A</v>
+        <f t="shared" si="5"/>
+        <v>Đấu nối trung thế trụ 087 nhánh rẽ Láng Me. Cấy TBA Láng Me 3B, Tách lưới hạ thế sau TBA Láng Me 3 sang Láng Me 3Bcắt recloser + 3 ltd láng me
+tiếp địa trụ trung thế 079
+tiếp địa trụ trung thế 094
+ tiếp địa hạ thế tba láng me 3Nhánh rẽ Láng Me</v>
       </c>
       <c r="T12" s="26" t="str">
-        <f>"Cắt "&amp;C12&amp;M12</f>
-        <v>Cắt FCO + MCCB TBA Sông Ray 8A</v>
+        <f t="shared" si="6"/>
+        <v>Cắt Recloser + 3 LTD Nhánh rẽ Láng Me</v>
       </c>
       <c r="U12" s="26" t="str">
-        <f>"Tiếp địa tại "&amp;F12&amp;D12</f>
-        <v>Tiếp địa tại Tiếp địa hạ thế tại MCCB TBA TBA Sông Ray 8ATBA Sông Ray 8A</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" ht="45">
+        <f t="shared" si="7"/>
+        <v>Tiếp địa tại Tiếp địa trụ trung thế 094
+ Tiếp địa hạ thế TBA Láng Me 3Nhánh rẽ Láng Me</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13">
+        <f>ROW()</f>
+        <v>13</v>
+      </c>
       <c r="B13" s="44">
-        <v>44061</v>
+        <v>44062</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="E13" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="F13" s="24" t="s">
-        <v>196</v>
-      </c>
-      <c r="G13" s="24"/>
-      <c r="H13" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="I13" s="6"/>
+      <c r="G13" s="48" t="s">
+        <v>224</v>
+      </c>
+      <c r="H13" s="48" t="s">
+        <v>165</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>234</v>
+      </c>
       <c r="J13" s="6"/>
       <c r="K13" s="26">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="L13" s="6" t="str">
+        <f t="array" ref="L13">_xlfn.TEXTJOIN(CHAR(10),TRUE,E13:F13)</f>
+        <v>Cắt FCO Nhánh rẽ Thoại Hương 3, 4
+Tiếp địa trung hạ áp tại TBA Thoại Hương 3, 4</v>
+      </c>
+      <c r="M13" s="26" t="str">
         <f t="shared" si="1"/>
+        <v>Nhánh rẽ Thoại Hương 3, 4</v>
+      </c>
+      <c r="N13" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>Cắt FCO Nhánh rẽ Thoại Hương 3, 4
+Tiếp địa trung hạ áp tại TBA Thoại Hương 3, 4Nhánh rẽ Thoại Hương 3, 4</v>
+      </c>
+      <c r="O13" s="35">
+        <v>44088</v>
+      </c>
+      <c r="P13" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="R13" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v>Cắt FCO Nhánh rẽ Thoại Hương 3, 4
+Tiếp địa trung hạ áp tại TBA Thoại Hương 3, 4Nhánh rẽ Thoại Hương 3, 4</v>
+      </c>
+      <c r="S13" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v>Đấu nối trung thế trụ 021 Nhánh rẽ Thoại Hương 3, 4. Di dời TBA Thoại Hương 4cắt fco nhánh rẽ thoại hương 3, 4
+tiếp địa trung hạ áp tại tba thoại hương 3, 4Nhánh rẽ Thoại Hương 3, 4</v>
+      </c>
+      <c r="T13" s="26" t="str">
+        <f t="shared" si="6"/>
+        <v>Cắt FCO Nhánh rẽ Thoại Hương 3, 4</v>
+      </c>
+      <c r="U13" s="26" t="str">
+        <f t="shared" si="7"/>
+        <v>Tiếp địa tại Tiếp địa trung hạ áp tại TBA Thoại Hương 3, 4Nhánh rẽ Thoại Hương 3, 4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14">
+        <f>ROW()</f>
         <v>14</v>
       </c>
-      <c r="L13" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="M13" s="26" t="str">
-        <f>D13</f>
-        <v>Nhánh rẽ Đồng Tâm 1</v>
-      </c>
-      <c r="N13" s="26" t="str">
-        <f>L13&amp;D13</f>
-        <v>Lưới điện trung thế sau Nhánh rẽ Đồng Tâm 1</v>
-      </c>
-      <c r="O13" s="35">
-        <v>44086</v>
-      </c>
-      <c r="P13" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q13">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="R13" s="26" t="str">
-        <f>L13&amp;D13</f>
-        <v>Lưới điện trung thế sau Nhánh rẽ Đồng Tâm 1</v>
-      </c>
-      <c r="S13" s="26" t="str">
-        <f>H13&amp;LOWER(L13)&amp;D13</f>
-        <v>Nâng cấp đường dây hạ thế và TBA Sông Ray 7 từ 1 pha lên 3 pha, cấy TBA Sông Ray 7Alưới điện trung thế sau Nhánh rẽ Đồng Tâm 1</v>
-      </c>
-      <c r="T13" s="26" t="str">
-        <f>"Cắt "&amp;C13&amp;M13</f>
-        <v>Cắt LBS khí + 3 LTDNhánh rẽ Đồng Tâm 1</v>
-      </c>
-      <c r="U13" s="26" t="str">
-        <f>"Tiếp địa tại "&amp;F13&amp;D13</f>
-        <v>Tiếp địa tại Tiếp địa trụ trung thế 381 
-Tiếp địa hạ thế TBA Sông Ray 7Nhánh rẽ Đồng Tâm 1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" ht="45">
       <c r="B14" s="44">
         <v>44062</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>199</v>
+        <v>166</v>
+      </c>
+      <c r="E14" t="s">
+        <v>196</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="I14" s="6"/>
+      <c r="G14" s="48" t="s">
+        <v>225</v>
+      </c>
+      <c r="H14" s="48" t="s">
+        <v>167</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>234</v>
+      </c>
       <c r="J14" s="6"/>
       <c r="K14" s="26">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="L14" s="6" t="str">
+        <f t="array" ref="L14">_xlfn.TEXTJOIN(CHAR(10),TRUE,E14:F14)</f>
+        <v>Cắt FCO Nhánh rẽ Xuân Tây 19
+Tiếp địa trung hạ áp tại TBA Xuân Tây 19</v>
+      </c>
+      <c r="M14" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="M14" s="26" t="str">
-        <f>D14</f>
-        <v>Nhánh rẽ Lâm San 10, 11, 12</v>
+        <v>Nhánh rẽ Xuân Tây 19</v>
       </c>
       <c r="N14" s="26" t="str">
-        <f>L14&amp;D14</f>
-        <v>Lưới điện trung thế sau Nhánh rẽ Lâm San 10, 11, 12</v>
+        <f t="shared" si="2"/>
+        <v>Cắt FCO Nhánh rẽ Xuân Tây 19
+Tiếp địa trung hạ áp tại TBA Xuân Tây 19Nhánh rẽ Xuân Tây 19</v>
       </c>
       <c r="O14" s="35">
         <v>44086</v>
       </c>
       <c r="P14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="Q14">
-        <f t="shared" ref="Q14" si="4">WEEKDAY(O14)</f>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="R14" s="26" t="str">
-        <f>L14&amp;D14</f>
-        <v>Lưới điện trung thế sau Nhánh rẽ Lâm San 10, 11, 12</v>
+        <f t="shared" si="4"/>
+        <v>Cắt FCO Nhánh rẽ Xuân Tây 19
+Tiếp địa trung hạ áp tại TBA Xuân Tây 19Nhánh rẽ Xuân Tây 19</v>
       </c>
       <c r="S14" s="26" t="str">
-        <f>H14&amp;LOWER(L14)&amp;D14</f>
-        <v>Nâng cấp đường dây hạ thế và TBA Sông Ray 7 từ 1 pha lên 3 pha, cấy TBA Sông Ray 7Alưới điện trung thế sau Nhánh rẽ Lâm San 10, 11, 12</v>
+        <f t="shared" si="5"/>
+        <v>Đấu nối trung thế trụ 017 Nhánh rẽ Xuân Tây 19.Cấy TBA Xuân Tây 19A, tách lưới hạ thế TBA Xuân Tây 19 sang TBA Xuân Tây 19Acắt fco nhánh rẽ xuân tây 19
+tiếp địa trung hạ áp tại tba xuân tây 19Nhánh rẽ Xuân Tây 19</v>
       </c>
       <c r="T14" s="26" t="str">
-        <f>"Cắt "&amp;C14&amp;M14</f>
-        <v>Cắt 3xFCO Nhánh rẽ Lâm San 10, 11, 12</v>
+        <f t="shared" si="6"/>
+        <v>Cắt FCO Nhánh rẽ Xuân Tây 19</v>
       </c>
       <c r="U14" s="26" t="str">
-        <f>"Tiếp địa tại "&amp;F14&amp;D14</f>
-        <v>Tiếp địa tại Tiếp địa trung hạ áp tại TBA Lâm San 11A, 11DNhánh rẽ Lâm San 10, 11, 12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" ht="30">
+        <f t="shared" si="7"/>
+        <v>Tiếp địa tại Tiếp địa trung hạ áp tại TBA Xuân Tây 19Nhánh rẽ Xuân Tây 19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="43.2">
+      <c r="A15">
+        <f>ROW()</f>
+        <v>15</v>
+      </c>
       <c r="B15" s="44">
         <v>44062</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="E15" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E15" s="45" t="s">
+        <v>199</v>
+      </c>
+      <c r="F15" s="24" t="s">
         <v>200</v>
       </c>
-      <c r="F15" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="I15" s="6"/>
+      <c r="G15" s="48" t="s">
+        <v>226</v>
+      </c>
+      <c r="H15" s="48" t="s">
+        <v>169</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>234</v>
+      </c>
       <c r="J15" s="6"/>
       <c r="K15" s="26">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="L15" s="6" t="str">
+        <f t="array" ref="L15">_xlfn.TEXTJOIN(CHAR(10),TRUE,E15:F15)</f>
+        <v>Cắt 3xFCO Nhánh rẽ Láng Me 5
+Tiếp địa trụ trung thế 107
+Tiếp địa trụ trung thế 131
+ Tiếp địa hạ thế TBA Láng Me 5, 5A, 5B</v>
+      </c>
+      <c r="M15" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="M15" s="26" t="str">
-        <f>D15</f>
-        <v>Nhánh rẽ Lâm San</v>
+        <v>Nhánh rẽ Láng Me 5</v>
       </c>
       <c r="N15" s="26" t="str">
-        <f>L15&amp;D15</f>
-        <v>Lưới điện trung thế sau Nhánh rẽ Lâm San</v>
+        <f t="shared" si="2"/>
+        <v>Cắt 3xFCO Nhánh rẽ Láng Me 5
+Tiếp địa trụ trung thế 107
+Tiếp địa trụ trung thế 131
+ Tiếp địa hạ thế TBA Láng Me 5, 5A, 5BNhánh rẽ Láng Me 5</v>
       </c>
       <c r="O15" s="35">
-        <v>44093</v>
+        <v>44089</v>
       </c>
       <c r="P15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="Q15">
-        <f t="shared" ref="Q15:Q25" si="5">WEEKDAY(O15)</f>
-        <v>7</v>
+        <f t="shared" si="9"/>
+        <v>3</v>
       </c>
       <c r="R15" s="26" t="str">
-        <f>L15&amp;D15</f>
-        <v>Lưới điện trung thế sau Nhánh rẽ Lâm San</v>
+        <f t="shared" si="4"/>
+        <v>Cắt 3xFCO Nhánh rẽ Láng Me 5
+Tiếp địa trụ trung thế 107
+Tiếp địa trụ trung thế 131
+ Tiếp địa hạ thế TBA Láng Me 5, 5A, 5BNhánh rẽ Láng Me 5</v>
       </c>
       <c r="S15" s="26" t="str">
-        <f>H15&amp;LOWER(L15)&amp;D15</f>
-        <v>Trồng trụ trung thế 015A đấu nối trung thế, tách lưới, sang tải TBA Sông Ray 2, Sông Ray 2A. Đấu nối trung thế và di dời TBA Sông Ray 4Alưới điện trung thế sau Nhánh rẽ Lâm San</v>
+        <f t="shared" si="5"/>
+        <v>Nâng cấp đường dây trung thế và trạm biến áp Láng Me 5B từ 1 pha lên 3 pha, di dời TBA Láng Me 5, cấy trạm biến áp lá me 5A-1cắt 3xfco nhánh rẽ láng me 5
+tiếp địa trụ trung thế 107
+tiếp địa trụ trung thế 131
+ tiếp địa hạ thế tba láng me 5, 5a, 5bNhánh rẽ Láng Me 5</v>
       </c>
       <c r="T15" s="26" t="str">
-        <f>"Cắt "&amp;C15&amp;M15</f>
-        <v>Cắt Recloser + 3 LTD Nhánh rẽ Lâm San</v>
+        <f t="shared" si="6"/>
+        <v>Cắt 3xFCO Nhánh rẽ Láng Me 5</v>
       </c>
       <c r="U15" s="26" t="str">
-        <f>"Tiếp địa tại "&amp;F15&amp;D15</f>
-        <v>Tiếp địa tại Tiếp địa trụ trung thế 075 Nhánh rẽ Lâm San</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21">
+        <f t="shared" si="7"/>
+        <v>Tiếp địa tại Tiếp địa trụ trung thế 131
+ Tiếp địa hạ thế TBA Láng Me 5, 5A, 5BNhánh rẽ Láng Me 5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="28.8">
+      <c r="A16">
+        <f>ROW()</f>
+        <v>16</v>
+      </c>
       <c r="B16" s="44">
         <v>44062</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="E16" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="E16" s="45" t="s">
+        <v>201</v>
+      </c>
+      <c r="F16" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="F16" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="I16" s="6"/>
+      <c r="G16" s="48" t="s">
+        <v>227</v>
+      </c>
+      <c r="H16" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>234</v>
+      </c>
       <c r="J16" s="6"/>
       <c r="K16" s="26">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="L16" s="6" t="str">
+        <f t="array" ref="L16">_xlfn.TEXTJOIN(CHAR(10),TRUE,E16:F16)</f>
+        <v xml:space="preserve">Cắt Recloser + 3 LTD Nhánh rẽ Sông Nhạn
+Tiếp địa trụ trung thế 006
+Tiếp địa trụ trung thế 023A </v>
+      </c>
+      <c r="M16" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="L16" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="M16" s="26" t="str">
-        <f>D16</f>
-        <v>Nhánh rẽ Cánh đồng Xuân Tây 1</v>
+        <v>Nhánh rẽ Sông Nhạn</v>
       </c>
       <c r="N16" s="26" t="str">
-        <f>L16&amp;D16</f>
-        <v>Lưới điện trung thế sau Nhánh rẽ Cánh đồng Xuân Tây 1</v>
+        <f t="shared" si="2"/>
+        <v>Cắt Recloser + 3 LTD Nhánh rẽ Sông Nhạn
+Tiếp địa trụ trung thế 006
+Tiếp địa trụ trung thế 023A Nhánh rẽ Sông Nhạn</v>
       </c>
       <c r="O16" s="35">
-        <v>44090</v>
+        <v>44095</v>
       </c>
       <c r="P16" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="Q16">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="R16" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v>Cắt Recloser + 3 LTD Nhánh rẽ Sông Nhạn
+Tiếp địa trụ trung thế 006
+Tiếp địa trụ trung thế 023A Nhánh rẽ Sông Nhạn</v>
+      </c>
+      <c r="S16" s="26" t="str">
         <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="R16" s="26" t="str">
-        <f>L16&amp;D16</f>
-        <v>Lưới điện trung thế sau Nhánh rẽ Cánh đồng Xuân Tây 1</v>
-      </c>
-      <c r="S16" s="26" t="str">
-        <f>H16&amp;LOWER(L16)&amp;D16</f>
-        <v>Đấu nối trung thế trụ 009A, 013. Tách lưới hạ thế sau TBA Cánh đồng Xuân Tây 1A, Cánh đồng Xuân Tây 1Blưới điện trung thế sau Nhánh rẽ Cánh đồng Xuân Tây 1</v>
+        <v>Di dời TBA Suối Râm 7cắt recloser + 3 ltd nhánh rẽ sông nhạn
+tiếp địa trụ trung thế 006
+tiếp địa trụ trung thế 023a Nhánh rẽ Sông Nhạn</v>
       </c>
       <c r="T16" s="26" t="str">
-        <f>"Cắt "&amp;C16&amp;M16</f>
-        <v>Cắt 3xFCO Nhánh rẽ Cánh đồng Xuân Tây 1</v>
+        <f t="shared" si="6"/>
+        <v>Cắt Recloser + 3 LTD Nhánh rẽ Sông Nhạn</v>
       </c>
       <c r="U16" s="26" t="str">
-        <f>"Tiếp địa tại "&amp;F16&amp;D16</f>
-        <v>Tiếp địa tại Tiếp địa trung hạ áp tại TBA Cánh đồng Xuân Tây 1Nhánh rẽ Cánh đồng Xuân Tây 1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" ht="30">
+        <f t="shared" si="7"/>
+        <v>Tiếp địa tại Tiếp địa trụ trung thế 023A Nhánh rẽ Sông Nhạn</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="43.2">
+      <c r="A17">
+        <f>ROW()</f>
+        <v>17</v>
+      </c>
       <c r="B17" s="44">
         <v>44062</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="E17" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="F17" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="F17" s="24" t="s">
+      <c r="G17" s="48" t="s">
         <v>205</v>
       </c>
-      <c r="G17" s="24"/>
-      <c r="H17" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="I17" s="6"/>
+      <c r="H17" s="48" t="s">
+        <v>173</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>234</v>
+      </c>
       <c r="J17" s="6"/>
       <c r="K17" s="26">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="L17" s="6" t="str">
+        <f t="array" ref="L17">_xlfn.TEXTJOIN(CHAR(10),TRUE,E17:F17)</f>
+        <v>Cắt Recloser + 3 LTD Nhánh rẽ Nam Hà
+Cắt 3 LTD Xuân Bảo - Nam Hà
+Tiếp địa trụ trung thế 326
+Tiếp địa trụ trung thế 351</v>
+      </c>
+      <c r="M17" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="M17" s="26" t="str">
-        <f>D17</f>
-        <v>Nhánh rẽ Láng Me</v>
+        <v>Nhánh rẽ Nam Hà</v>
       </c>
       <c r="N17" s="26" t="str">
-        <f>L17&amp;D17</f>
-        <v>Lưới điện trung thế sau Nhánh rẽ Láng Me</v>
+        <f t="shared" si="2"/>
+        <v>Cắt Recloser + 3 LTD Nhánh rẽ Nam Hà
+Cắt 3 LTD Xuân Bảo - Nam Hà
+Tiếp địa trụ trung thế 326
+Tiếp địa trụ trung thế 351Nhánh rẽ Nam Hà</v>
       </c>
       <c r="O17" s="35">
-        <v>44089</v>
+        <v>44096</v>
       </c>
       <c r="P17" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="Q17">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="R17" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v>Cắt Recloser + 3 LTD Nhánh rẽ Nam Hà
+Cắt 3 LTD Xuân Bảo - Nam Hà
+Tiếp địa trụ trung thế 326
+Tiếp địa trụ trung thế 351Nhánh rẽ Nam Hà</v>
+      </c>
+      <c r="S17" s="26" t="str">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="R17" s="26" t="str">
-        <f>L17&amp;D17</f>
-        <v>Lưới điện trung thế sau Nhánh rẽ Láng Me</v>
-      </c>
-      <c r="S17" s="26" t="str">
-        <f>H17&amp;LOWER(L17)&amp;D17</f>
-        <v>Đấu nối trung thế trụ 087 nhánh rẽ Láng Me. Cấy TBA Láng Me 3B, Tách lưới hạ thế sau TBA Láng Me 3 sang Láng Me 3Blưới điện trung thế sau Nhánh rẽ Láng Me</v>
+        <v>Lắp đặt trạm biến áp Nam Hà 3B tách lưới hạ thế trạm Nam Hà 3 sang nhận điện trạm Nam Hà 3B đấu nối đường dây trung thế xây dựng mớicắt recloser + 3 ltd nhánh rẽ nam hà
+cắt 3 ltd xuân bảo - nam hà
+tiếp địa trụ trung thế 326
+tiếp địa trụ trung thế 351Nhánh rẽ Nam Hà</v>
       </c>
       <c r="T17" s="26" t="str">
-        <f>"Cắt "&amp;C17&amp;M17</f>
-        <v>Cắt Recloser + 3 LTD Nhánh rẽ Láng Me</v>
+        <f t="shared" si="6"/>
+        <v>Cắt Recloser + 3 LTD Nhánh rẽ Nam Hà</v>
       </c>
       <c r="U17" s="26" t="str">
-        <f>"Tiếp địa tại "&amp;F17&amp;D17</f>
-        <v>Tiếp địa tại Tiếp địa trụ trung thế 094
- Tiếp địa hạ thế TBA Láng Me 3Nhánh rẽ Láng Me</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21">
-      <c r="A18" t="s">
-        <v>66</v>
+        <f t="shared" si="7"/>
+        <v>Tiếp địa tại Tiếp địa trụ trung thế 351Nhánh rẽ Nam Hà</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="28.8">
+      <c r="A18">
+        <f>ROW()</f>
+        <v>18</v>
       </c>
       <c r="B18" s="44">
-        <v>44062</v>
+        <v>44061</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="I18" s="6"/>
+        <v>211</v>
+      </c>
+      <c r="G18" s="48" t="s">
+        <v>209</v>
+      </c>
+      <c r="H18" s="48" t="s">
+        <v>175</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>234</v>
+      </c>
       <c r="J18" s="6"/>
       <c r="K18" s="26">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="L18" s="6" t="str">
+        <f t="array" ref="L18">_xlfn.TEXTJOIN(CHAR(10),TRUE,E18:F18)</f>
+        <v>Cắt Recloser + 3 LTD Nhánh rẽ Tân Bảo
+Tiếp địa trụ trung thế 117
+Tiếp địa trụ trung thế 147</v>
+      </c>
+      <c r="M18" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="L18" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="M18" s="26" t="str">
-        <f>D18</f>
-        <v>Nhánh rẽ Thoại Hương 3, 4</v>
+        <v>Nhánh rẽ Tân Bảo</v>
       </c>
       <c r="N18" s="26" t="str">
-        <f>L18&amp;D18</f>
-        <v>Lưới điện trung thế sau Nhánh rẽ Thoại Hương 3, 4</v>
+        <f t="shared" si="2"/>
+        <v>Cắt Recloser + 3 LTD Nhánh rẽ Tân Bảo
+Tiếp địa trụ trung thế 117
+Tiếp địa trụ trung thế 147Nhánh rẽ Tân Bảo</v>
       </c>
       <c r="O18" s="35">
-        <v>44088</v>
+        <v>44097</v>
       </c>
       <c r="P18" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="Q18">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="R18" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v>Cắt Recloser + 3 LTD Nhánh rẽ Tân Bảo
+Tiếp địa trụ trung thế 117
+Tiếp địa trụ trung thế 147Nhánh rẽ Tân Bảo</v>
+      </c>
+      <c r="S18" s="26" t="str">
         <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="R18" s="26" t="str">
-        <f>L18&amp;D18</f>
-        <v>Lưới điện trung thế sau Nhánh rẽ Thoại Hương 3, 4</v>
-      </c>
-      <c r="S18" s="26" t="str">
-        <f>H18&amp;LOWER(L18)&amp;D18</f>
-        <v>Đấu nối trung thế trụ 021 Nhánh rẽ Thoại Hương 3, 4. Di dời TBA Thoại Hương 4lưới điện trung thế sau Nhánh rẽ Thoại Hương 3, 4</v>
+        <v>Lắp đặt trạm biến áp Tân Bảo 3A, tách lưới hạ thế trạm Tân Bảo 3 sang nhận điện trạm Tân Bảo 3Acắt recloser + 3 ltd nhánh rẽ tân bảo
+tiếp địa trụ trung thế 117
+tiếp địa trụ trung thế 147Nhánh rẽ Tân Bảo</v>
       </c>
       <c r="T18" s="26" t="str">
-        <f>"Cắt "&amp;C18&amp;M18</f>
-        <v>Cắt FCO Nhánh rẽ Thoại Hương 3, 4</v>
+        <f t="shared" si="6"/>
+        <v>Cắt Recloser + 3 LTD Nhánh rẽ Tân Bảo</v>
       </c>
       <c r="U18" s="26" t="str">
-        <f>"Tiếp địa tại "&amp;F18&amp;D18</f>
-        <v>Tiếp địa tại Tiếp địa trung hạ áp tại TBA Thoại Hương 3, 4Nhánh rẽ Thoại Hương 3, 4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21">
+        <f t="shared" si="7"/>
+        <v>Tiếp địa tại Tiếp địa trụ trung thế 147Nhánh rẽ Tân Bảo</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="43.2">
+      <c r="A19">
+        <f>ROW()</f>
+        <v>19</v>
+      </c>
       <c r="B19" s="44">
         <v>44062</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="E19" t="s">
-        <v>207</v>
+        <v>172</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>203</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="I19" s="6"/>
+        <v>204</v>
+      </c>
+      <c r="G19" s="48" t="s">
+        <v>212</v>
+      </c>
+      <c r="H19" s="48" t="s">
+        <v>176</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>234</v>
+      </c>
       <c r="J19" s="6"/>
       <c r="K19" s="26">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="L19" s="6" t="str">
+        <f t="array" ref="L19">_xlfn.TEXTJOIN(CHAR(10),TRUE,E19:F19)</f>
+        <v>Cắt Recloser + 3 LTD Nhánh rẽ Nam Hà
+Cắt 3 LTD Xuân Bảo - Nam Hà
+Tiếp địa trụ trung thế 326
+Tiếp địa trụ trung thế 351</v>
+      </c>
+      <c r="M19" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="L19" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="M19" s="26" t="str">
-        <f>D19</f>
-        <v>Nhánh rẽ Xuân Tây 19</v>
+        <v>Nhánh rẽ Nam Hà</v>
       </c>
       <c r="N19" s="26" t="str">
-        <f>L19&amp;D19</f>
-        <v>Lưới điện trung thế sau Nhánh rẽ Xuân Tây 19</v>
+        <f t="shared" si="2"/>
+        <v>Cắt Recloser + 3 LTD Nhánh rẽ Nam Hà
+Cắt 3 LTD Xuân Bảo - Nam Hà
+Tiếp địa trụ trung thế 326
+Tiếp địa trụ trung thế 351Nhánh rẽ Nam Hà</v>
       </c>
       <c r="O19" s="35">
-        <v>44086</v>
+        <v>44096</v>
       </c>
       <c r="P19" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="Q19">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="R19" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v>Cắt Recloser + 3 LTD Nhánh rẽ Nam Hà
+Cắt 3 LTD Xuân Bảo - Nam Hà
+Tiếp địa trụ trung thế 326
+Tiếp địa trụ trung thế 351Nhánh rẽ Nam Hà</v>
+      </c>
+      <c r="S19" s="26" t="str">
         <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
-      <c r="R19" s="26" t="str">
-        <f>L19&amp;D19</f>
-        <v>Lưới điện trung thế sau Nhánh rẽ Xuân Tây 19</v>
-      </c>
-      <c r="S19" s="26" t="str">
-        <f>H19&amp;LOWER(L19)&amp;D19</f>
-        <v>Đấu nối trung thế trụ 017 Nhánh rẽ Xuân Tây 19.Cấy TBA Xuân Tây 19A, tách lưới hạ thế TBA Xuân Tây 19 sang TBA Xuân Tây 19Alưới điện trung thế sau Nhánh rẽ Xuân Tây 19</v>
+        <v>Di dời TBA Nam Hà 1, trồng trụ đôn lướicắt recloser + 3 ltd nhánh rẽ nam hà
+cắt 3 ltd xuân bảo - nam hà
+tiếp địa trụ trung thế 326
+tiếp địa trụ trung thế 351Nhánh rẽ Nam Hà</v>
       </c>
       <c r="T19" s="26" t="str">
-        <f>"Cắt "&amp;C19&amp;M19</f>
-        <v>Cắt FCO Nhánh rẽ Xuân Tây 19</v>
+        <f t="shared" si="6"/>
+        <v>Cắt Recloser + 3 LTD Nhánh rẽ Nam Hà</v>
       </c>
       <c r="U19" s="26" t="str">
-        <f>"Tiếp địa tại "&amp;F19&amp;D19</f>
-        <v>Tiếp địa tại Tiếp địa trung hạ áp tại TBA Xuân Tây 19Nhánh rẽ Xuân Tây 19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" ht="45">
+        <f t="shared" si="7"/>
+        <v>Tiếp địa tại Tiếp địa trụ trung thế 351Nhánh rẽ Nam Hà</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="28.8">
+      <c r="A20">
+        <f>ROW()</f>
+        <v>20</v>
+      </c>
       <c r="B20" s="44">
         <v>44062</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="E20" s="45" t="s">
+        <v>174</v>
+      </c>
+      <c r="E20" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="F20" s="24" t="s">
+      <c r="F20" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="G20" s="24"/>
-      <c r="H20" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="I20" s="6"/>
+      <c r="G20" s="48" t="s">
+        <v>213</v>
+      </c>
+      <c r="H20" s="48" t="s">
+        <v>177</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>234</v>
+      </c>
       <c r="J20" s="6"/>
       <c r="K20" s="26">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="L20" s="6" t="str">
+        <f t="array" ref="L20">_xlfn.TEXTJOIN(CHAR(10),TRUE,E20:F20)</f>
+        <v>Cắt Recloser + 3 LTD Nhánh rẽ Tân Bảo
+Tiếp địa trụ trung thế 117
+Tiếp địa trụ trung thế 147</v>
+      </c>
+      <c r="M20" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="L20" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="M20" s="26" t="str">
-        <f>D20</f>
-        <v>Nhánh rẽ Láng Me 5</v>
+        <v>Nhánh rẽ Tân Bảo</v>
       </c>
       <c r="N20" s="26" t="str">
-        <f>L20&amp;D20</f>
-        <v>Lưới điện trung thế sau Nhánh rẽ Láng Me 5</v>
+        <f t="shared" si="2"/>
+        <v>Cắt Recloser + 3 LTD Nhánh rẽ Tân Bảo
+Tiếp địa trụ trung thế 117
+Tiếp địa trụ trung thế 147Nhánh rẽ Tân Bảo</v>
       </c>
       <c r="O20" s="35">
-        <v>44089</v>
+        <v>44097</v>
       </c>
       <c r="P20" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="Q20">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="R20" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v>Cắt Recloser + 3 LTD Nhánh rẽ Tân Bảo
+Tiếp địa trụ trung thế 117
+Tiếp địa trụ trung thế 147Nhánh rẽ Tân Bảo</v>
+      </c>
+      <c r="S20" s="26" t="str">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="R20" s="26" t="str">
-        <f>L20&amp;D20</f>
-        <v>Lưới điện trung thế sau Nhánh rẽ Láng Me 5</v>
-      </c>
-      <c r="S20" s="26" t="str">
-        <f>H20&amp;LOWER(L20)&amp;D20</f>
-        <v>Nâng cấp đường dây trung thế và trạm biến áp Láng Me 5B từ 1 pha lên 3 pha, di dời TBA Láng Me 5, cấy trạm biến áp lá me 5A-1lưới điện trung thế sau Nhánh rẽ Láng Me 5</v>
+        <v>Di dời TBA Tân Bảo 3cắt recloser + 3 ltd nhánh rẽ tân bảo
+tiếp địa trụ trung thế 117
+tiếp địa trụ trung thế 147Nhánh rẽ Tân Bảo</v>
       </c>
       <c r="T20" s="26" t="str">
-        <f>"Cắt "&amp;C20&amp;M20</f>
-        <v>Cắt 3xFCO Nhánh rẽ Láng Me 5</v>
+        <f t="shared" si="6"/>
+        <v>Cắt Recloser + 3 LTD Nhánh rẽ Tân Bảo</v>
       </c>
       <c r="U20" s="26" t="str">
-        <f>"Tiếp địa tại "&amp;F20&amp;D20</f>
-        <v>Tiếp địa tại Tiếp địa trụ trung thế 131
- Tiếp địa hạ thế TBA Láng Me 5, 5A, 5BNhánh rẽ Láng Me 5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" ht="30">
+        <f t="shared" si="7"/>
+        <v>Tiếp địa tại Tiếp địa trụ trung thế 147Nhánh rẽ Tân Bảo</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
+      <c r="A21">
+        <f>ROW()</f>
+        <v>21</v>
+      </c>
       <c r="B21" s="44">
-        <v>44062</v>
+        <v>44082</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="E21" s="45" t="s">
-        <v>212</v>
+        <v>237</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>239</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="I21" s="6"/>
+        <v>238</v>
+      </c>
+      <c r="G21" s="48" t="s">
+        <v>240</v>
+      </c>
+      <c r="H21" s="48" t="s">
+        <v>241</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>234</v>
+      </c>
       <c r="J21" s="6"/>
       <c r="K21" s="26">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="L21" s="6" t="str">
+        <f t="array" ref="L21">_xlfn.TEXTJOIN(CHAR(10),TRUE,E21:F21)</f>
+        <v>Cắt FCO + MCCB TBA Sông Ray 7
+Tiếp địa hạ thế tại MCCB TBA Sông Ray 7</v>
+      </c>
+      <c r="M21" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="L21" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="M21" s="26" t="str">
-        <f>D21</f>
-        <v>Nhánh rẽ Sông Nhạn</v>
+        <v>TBA Sông Ray 7</v>
       </c>
       <c r="N21" s="26" t="str">
-        <f>L21&amp;D21</f>
-        <v>Lưới điện trung thế sau Nhánh rẽ Sông Nhạn</v>
+        <f t="shared" si="2"/>
+        <v>Cắt FCO + MCCB TBA Sông Ray 7
+Tiếp địa hạ thế tại MCCB TBA Sông Ray 7TBA Sông Ray 7</v>
       </c>
       <c r="O21" s="35">
-        <v>44095</v>
+        <v>44098</v>
       </c>
       <c r="P21" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="Q21">
+        <f>WEEKDAY(O21)</f>
+        <v>5</v>
+      </c>
+      <c r="R21" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v>Cắt FCO + MCCB TBA Sông Ray 7
+Tiếp địa hạ thế tại MCCB TBA Sông Ray 7TBA Sông Ray 7</v>
+      </c>
+      <c r="S21" s="26" t="str">
         <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="R21" s="26" t="str">
-        <f>L21&amp;D21</f>
-        <v>Lưới điện trung thế sau Nhánh rẽ Sông Nhạn</v>
-      </c>
-      <c r="S21" s="26" t="str">
-        <f>H21&amp;LOWER(L21)&amp;D21</f>
-        <v>Di dời TBA Suối Râm 7lưới điện trung thế sau Nhánh rẽ Sông Nhạn</v>
+        <v>Nâng cấp đường dây hạ thế sau TBA Sông Ray 7cắt fco + mccb tba sông ray 7
+tiếp địa hạ thế tại mccb tba sông ray 7TBA Sông Ray 7</v>
       </c>
       <c r="T21" s="26" t="str">
-        <f>"Cắt "&amp;C21&amp;M21</f>
-        <v>Cắt Recloser + 3 LTD Nhánh rẽ Sông Nhạn</v>
+        <f t="shared" si="6"/>
+        <v>Cắt FCO TBA Sông Ray 7</v>
       </c>
       <c r="U21" s="26" t="str">
-        <f>"Tiếp địa tại "&amp;F21&amp;D21</f>
-        <v>Tiếp địa tại Tiếp địa trụ trung thế 023A Nhánh rẽ Sông Nhạn</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" ht="45">
-      <c r="B22" s="44">
-        <v>44062</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="E22" s="24" t="s">
-        <v>215</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="26">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="L22" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="M22" s="26" t="str">
-        <f>D22</f>
-        <v>Nhánh rẽ Nam Hà</v>
-      </c>
-      <c r="N22" s="26" t="str">
-        <f>L22&amp;D22</f>
-        <v>Lưới điện trung thế sau Nhánh rẽ Nam Hà</v>
-      </c>
-      <c r="O22" s="35">
-        <v>44096</v>
-      </c>
-      <c r="P22" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q22">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="R22" s="26" t="str">
-        <f>L22&amp;D22</f>
-        <v>Lưới điện trung thế sau Nhánh rẽ Nam Hà</v>
-      </c>
-      <c r="S22" s="26" t="str">
-        <f>H22&amp;LOWER(L22)&amp;D22</f>
-        <v>Lắp đặt trạm biến áp Nam Hà 3B tách lưới hạ thế trạm Nam Hà 3 sang nhận điện trạm Nam Hà 3B đấu nối đường dây trung thế xây dựng mớilưới điện trung thế sau Nhánh rẽ Nam Hà</v>
-      </c>
-      <c r="T22" s="26" t="str">
-        <f>"Cắt "&amp;C22&amp;M22</f>
-        <v>Cắt Recloser + 3 LTD Nhánh rẽ Nam Hà</v>
-      </c>
-      <c r="U22" s="26" t="str">
-        <f>"Tiếp địa tại "&amp;F22&amp;D22</f>
-        <v>Tiếp địa tại Tiếp địa trụ trung thế 351Nhánh rẽ Nam Hà</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" ht="30">
-      <c r="B23" s="44">
-        <v>44061</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="E23" s="24" t="s">
-        <v>222</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="26">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="L23" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="M23" s="26" t="str">
-        <f>D23</f>
-        <v>Nhánh rẽ Tân Bảo</v>
-      </c>
-      <c r="N23" s="26" t="str">
-        <f>L23&amp;D23</f>
-        <v>Lưới điện trung thế sau Nhánh rẽ Tân Bảo</v>
-      </c>
-      <c r="O23" s="35">
-        <v>44097</v>
-      </c>
-      <c r="P23" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q23">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="R23" s="26" t="str">
-        <f>L23&amp;D23</f>
-        <v>Lưới điện trung thế sau Nhánh rẽ Tân Bảo</v>
-      </c>
-      <c r="S23" s="26" t="str">
-        <f>H23&amp;LOWER(L23)&amp;D23</f>
-        <v>Lắp đặt trạm biến áp Tân Bảo 3A, tách lưới hạ thế trạm Tân Bảo 3 sang nhận điện trạm Tân Bảo 3Alưới điện trung thế sau Nhánh rẽ Tân Bảo</v>
-      </c>
-      <c r="T23" s="26" t="str">
-        <f>"Cắt "&amp;C23&amp;M23</f>
-        <v>Cắt Recloser + 3 LTD Nhánh rẽ Tân Bảo</v>
-      </c>
-      <c r="U23" s="26" t="str">
-        <f>"Tiếp địa tại "&amp;F23&amp;D23</f>
-        <v>Tiếp địa tại Tiếp địa trụ trung thế 147Nhánh rẽ Tân Bảo</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" ht="45">
-      <c r="B24" s="44">
-        <v>44062</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="E24" s="24" t="s">
-        <v>215</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="26">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="L24" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="M24" s="26" t="str">
-        <f>D24</f>
-        <v>Nhánh rẽ Nam Hà</v>
-      </c>
-      <c r="N24" s="26" t="str">
-        <f>L24&amp;D24</f>
-        <v>Lưới điện trung thế sau Nhánh rẽ Nam Hà</v>
-      </c>
-      <c r="O24" s="35">
-        <v>44096</v>
-      </c>
-      <c r="P24" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q24">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="R24" s="26" t="str">
-        <f>L24&amp;D24</f>
-        <v>Lưới điện trung thế sau Nhánh rẽ Nam Hà</v>
-      </c>
-      <c r="S24" s="26" t="str">
-        <f>H24&amp;LOWER(L24)&amp;D24</f>
-        <v>Di dời TBA Nam Hà 1, trồng trụ đôn lướilưới điện trung thế sau Nhánh rẽ Nam Hà</v>
-      </c>
-      <c r="T24" s="26" t="str">
-        <f>"Cắt "&amp;C24&amp;M24</f>
-        <v>Cắt Recloser + 3 LTD Nhánh rẽ Nam Hà</v>
-      </c>
-      <c r="U24" s="26" t="str">
-        <f>"Tiếp địa tại "&amp;F24&amp;D24</f>
-        <v>Tiếp địa tại Tiếp địa trụ trung thế 351Nhánh rẽ Nam Hà</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" ht="30">
-      <c r="B25" s="44">
-        <v>44062</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="E25" s="24" t="s">
-        <v>222</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="26">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="L25" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="M25" s="26" t="str">
-        <f>D25</f>
-        <v>Nhánh rẽ Tân Bảo</v>
-      </c>
-      <c r="N25" s="26" t="str">
-        <f>L25&amp;D25</f>
-        <v>Lưới điện trung thế sau Nhánh rẽ Tân Bảo</v>
-      </c>
-      <c r="O25" s="35">
-        <v>44097</v>
-      </c>
-      <c r="P25" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q25">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="R25" s="26" t="str">
-        <f>L25&amp;D25</f>
-        <v>Lưới điện trung thế sau Nhánh rẽ Tân Bảo</v>
-      </c>
-      <c r="S25" s="26" t="str">
-        <f>H25&amp;LOWER(L25)&amp;D25</f>
-        <v>Di dời TBA Tân Bảo 3lưới điện trung thế sau Nhánh rẽ Tân Bảo</v>
-      </c>
-      <c r="T25" s="26" t="str">
-        <f>"Cắt "&amp;C25&amp;M25</f>
-        <v>Cắt Recloser + 3 LTD Nhánh rẽ Tân Bảo</v>
-      </c>
-      <c r="U25" s="26" t="str">
-        <f>"Tiếp địa tại "&amp;F25&amp;D25</f>
-        <v>Tiếp địa tại Tiếp địa trụ trung thế 147Nhánh rẽ Tân Bảo</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" ht="30">
-      <c r="B26" s="44">
-        <v>44062</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="E26" s="24" t="s">
-        <v>226</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="26">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="L26" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="M26" s="26" t="str">
-        <f>D26</f>
-        <v>Nhánh rẽ Thừa Đức 11</v>
-      </c>
-      <c r="N26" s="26" t="str">
-        <f>L26&amp;D26</f>
-        <v>Lưới điện trung thế sau Nhánh rẽ Thừa Đức 11</v>
-      </c>
-      <c r="O26" s="35">
-        <v>44098</v>
-      </c>
-      <c r="P26" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q26">
-        <f>WEEKDAY(O26)</f>
-        <v>5</v>
-      </c>
-      <c r="R26" s="26" t="str">
-        <f>L26&amp;D26</f>
-        <v>Lưới điện trung thế sau Nhánh rẽ Thừa Đức 11</v>
-      </c>
-      <c r="S26" s="26" t="str">
-        <f>H26&amp;LOWER(L26)&amp;D26</f>
-        <v>Lắp đặt trạm biến áp Thừa Đức 11A, đấu nối trung thế nhánh rẽ Thừa Đức 11A, tách lưới hạ thế trạm Thừa Đức 11 sang nhận điện trạm Thừa Đức 11Alưới điện trung thế sau Nhánh rẽ Thừa Đức 11</v>
-      </c>
-      <c r="T26" s="26" t="str">
-        <f>"Cắt "&amp;C26&amp;M26</f>
-        <v>Cắt FCO Nhánh rẽ Thừa Đức 11</v>
-      </c>
-      <c r="U26" s="26" t="str">
-        <f>"Tiếp địa tại "&amp;F26&amp;D26</f>
-        <v>Tiếp địa tại Nhánh rẽ Thừa Đức 11</v>
-      </c>
+        <f t="shared" si="7"/>
+        <v>Tiếp địa tại Tiếp địa hạ thế tại MCCB TBA Sông Ray 7TBA Sông Ray 7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
+      <c r="A22">
+        <f>ROW()</f>
+        <v>22</v>
+      </c>
+      <c r="B22" s="44"/>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="A23">
+        <f>ROW()</f>
+        <v>23</v>
+      </c>
+      <c r="B23" s="44"/>
+    </row>
+    <row r="24" spans="1:21">
+      <c r="A24">
+        <f>ROW()</f>
+        <v>24</v>
+      </c>
+      <c r="B24" s="44"/>
+    </row>
+    <row r="25" spans="1:21">
+      <c r="A25">
+        <f>ROW()</f>
+        <v>25</v>
+      </c>
+      <c r="B25" s="44"/>
+    </row>
+    <row r="26" spans="1:21">
+      <c r="A26">
+        <f>ROW()</f>
+        <v>26</v>
+      </c>
+      <c r="B26" s="44"/>
+    </row>
+    <row r="27" spans="1:21">
+      <c r="A27">
+        <f>ROW()</f>
+        <v>27</v>
+      </c>
+      <c r="B27" s="44"/>
+    </row>
+    <row r="28" spans="1:21">
+      <c r="A28">
+        <f>ROW()</f>
+        <v>28</v>
+      </c>
+      <c r="B28" s="44"/>
+    </row>
+    <row r="29" spans="1:21">
+      <c r="A29">
+        <f>ROW()</f>
+        <v>29</v>
+      </c>
+      <c r="B29" s="44"/>
+    </row>
+    <row r="30" spans="1:21">
+      <c r="A30">
+        <f>ROW()</f>
+        <v>30</v>
+      </c>
+      <c r="B30" s="44"/>
+    </row>
+    <row r="31" spans="1:21">
+      <c r="A31">
+        <f>ROW()</f>
+        <v>31</v>
+      </c>
+      <c r="B31" s="44"/>
+    </row>
+    <row r="32" spans="1:21">
+      <c r="A32">
+        <f>ROW()</f>
+        <v>32</v>
+      </c>
+      <c r="B32" s="44"/>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <f>ROW()</f>
+        <v>33</v>
+      </c>
+      <c r="B33" s="44"/>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <f>ROW()</f>
+        <v>34</v>
+      </c>
+      <c r="B34" s="44"/>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <f>ROW()</f>
+        <v>35</v>
+      </c>
+      <c r="B35" s="44"/>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <f>ROW()</f>
+        <v>36</v>
+      </c>
+      <c r="B36" s="44"/>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <f>ROW()</f>
+        <v>37</v>
+      </c>
+      <c r="B37" s="44"/>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <f>ROW()</f>
+        <v>38</v>
+      </c>
+      <c r="B38" s="44"/>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <f>ROW()</f>
+        <v>39</v>
+      </c>
+      <c r="B39" s="44"/>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <f>ROW()</f>
+        <v>40</v>
+      </c>
+      <c r="B40" s="44"/>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <f>ROW()</f>
+        <v>41</v>
+      </c>
+      <c r="B41" s="44"/>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42">
+        <f>ROW()</f>
+        <v>42</v>
+      </c>
+      <c r="B42" s="44"/>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43">
+        <f>ROW()</f>
+        <v>43</v>
+      </c>
+      <c r="B43" s="44"/>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44">
+        <f>ROW()</f>
+        <v>44</v>
+      </c>
+      <c r="B44" s="44"/>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45">
+        <f>ROW()</f>
+        <v>45</v>
+      </c>
+      <c r="B45" s="44"/>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46">
+        <f>ROW()</f>
+        <v>46</v>
+      </c>
+      <c r="B46" s="44"/>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47">
+        <f>ROW()</f>
+        <v>47</v>
+      </c>
+      <c r="B47" s="44"/>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48">
+        <f>ROW()</f>
+        <v>48</v>
+      </c>
+      <c r="B48" s="44"/>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49">
+        <f>ROW()</f>
+        <v>49</v>
+      </c>
+      <c r="B49" s="44"/>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50">
+        <f>ROW()</f>
+        <v>50</v>
+      </c>
+      <c r="B50" s="44"/>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51">
+        <f>ROW()</f>
+        <v>51</v>
+      </c>
+      <c r="B51" s="44"/>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52">
+        <f>ROW()</f>
+        <v>52</v>
+      </c>
+      <c r="B52" s="44"/>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53">
+        <f>ROW()</f>
+        <v>53</v>
+      </c>
+      <c r="B53" s="44"/>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54">
+        <f>ROW()</f>
+        <v>54</v>
+      </c>
+      <c r="B54" s="44"/>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55">
+        <f>ROW()</f>
+        <v>55</v>
+      </c>
+      <c r="B55" s="44"/>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56">
+        <f>ROW()</f>
+        <v>56</v>
+      </c>
+      <c r="B56" s="44"/>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57">
+        <f>ROW()</f>
+        <v>57</v>
+      </c>
+      <c r="B57" s="44"/>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58">
+        <f>ROW()</f>
+        <v>58</v>
+      </c>
+      <c r="B58" s="44"/>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59">
+        <f>ROW()</f>
+        <v>59</v>
+      </c>
+      <c r="B59" s="44"/>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60">
+        <f>ROW()</f>
+        <v>60</v>
+      </c>
+      <c r="B60" s="44"/>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61">
+        <f>ROW()</f>
+        <v>61</v>
+      </c>
+      <c r="B61" s="44"/>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62">
+        <f>ROW()</f>
+        <v>62</v>
+      </c>
+      <c r="B62" s="44"/>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63">
+        <f>ROW()</f>
+        <v>63</v>
+      </c>
+      <c r="B63" s="44"/>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64">
+        <f>ROW()</f>
+        <v>64</v>
+      </c>
+      <c r="B64" s="44"/>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65">
+        <f>ROW()</f>
+        <v>65</v>
+      </c>
+      <c r="B65" s="44"/>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66">
+        <f>ROW()</f>
+        <v>66</v>
+      </c>
+      <c r="B66" s="44"/>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67">
+        <f>ROW()</f>
+        <v>67</v>
+      </c>
+      <c r="B67" s="44"/>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68">
+        <f>ROW()</f>
+        <v>68</v>
+      </c>
+      <c r="B68" s="44"/>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69">
+        <f>ROW()</f>
+        <v>69</v>
+      </c>
+      <c r="B69" s="44"/>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70">
+        <f>ROW()</f>
+        <v>70</v>
+      </c>
+      <c r="B70" s="44"/>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71">
+        <f>ROW()</f>
+        <v>71</v>
+      </c>
+      <c r="B71" s="44"/>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72">
+        <f>ROW()</f>
+        <v>72</v>
+      </c>
+      <c r="B72" s="44"/>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73">
+        <f>ROW()</f>
+        <v>73</v>
+      </c>
+      <c r="B73" s="44"/>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74">
+        <f>ROW()</f>
+        <v>74</v>
+      </c>
+      <c r="B74" s="44"/>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75">
+        <f>ROW()</f>
+        <v>75</v>
+      </c>
+      <c r="B75" s="44"/>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76">
+        <f>ROW()</f>
+        <v>76</v>
+      </c>
+      <c r="B76" s="44"/>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77">
+        <f>ROW()</f>
+        <v>77</v>
+      </c>
+      <c r="B77" s="44"/>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78">
+        <f>ROW()</f>
+        <v>78</v>
+      </c>
+      <c r="B78" s="44"/>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79">
+        <f>ROW()</f>
+        <v>79</v>
+      </c>
+      <c r="B79" s="44"/>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80">
+        <f>ROW()</f>
+        <v>80</v>
+      </c>
+      <c r="B80" s="44"/>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81">
+        <f>ROW()</f>
+        <v>81</v>
+      </c>
+      <c r="B81" s="44"/>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82">
+        <f>ROW()</f>
+        <v>82</v>
+      </c>
+      <c r="B82" s="44"/>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83">
+        <f>ROW()</f>
+        <v>83</v>
+      </c>
+      <c r="B83" s="44"/>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84">
+        <f>ROW()</f>
+        <v>84</v>
+      </c>
+      <c r="B84" s="44"/>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85">
+        <f>ROW()</f>
+        <v>85</v>
+      </c>
+      <c r="B85" s="44"/>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86">
+        <f>ROW()</f>
+        <v>86</v>
+      </c>
+      <c r="B86" s="44"/>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87">
+        <f>ROW()</f>
+        <v>87</v>
+      </c>
+      <c r="B87" s="44"/>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88">
+        <f>ROW()</f>
+        <v>88</v>
+      </c>
+      <c r="B88" s="44"/>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89">
+        <f>ROW()</f>
+        <v>89</v>
+      </c>
+      <c r="B89" s="44"/>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90">
+        <f>ROW()</f>
+        <v>90</v>
+      </c>
+      <c r="B90" s="44"/>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91">
+        <f>ROW()</f>
+        <v>91</v>
+      </c>
+      <c r="B91" s="44"/>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92">
+        <f>ROW()</f>
+        <v>92</v>
+      </c>
+      <c r="B92" s="44"/>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93">
+        <f>ROW()</f>
+        <v>93</v>
+      </c>
+      <c r="B93" s="44"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U26"/>
-  <conditionalFormatting sqref="Q1:R1 Q13 Q15:Q22 Q26 Q8:Q11">
-    <cfRule type="cellIs" dxfId="13" priority="14" stopIfTrue="1" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q12">
-    <cfRule type="cellIs" dxfId="12" priority="13" stopIfTrue="1" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q14">
-    <cfRule type="cellIs" dxfId="11" priority="12" stopIfTrue="1" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O26:O1048576 O1 O8:O22">
-    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q23">
-    <cfRule type="cellIs" dxfId="9" priority="10" stopIfTrue="1" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O23">
-    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q24">
-    <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O24">
-    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q25">
-    <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O25">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q6">
-    <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="equal">
+  <autoFilter ref="A1:U21" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
+  <conditionalFormatting sqref="Q1:R1 Q8 Q10:Q17 Q21 Q3:Q6">
+    <cfRule type="cellIs" dxfId="9" priority="14" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q7">
-    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="13" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O6">
-    <cfRule type="duplicateValues" dxfId="1" priority="17"/>
+  <conditionalFormatting sqref="Q9">
+    <cfRule type="cellIs" dxfId="7" priority="12" stopIfTrue="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O7">
-    <cfRule type="duplicateValues" dxfId="0" priority="18"/>
+  <conditionalFormatting sqref="O21:O1048576 O1 O3:O17">
+    <cfRule type="duplicateValues" dxfId="6" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q18">
+    <cfRule type="cellIs" dxfId="5" priority="10" stopIfTrue="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O18">
+    <cfRule type="duplicateValues" dxfId="4" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q19">
+    <cfRule type="cellIs" dxfId="3" priority="8" stopIfTrue="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O19">
+    <cfRule type="duplicateValues" dxfId="2" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q20">
+    <cfRule type="cellIs" dxfId="1" priority="6" stopIfTrue="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O20">
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE849143-1DF9-4A8E-925A-0B804B3F18ED}">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38" customWidth="1"/>
+    <col min="4" max="4" width="75.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="36" customFormat="1" ht="43.2">
+      <c r="B1" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>235</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="46" customFormat="1">
+      <c r="B2" s="46">
+        <f>HLOOKUP(B1,KhaoSatHienTruong!1:2,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="C2" s="46">
+        <f>HLOOKUP(C1,KhaoSatHienTruong!1:2,2,0)</f>
+        <v>8</v>
+      </c>
+      <c r="D2" s="46">
+        <f>HLOOKUP(D1,KhaoSatHienTruong!1:2,2,0)</f>
+        <v>7</v>
+      </c>
+      <c r="E2" s="46">
+        <f>HLOOKUP(E1,KhaoSatHienTruong!1:2,2,0)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <f>ROW()</f>
+        <v>3</v>
+      </c>
+      <c r="B3" t="str">
+        <f>" ngày "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"dd")&amp;" tháng "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"MM")&amp;" năm "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"yyyy")</f>
+        <v xml:space="preserve"> ngày 18 tháng 08 năm 2020</v>
+      </c>
+      <c r="C3" t="str">
+        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!C$2,0)</f>
+        <v>Thay dây hạ thế  sau TBA Nam Hà 1</v>
+      </c>
+      <c r="D3" t="str">
+        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!D$2,0)</f>
+        <v> Lưới hạ thế thuộc trạm Nam Hà 1</v>
+      </c>
+      <c r="E3" t="str">
+        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!E$2,0)</f>
+        <v>Cắt FCO + MCCB TBA Nam Hà 1
+Tiếp địa hạ thế tại MCCB TBA Nam Hà 1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <f>ROW()</f>
+        <v>4</v>
+      </c>
+      <c r="B4" t="str">
+        <f>" ngày "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"dd")&amp;" tháng "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"MM")&amp;" năm "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"yyyy")</f>
+        <v xml:space="preserve"> ngày 18 tháng 08 năm 2020</v>
+      </c>
+      <c r="C4" t="str">
+        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!C$2,0)</f>
+        <v>Thay dây hạ thế  sau TBA Nam Hà 1A</v>
+      </c>
+      <c r="D4" t="str">
+        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!D$2,0)</f>
+        <v>Lưới điện hạ thế thuộc trạm Nam Hà 1A</v>
+      </c>
+      <c r="E4" t="str">
+        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!E$2,0)</f>
+        <v>Cắt FCO + MCCB TBA Nam Hà 1A
+Tiếp địa hạ thế tại MCCB TBA Nam Hà 1A</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <f>ROW()</f>
+        <v>5</v>
+      </c>
+      <c r="B5" t="str">
+        <f>" ngày "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"dd")&amp;" tháng "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"MM")&amp;" năm "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"yyyy")</f>
+        <v xml:space="preserve"> ngày 18 tháng 08 năm 2020</v>
+      </c>
+      <c r="C5" t="str">
+        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!C$2,0)</f>
+        <v>Thay dây hạ thế  sau TBA Nam Hà 3</v>
+      </c>
+      <c r="D5" t="str">
+        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!D$2,0)</f>
+        <v>Lưới điện hạ thế thuộc trạm Nam Hà 3</v>
+      </c>
+      <c r="E5" t="str">
+        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!E$2,0)</f>
+        <v>Cắt FCO + MCCB TBA Nam Hà 3
+Tiếp địa hạ thế tại MCCB TBA Nam Hà 3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <f>ROW()</f>
+        <v>6</v>
+      </c>
+      <c r="B6" t="str">
+        <f>" ngày "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"dd")&amp;" tháng "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"MM")&amp;" năm "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"yyyy")</f>
+        <v xml:space="preserve"> ngày 18 tháng 08 năm 2020</v>
+      </c>
+      <c r="C6" t="str">
+        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!C$2,0)</f>
+        <v>Thay dây hạ thế  sau TBA Xuân Tây 10A</v>
+      </c>
+      <c r="D6" t="str">
+        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!D$2,0)</f>
+        <v>Đường dây hạ thế thuộc trạm biến áp Xuân Tây 10A</v>
+      </c>
+      <c r="E6" t="str">
+        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!E$2,0)</f>
+        <v>Cắt FCO + MCCB TBA Xuân Tây 10A
+Tiếp địa hạ thế tại MCCB TBA Xuân Tây 10A</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <f>ROW()</f>
+        <v>7</v>
+      </c>
+      <c r="B7" t="str">
+        <f>" ngày "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"dd")&amp;" tháng "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"MM")&amp;" năm "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"yyyy")</f>
+        <v xml:space="preserve"> ngày 18 tháng 08 năm 2020</v>
+      </c>
+      <c r="C7" t="str">
+        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!C$2,0)</f>
+        <v>Thay dây hạ thế  sau TBA Sông Ray 8A</v>
+      </c>
+      <c r="D7" t="str">
+        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!D$2,0)</f>
+        <v>Đường dây hạ thế thuộc Trạm Sông Ray 8A</v>
+      </c>
+      <c r="E7" t="str">
+        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!E$2,0)</f>
+        <v>Cắt FCO + MCCB TBA Sông Ray 8A
+Tiếp địa hạ thế tại MCCB TBA Sông Ray 8A</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <f>ROW()</f>
+        <v>8</v>
+      </c>
+      <c r="B8" t="str">
+        <f>" ngày "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"dd")&amp;" tháng "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"MM")&amp;" năm "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"yyyy")</f>
+        <v xml:space="preserve"> ngày 18 tháng 08 năm 2020</v>
+      </c>
+      <c r="C8" t="str">
+        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!C$2,0)</f>
+        <v>Nâng cấp đường dây hạ thế và TBA Sông Ray 7 từ 1 pha lên 3 pha, cấy TBA Sông Ray 7A</v>
+      </c>
+      <c r="D8" t="str">
+        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!D$2,0)</f>
+        <v>Tại trạm biến áp Sông Ray 7</v>
+      </c>
+      <c r="E8" t="str">
+        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!E$2,0)</f>
+        <v>Cắt LBS khí Đồng Tâm 1 + 3 LTD Đồng Tâm 1
+Cắt LBS khí Sông Ray + 3 LTD Sông Ray 1
+Tiếp địa trụ trung thế 357 
+Tiếp địa trụ trung thế 381 
+Tiếp địa hạ thế TBA Sông Ray 7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <f>ROW()</f>
+        <v>9</v>
+      </c>
+      <c r="B9" t="str">
+        <f>" ngày "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"dd")&amp;" tháng "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"MM")&amp;" năm "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"yyyy")</f>
+        <v xml:space="preserve"> ngày 19 tháng 08 năm 2020</v>
+      </c>
+      <c r="C9" t="str">
+        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!C$2,0)</f>
+        <v>Nâng cấp đường dây hạ thế và TBA Sông Ray 7 từ 1 pha lên 3 pha, cấy TBA Sông Ray 7A</v>
+      </c>
+      <c r="D9" t="str">
+        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!D$2,0)</f>
+        <v>Nhánh rẽ Lâm San 10 11 12 tiếng 471 Xuân Mỹ</v>
+      </c>
+      <c r="E9" t="str">
+        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!E$2,0)</f>
+        <v>Cắt 3xFCO Nhánh rẽ Lâm San 10, 11, 12
+Tiếp địa trụ trung thế 357 Nhánh rẽ Lâm San 10, 11, 12
+Tiếp địa trung hạ áp tại TBA Lâm San 11A, 11D</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <f>ROW()</f>
+        <v>10</v>
+      </c>
+      <c r="B10" t="str">
+        <f>" ngày "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"dd")&amp;" tháng "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"MM")&amp;" năm "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"yyyy")</f>
+        <v xml:space="preserve"> ngày 19 tháng 08 năm 2020</v>
+      </c>
+      <c r="C10" t="str">
+        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!C$2,0)</f>
+        <v>Trồng trụ trung thế 015A đấu nối trung thế, tách lưới, sang tải TBA Sông Ray 2, Sông Ray 2A. Đấu nối trung thế và di dời TBA Sông Ray 4A</v>
+      </c>
+      <c r="D10" t="str">
+        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!D$2,0)</f>
+        <v>Từ khoản trụ 015, 016, 072 nhánh Lâm San tuyến 471 Xuân Mỹ</v>
+      </c>
+      <c r="E10" t="str">
+        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!E$2,0)</f>
+        <v xml:space="preserve">Cắt Recloser + 3 LTD Lâm San
+Tiếp địa trụ trung thế 011A
+Tiếp địa trụ trung thế 075 </v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <f>ROW()</f>
+        <v>11</v>
+      </c>
+      <c r="B11" t="str">
+        <f>" ngày "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"dd")&amp;" tháng "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"MM")&amp;" năm "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"yyyy")</f>
+        <v xml:space="preserve"> ngày 19 tháng 08 năm 2020</v>
+      </c>
+      <c r="C11" t="str">
+        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!C$2,0)</f>
+        <v>Đấu nối trung thế trụ 009A, 013. Tách lưới hạ thế sau TBA Cánh đồng Xuân Tây 1A, Cánh đồng Xuân Tây 1B</v>
+      </c>
+      <c r="D11" t="str">
+        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!D$2,0)</f>
+        <v>Từ sau 3xFCO nhánh Cánh Đồng Xuân Tây 1</v>
+      </c>
+      <c r="E11" t="str">
+        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!E$2,0)</f>
+        <v>Cắt 3xFCO Nhánh rẽ Cánh đồng Xuân Tây 1
+Tiếp địa trung hạ áp tại TBA Cánh đồng Xuân Tây 1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <f>ROW()</f>
+        <v>12</v>
+      </c>
+      <c r="B12" t="str">
+        <f>" ngày "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"dd")&amp;" tháng "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"MM")&amp;" năm "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"yyyy")</f>
+        <v xml:space="preserve"> ngày 19 tháng 08 năm 2020</v>
+      </c>
+      <c r="C12" t="str">
+        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!C$2,0)</f>
+        <v>Đấu nối trung thế trụ 087 nhánh rẽ Láng Me. Cấy TBA Láng Me 3B, Tách lưới hạ thế sau TBA Láng Me 3 sang Láng Me 3B</v>
+      </c>
+      <c r="D12" t="str">
+        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!D$2,0)</f>
+        <v>Tại trụ 087 nhánh Láng Me tuyến 471 Xuân Mỹ</v>
+      </c>
+      <c r="E12" t="str">
+        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!E$2,0)</f>
+        <v>Cắt Recloser + 3 LTD Láng Me
+Tiếp địa trụ trung thế 079
+Tiếp địa trụ trung thế 094
+ Tiếp địa hạ thế TBA Láng Me 3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <f>ROW()</f>
+        <v>13</v>
+      </c>
+      <c r="B13" t="str">
+        <f>" ngày "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"dd")&amp;" tháng "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"MM")&amp;" năm "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"yyyy")</f>
+        <v xml:space="preserve"> ngày 19 tháng 08 năm 2020</v>
+      </c>
+      <c r="C13" t="str">
+        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!C$2,0)</f>
+        <v>Đấu nối trung thế trụ 021 Nhánh rẽ Thoại Hương 3, 4. Di dời TBA Thoại Hương 4</v>
+      </c>
+      <c r="D13" t="str">
+        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!D$2,0)</f>
+        <v>Tại trụ trạm biến áp Thoại Hương 4 tuyến 471 Xuân Mỹ</v>
+      </c>
+      <c r="E13" t="str">
+        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!E$2,0)</f>
+        <v>Cắt FCO Nhánh rẽ Thoại Hương 3, 4
+Tiếp địa trung hạ áp tại TBA Thoại Hương 3, 4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <f>ROW()</f>
+        <v>14</v>
+      </c>
+      <c r="B14" t="str">
+        <f>" ngày "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"dd")&amp;" tháng "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"MM")&amp;" năm "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"yyyy")</f>
+        <v xml:space="preserve"> ngày 19 tháng 08 năm 2020</v>
+      </c>
+      <c r="C14" t="str">
+        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!C$2,0)</f>
+        <v>Đấu nối trung thế trụ 017 Nhánh rẽ Xuân Tây 19.Cấy TBA Xuân Tây 19A, tách lưới hạ thế TBA Xuân Tây 19 sang TBA Xuân Tây 19A</v>
+      </c>
+      <c r="D14" t="str">
+        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!D$2,0)</f>
+        <v>Nhấn vẽ Xuân Tây 19 tuyến 471 Xuân Mỹ</v>
+      </c>
+      <c r="E14" t="str">
+        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!E$2,0)</f>
+        <v>Cắt FCO Nhánh rẽ Xuân Tây 19
+Tiếp địa trung hạ áp tại TBA Xuân Tây 19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <f>ROW()</f>
+        <v>15</v>
+      </c>
+      <c r="B15" t="str">
+        <f>" ngày "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"dd")&amp;" tháng "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"MM")&amp;" năm "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"yyyy")</f>
+        <v xml:space="preserve"> ngày 19 tháng 08 năm 2020</v>
+      </c>
+      <c r="C15" t="str">
+        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!C$2,0)</f>
+        <v>Nâng cấp đường dây trung thế và trạm biến áp Láng Me 5B từ 1 pha lên 3 pha, di dời TBA Láng Me 5, cấy trạm biến áp lá me 5A-1</v>
+      </c>
+      <c r="D15" t="str">
+        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!D$2,0)</f>
+        <v>Từ sau 3 FCO nhánh Láng Me 5 tuyến 471 Xuân Mỹ</v>
+      </c>
+      <c r="E15" t="str">
+        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!E$2,0)</f>
+        <v>Cắt 3xFCO Nhánh rẽ Láng Me 5
+Tiếp địa trụ trung thế 107
+Tiếp địa trụ trung thế 131
+ Tiếp địa hạ thế TBA Láng Me 5, 5A, 5B</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <f>ROW()</f>
+        <v>16</v>
+      </c>
+      <c r="B16" t="str">
+        <f>" ngày "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"dd")&amp;" tháng "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"MM")&amp;" năm "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"yyyy")</f>
+        <v xml:space="preserve"> ngày 19 tháng 08 năm 2020</v>
+      </c>
+      <c r="C16" t="str">
+        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!C$2,0)</f>
+        <v>Di dời TBA Suối Râm 7</v>
+      </c>
+      <c r="D16" t="str">
+        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!D$2,0)</f>
+        <v>Tại trụ trạm suối râm 7 và trụ trung thế 023/007</v>
+      </c>
+      <c r="E16" t="str">
+        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!E$2,0)</f>
+        <v xml:space="preserve">Cắt Recloser + 3 LTD Nhánh rẽ Sông Nhạn
+Tiếp địa trụ trung thế 006
+Tiếp địa trụ trung thế 023A </v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <f>ROW()</f>
+        <v>17</v>
+      </c>
+      <c r="B17" t="str">
+        <f>" ngày "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"dd")&amp;" tháng "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"MM")&amp;" năm "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"yyyy")</f>
+        <v xml:space="preserve"> ngày 19 tháng 08 năm 2020</v>
+      </c>
+      <c r="C17" t="str">
+        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!C$2,0)</f>
+        <v>Lắp đặt trạm biến áp Nam Hà 3B tách lưới hạ thế trạm Nam Hà 3 sang nhận điện trạm Nam Hà 3B đấu nối đường dây trung thế xây dựng mới</v>
+      </c>
+      <c r="D17" t="str">
+        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!D$2,0)</f>
+        <v>Tại trụ trung thế 334/003, 334/003/019 và lưới điện hạ thế thuộc TBA Nam Hà 3</v>
+      </c>
+      <c r="E17" t="str">
+        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!E$2,0)</f>
+        <v>Cắt Recloser + 3 LTD Nhánh rẽ Nam Hà
+Cắt 3 LTD Xuân Bảo - Nam Hà
+Tiếp địa trụ trung thế 326
+Tiếp địa trụ trung thế 351</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <f>ROW()</f>
+        <v>18</v>
+      </c>
+      <c r="B18" t="str">
+        <f>" ngày "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"dd")&amp;" tháng "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"MM")&amp;" năm "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"yyyy")</f>
+        <v xml:space="preserve"> ngày 18 tháng 08 năm 2020</v>
+      </c>
+      <c r="C18" t="str">
+        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!C$2,0)</f>
+        <v>Lắp đặt trạm biến áp Tân Bảo 3A, tách lưới hạ thế trạm Tân Bảo 3 sang nhận điện trạm Tân Bảo 3A</v>
+      </c>
+      <c r="D18" t="str">
+        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!D$2,0)</f>
+        <v>Tại trụ trung thế 018 nhánh Xuân Bảo - Bảo Bình và lưới điện hạ thế thuộc trạm Tân Bảo 3</v>
+      </c>
+      <c r="E18" t="str">
+        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!E$2,0)</f>
+        <v>Cắt Recloser + 3 LTD Nhánh rẽ Tân Bảo
+Tiếp địa trụ trung thế 117
+Tiếp địa trụ trung thế 147</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <f>ROW()</f>
+        <v>19</v>
+      </c>
+      <c r="B19" t="str">
+        <f>" ngày "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"dd")&amp;" tháng "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"MM")&amp;" năm "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"yyyy")</f>
+        <v xml:space="preserve"> ngày 19 tháng 08 năm 2020</v>
+      </c>
+      <c r="C19" t="str">
+        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!C$2,0)</f>
+        <v>Di dời TBA Nam Hà 1, trồng trụ đôn lưới</v>
+      </c>
+      <c r="D19" t="str">
+        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!D$2,0)</f>
+        <v>Tại trụ trung thế 334, 334/001, 335A, 348A, 339A nhánh rẽ Xuân Bảo - Nam Hà</v>
+      </c>
+      <c r="E19" t="str">
+        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!E$2,0)</f>
+        <v>Cắt Recloser + 3 LTD Nhánh rẽ Nam Hà
+Cắt 3 LTD Xuân Bảo - Nam Hà
+Tiếp địa trụ trung thế 326
+Tiếp địa trụ trung thế 351</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <f>ROW()</f>
+        <v>20</v>
+      </c>
+      <c r="B20" t="str">
+        <f>" ngày "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"dd")&amp;" tháng "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"MM")&amp;" năm "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"yyyy")</f>
+        <v xml:space="preserve"> ngày 19 tháng 08 năm 2020</v>
+      </c>
+      <c r="C20" t="str">
+        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!C$2,0)</f>
+        <v>Di dời TBA Tân Bảo 3</v>
+      </c>
+      <c r="D20" t="str">
+        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!D$2,0)</f>
+        <v>Tại trụ trung thế TBA Tân Bảo 3 và trụ trung thế 131 nhánh rẽ Xuân Bảo - Bảo Bình</v>
+      </c>
+      <c r="E20" t="str">
+        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!E$2,0)</f>
+        <v>Cắt Recloser + 3 LTD Nhánh rẽ Tân Bảo
+Tiếp địa trụ trung thế 117
+Tiếp địa trụ trung thế 147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <f>ROW()</f>
+        <v>21</v>
+      </c>
+      <c r="B21" t="str">
+        <f>" ngày "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"dd")&amp;" tháng "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"MM")&amp;" năm "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"yyyy")</f>
+        <v xml:space="preserve"> ngày 08 tháng 09 năm 2020</v>
+      </c>
+      <c r="C21" t="str">
+        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!C$2,0)</f>
+        <v>Nâng cấp đường dây hạ thế sau TBA Sông Ray 7</v>
+      </c>
+      <c r="D21" t="str">
+        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!D$2,0)</f>
+        <v>Lưới điện hạ thế thuộc trạm Sông Ray 7</v>
+      </c>
+      <c r="E21" t="str">
+        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!E$2,0)</f>
+        <v>Cắt FCO + MCCB TBA Sông Ray 7
+Tiếp địa hạ thế tại MCCB TBA Sông Ray 7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TrungThau/20191261297-DLCM-CaiTaoLuoiDien--/PhuongAnThiCong-Ngay.xlsx
+++ b/TrungThau/20191261297-DLCM-CaiTaoLuoiDien--/PhuongAnThiCong-Ngay.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ThucTran\HSTT\TrungThau\20191261297-DLCM-CaiTaoLuoiDien--\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B77D5E29-482C-42E6-A1D3-6DA9372A69E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB4F236-C8F6-43E0-9349-52974E3816CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">DS_CongNhan!$C$1:$L$26</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">KhaoSatHienTruong!$A$1:$U$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">KhaoSatHienTruong!$A$1:$U$20</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">NhanSu!$C$1:$Q$55</definedName>
     <definedName name="DangKyCatDien">KhaoSatHienTruong!$A:$W</definedName>
     <definedName name="data">Data!$A:$Z</definedName>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="256">
   <si>
     <t>STT</t>
   </si>
@@ -844,6 +844,39 @@
   <si>
     <t>Cắt FCO + MCCB TBA Xuân Tây 10A
 Tiếp địa hạ thế tại MCCB TBA Xuân Tây 10A</t>
+  </si>
+  <si>
+    <t>Nhánh rẽ Thừa Đức 11</t>
+  </si>
+  <si>
+    <t>Cắt 1xFCO nhánh rẽ Thừa Đức 11</t>
+  </si>
+  <si>
+    <t>Tiếp địa trụ trạm Thừa Đức 11</t>
+  </si>
+  <si>
+    <t>Tại trụ trung thế 010, 032 và lưới điện hạ thế thuộc TBA Thừa Đức 11</t>
+  </si>
+  <si>
+    <t>Đấu nối lưới trung thế Thừa Đức 11, cấy TBA Thừa Đức 11, tách 1 phần lưới hạ thế TBA Thừa Đức 11 sang nhận điện từ TBA Thừa Đức 11A</t>
+  </si>
+  <si>
+    <t>Cắt 1xFCO nhánh rẽ Suối Râm 7A</t>
+  </si>
+  <si>
+    <t>Nhánh rẽ Suối Râm 7A</t>
+  </si>
+  <si>
+    <t>Tiếp địa trụ trung thế 002</t>
+  </si>
+  <si>
+    <t>Cấy TBA Suối Râm 7A (1x75kVA) tại trụ trung thế 017 nhánh rẽ Suối Râm 7A, tách 1 phần lưới hạ thế từ TBA Suối Râm 7 sang nhận điện TBA Suối Râm 7A</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Lưới điện trung hạ thế thuộc nhánh rẽ Suối Râm 7A</t>
   </si>
 </sst>
 </file>
@@ -1105,7 +1138,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1225,15 +1258,8 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="23">
     <cellStyle name="Comma 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1260,7 +1286,27 @@
     <cellStyle name="Style 1" xfId="17" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
     <cellStyle name="THUC" xfId="18" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="19">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4995,25 +5041,25 @@
   </sheetData>
   <autoFilter ref="C1:Q55" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <conditionalFormatting sqref="E10">
-    <cfRule type="duplicateValues" dxfId="16" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53:E54">
-    <cfRule type="duplicateValues" dxfId="15" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="duplicateValues" dxfId="14" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E52 E1:E2 E4:E9">
-    <cfRule type="duplicateValues" dxfId="13" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E2 E4:E1048576">
-    <cfRule type="duplicateValues" dxfId="12" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="duplicateValues" dxfId="11" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5023,10 +5069,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:V93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -5034,13 +5080,13 @@
     <col min="1" max="1" width="6.33203125" customWidth="1"/>
     <col min="2" max="2" width="16.77734375" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="53.21875" customWidth="1"/>
     <col min="5" max="5" width="39.6640625" customWidth="1"/>
     <col min="6" max="6" width="30.44140625" customWidth="1"/>
-    <col min="7" max="8" width="28.88671875" style="49" customWidth="1"/>
+    <col min="7" max="8" width="28.88671875" style="48" customWidth="1"/>
     <col min="9" max="10" width="19.109375" customWidth="1"/>
     <col min="11" max="11" width="12.5546875" style="26" customWidth="1"/>
-    <col min="12" max="12" width="25.6640625" customWidth="1"/>
+    <col min="12" max="12" width="25.6640625" style="26" customWidth="1"/>
     <col min="13" max="13" width="21.88671875" style="26" customWidth="1"/>
     <col min="14" max="14" width="43.88671875" style="26" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.33203125" style="35" customWidth="1"/>
@@ -5072,10 +5118,10 @@
       <c r="F1" s="36" t="s">
         <v>181</v>
       </c>
-      <c r="G1" s="47" t="s">
+      <c r="G1" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="H1" s="47" t="s">
+      <c r="H1" s="9" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="36" t="s">
@@ -5087,7 +5133,7 @@
       <c r="K1" s="37" t="s">
         <v>207</v>
       </c>
-      <c r="L1" s="36" t="s">
+      <c r="L1" s="37" t="s">
         <v>236</v>
       </c>
       <c r="M1" s="37" t="s">
@@ -5143,11 +5189,11 @@
         <f>COLUMN()</f>
         <v>6</v>
       </c>
-      <c r="G2" s="47">
+      <c r="G2" s="9">
         <f>COLUMN()</f>
         <v>7</v>
       </c>
-      <c r="H2" s="47">
+      <c r="H2" s="9">
         <f>COLUMN()</f>
         <v>8</v>
       </c>
@@ -5163,7 +5209,7 @@
         <f>COLUMN()</f>
         <v>11</v>
       </c>
-      <c r="L2" s="36">
+      <c r="L2" s="37">
         <f>COLUMN()</f>
         <v>12</v>
       </c>
@@ -5204,7 +5250,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="31.5" customHeight="1">
+    <row r="3" spans="1:21" ht="28.8">
       <c r="A3">
         <f>ROW()</f>
         <v>3</v>
@@ -5216,39 +5262,39 @@
         <v>149</v>
       </c>
       <c r="D3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F3" s="6"/>
-      <c r="G3" s="48" t="s">
-        <v>214</v>
-      </c>
-      <c r="H3" s="48" t="s">
-        <v>229</v>
+      <c r="G3" s="47" t="s">
+        <v>215</v>
+      </c>
+      <c r="H3" s="47" t="s">
+        <v>230</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>234</v>
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="26">
-        <f t="shared" ref="K3:K21" si="0">J3+14</f>
+        <f t="shared" ref="K3:K20" si="0">J3+14</f>
         <v>14</v>
       </c>
-      <c r="L3" s="6" t="str">
+      <c r="L3" s="26" t="str">
         <f t="array" ref="L3">_xlfn.TEXTJOIN(CHAR(10),TRUE,E3:F3)</f>
-        <v>Cắt FCO + MCCB TBA Nam Hà 1
-Tiếp địa hạ thế tại MCCB TBA Nam Hà 1</v>
+        <v>Cắt FCO + MCCB TBA Nam Hà 1A
+Tiếp địa hạ thế tại MCCB TBA Nam Hà 1A</v>
       </c>
       <c r="M3" s="26" t="str">
-        <f t="shared" ref="M3:M21" si="1">D3</f>
-        <v>TBA Nam Hà 1</v>
+        <f t="shared" ref="M3:M20" si="1">D3</f>
+        <v>TBA Nam Hà 1A</v>
       </c>
       <c r="N3" s="26" t="str">
-        <f t="shared" ref="N3:N21" si="2">L3&amp;D3</f>
-        <v>Cắt FCO + MCCB TBA Nam Hà 1
-Tiếp địa hạ thế tại MCCB TBA Nam Hà 1TBA Nam Hà 1</v>
+        <f t="shared" ref="N3:N20" si="2">L3&amp;D3</f>
+        <v>Cắt FCO + MCCB TBA Nam Hà 1A
+Tiếp địa hạ thế tại MCCB TBA Nam Hà 1ATBA Nam Hà 1A</v>
       </c>
       <c r="O3" s="35">
         <v>44079</v>
@@ -5257,26 +5303,26 @@
         <v>136</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q8" si="3">WEEKDAY(O3)</f>
+        <f t="shared" ref="Q3:Q7" si="3">WEEKDAY(O3)</f>
         <v>7</v>
       </c>
       <c r="R3" s="26" t="str">
-        <f t="shared" ref="R3:R21" si="4">L3&amp;D3</f>
-        <v>Cắt FCO + MCCB TBA Nam Hà 1
-Tiếp địa hạ thế tại MCCB TBA Nam Hà 1TBA Nam Hà 1</v>
+        <f t="shared" ref="R3:R20" si="4">L3&amp;D3</f>
+        <v>Cắt FCO + MCCB TBA Nam Hà 1A
+Tiếp địa hạ thế tại MCCB TBA Nam Hà 1ATBA Nam Hà 1A</v>
       </c>
       <c r="S3" s="26" t="str">
-        <f t="shared" ref="S3:S21" si="5">H3&amp;LOWER(L3)&amp;D3</f>
-        <v>Thay dây hạ thế  sau TBA Nam Hà 1cắt fco + mccb tba nam hà 1
-tiếp địa hạ thế tại mccb tba nam hà 1TBA Nam Hà 1</v>
+        <f t="shared" ref="S3:S20" si="5">H3&amp;LOWER(L3)&amp;D3</f>
+        <v>Thay dây hạ thế  sau TBA Nam Hà 1Acắt fco + mccb tba nam hà 1a
+tiếp địa hạ thế tại mccb tba nam hà 1aTBA Nam Hà 1A</v>
       </c>
       <c r="T3" s="26" t="str">
-        <f t="shared" ref="T3:T21" si="6">"Cắt "&amp;C3&amp;M3</f>
-        <v>Cắt FCO + MCCB TBA Nam Hà 1</v>
+        <f t="shared" ref="T3:T20" si="6">"Cắt "&amp;C3&amp;M3</f>
+        <v>Cắt FCO + MCCB TBA Nam Hà 1A</v>
       </c>
       <c r="U3" s="26" t="str">
-        <f t="shared" ref="U3:U21" si="7">"Tiếp địa tại "&amp;F3&amp;D3</f>
-        <v>Tiếp địa tại TBA Nam Hà 1</v>
+        <f t="shared" ref="U3:U20" si="7">"Tiếp địa tại "&amp;F3&amp;D3</f>
+        <v>Tiếp địa tại TBA Nam Hà 1A</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="28.8">
@@ -5291,17 +5337,17 @@
         <v>149</v>
       </c>
       <c r="D4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F4" s="6"/>
-      <c r="G4" s="48" t="s">
-        <v>215</v>
-      </c>
-      <c r="H4" s="48" t="s">
-        <v>230</v>
+      <c r="G4" s="47" t="s">
+        <v>216</v>
+      </c>
+      <c r="H4" s="47" t="s">
+        <v>231</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>234</v>
@@ -5311,19 +5357,19 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="L4" s="6" t="str">
+      <c r="L4" s="26" t="str">
         <f t="array" ref="L4">_xlfn.TEXTJOIN(CHAR(10),TRUE,E4:F4)</f>
-        <v>Cắt FCO + MCCB TBA Nam Hà 1A
-Tiếp địa hạ thế tại MCCB TBA Nam Hà 1A</v>
+        <v>Cắt FCO + MCCB TBA Nam Hà 3
+Tiếp địa hạ thế tại MCCB TBA Nam Hà 3</v>
       </c>
       <c r="M4" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>TBA Nam Hà 1A</v>
+        <v>TBA Nam Hà 3</v>
       </c>
       <c r="N4" s="26" t="str">
         <f t="shared" si="2"/>
-        <v>Cắt FCO + MCCB TBA Nam Hà 1A
-Tiếp địa hạ thế tại MCCB TBA Nam Hà 1ATBA Nam Hà 1A</v>
+        <v>Cắt FCO + MCCB TBA Nam Hà 3
+Tiếp địa hạ thế tại MCCB TBA Nam Hà 3TBA Nam Hà 3</v>
       </c>
       <c r="O4" s="35">
         <v>44079</v>
@@ -5337,21 +5383,21 @@
       </c>
       <c r="R4" s="26" t="str">
         <f t="shared" si="4"/>
-        <v>Cắt FCO + MCCB TBA Nam Hà 1A
-Tiếp địa hạ thế tại MCCB TBA Nam Hà 1ATBA Nam Hà 1A</v>
+        <v>Cắt FCO + MCCB TBA Nam Hà 3
+Tiếp địa hạ thế tại MCCB TBA Nam Hà 3TBA Nam Hà 3</v>
       </c>
       <c r="S4" s="26" t="str">
         <f t="shared" si="5"/>
-        <v>Thay dây hạ thế  sau TBA Nam Hà 1Acắt fco + mccb tba nam hà 1a
-tiếp địa hạ thế tại mccb tba nam hà 1aTBA Nam Hà 1A</v>
+        <v>Thay dây hạ thế  sau TBA Nam Hà 3cắt fco + mccb tba nam hà 3
+tiếp địa hạ thế tại mccb tba nam hà 3TBA Nam Hà 3</v>
       </c>
       <c r="T4" s="26" t="str">
         <f t="shared" si="6"/>
-        <v>Cắt FCO + MCCB TBA Nam Hà 1A</v>
+        <v>Cắt FCO + MCCB TBA Nam Hà 3</v>
       </c>
       <c r="U4" s="26" t="str">
         <f t="shared" si="7"/>
-        <v>Tiếp địa tại TBA Nam Hà 1A</v>
+        <v>Tiếp địa tại TBA Nam Hà 3</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="28.8">
@@ -5366,17 +5412,17 @@
         <v>149</v>
       </c>
       <c r="D5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>184</v>
+        <v>244</v>
       </c>
       <c r="F5" s="6"/>
-      <c r="G5" s="48" t="s">
-        <v>216</v>
-      </c>
-      <c r="H5" s="48" t="s">
-        <v>231</v>
+      <c r="G5" s="47" t="s">
+        <v>217</v>
+      </c>
+      <c r="H5" s="47" t="s">
+        <v>232</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>234</v>
@@ -5386,50 +5432,50 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="L5" s="6" t="str">
+      <c r="L5" s="26" t="str">
         <f t="array" ref="L5">_xlfn.TEXTJOIN(CHAR(10),TRUE,E5:F5)</f>
-        <v>Cắt FCO + MCCB TBA Nam Hà 3
-Tiếp địa hạ thế tại MCCB TBA Nam Hà 3</v>
+        <v>Cắt FCO + MCCB TBA Xuân Tây 10A
+Tiếp địa hạ thế tại MCCB TBA Xuân Tây 10A</v>
       </c>
       <c r="M5" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>TBA Nam Hà 3</v>
+        <v>TBA Xuân Tây 10A</v>
       </c>
       <c r="N5" s="26" t="str">
         <f t="shared" si="2"/>
-        <v>Cắt FCO + MCCB TBA Nam Hà 3
-Tiếp địa hạ thế tại MCCB TBA Nam Hà 3TBA Nam Hà 3</v>
+        <v>Cắt FCO + MCCB TBA Xuân Tây 10A
+Tiếp địa hạ thế tại MCCB TBA Xuân Tây 10ATBA Xuân Tây 10A</v>
       </c>
       <c r="O5" s="35">
-        <v>44079</v>
+        <v>44081</v>
       </c>
       <c r="P5" t="s">
         <v>136</v>
       </c>
       <c r="Q5">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="R5" s="26" t="str">
         <f t="shared" si="4"/>
-        <v>Cắt FCO + MCCB TBA Nam Hà 3
-Tiếp địa hạ thế tại MCCB TBA Nam Hà 3TBA Nam Hà 3</v>
+        <v>Cắt FCO + MCCB TBA Xuân Tây 10A
+Tiếp địa hạ thế tại MCCB TBA Xuân Tây 10ATBA Xuân Tây 10A</v>
       </c>
       <c r="S5" s="26" t="str">
         <f t="shared" si="5"/>
-        <v>Thay dây hạ thế  sau TBA Nam Hà 3cắt fco + mccb tba nam hà 3
-tiếp địa hạ thế tại mccb tba nam hà 3TBA Nam Hà 3</v>
+        <v>Thay dây hạ thế  sau TBA Xuân Tây 10Acắt fco + mccb tba xuân tây 10a
+tiếp địa hạ thế tại mccb tba xuân tây 10aTBA Xuân Tây 10A</v>
       </c>
       <c r="T5" s="26" t="str">
         <f t="shared" si="6"/>
-        <v>Cắt FCO + MCCB TBA Nam Hà 3</v>
+        <v>Cắt FCO + MCCB TBA Xuân Tây 10A</v>
       </c>
       <c r="U5" s="26" t="str">
         <f t="shared" si="7"/>
-        <v>Tiếp địa tại TBA Nam Hà 3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="28.8">
+        <v>Tiếp địa tại TBA Xuân Tây 10A</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6">
         <f>ROW()</f>
         <v>6</v>
@@ -5440,18 +5486,20 @@
       <c r="C6" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="D6" t="s">
-        <v>139</v>
+      <c r="D6" s="6" t="s">
+        <v>150</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>244</v>
-      </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="48" t="s">
-        <v>217</v>
-      </c>
-      <c r="H6" s="48" t="s">
-        <v>232</v>
+        <v>242</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="G6" s="47" t="s">
+        <v>218</v>
+      </c>
+      <c r="H6" s="47" t="s">
+        <v>233</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>234</v>
@@ -5461,50 +5509,50 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="L6" s="6" t="str">
+      <c r="L6" s="26" t="str">
         <f t="array" ref="L6">_xlfn.TEXTJOIN(CHAR(10),TRUE,E6:F6)</f>
-        <v>Cắt FCO + MCCB TBA Xuân Tây 10A
-Tiếp địa hạ thế tại MCCB TBA Xuân Tây 10A</v>
+        <v>Cắt FCO + MCCB TBA Sông Ray 8A
+Tiếp địa hạ thế tại MCCB TBA Sông Ray 8A</v>
       </c>
       <c r="M6" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>TBA Xuân Tây 10A</v>
+        <v>TBA Sông Ray 8A</v>
       </c>
       <c r="N6" s="26" t="str">
         <f t="shared" si="2"/>
-        <v>Cắt FCO + MCCB TBA Xuân Tây 10A
-Tiếp địa hạ thế tại MCCB TBA Xuân Tây 10ATBA Xuân Tây 10A</v>
+        <v>Cắt FCO + MCCB TBA Sông Ray 8A
+Tiếp địa hạ thế tại MCCB TBA Sông Ray 8ATBA Sông Ray 8A</v>
       </c>
       <c r="O6" s="35">
-        <v>44081</v>
+        <v>44083</v>
       </c>
       <c r="P6" t="s">
         <v>136</v>
       </c>
       <c r="Q6">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R6" s="26" t="str">
         <f t="shared" si="4"/>
-        <v>Cắt FCO + MCCB TBA Xuân Tây 10A
-Tiếp địa hạ thế tại MCCB TBA Xuân Tây 10ATBA Xuân Tây 10A</v>
+        <v>Cắt FCO + MCCB TBA Sông Ray 8A
+Tiếp địa hạ thế tại MCCB TBA Sông Ray 8ATBA Sông Ray 8A</v>
       </c>
       <c r="S6" s="26" t="str">
         <f t="shared" si="5"/>
-        <v>Thay dây hạ thế  sau TBA Xuân Tây 10Acắt fco + mccb tba xuân tây 10a
-tiếp địa hạ thế tại mccb tba xuân tây 10aTBA Xuân Tây 10A</v>
+        <v>Thay dây hạ thế  sau TBA Sông Ray 8Acắt fco + mccb tba sông ray 8a
+tiếp địa hạ thế tại mccb tba sông ray 8aTBA Sông Ray 8A</v>
       </c>
       <c r="T6" s="26" t="str">
         <f t="shared" si="6"/>
-        <v>Cắt FCO + MCCB TBA Xuân Tây 10A</v>
+        <v>Cắt FCO + MCCB TBA Sông Ray 8A</v>
       </c>
       <c r="U6" s="26" t="str">
         <f t="shared" si="7"/>
-        <v>Tiếp địa tại TBA Xuân Tây 10A</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21">
+        <v>Tiếp địa tại Tiếp địa hạ thế tại MCCB TBA Sông Ray 8ATBA Sông Ray 8A</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="43.2">
       <c r="A7">
         <f>ROW()</f>
         <v>7</v>
@@ -5513,22 +5561,22 @@
         <v>44061</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>242</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="G7" s="48" t="s">
-        <v>218</v>
-      </c>
-      <c r="H7" s="48" t="s">
-        <v>233</v>
+        <v>186</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="G7" s="47" t="s">
+        <v>219</v>
+      </c>
+      <c r="H7" s="47" t="s">
+        <v>153</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>234</v>
@@ -5538,96 +5586,19 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="L7" s="6" t="str">
+      <c r="L7" s="26" t="str">
         <f t="array" ref="L7">_xlfn.TEXTJOIN(CHAR(10),TRUE,E7:F7)</f>
-        <v>Cắt FCO + MCCB TBA Sông Ray 8A
-Tiếp địa hạ thế tại MCCB TBA Sông Ray 8A</v>
-      </c>
-      <c r="M7" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v>TBA Sông Ray 8A</v>
-      </c>
-      <c r="N7" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v>Cắt FCO + MCCB TBA Sông Ray 8A
-Tiếp địa hạ thế tại MCCB TBA Sông Ray 8ATBA Sông Ray 8A</v>
-      </c>
-      <c r="O7" s="35">
-        <v>44083</v>
-      </c>
-      <c r="P7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q7">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="R7" s="26" t="str">
-        <f t="shared" si="4"/>
-        <v>Cắt FCO + MCCB TBA Sông Ray 8A
-Tiếp địa hạ thế tại MCCB TBA Sông Ray 8ATBA Sông Ray 8A</v>
-      </c>
-      <c r="S7" s="26" t="str">
-        <f t="shared" si="5"/>
-        <v>Thay dây hạ thế  sau TBA Sông Ray 8Acắt fco + mccb tba sông ray 8a
-tiếp địa hạ thế tại mccb tba sông ray 8aTBA Sông Ray 8A</v>
-      </c>
-      <c r="T7" s="26" t="str">
-        <f t="shared" si="6"/>
-        <v>Cắt FCO + MCCB TBA Sông Ray 8A</v>
-      </c>
-      <c r="U7" s="26" t="str">
-        <f t="shared" si="7"/>
-        <v>Tiếp địa tại Tiếp địa hạ thế tại MCCB TBA Sông Ray 8ATBA Sông Ray 8A</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="43.2">
-      <c r="A8">
-        <f>ROW()</f>
-        <v>8</v>
-      </c>
-      <c r="B8" s="44">
-        <v>44061</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>186</v>
-      </c>
-      <c r="F8" s="24" t="s">
-        <v>185</v>
-      </c>
-      <c r="G8" s="48" t="s">
-        <v>219</v>
-      </c>
-      <c r="H8" s="48" t="s">
-        <v>153</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="J8" s="6"/>
-      <c r="K8" s="26">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="L8" s="6" t="str">
-        <f t="array" ref="L8">_xlfn.TEXTJOIN(CHAR(10),TRUE,E8:F8)</f>
         <v>Cắt LBS khí Đồng Tâm 1 + 3 LTD Đồng Tâm 1
 Cắt LBS khí Sông Ray + 3 LTD Sông Ray 1
 Tiếp địa trụ trung thế 357 
 Tiếp địa trụ trung thế 381 
 Tiếp địa hạ thế TBA Sông Ray 7</v>
       </c>
-      <c r="M8" s="26" t="str">
+      <c r="M7" s="26" t="str">
         <f t="shared" si="1"/>
         <v>Nhánh rẽ Đồng Tâm 1</v>
       </c>
-      <c r="N8" s="26" t="str">
+      <c r="N7" s="26" t="str">
         <f t="shared" si="2"/>
         <v>Cắt LBS khí Đồng Tâm 1 + 3 LTD Đồng Tâm 1
 Cắt LBS khí Sông Ray + 3 LTD Sông Ray 1
@@ -5635,17 +5606,17 @@
 Tiếp địa trụ trung thế 381 
 Tiếp địa hạ thế TBA Sông Ray 7Nhánh rẽ Đồng Tâm 1</v>
       </c>
-      <c r="O8" s="35">
+      <c r="O7" s="35">
         <v>44086</v>
       </c>
-      <c r="P8" t="s">
+      <c r="P7" t="s">
         <v>136</v>
       </c>
-      <c r="Q8">
+      <c r="Q7">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="R8" s="26" t="str">
+      <c r="R7" s="26" t="str">
         <f t="shared" si="4"/>
         <v>Cắt LBS khí Đồng Tâm 1 + 3 LTD Đồng Tâm 1
 Cắt LBS khí Sông Ray + 3 LTD Sông Ray 1
@@ -5653,7 +5624,7 @@
 Tiếp địa trụ trung thế 381 
 Tiếp địa hạ thế TBA Sông Ray 7Nhánh rẽ Đồng Tâm 1</v>
       </c>
-      <c r="S8" s="26" t="str">
+      <c r="S7" s="26" t="str">
         <f t="shared" si="5"/>
         <v>Nâng cấp đường dây hạ thế và TBA Sông Ray 7 từ 1 pha lên 3 pha, cấy TBA Sông Ray 7Acắt lbs khí đồng tâm 1 + 3 ltd đồng tâm 1
 cắt lbs khí sông ray + 3 ltd sông ray 1
@@ -5661,17 +5632,98 @@
 tiếp địa trụ trung thế 381 
 tiếp địa hạ thế tba sông ray 7Nhánh rẽ Đồng Tâm 1</v>
       </c>
-      <c r="T8" s="26" t="str">
+      <c r="T7" s="26" t="str">
         <f t="shared" si="6"/>
         <v>Cắt LBS khí + 3 LTDNhánh rẽ Đồng Tâm 1</v>
       </c>
-      <c r="U8" s="26" t="str">
+      <c r="U7" s="26" t="str">
         <f t="shared" si="7"/>
         <v>Tiếp địa tại Tiếp địa trụ trung thế 381 
 Tiếp địa hạ thế TBA Sông Ray 7Nhánh rẽ Đồng Tâm 1</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="43.2">
+    <row r="8" spans="1:21" ht="43.2">
+      <c r="A8">
+        <f>ROW()</f>
+        <v>8</v>
+      </c>
+      <c r="B8" s="44">
+        <v>44062</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="G8" s="47" t="s">
+        <v>220</v>
+      </c>
+      <c r="H8" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="J8" s="6"/>
+      <c r="K8" s="26">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="L8" s="26" t="str">
+        <f t="array" ref="L8">_xlfn.TEXTJOIN(CHAR(10),TRUE,E8:F8)</f>
+        <v>Cắt 3xFCO Nhánh rẽ Lâm San 10, 11, 12
+Tiếp địa trụ trung thế 357 Nhánh rẽ Lâm San 10, 11, 12
+Tiếp địa trung hạ áp tại TBA Lâm San 11A, 11D</v>
+      </c>
+      <c r="M8" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>Nhánh rẽ Lâm San 10, 11, 12</v>
+      </c>
+      <c r="N8" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>Cắt 3xFCO Nhánh rẽ Lâm San 10, 11, 12
+Tiếp địa trụ trung thế 357 Nhánh rẽ Lâm San 10, 11, 12
+Tiếp địa trung hạ áp tại TBA Lâm San 11A, 11DNhánh rẽ Lâm San 10, 11, 12</v>
+      </c>
+      <c r="O8" s="35">
+        <v>44086</v>
+      </c>
+      <c r="P8" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" ref="Q8" si="8">WEEKDAY(O8)</f>
+        <v>7</v>
+      </c>
+      <c r="R8" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v>Cắt 3xFCO Nhánh rẽ Lâm San 10, 11, 12
+Tiếp địa trụ trung thế 357 Nhánh rẽ Lâm San 10, 11, 12
+Tiếp địa trung hạ áp tại TBA Lâm San 11A, 11DNhánh rẽ Lâm San 10, 11, 12</v>
+      </c>
+      <c r="S8" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v>Nâng cấp đường dây hạ thế và TBA Sông Ray 7 từ 1 pha lên 3 pha, cấy TBA Sông Ray 7Acắt 3xfco nhánh rẽ lâm san 10, 11, 12
+tiếp địa trụ trung thế 357 nhánh rẽ lâm san 10, 11, 12
+tiếp địa trung hạ áp tại tba lâm san 11a, 11dNhánh rẽ Lâm San 10, 11, 12</v>
+      </c>
+      <c r="T8" s="26" t="str">
+        <f t="shared" si="6"/>
+        <v>Cắt 3xFCO Nhánh rẽ Lâm San 10, 11, 12</v>
+      </c>
+      <c r="U8" s="26" t="str">
+        <f t="shared" si="7"/>
+        <v>Tiếp địa tại Tiếp địa trung hạ áp tại TBA Lâm San 11A, 11DNhánh rẽ Lâm San 10, 11, 12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="28.8">
       <c r="A9">
         <f>ROW()</f>
         <v>9</v>
@@ -5680,22 +5732,22 @@
         <v>44062</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="G9" s="48" t="s">
-        <v>220</v>
-      </c>
-      <c r="H9" s="48" t="s">
-        <v>153</v>
+        <v>190</v>
+      </c>
+      <c r="G9" s="47" t="s">
+        <v>221</v>
+      </c>
+      <c r="H9" s="47" t="s">
+        <v>158</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>234</v>
@@ -5705,54 +5757,54 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="L9" s="6" t="str">
+      <c r="L9" s="26" t="str">
         <f t="array" ref="L9">_xlfn.TEXTJOIN(CHAR(10),TRUE,E9:F9)</f>
-        <v>Cắt 3xFCO Nhánh rẽ Lâm San 10, 11, 12
-Tiếp địa trụ trung thế 357 Nhánh rẽ Lâm San 10, 11, 12
-Tiếp địa trung hạ áp tại TBA Lâm San 11A, 11D</v>
+        <v xml:space="preserve">Cắt Recloser + 3 LTD Lâm San
+Tiếp địa trụ trung thế 011A
+Tiếp địa trụ trung thế 075 </v>
       </c>
       <c r="M9" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>Nhánh rẽ Lâm San 10, 11, 12</v>
+        <v>Nhánh rẽ Lâm San</v>
       </c>
       <c r="N9" s="26" t="str">
         <f t="shared" si="2"/>
-        <v>Cắt 3xFCO Nhánh rẽ Lâm San 10, 11, 12
-Tiếp địa trụ trung thế 357 Nhánh rẽ Lâm San 10, 11, 12
-Tiếp địa trung hạ áp tại TBA Lâm San 11A, 11DNhánh rẽ Lâm San 10, 11, 12</v>
+        <v>Cắt Recloser + 3 LTD Lâm San
+Tiếp địa trụ trung thế 011A
+Tiếp địa trụ trung thế 075 Nhánh rẽ Lâm San</v>
       </c>
       <c r="O9" s="35">
-        <v>44086</v>
+        <v>44093</v>
       </c>
       <c r="P9" t="s">
         <v>136</v>
       </c>
       <c r="Q9">
-        <f t="shared" ref="Q9" si="8">WEEKDAY(O9)</f>
+        <f t="shared" ref="Q9:Q19" si="9">WEEKDAY(O9)</f>
         <v>7</v>
       </c>
       <c r="R9" s="26" t="str">
         <f t="shared" si="4"/>
-        <v>Cắt 3xFCO Nhánh rẽ Lâm San 10, 11, 12
-Tiếp địa trụ trung thế 357 Nhánh rẽ Lâm San 10, 11, 12
-Tiếp địa trung hạ áp tại TBA Lâm San 11A, 11DNhánh rẽ Lâm San 10, 11, 12</v>
+        <v>Cắt Recloser + 3 LTD Lâm San
+Tiếp địa trụ trung thế 011A
+Tiếp địa trụ trung thế 075 Nhánh rẽ Lâm San</v>
       </c>
       <c r="S9" s="26" t="str">
         <f t="shared" si="5"/>
-        <v>Nâng cấp đường dây hạ thế và TBA Sông Ray 7 từ 1 pha lên 3 pha, cấy TBA Sông Ray 7Acắt 3xfco nhánh rẽ lâm san 10, 11, 12
-tiếp địa trụ trung thế 357 nhánh rẽ lâm san 10, 11, 12
-tiếp địa trung hạ áp tại tba lâm san 11a, 11dNhánh rẽ Lâm San 10, 11, 12</v>
+        <v>Trồng trụ trung thế 015A đấu nối trung thế, tách lưới, sang tải TBA Sông Ray 2, Sông Ray 2A. Đấu nối trung thế và di dời TBA Sông Ray 4Acắt recloser + 3 ltd lâm san
+tiếp địa trụ trung thế 011a
+tiếp địa trụ trung thế 075 Nhánh rẽ Lâm San</v>
       </c>
       <c r="T9" s="26" t="str">
         <f t="shared" si="6"/>
-        <v>Cắt 3xFCO Nhánh rẽ Lâm San 10, 11, 12</v>
+        <v>Cắt Recloser + 3 LTD Nhánh rẽ Lâm San</v>
       </c>
       <c r="U9" s="26" t="str">
         <f t="shared" si="7"/>
-        <v>Tiếp địa tại Tiếp địa trung hạ áp tại TBA Lâm San 11A, 11DNhánh rẽ Lâm San 10, 11, 12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" ht="28.8">
+        <v>Tiếp địa tại Tiếp địa trụ trung thế 075 Nhánh rẽ Lâm San</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10">
         <f>ROW()</f>
         <v>10</v>
@@ -5761,22 +5813,22 @@
         <v>44062</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="G10" s="48" t="s">
-        <v>221</v>
-      </c>
-      <c r="H10" s="48" t="s">
-        <v>158</v>
+        <v>192</v>
+      </c>
+      <c r="G10" s="47" t="s">
+        <v>222</v>
+      </c>
+      <c r="H10" s="47" t="s">
+        <v>161</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>234</v>
@@ -5786,54 +5838,50 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="L10" s="6" t="str">
+      <c r="L10" s="26" t="str">
         <f t="array" ref="L10">_xlfn.TEXTJOIN(CHAR(10),TRUE,E10:F10)</f>
-        <v xml:space="preserve">Cắt Recloser + 3 LTD Lâm San
-Tiếp địa trụ trung thế 011A
-Tiếp địa trụ trung thế 075 </v>
+        <v>Cắt 3xFCO Nhánh rẽ Cánh đồng Xuân Tây 1
+Tiếp địa trung hạ áp tại TBA Cánh đồng Xuân Tây 1</v>
       </c>
       <c r="M10" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>Nhánh rẽ Lâm San</v>
+        <v>Nhánh rẽ Cánh đồng Xuân Tây 1</v>
       </c>
       <c r="N10" s="26" t="str">
         <f t="shared" si="2"/>
-        <v>Cắt Recloser + 3 LTD Lâm San
-Tiếp địa trụ trung thế 011A
-Tiếp địa trụ trung thế 075 Nhánh rẽ Lâm San</v>
+        <v>Cắt 3xFCO Nhánh rẽ Cánh đồng Xuân Tây 1
+Tiếp địa trung hạ áp tại TBA Cánh đồng Xuân Tây 1Nhánh rẽ Cánh đồng Xuân Tây 1</v>
       </c>
       <c r="O10" s="35">
-        <v>44093</v>
+        <v>44090</v>
       </c>
       <c r="P10" t="s">
         <v>136</v>
       </c>
       <c r="Q10">
-        <f t="shared" ref="Q10:Q20" si="9">WEEKDAY(O10)</f>
-        <v>7</v>
+        <f t="shared" si="9"/>
+        <v>4</v>
       </c>
       <c r="R10" s="26" t="str">
         <f t="shared" si="4"/>
-        <v>Cắt Recloser + 3 LTD Lâm San
-Tiếp địa trụ trung thế 011A
-Tiếp địa trụ trung thế 075 Nhánh rẽ Lâm San</v>
+        <v>Cắt 3xFCO Nhánh rẽ Cánh đồng Xuân Tây 1
+Tiếp địa trung hạ áp tại TBA Cánh đồng Xuân Tây 1Nhánh rẽ Cánh đồng Xuân Tây 1</v>
       </c>
       <c r="S10" s="26" t="str">
         <f t="shared" si="5"/>
-        <v>Trồng trụ trung thế 015A đấu nối trung thế, tách lưới, sang tải TBA Sông Ray 2, Sông Ray 2A. Đấu nối trung thế và di dời TBA Sông Ray 4Acắt recloser + 3 ltd lâm san
-tiếp địa trụ trung thế 011a
-tiếp địa trụ trung thế 075 Nhánh rẽ Lâm San</v>
+        <v>Đấu nối trung thế trụ 009A, 013. Tách lưới hạ thế sau TBA Cánh đồng Xuân Tây 1A, Cánh đồng Xuân Tây 1Bcắt 3xfco nhánh rẽ cánh đồng xuân tây 1
+tiếp địa trung hạ áp tại tba cánh đồng xuân tây 1Nhánh rẽ Cánh đồng Xuân Tây 1</v>
       </c>
       <c r="T10" s="26" t="str">
         <f t="shared" si="6"/>
-        <v>Cắt Recloser + 3 LTD Nhánh rẽ Lâm San</v>
+        <v>Cắt 3xFCO Nhánh rẽ Cánh đồng Xuân Tây 1</v>
       </c>
       <c r="U10" s="26" t="str">
         <f t="shared" si="7"/>
-        <v>Tiếp địa tại Tiếp địa trụ trung thế 075 Nhánh rẽ Lâm San</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21">
+        <v>Tiếp địa tại Tiếp địa trung hạ áp tại TBA Cánh đồng Xuân Tây 1Nhánh rẽ Cánh đồng Xuân Tây 1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="28.8">
       <c r="A11">
         <f>ROW()</f>
         <v>11</v>
@@ -5842,22 +5890,22 @@
         <v>44062</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>191</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="G11" s="48" t="s">
-        <v>222</v>
-      </c>
-      <c r="H11" s="48" t="s">
-        <v>161</v>
+        <v>193</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="G11" s="47" t="s">
+        <v>223</v>
+      </c>
+      <c r="H11" s="47" t="s">
+        <v>162</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>234</v>
@@ -5867,135 +5915,135 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="L11" s="6" t="str">
+      <c r="L11" s="26" t="str">
         <f t="array" ref="L11">_xlfn.TEXTJOIN(CHAR(10),TRUE,E11:F11)</f>
-        <v>Cắt 3xFCO Nhánh rẽ Cánh đồng Xuân Tây 1
-Tiếp địa trung hạ áp tại TBA Cánh đồng Xuân Tây 1</v>
-      </c>
-      <c r="M11" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v>Nhánh rẽ Cánh đồng Xuân Tây 1</v>
-      </c>
-      <c r="N11" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v>Cắt 3xFCO Nhánh rẽ Cánh đồng Xuân Tây 1
-Tiếp địa trung hạ áp tại TBA Cánh đồng Xuân Tây 1Nhánh rẽ Cánh đồng Xuân Tây 1</v>
-      </c>
-      <c r="O11" s="35">
-        <v>44090</v>
-      </c>
-      <c r="P11" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q11">
-        <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="R11" s="26" t="str">
-        <f t="shared" si="4"/>
-        <v>Cắt 3xFCO Nhánh rẽ Cánh đồng Xuân Tây 1
-Tiếp địa trung hạ áp tại TBA Cánh đồng Xuân Tây 1Nhánh rẽ Cánh đồng Xuân Tây 1</v>
-      </c>
-      <c r="S11" s="26" t="str">
-        <f t="shared" si="5"/>
-        <v>Đấu nối trung thế trụ 009A, 013. Tách lưới hạ thế sau TBA Cánh đồng Xuân Tây 1A, Cánh đồng Xuân Tây 1Bcắt 3xfco nhánh rẽ cánh đồng xuân tây 1
-tiếp địa trung hạ áp tại tba cánh đồng xuân tây 1Nhánh rẽ Cánh đồng Xuân Tây 1</v>
-      </c>
-      <c r="T11" s="26" t="str">
-        <f t="shared" si="6"/>
-        <v>Cắt 3xFCO Nhánh rẽ Cánh đồng Xuân Tây 1</v>
-      </c>
-      <c r="U11" s="26" t="str">
-        <f t="shared" si="7"/>
-        <v>Tiếp địa tại Tiếp địa trung hạ áp tại TBA Cánh đồng Xuân Tây 1Nhánh rẽ Cánh đồng Xuân Tây 1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" ht="28.8">
-      <c r="A12">
-        <f>ROW()</f>
-        <v>12</v>
-      </c>
-      <c r="B12" s="44">
-        <v>44062</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>193</v>
-      </c>
-      <c r="F12" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="G12" s="48" t="s">
-        <v>223</v>
-      </c>
-      <c r="H12" s="48" t="s">
-        <v>162</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="J12" s="6"/>
-      <c r="K12" s="26">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="L12" s="6" t="str">
-        <f t="array" ref="L12">_xlfn.TEXTJOIN(CHAR(10),TRUE,E12:F12)</f>
         <v>Cắt Recloser + 3 LTD Láng Me
 Tiếp địa trụ trung thế 079
 Tiếp địa trụ trung thế 094
  Tiếp địa hạ thế TBA Láng Me 3</v>
       </c>
-      <c r="M12" s="26" t="str">
+      <c r="M11" s="26" t="str">
         <f t="shared" si="1"/>
         <v>Nhánh rẽ Láng Me</v>
       </c>
-      <c r="N12" s="26" t="str">
+      <c r="N11" s="26" t="str">
         <f t="shared" si="2"/>
         <v>Cắt Recloser + 3 LTD Láng Me
 Tiếp địa trụ trung thế 079
 Tiếp địa trụ trung thế 094
  Tiếp địa hạ thế TBA Láng Me 3Nhánh rẽ Láng Me</v>
       </c>
-      <c r="O12" s="35">
+      <c r="O11" s="35">
         <v>44089</v>
       </c>
-      <c r="P12" t="s">
+      <c r="P11" t="s">
         <v>136</v>
       </c>
-      <c r="Q12">
+      <c r="Q11">
         <f t="shared" si="9"/>
         <v>3</v>
       </c>
-      <c r="R12" s="26" t="str">
+      <c r="R11" s="26" t="str">
         <f t="shared" si="4"/>
         <v>Cắt Recloser + 3 LTD Láng Me
 Tiếp địa trụ trung thế 079
 Tiếp địa trụ trung thế 094
  Tiếp địa hạ thế TBA Láng Me 3Nhánh rẽ Láng Me</v>
       </c>
-      <c r="S12" s="26" t="str">
+      <c r="S11" s="26" t="str">
         <f t="shared" si="5"/>
         <v>Đấu nối trung thế trụ 087 nhánh rẽ Láng Me. Cấy TBA Láng Me 3B, Tách lưới hạ thế sau TBA Láng Me 3 sang Láng Me 3Bcắt recloser + 3 ltd láng me
 tiếp địa trụ trung thế 079
 tiếp địa trụ trung thế 094
  tiếp địa hạ thế tba láng me 3Nhánh rẽ Láng Me</v>
       </c>
-      <c r="T12" s="26" t="str">
+      <c r="T11" s="26" t="str">
         <f t="shared" si="6"/>
         <v>Cắt Recloser + 3 LTD Nhánh rẽ Láng Me</v>
       </c>
-      <c r="U12" s="26" t="str">
+      <c r="U11" s="26" t="str">
         <f t="shared" si="7"/>
         <v>Tiếp địa tại Tiếp địa trụ trung thế 094
  Tiếp địa hạ thế TBA Láng Me 3Nhánh rẽ Láng Me</v>
       </c>
     </row>
+    <row r="12" spans="1:21">
+      <c r="A12">
+        <f>ROW()</f>
+        <v>12</v>
+      </c>
+      <c r="B12" s="44">
+        <v>44062</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G12" s="47" t="s">
+        <v>224</v>
+      </c>
+      <c r="H12" s="47" t="s">
+        <v>165</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="J12" s="6"/>
+      <c r="K12" s="26">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="L12" s="26" t="str">
+        <f t="array" ref="L12">_xlfn.TEXTJOIN(CHAR(10),TRUE,E12:F12)</f>
+        <v>Cắt FCO Nhánh rẽ Thoại Hương 3, 4
+Tiếp địa trung hạ áp tại TBA Thoại Hương 3, 4</v>
+      </c>
+      <c r="M12" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>Nhánh rẽ Thoại Hương 3, 4</v>
+      </c>
+      <c r="N12" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>Cắt FCO Nhánh rẽ Thoại Hương 3, 4
+Tiếp địa trung hạ áp tại TBA Thoại Hương 3, 4Nhánh rẽ Thoại Hương 3, 4</v>
+      </c>
+      <c r="O12" s="35">
+        <v>44088</v>
+      </c>
+      <c r="P12" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="R12" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v>Cắt FCO Nhánh rẽ Thoại Hương 3, 4
+Tiếp địa trung hạ áp tại TBA Thoại Hương 3, 4Nhánh rẽ Thoại Hương 3, 4</v>
+      </c>
+      <c r="S12" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v>Đấu nối trung thế trụ 021 Nhánh rẽ Thoại Hương 3, 4. Di dời TBA Thoại Hương 4cắt fco nhánh rẽ thoại hương 3, 4
+tiếp địa trung hạ áp tại tba thoại hương 3, 4Nhánh rẽ Thoại Hương 3, 4</v>
+      </c>
+      <c r="T12" s="26" t="str">
+        <f t="shared" si="6"/>
+        <v>Cắt FCO Nhánh rẽ Thoại Hương 3, 4</v>
+      </c>
+      <c r="U12" s="26" t="str">
+        <f t="shared" si="7"/>
+        <v>Tiếp địa tại Tiếp địa trung hạ áp tại TBA Thoại Hương 3, 4Nhánh rẽ Thoại Hương 3, 4</v>
+      </c>
+    </row>
     <row r="13" spans="1:21">
       <c r="A13">
         <f>ROW()</f>
@@ -6008,19 +6056,19 @@
         <v>164</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>195</v>
+        <v>166</v>
+      </c>
+      <c r="E13" t="s">
+        <v>196</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="G13" s="48" t="s">
-        <v>224</v>
-      </c>
-      <c r="H13" s="48" t="s">
-        <v>165</v>
+        <v>198</v>
+      </c>
+      <c r="G13" s="47" t="s">
+        <v>225</v>
+      </c>
+      <c r="H13" s="47" t="s">
+        <v>167</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>234</v>
@@ -6030,50 +6078,50 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="L13" s="6" t="str">
+      <c r="L13" s="26" t="str">
         <f t="array" ref="L13">_xlfn.TEXTJOIN(CHAR(10),TRUE,E13:F13)</f>
-        <v>Cắt FCO Nhánh rẽ Thoại Hương 3, 4
-Tiếp địa trung hạ áp tại TBA Thoại Hương 3, 4</v>
+        <v>Cắt FCO Nhánh rẽ Xuân Tây 19
+Tiếp địa trung hạ áp tại TBA Xuân Tây 19</v>
       </c>
       <c r="M13" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>Nhánh rẽ Thoại Hương 3, 4</v>
+        <v>Nhánh rẽ Xuân Tây 19</v>
       </c>
       <c r="N13" s="26" t="str">
         <f t="shared" si="2"/>
-        <v>Cắt FCO Nhánh rẽ Thoại Hương 3, 4
-Tiếp địa trung hạ áp tại TBA Thoại Hương 3, 4Nhánh rẽ Thoại Hương 3, 4</v>
+        <v>Cắt FCO Nhánh rẽ Xuân Tây 19
+Tiếp địa trung hạ áp tại TBA Xuân Tây 19Nhánh rẽ Xuân Tây 19</v>
       </c>
       <c r="O13" s="35">
-        <v>44088</v>
+        <v>44086</v>
       </c>
       <c r="P13" t="s">
         <v>136</v>
       </c>
       <c r="Q13">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="R13" s="26" t="str">
         <f t="shared" si="4"/>
-        <v>Cắt FCO Nhánh rẽ Thoại Hương 3, 4
-Tiếp địa trung hạ áp tại TBA Thoại Hương 3, 4Nhánh rẽ Thoại Hương 3, 4</v>
+        <v>Cắt FCO Nhánh rẽ Xuân Tây 19
+Tiếp địa trung hạ áp tại TBA Xuân Tây 19Nhánh rẽ Xuân Tây 19</v>
       </c>
       <c r="S13" s="26" t="str">
         <f t="shared" si="5"/>
-        <v>Đấu nối trung thế trụ 021 Nhánh rẽ Thoại Hương 3, 4. Di dời TBA Thoại Hương 4cắt fco nhánh rẽ thoại hương 3, 4
-tiếp địa trung hạ áp tại tba thoại hương 3, 4Nhánh rẽ Thoại Hương 3, 4</v>
+        <v>Đấu nối trung thế trụ 017 Nhánh rẽ Xuân Tây 19.Cấy TBA Xuân Tây 19A, tách lưới hạ thế TBA Xuân Tây 19 sang TBA Xuân Tây 19Acắt fco nhánh rẽ xuân tây 19
+tiếp địa trung hạ áp tại tba xuân tây 19Nhánh rẽ Xuân Tây 19</v>
       </c>
       <c r="T13" s="26" t="str">
         <f t="shared" si="6"/>
-        <v>Cắt FCO Nhánh rẽ Thoại Hương 3, 4</v>
+        <v>Cắt FCO Nhánh rẽ Xuân Tây 19</v>
       </c>
       <c r="U13" s="26" t="str">
         <f t="shared" si="7"/>
-        <v>Tiếp địa tại Tiếp địa trung hạ áp tại TBA Thoại Hương 3, 4Nhánh rẽ Thoại Hương 3, 4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21">
+        <v>Tiếp địa tại Tiếp địa trung hạ áp tại TBA Xuân Tây 19Nhánh rẽ Xuân Tây 19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="43.2">
       <c r="A14">
         <f>ROW()</f>
         <v>14</v>
@@ -6082,22 +6130,22 @@
         <v>44062</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="E14" t="s">
-        <v>196</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="G14" s="48" t="s">
-        <v>225</v>
-      </c>
-      <c r="H14" s="48" t="s">
-        <v>167</v>
+        <v>168</v>
+      </c>
+      <c r="E14" s="45" t="s">
+        <v>199</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="G14" s="47" t="s">
+        <v>226</v>
+      </c>
+      <c r="H14" s="47" t="s">
+        <v>169</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>234</v>
@@ -6107,136 +6155,140 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="L14" s="6" t="str">
+      <c r="L14" s="26" t="str">
         <f t="array" ref="L14">_xlfn.TEXTJOIN(CHAR(10),TRUE,E14:F14)</f>
-        <v>Cắt FCO Nhánh rẽ Xuân Tây 19
-Tiếp địa trung hạ áp tại TBA Xuân Tây 19</v>
-      </c>
-      <c r="M14" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v>Nhánh rẽ Xuân Tây 19</v>
-      </c>
-      <c r="N14" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v>Cắt FCO Nhánh rẽ Xuân Tây 19
-Tiếp địa trung hạ áp tại TBA Xuân Tây 19Nhánh rẽ Xuân Tây 19</v>
-      </c>
-      <c r="O14" s="35">
-        <v>44086</v>
-      </c>
-      <c r="P14" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q14">
-        <f t="shared" si="9"/>
-        <v>7</v>
-      </c>
-      <c r="R14" s="26" t="str">
-        <f t="shared" si="4"/>
-        <v>Cắt FCO Nhánh rẽ Xuân Tây 19
-Tiếp địa trung hạ áp tại TBA Xuân Tây 19Nhánh rẽ Xuân Tây 19</v>
-      </c>
-      <c r="S14" s="26" t="str">
-        <f t="shared" si="5"/>
-        <v>Đấu nối trung thế trụ 017 Nhánh rẽ Xuân Tây 19.Cấy TBA Xuân Tây 19A, tách lưới hạ thế TBA Xuân Tây 19 sang TBA Xuân Tây 19Acắt fco nhánh rẽ xuân tây 19
-tiếp địa trung hạ áp tại tba xuân tây 19Nhánh rẽ Xuân Tây 19</v>
-      </c>
-      <c r="T14" s="26" t="str">
-        <f t="shared" si="6"/>
-        <v>Cắt FCO Nhánh rẽ Xuân Tây 19</v>
-      </c>
-      <c r="U14" s="26" t="str">
-        <f t="shared" si="7"/>
-        <v>Tiếp địa tại Tiếp địa trung hạ áp tại TBA Xuân Tây 19Nhánh rẽ Xuân Tây 19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" ht="43.2">
-      <c r="A15">
-        <f>ROW()</f>
-        <v>15</v>
-      </c>
-      <c r="B15" s="44">
-        <v>44062</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="E15" s="45" t="s">
-        <v>199</v>
-      </c>
-      <c r="F15" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="G15" s="48" t="s">
-        <v>226</v>
-      </c>
-      <c r="H15" s="48" t="s">
-        <v>169</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="J15" s="6"/>
-      <c r="K15" s="26">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="L15" s="6" t="str">
-        <f t="array" ref="L15">_xlfn.TEXTJOIN(CHAR(10),TRUE,E15:F15)</f>
         <v>Cắt 3xFCO Nhánh rẽ Láng Me 5
 Tiếp địa trụ trung thế 107
 Tiếp địa trụ trung thế 131
  Tiếp địa hạ thế TBA Láng Me 5, 5A, 5B</v>
       </c>
-      <c r="M15" s="26" t="str">
+      <c r="M14" s="26" t="str">
         <f t="shared" si="1"/>
         <v>Nhánh rẽ Láng Me 5</v>
       </c>
-      <c r="N15" s="26" t="str">
+      <c r="N14" s="26" t="str">
         <f t="shared" si="2"/>
         <v>Cắt 3xFCO Nhánh rẽ Láng Me 5
 Tiếp địa trụ trung thế 107
 Tiếp địa trụ trung thế 131
  Tiếp địa hạ thế TBA Láng Me 5, 5A, 5BNhánh rẽ Láng Me 5</v>
       </c>
-      <c r="O15" s="35">
+      <c r="O14" s="35">
         <v>44089</v>
       </c>
-      <c r="P15" t="s">
+      <c r="P14" t="s">
         <v>136</v>
       </c>
-      <c r="Q15">
+      <c r="Q14">
         <f t="shared" si="9"/>
         <v>3</v>
       </c>
-      <c r="R15" s="26" t="str">
+      <c r="R14" s="26" t="str">
         <f t="shared" si="4"/>
         <v>Cắt 3xFCO Nhánh rẽ Láng Me 5
 Tiếp địa trụ trung thế 107
 Tiếp địa trụ trung thế 131
  Tiếp địa hạ thế TBA Láng Me 5, 5A, 5BNhánh rẽ Láng Me 5</v>
       </c>
-      <c r="S15" s="26" t="str">
+      <c r="S14" s="26" t="str">
         <f t="shared" si="5"/>
         <v>Nâng cấp đường dây trung thế và trạm biến áp Láng Me 5B từ 1 pha lên 3 pha, di dời TBA Láng Me 5, cấy trạm biến áp lá me 5A-1cắt 3xfco nhánh rẽ láng me 5
 tiếp địa trụ trung thế 107
 tiếp địa trụ trung thế 131
  tiếp địa hạ thế tba láng me 5, 5a, 5bNhánh rẽ Láng Me 5</v>
       </c>
-      <c r="T15" s="26" t="str">
+      <c r="T14" s="26" t="str">
         <f t="shared" si="6"/>
         <v>Cắt 3xFCO Nhánh rẽ Láng Me 5</v>
       </c>
-      <c r="U15" s="26" t="str">
+      <c r="U14" s="26" t="str">
         <f t="shared" si="7"/>
         <v>Tiếp địa tại Tiếp địa trụ trung thế 131
  Tiếp địa hạ thế TBA Láng Me 5, 5A, 5BNhánh rẽ Láng Me 5</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="28.8">
+    <row r="15" spans="1:21" ht="28.8">
+      <c r="A15">
+        <f>ROW()</f>
+        <v>15</v>
+      </c>
+      <c r="B15" s="44">
+        <v>44062</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="E15" s="45" t="s">
+        <v>201</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="G15" s="47" t="s">
+        <v>227</v>
+      </c>
+      <c r="H15" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="J15" s="6"/>
+      <c r="K15" s="26">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="L15" s="26" t="str">
+        <f t="array" ref="L15">_xlfn.TEXTJOIN(CHAR(10),TRUE,E15:F15)</f>
+        <v xml:space="preserve">Cắt Recloser + 3 LTD Nhánh rẽ Sông Nhạn
+Tiếp địa trụ trung thế 006
+Tiếp địa trụ trung thế 023A </v>
+      </c>
+      <c r="M15" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>Nhánh rẽ Sông Nhạn</v>
+      </c>
+      <c r="N15" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>Cắt Recloser + 3 LTD Nhánh rẽ Sông Nhạn
+Tiếp địa trụ trung thế 006
+Tiếp địa trụ trung thế 023A Nhánh rẽ Sông Nhạn</v>
+      </c>
+      <c r="O15" s="35">
+        <v>44095</v>
+      </c>
+      <c r="P15" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="R15" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v>Cắt Recloser + 3 LTD Nhánh rẽ Sông Nhạn
+Tiếp địa trụ trung thế 006
+Tiếp địa trụ trung thế 023A Nhánh rẽ Sông Nhạn</v>
+      </c>
+      <c r="S15" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v>Di dời TBA Suối Râm 7cắt recloser + 3 ltd nhánh rẽ sông nhạn
+tiếp địa trụ trung thế 006
+tiếp địa trụ trung thế 023a Nhánh rẽ Sông Nhạn</v>
+      </c>
+      <c r="T15" s="26" t="str">
+        <f t="shared" si="6"/>
+        <v>Cắt Recloser + 3 LTD Nhánh rẽ Sông Nhạn</v>
+      </c>
+      <c r="U15" s="26" t="str">
+        <f t="shared" si="7"/>
+        <v>Tiếp địa tại Tiếp địa trụ trung thế 023A Nhánh rẽ Sông Nhạn</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="43.2">
       <c r="A16">
         <f>ROW()</f>
         <v>16</v>
@@ -6248,19 +6300,19 @@
         <v>156</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="E16" s="45" t="s">
-        <v>201</v>
+        <v>172</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>203</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="G16" s="48" t="s">
-        <v>227</v>
-      </c>
-      <c r="H16" s="48" t="s">
-        <v>171</v>
+        <v>204</v>
+      </c>
+      <c r="G16" s="47" t="s">
+        <v>205</v>
+      </c>
+      <c r="H16" s="47" t="s">
+        <v>173</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>234</v>
@@ -6270,163 +6322,163 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="L16" s="6" t="str">
+      <c r="L16" s="26" t="str">
         <f t="array" ref="L16">_xlfn.TEXTJOIN(CHAR(10),TRUE,E16:F16)</f>
-        <v xml:space="preserve">Cắt Recloser + 3 LTD Nhánh rẽ Sông Nhạn
-Tiếp địa trụ trung thế 006
-Tiếp địa trụ trung thế 023A </v>
-      </c>
-      <c r="M16" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v>Nhánh rẽ Sông Nhạn</v>
-      </c>
-      <c r="N16" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v>Cắt Recloser + 3 LTD Nhánh rẽ Sông Nhạn
-Tiếp địa trụ trung thế 006
-Tiếp địa trụ trung thế 023A Nhánh rẽ Sông Nhạn</v>
-      </c>
-      <c r="O16" s="35">
-        <v>44095</v>
-      </c>
-      <c r="P16" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q16">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="R16" s="26" t="str">
-        <f t="shared" si="4"/>
-        <v>Cắt Recloser + 3 LTD Nhánh rẽ Sông Nhạn
-Tiếp địa trụ trung thế 006
-Tiếp địa trụ trung thế 023A Nhánh rẽ Sông Nhạn</v>
-      </c>
-      <c r="S16" s="26" t="str">
-        <f t="shared" si="5"/>
-        <v>Di dời TBA Suối Râm 7cắt recloser + 3 ltd nhánh rẽ sông nhạn
-tiếp địa trụ trung thế 006
-tiếp địa trụ trung thế 023a Nhánh rẽ Sông Nhạn</v>
-      </c>
-      <c r="T16" s="26" t="str">
-        <f t="shared" si="6"/>
-        <v>Cắt Recloser + 3 LTD Nhánh rẽ Sông Nhạn</v>
-      </c>
-      <c r="U16" s="26" t="str">
-        <f t="shared" si="7"/>
-        <v>Tiếp địa tại Tiếp địa trụ trung thế 023A Nhánh rẽ Sông Nhạn</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" ht="43.2">
-      <c r="A17">
-        <f>ROW()</f>
-        <v>17</v>
-      </c>
-      <c r="B17" s="44">
-        <v>44062</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="G17" s="48" t="s">
-        <v>205</v>
-      </c>
-      <c r="H17" s="48" t="s">
-        <v>173</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="J17" s="6"/>
-      <c r="K17" s="26">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="L17" s="6" t="str">
-        <f t="array" ref="L17">_xlfn.TEXTJOIN(CHAR(10),TRUE,E17:F17)</f>
         <v>Cắt Recloser + 3 LTD Nhánh rẽ Nam Hà
 Cắt 3 LTD Xuân Bảo - Nam Hà
 Tiếp địa trụ trung thế 326
 Tiếp địa trụ trung thế 351</v>
       </c>
-      <c r="M17" s="26" t="str">
+      <c r="M16" s="26" t="str">
         <f t="shared" si="1"/>
         <v>Nhánh rẽ Nam Hà</v>
       </c>
-      <c r="N17" s="26" t="str">
+      <c r="N16" s="26" t="str">
         <f t="shared" si="2"/>
         <v>Cắt Recloser + 3 LTD Nhánh rẽ Nam Hà
 Cắt 3 LTD Xuân Bảo - Nam Hà
 Tiếp địa trụ trung thế 326
 Tiếp địa trụ trung thế 351Nhánh rẽ Nam Hà</v>
       </c>
-      <c r="O17" s="35">
+      <c r="O16" s="35">
         <v>44096</v>
       </c>
-      <c r="P17" t="s">
+      <c r="P16" t="s">
         <v>136</v>
       </c>
-      <c r="Q17">
+      <c r="Q16">
         <f t="shared" si="9"/>
         <v>3</v>
       </c>
-      <c r="R17" s="26" t="str">
+      <c r="R16" s="26" t="str">
         <f t="shared" si="4"/>
         <v>Cắt Recloser + 3 LTD Nhánh rẽ Nam Hà
 Cắt 3 LTD Xuân Bảo - Nam Hà
 Tiếp địa trụ trung thế 326
 Tiếp địa trụ trung thế 351Nhánh rẽ Nam Hà</v>
       </c>
-      <c r="S17" s="26" t="str">
+      <c r="S16" s="26" t="str">
         <f t="shared" si="5"/>
         <v>Lắp đặt trạm biến áp Nam Hà 3B tách lưới hạ thế trạm Nam Hà 3 sang nhận điện trạm Nam Hà 3B đấu nối đường dây trung thế xây dựng mớicắt recloser + 3 ltd nhánh rẽ nam hà
 cắt 3 ltd xuân bảo - nam hà
 tiếp địa trụ trung thế 326
 tiếp địa trụ trung thế 351Nhánh rẽ Nam Hà</v>
       </c>
+      <c r="T16" s="26" t="str">
+        <f t="shared" si="6"/>
+        <v>Cắt Recloser + 3 LTD Nhánh rẽ Nam Hà</v>
+      </c>
+      <c r="U16" s="26" t="str">
+        <f t="shared" si="7"/>
+        <v>Tiếp địa tại Tiếp địa trụ trung thế 351Nhánh rẽ Nam Hà</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="28.8">
+      <c r="A17">
+        <f>ROW()</f>
+        <v>17</v>
+      </c>
+      <c r="B17" s="44">
+        <v>44061</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G17" s="47" t="s">
+        <v>209</v>
+      </c>
+      <c r="H17" s="47" t="s">
+        <v>175</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="J17" s="6"/>
+      <c r="K17" s="26">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="L17" s="26" t="str">
+        <f t="array" ref="L17">_xlfn.TEXTJOIN(CHAR(10),TRUE,E17:F17)</f>
+        <v>Cắt Recloser + 3 LTD Nhánh rẽ Tân Bảo
+Tiếp địa trụ trung thế 117
+Tiếp địa trụ trung thế 147</v>
+      </c>
+      <c r="M17" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>Nhánh rẽ Tân Bảo</v>
+      </c>
+      <c r="N17" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>Cắt Recloser + 3 LTD Nhánh rẽ Tân Bảo
+Tiếp địa trụ trung thế 117
+Tiếp địa trụ trung thế 147Nhánh rẽ Tân Bảo</v>
+      </c>
+      <c r="O17" s="35">
+        <v>44097</v>
+      </c>
+      <c r="P17" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="R17" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v>Cắt Recloser + 3 LTD Nhánh rẽ Tân Bảo
+Tiếp địa trụ trung thế 117
+Tiếp địa trụ trung thế 147Nhánh rẽ Tân Bảo</v>
+      </c>
+      <c r="S17" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v>Lắp đặt trạm biến áp Tân Bảo 3A, tách lưới hạ thế trạm Tân Bảo 3 sang nhận điện trạm Tân Bảo 3Acắt recloser + 3 ltd nhánh rẽ tân bảo
+tiếp địa trụ trung thế 117
+tiếp địa trụ trung thế 147Nhánh rẽ Tân Bảo</v>
+      </c>
       <c r="T17" s="26" t="str">
         <f t="shared" si="6"/>
-        <v>Cắt Recloser + 3 LTD Nhánh rẽ Nam Hà</v>
+        <v>Cắt Recloser + 3 LTD Nhánh rẽ Tân Bảo</v>
       </c>
       <c r="U17" s="26" t="str">
         <f t="shared" si="7"/>
-        <v>Tiếp địa tại Tiếp địa trụ trung thế 351Nhánh rẽ Nam Hà</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" ht="28.8">
+        <v>Tiếp địa tại Tiếp địa trụ trung thế 147Nhánh rẽ Tân Bảo</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="43.2">
       <c r="A18">
         <f>ROW()</f>
         <v>18</v>
       </c>
       <c r="B18" s="44">
-        <v>44061</v>
+        <v>44062</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>156</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="G18" s="48" t="s">
-        <v>209</v>
-      </c>
-      <c r="H18" s="48" t="s">
-        <v>175</v>
+        <v>204</v>
+      </c>
+      <c r="G18" s="47" t="s">
+        <v>212</v>
+      </c>
+      <c r="H18" s="47" t="s">
+        <v>176</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>234</v>
@@ -6436,163 +6488,163 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="L18" s="6" t="str">
+      <c r="L18" s="26" t="str">
         <f t="array" ref="L18">_xlfn.TEXTJOIN(CHAR(10),TRUE,E18:F18)</f>
-        <v>Cắt Recloser + 3 LTD Nhánh rẽ Tân Bảo
-Tiếp địa trụ trung thế 117
-Tiếp địa trụ trung thế 147</v>
-      </c>
-      <c r="M18" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v>Nhánh rẽ Tân Bảo</v>
-      </c>
-      <c r="N18" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v>Cắt Recloser + 3 LTD Nhánh rẽ Tân Bảo
-Tiếp địa trụ trung thế 117
-Tiếp địa trụ trung thế 147Nhánh rẽ Tân Bảo</v>
-      </c>
-      <c r="O18" s="35">
-        <v>44097</v>
-      </c>
-      <c r="P18" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q18">
-        <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="R18" s="26" t="str">
-        <f t="shared" si="4"/>
-        <v>Cắt Recloser + 3 LTD Nhánh rẽ Tân Bảo
-Tiếp địa trụ trung thế 117
-Tiếp địa trụ trung thế 147Nhánh rẽ Tân Bảo</v>
-      </c>
-      <c r="S18" s="26" t="str">
-        <f t="shared" si="5"/>
-        <v>Lắp đặt trạm biến áp Tân Bảo 3A, tách lưới hạ thế trạm Tân Bảo 3 sang nhận điện trạm Tân Bảo 3Acắt recloser + 3 ltd nhánh rẽ tân bảo
-tiếp địa trụ trung thế 117
-tiếp địa trụ trung thế 147Nhánh rẽ Tân Bảo</v>
-      </c>
-      <c r="T18" s="26" t="str">
-        <f t="shared" si="6"/>
-        <v>Cắt Recloser + 3 LTD Nhánh rẽ Tân Bảo</v>
-      </c>
-      <c r="U18" s="26" t="str">
-        <f t="shared" si="7"/>
-        <v>Tiếp địa tại Tiếp địa trụ trung thế 147Nhánh rẽ Tân Bảo</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" ht="43.2">
-      <c r="A19">
-        <f>ROW()</f>
-        <v>19</v>
-      </c>
-      <c r="B19" s="44">
-        <v>44062</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="E19" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="G19" s="48" t="s">
-        <v>212</v>
-      </c>
-      <c r="H19" s="48" t="s">
-        <v>176</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="J19" s="6"/>
-      <c r="K19" s="26">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="L19" s="6" t="str">
-        <f t="array" ref="L19">_xlfn.TEXTJOIN(CHAR(10),TRUE,E19:F19)</f>
         <v>Cắt Recloser + 3 LTD Nhánh rẽ Nam Hà
 Cắt 3 LTD Xuân Bảo - Nam Hà
 Tiếp địa trụ trung thế 326
 Tiếp địa trụ trung thế 351</v>
       </c>
-      <c r="M19" s="26" t="str">
+      <c r="M18" s="26" t="str">
         <f t="shared" si="1"/>
         <v>Nhánh rẽ Nam Hà</v>
       </c>
-      <c r="N19" s="26" t="str">
+      <c r="N18" s="26" t="str">
         <f t="shared" si="2"/>
         <v>Cắt Recloser + 3 LTD Nhánh rẽ Nam Hà
 Cắt 3 LTD Xuân Bảo - Nam Hà
 Tiếp địa trụ trung thế 326
 Tiếp địa trụ trung thế 351Nhánh rẽ Nam Hà</v>
       </c>
-      <c r="O19" s="35">
+      <c r="O18" s="35">
         <v>44096</v>
       </c>
-      <c r="P19" t="s">
+      <c r="P18" t="s">
         <v>136</v>
       </c>
-      <c r="Q19">
+      <c r="Q18">
         <f t="shared" si="9"/>
         <v>3</v>
       </c>
-      <c r="R19" s="26" t="str">
+      <c r="R18" s="26" t="str">
         <f t="shared" si="4"/>
         <v>Cắt Recloser + 3 LTD Nhánh rẽ Nam Hà
 Cắt 3 LTD Xuân Bảo - Nam Hà
 Tiếp địa trụ trung thế 326
 Tiếp địa trụ trung thế 351Nhánh rẽ Nam Hà</v>
       </c>
-      <c r="S19" s="26" t="str">
+      <c r="S18" s="26" t="str">
         <f t="shared" si="5"/>
         <v>Di dời TBA Nam Hà 1, trồng trụ đôn lướicắt recloser + 3 ltd nhánh rẽ nam hà
 cắt 3 ltd xuân bảo - nam hà
 tiếp địa trụ trung thế 326
 tiếp địa trụ trung thế 351Nhánh rẽ Nam Hà</v>
       </c>
+      <c r="T18" s="26" t="str">
+        <f t="shared" si="6"/>
+        <v>Cắt Recloser + 3 LTD Nhánh rẽ Nam Hà</v>
+      </c>
+      <c r="U18" s="26" t="str">
+        <f t="shared" si="7"/>
+        <v>Tiếp địa tại Tiếp địa trụ trung thế 351Nhánh rẽ Nam Hà</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="28.8">
+      <c r="A19">
+        <f>ROW()</f>
+        <v>19</v>
+      </c>
+      <c r="B19" s="44">
+        <v>44062</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G19" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="H19" s="47" t="s">
+        <v>177</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="J19" s="6"/>
+      <c r="K19" s="26">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="L19" s="26" t="str">
+        <f t="array" ref="L19">_xlfn.TEXTJOIN(CHAR(10),TRUE,E19:F19)</f>
+        <v>Cắt Recloser + 3 LTD Nhánh rẽ Tân Bảo
+Tiếp địa trụ trung thế 117
+Tiếp địa trụ trung thế 147</v>
+      </c>
+      <c r="M19" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>Nhánh rẽ Tân Bảo</v>
+      </c>
+      <c r="N19" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>Cắt Recloser + 3 LTD Nhánh rẽ Tân Bảo
+Tiếp địa trụ trung thế 117
+Tiếp địa trụ trung thế 147Nhánh rẽ Tân Bảo</v>
+      </c>
+      <c r="O19" s="35">
+        <v>44097</v>
+      </c>
+      <c r="P19" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="R19" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v>Cắt Recloser + 3 LTD Nhánh rẽ Tân Bảo
+Tiếp địa trụ trung thế 117
+Tiếp địa trụ trung thế 147Nhánh rẽ Tân Bảo</v>
+      </c>
+      <c r="S19" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v>Di dời TBA Tân Bảo 3cắt recloser + 3 ltd nhánh rẽ tân bảo
+tiếp địa trụ trung thế 117
+tiếp địa trụ trung thế 147Nhánh rẽ Tân Bảo</v>
+      </c>
       <c r="T19" s="26" t="str">
         <f t="shared" si="6"/>
-        <v>Cắt Recloser + 3 LTD Nhánh rẽ Nam Hà</v>
+        <v>Cắt Recloser + 3 LTD Nhánh rẽ Tân Bảo</v>
       </c>
       <c r="U19" s="26" t="str">
         <f t="shared" si="7"/>
-        <v>Tiếp địa tại Tiếp địa trụ trung thế 351Nhánh rẽ Nam Hà</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" ht="28.8">
+        <v>Tiếp địa tại Tiếp địa trụ trung thế 147Nhánh rẽ Tân Bảo</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
       <c r="A20">
         <f>ROW()</f>
         <v>20</v>
       </c>
       <c r="B20" s="44">
-        <v>44062</v>
+        <v>44082</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>174</v>
+        <v>237</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>210</v>
+        <v>239</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="G20" s="48" t="s">
-        <v>213</v>
-      </c>
-      <c r="H20" s="48" t="s">
-        <v>177</v>
+        <v>238</v>
+      </c>
+      <c r="G20" s="47" t="s">
+        <v>240</v>
+      </c>
+      <c r="H20" s="47" t="s">
+        <v>241</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>234</v>
@@ -6602,101 +6654,95 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="L20" s="6" t="str">
+      <c r="L20" s="26" t="str">
         <f t="array" ref="L20">_xlfn.TEXTJOIN(CHAR(10),TRUE,E20:F20)</f>
-        <v>Cắt Recloser + 3 LTD Nhánh rẽ Tân Bảo
-Tiếp địa trụ trung thế 117
-Tiếp địa trụ trung thế 147</v>
+        <v>Cắt FCO + MCCB TBA Sông Ray 7
+Tiếp địa hạ thế tại MCCB TBA Sông Ray 7</v>
       </c>
       <c r="M20" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>Nhánh rẽ Tân Bảo</v>
+        <v>TBA Sông Ray 7</v>
       </c>
       <c r="N20" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v>Cắt Recloser + 3 LTD Nhánh rẽ Tân Bảo
-Tiếp địa trụ trung thế 117
-Tiếp địa trụ trung thế 147Nhánh rẽ Tân Bảo</v>
-      </c>
-      <c r="O20" s="35">
-        <v>44097</v>
-      </c>
-      <c r="P20" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q20">
-        <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="R20" s="26" t="str">
-        <f t="shared" si="4"/>
-        <v>Cắt Recloser + 3 LTD Nhánh rẽ Tân Bảo
-Tiếp địa trụ trung thế 117
-Tiếp địa trụ trung thế 147Nhánh rẽ Tân Bảo</v>
-      </c>
-      <c r="S20" s="26" t="str">
-        <f t="shared" si="5"/>
-        <v>Di dời TBA Tân Bảo 3cắt recloser + 3 ltd nhánh rẽ tân bảo
-tiếp địa trụ trung thế 117
-tiếp địa trụ trung thế 147Nhánh rẽ Tân Bảo</v>
-      </c>
-      <c r="T20" s="26" t="str">
-        <f t="shared" si="6"/>
-        <v>Cắt Recloser + 3 LTD Nhánh rẽ Tân Bảo</v>
-      </c>
-      <c r="U20" s="26" t="str">
-        <f t="shared" si="7"/>
-        <v>Tiếp địa tại Tiếp địa trụ trung thế 147Nhánh rẽ Tân Bảo</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21">
-      <c r="A21">
-        <f>ROW()</f>
-        <v>21</v>
-      </c>
-      <c r="B21" s="44">
-        <v>44082</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>239</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="G21" s="48" t="s">
-        <v>240</v>
-      </c>
-      <c r="H21" s="48" t="s">
-        <v>241</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="J21" s="6"/>
-      <c r="K21" s="26">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="L21" s="6" t="str">
-        <f t="array" ref="L21">_xlfn.TEXTJOIN(CHAR(10),TRUE,E21:F21)</f>
-        <v>Cắt FCO + MCCB TBA Sông Ray 7
-Tiếp địa hạ thế tại MCCB TBA Sông Ray 7</v>
-      </c>
-      <c r="M21" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v>TBA Sông Ray 7</v>
-      </c>
-      <c r="N21" s="26" t="str">
         <f t="shared" si="2"/>
         <v>Cắt FCO + MCCB TBA Sông Ray 7
 Tiếp địa hạ thế tại MCCB TBA Sông Ray 7TBA Sông Ray 7</v>
       </c>
+      <c r="O20" s="35">
+        <v>44098</v>
+      </c>
+      <c r="P20" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q20">
+        <f>WEEKDAY(O20)</f>
+        <v>5</v>
+      </c>
+      <c r="R20" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v>Cắt FCO + MCCB TBA Sông Ray 7
+Tiếp địa hạ thế tại MCCB TBA Sông Ray 7TBA Sông Ray 7</v>
+      </c>
+      <c r="S20" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v>Nâng cấp đường dây hạ thế sau TBA Sông Ray 7cắt fco + mccb tba sông ray 7
+tiếp địa hạ thế tại mccb tba sông ray 7TBA Sông Ray 7</v>
+      </c>
+      <c r="T20" s="26" t="str">
+        <f t="shared" si="6"/>
+        <v>Cắt FCO TBA Sông Ray 7</v>
+      </c>
+      <c r="U20" s="26" t="str">
+        <f t="shared" si="7"/>
+        <v>Tiếp địa tại Tiếp địa hạ thế tại MCCB TBA Sông Ray 7TBA Sông Ray 7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
+      <c r="A21">
+        <f>ROW()</f>
+        <v>21</v>
+      </c>
+      <c r="B21" s="44">
+        <v>44082</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="G21" s="47" t="s">
+        <v>248</v>
+      </c>
+      <c r="H21" s="47" t="s">
+        <v>249</v>
+      </c>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="26">
+        <f t="shared" ref="K21" si="10">J21+14</f>
+        <v>14</v>
+      </c>
+      <c r="L21" s="26" t="str">
+        <f t="array" ref="L21">_xlfn.TEXTJOIN(CHAR(10),TRUE,E21:F21)</f>
+        <v>Cắt 1xFCO nhánh rẽ Thừa Đức 11
+Tiếp địa trụ trạm Thừa Đức 11</v>
+      </c>
+      <c r="M21" s="26" t="str">
+        <f t="shared" ref="M21" si="11">D21</f>
+        <v>Nhánh rẽ Thừa Đức 11</v>
+      </c>
+      <c r="N21" s="26" t="str">
+        <f t="shared" ref="N21" si="12">L21&amp;D21</f>
+        <v>Cắt 1xFCO nhánh rẽ Thừa Đức 11
+Tiếp địa trụ trạm Thừa Đức 11Nhánh rẽ Thừa Đức 11</v>
+      </c>
       <c r="O21" s="35">
         <v>44098</v>
       </c>
@@ -6708,22 +6754,22 @@
         <v>5</v>
       </c>
       <c r="R21" s="26" t="str">
-        <f t="shared" si="4"/>
-        <v>Cắt FCO + MCCB TBA Sông Ray 7
-Tiếp địa hạ thế tại MCCB TBA Sông Ray 7TBA Sông Ray 7</v>
+        <f t="shared" ref="R21" si="13">L21&amp;D21</f>
+        <v>Cắt 1xFCO nhánh rẽ Thừa Đức 11
+Tiếp địa trụ trạm Thừa Đức 11Nhánh rẽ Thừa Đức 11</v>
       </c>
       <c r="S21" s="26" t="str">
-        <f t="shared" si="5"/>
-        <v>Nâng cấp đường dây hạ thế sau TBA Sông Ray 7cắt fco + mccb tba sông ray 7
-tiếp địa hạ thế tại mccb tba sông ray 7TBA Sông Ray 7</v>
+        <f t="shared" ref="S21" si="14">H21&amp;LOWER(L21)&amp;D21</f>
+        <v>Đấu nối lưới trung thế Thừa Đức 11, cấy TBA Thừa Đức 11, tách 1 phần lưới hạ thế TBA Thừa Đức 11 sang nhận điện từ TBA Thừa Đức 11Acắt 1xfco nhánh rẽ thừa đức 11
+tiếp địa trụ trạm thừa đức 11Nhánh rẽ Thừa Đức 11</v>
       </c>
       <c r="T21" s="26" t="str">
-        <f t="shared" si="6"/>
-        <v>Cắt FCO TBA Sông Ray 7</v>
+        <f t="shared" ref="T21" si="15">"Cắt "&amp;C21&amp;M21</f>
+        <v>Cắt FCO Nhánh rẽ Thừa Đức 11</v>
       </c>
       <c r="U21" s="26" t="str">
-        <f t="shared" si="7"/>
-        <v>Tiếp địa tại Tiếp địa hạ thế tại MCCB TBA Sông Ray 7TBA Sông Ray 7</v>
+        <f t="shared" ref="U21" si="16">"Tiếp địa tại "&amp;F21&amp;D21</f>
+        <v>Tiếp địa tại Tiếp địa trụ trạm Thừa Đức 11Nhánh rẽ Thừa Đức 11</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -6731,14 +6777,113 @@
         <f>ROW()</f>
         <v>22</v>
       </c>
-      <c r="B22" s="44"/>
-    </row>
-    <row r="23" spans="1:21">
+      <c r="B22" s="44">
+        <v>44062</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="E22" t="s">
+        <v>250</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="G22" s="47" t="s">
+        <v>255</v>
+      </c>
+      <c r="H22" s="47" t="s">
+        <v>253</v>
+      </c>
+      <c r="L22" s="26" t="str">
+        <f t="array" ref="L22">_xlfn.TEXTJOIN(CHAR(10),TRUE,E22:F22)</f>
+        <v>Cắt 1xFCO nhánh rẽ Suối Râm 7A
+Tiếp địa trụ trung thế 002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="31.5" customHeight="1">
       <c r="A23">
         <f>ROW()</f>
         <v>23</v>
       </c>
-      <c r="B23" s="44"/>
+      <c r="B23" s="44">
+        <v>44061</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D23" t="s">
+        <v>135</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="G23" s="47" t="s">
+        <v>214</v>
+      </c>
+      <c r="H23" s="47" t="s">
+        <v>229</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="J23" s="6"/>
+      <c r="K23" s="26">
+        <f>J23+14</f>
+        <v>14</v>
+      </c>
+      <c r="L23" s="26" t="str">
+        <f t="array" ref="L23">_xlfn.TEXTJOIN(CHAR(10),TRUE,E23:F23)</f>
+        <v xml:space="preserve">Cắt FCO + MCCB TBA Nam Hà 1
+Tiếp địa hạ thế tại MCCB TBA Nam Hà 1
+ </v>
+      </c>
+      <c r="M23" s="26" t="str">
+        <f>D23</f>
+        <v>TBA Nam Hà 1</v>
+      </c>
+      <c r="N23" s="26" t="str">
+        <f>L23&amp;D23</f>
+        <v>Cắt FCO + MCCB TBA Nam Hà 1
+Tiếp địa hạ thế tại MCCB TBA Nam Hà 1
+ TBA Nam Hà 1</v>
+      </c>
+      <c r="O23" s="35">
+        <v>44079</v>
+      </c>
+      <c r="P23" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q23">
+        <f>WEEKDAY(O23)</f>
+        <v>7</v>
+      </c>
+      <c r="R23" s="26" t="str">
+        <f>L23&amp;D23</f>
+        <v>Cắt FCO + MCCB TBA Nam Hà 1
+Tiếp địa hạ thế tại MCCB TBA Nam Hà 1
+ TBA Nam Hà 1</v>
+      </c>
+      <c r="S23" s="26" t="str">
+        <f>H23&amp;LOWER(L23)&amp;D23</f>
+        <v>Thay dây hạ thế  sau TBA Nam Hà 1cắt fco + mccb tba nam hà 1
+tiếp địa hạ thế tại mccb tba nam hà 1
+ TBA Nam Hà 1</v>
+      </c>
+      <c r="T23" s="26" t="str">
+        <f>"Cắt "&amp;C23&amp;M23</f>
+        <v>Cắt FCO + MCCB TBA Nam Hà 1</v>
+      </c>
+      <c r="U23" s="26" t="str">
+        <f>"Tiếp địa tại "&amp;F23&amp;D23</f>
+        <v>Tiếp địa tại  TBA Nam Hà 1</v>
+      </c>
     </row>
     <row r="24" spans="1:21">
       <c r="A24">
@@ -7231,23 +7376,31 @@
       <c r="B93" s="44"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U21" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
-  <conditionalFormatting sqref="Q1:R1 Q8 Q10:Q17 Q21 Q3:Q6">
+  <autoFilter ref="A1:U20" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
+  <conditionalFormatting sqref="Q1:R1 Q7 Q9:Q16 Q20 Q3:Q5 Q23">
+    <cfRule type="cellIs" dxfId="11" priority="16" stopIfTrue="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q6">
+    <cfRule type="cellIs" dxfId="10" priority="15" stopIfTrue="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q8">
     <cfRule type="cellIs" dxfId="9" priority="14" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q7">
-    <cfRule type="cellIs" dxfId="8" priority="13" stopIfTrue="1" operator="equal">
-      <formula>1</formula>
-    </cfRule>
+  <conditionalFormatting sqref="O20 O1 O3:O16 O22:O1048576">
+    <cfRule type="duplicateValues" dxfId="8" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q9">
+  <conditionalFormatting sqref="Q17">
     <cfRule type="cellIs" dxfId="7" priority="12" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O21:O1048576 O1 O3:O17">
+  <conditionalFormatting sqref="O17">
     <cfRule type="duplicateValues" dxfId="6" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q18">
@@ -7266,13 +7419,13 @@
   <conditionalFormatting sqref="O19">
     <cfRule type="duplicateValues" dxfId="2" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q20">
-    <cfRule type="cellIs" dxfId="1" priority="6" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="Q21">
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O20">
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+  <conditionalFormatting sqref="O21">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7281,10 +7434,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE849143-1DF9-4A8E-925A-0B804B3F18ED}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7338,16 +7491,16 @@
       </c>
       <c r="C3" t="str">
         <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!C$2,0)</f>
-        <v>Thay dây hạ thế  sau TBA Nam Hà 1</v>
+        <v>Thay dây hạ thế  sau TBA Nam Hà 1A</v>
       </c>
       <c r="D3" t="str">
         <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!D$2,0)</f>
-        <v> Lưới hạ thế thuộc trạm Nam Hà 1</v>
+        <v>Lưới điện hạ thế thuộc trạm Nam Hà 1A</v>
       </c>
       <c r="E3" t="str">
         <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!E$2,0)</f>
-        <v>Cắt FCO + MCCB TBA Nam Hà 1
-Tiếp địa hạ thế tại MCCB TBA Nam Hà 1</v>
+        <v>Cắt FCO + MCCB TBA Nam Hà 1A
+Tiếp địa hạ thế tại MCCB TBA Nam Hà 1A</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -7361,16 +7514,16 @@
       </c>
       <c r="C4" t="str">
         <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!C$2,0)</f>
-        <v>Thay dây hạ thế  sau TBA Nam Hà 1A</v>
+        <v>Thay dây hạ thế  sau TBA Nam Hà 3</v>
       </c>
       <c r="D4" t="str">
         <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!D$2,0)</f>
-        <v>Lưới điện hạ thế thuộc trạm Nam Hà 1A</v>
+        <v>Lưới điện hạ thế thuộc trạm Nam Hà 3</v>
       </c>
       <c r="E4" t="str">
         <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!E$2,0)</f>
-        <v>Cắt FCO + MCCB TBA Nam Hà 1A
-Tiếp địa hạ thế tại MCCB TBA Nam Hà 1A</v>
+        <v>Cắt FCO + MCCB TBA Nam Hà 3
+Tiếp địa hạ thế tại MCCB TBA Nam Hà 3</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7384,16 +7537,16 @@
       </c>
       <c r="C5" t="str">
         <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!C$2,0)</f>
-        <v>Thay dây hạ thế  sau TBA Nam Hà 3</v>
+        <v>Thay dây hạ thế  sau TBA Xuân Tây 10A</v>
       </c>
       <c r="D5" t="str">
         <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!D$2,0)</f>
-        <v>Lưới điện hạ thế thuộc trạm Nam Hà 3</v>
+        <v>Đường dây hạ thế thuộc trạm biến áp Xuân Tây 10A</v>
       </c>
       <c r="E5" t="str">
         <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!E$2,0)</f>
-        <v>Cắt FCO + MCCB TBA Nam Hà 3
-Tiếp địa hạ thế tại MCCB TBA Nam Hà 3</v>
+        <v>Cắt FCO + MCCB TBA Xuân Tây 10A
+Tiếp địa hạ thế tại MCCB TBA Xuân Tây 10A</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -7407,16 +7560,16 @@
       </c>
       <c r="C6" t="str">
         <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!C$2,0)</f>
-        <v>Thay dây hạ thế  sau TBA Xuân Tây 10A</v>
+        <v>Thay dây hạ thế  sau TBA Sông Ray 8A</v>
       </c>
       <c r="D6" t="str">
         <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!D$2,0)</f>
-        <v>Đường dây hạ thế thuộc trạm biến áp Xuân Tây 10A</v>
+        <v>Đường dây hạ thế thuộc Trạm Sông Ray 8A</v>
       </c>
       <c r="E6" t="str">
         <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!E$2,0)</f>
-        <v>Cắt FCO + MCCB TBA Xuân Tây 10A
-Tiếp địa hạ thế tại MCCB TBA Xuân Tây 10A</v>
+        <v>Cắt FCO + MCCB TBA Sông Ray 8A
+Tiếp địa hạ thế tại MCCB TBA Sông Ray 8A</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -7430,36 +7583,13 @@
       </c>
       <c r="C7" t="str">
         <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!C$2,0)</f>
-        <v>Thay dây hạ thế  sau TBA Sông Ray 8A</v>
+        <v>Nâng cấp đường dây hạ thế và TBA Sông Ray 7 từ 1 pha lên 3 pha, cấy TBA Sông Ray 7A</v>
       </c>
       <c r="D7" t="str">
         <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!D$2,0)</f>
-        <v>Đường dây hạ thế thuộc Trạm Sông Ray 8A</v>
+        <v>Tại trạm biến áp Sông Ray 7</v>
       </c>
       <c r="E7" t="str">
-        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!E$2,0)</f>
-        <v>Cắt FCO + MCCB TBA Sông Ray 8A
-Tiếp địa hạ thế tại MCCB TBA Sông Ray 8A</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8">
-        <f>ROW()</f>
-        <v>8</v>
-      </c>
-      <c r="B8" t="str">
-        <f>" ngày "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"dd")&amp;" tháng "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"MM")&amp;" năm "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"yyyy")</f>
-        <v xml:space="preserve"> ngày 18 tháng 08 năm 2020</v>
-      </c>
-      <c r="C8" t="str">
-        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!C$2,0)</f>
-        <v>Nâng cấp đường dây hạ thế và TBA Sông Ray 7 từ 1 pha lên 3 pha, cấy TBA Sông Ray 7A</v>
-      </c>
-      <c r="D8" t="str">
-        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!D$2,0)</f>
-        <v>Tại trạm biến áp Sông Ray 7</v>
-      </c>
-      <c r="E8" t="str">
         <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!E$2,0)</f>
         <v>Cắt LBS khí Đồng Tâm 1 + 3 LTD Đồng Tâm 1
 Cắt LBS khí Sông Ray + 3 LTD Sông Ray 1
@@ -7468,54 +7598,77 @@
 Tiếp địa hạ thế TBA Sông Ray 7</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9">
-        <f>ROW()</f>
-        <v>9</v>
-      </c>
-      <c r="B9" t="str">
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <f>ROW()</f>
+        <v>8</v>
+      </c>
+      <c r="B8" t="str">
         <f>" ngày "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"dd")&amp;" tháng "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"MM")&amp;" năm "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"yyyy")</f>
         <v xml:space="preserve"> ngày 19 tháng 08 năm 2020</v>
       </c>
-      <c r="C9" t="str">
+      <c r="C8" t="str">
         <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!C$2,0)</f>
         <v>Nâng cấp đường dây hạ thế và TBA Sông Ray 7 từ 1 pha lên 3 pha, cấy TBA Sông Ray 7A</v>
       </c>
-      <c r="D9" t="str">
+      <c r="D8" t="str">
         <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!D$2,0)</f>
         <v>Nhánh rẽ Lâm San 10 11 12 tiếng 471 Xuân Mỹ</v>
       </c>
-      <c r="E9" t="str">
+      <c r="E8" t="str">
         <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!E$2,0)</f>
         <v>Cắt 3xFCO Nhánh rẽ Lâm San 10, 11, 12
 Tiếp địa trụ trung thế 357 Nhánh rẽ Lâm San 10, 11, 12
 Tiếp địa trung hạ áp tại TBA Lâm San 11A, 11D</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10">
-        <f>ROW()</f>
-        <v>10</v>
-      </c>
-      <c r="B10" t="str">
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <f>ROW()</f>
+        <v>9</v>
+      </c>
+      <c r="B9" t="str">
         <f>" ngày "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"dd")&amp;" tháng "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"MM")&amp;" năm "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"yyyy")</f>
         <v xml:space="preserve"> ngày 19 tháng 08 năm 2020</v>
       </c>
-      <c r="C10" t="str">
+      <c r="C9" t="str">
         <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!C$2,0)</f>
         <v>Trồng trụ trung thế 015A đấu nối trung thế, tách lưới, sang tải TBA Sông Ray 2, Sông Ray 2A. Đấu nối trung thế và di dời TBA Sông Ray 4A</v>
       </c>
-      <c r="D10" t="str">
+      <c r="D9" t="str">
         <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!D$2,0)</f>
         <v>Từ khoản trụ 015, 016, 072 nhánh Lâm San tuyến 471 Xuân Mỹ</v>
       </c>
-      <c r="E10" t="str">
+      <c r="E9" t="str">
         <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!E$2,0)</f>
         <v xml:space="preserve">Cắt Recloser + 3 LTD Lâm San
 Tiếp địa trụ trung thế 011A
 Tiếp địa trụ trung thế 075 </v>
       </c>
     </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <f>ROW()</f>
+        <v>10</v>
+      </c>
+      <c r="B10" t="str">
+        <f>" ngày "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"dd")&amp;" tháng "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"MM")&amp;" năm "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"yyyy")</f>
+        <v xml:space="preserve"> ngày 19 tháng 08 năm 2020</v>
+      </c>
+      <c r="C10" t="str">
+        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!C$2,0)</f>
+        <v>Đấu nối trung thế trụ 009A, 013. Tách lưới hạ thế sau TBA Cánh đồng Xuân Tây 1A, Cánh đồng Xuân Tây 1B</v>
+      </c>
+      <c r="D10" t="str">
+        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!D$2,0)</f>
+        <v>Từ sau 3xFCO nhánh Cánh Đồng Xuân Tây 1</v>
+      </c>
+      <c r="E10" t="str">
+        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!E$2,0)</f>
+        <v>Cắt 3xFCO Nhánh rẽ Cánh đồng Xuân Tây 1
+Tiếp địa trung hạ áp tại TBA Cánh đồng Xuân Tây 1</v>
+      </c>
+    </row>
     <row r="11" spans="1:5">
       <c r="A11">
         <f>ROW()</f>
@@ -7527,36 +7680,13 @@
       </c>
       <c r="C11" t="str">
         <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!C$2,0)</f>
-        <v>Đấu nối trung thế trụ 009A, 013. Tách lưới hạ thế sau TBA Cánh đồng Xuân Tây 1A, Cánh đồng Xuân Tây 1B</v>
+        <v>Đấu nối trung thế trụ 087 nhánh rẽ Láng Me. Cấy TBA Láng Me 3B, Tách lưới hạ thế sau TBA Láng Me 3 sang Láng Me 3B</v>
       </c>
       <c r="D11" t="str">
         <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!D$2,0)</f>
-        <v>Từ sau 3xFCO nhánh Cánh Đồng Xuân Tây 1</v>
+        <v>Tại trụ 087 nhánh Láng Me tuyến 471 Xuân Mỹ</v>
       </c>
       <c r="E11" t="str">
-        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!E$2,0)</f>
-        <v>Cắt 3xFCO Nhánh rẽ Cánh đồng Xuân Tây 1
-Tiếp địa trung hạ áp tại TBA Cánh đồng Xuân Tây 1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12">
-        <f>ROW()</f>
-        <v>12</v>
-      </c>
-      <c r="B12" t="str">
-        <f>" ngày "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"dd")&amp;" tháng "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"MM")&amp;" năm "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"yyyy")</f>
-        <v xml:space="preserve"> ngày 19 tháng 08 năm 2020</v>
-      </c>
-      <c r="C12" t="str">
-        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!C$2,0)</f>
-        <v>Đấu nối trung thế trụ 087 nhánh rẽ Láng Me. Cấy TBA Láng Me 3B, Tách lưới hạ thế sau TBA Láng Me 3 sang Láng Me 3B</v>
-      </c>
-      <c r="D12" t="str">
-        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!D$2,0)</f>
-        <v>Tại trụ 087 nhánh Láng Me tuyến 471 Xuân Mỹ</v>
-      </c>
-      <c r="E12" t="str">
         <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!E$2,0)</f>
         <v>Cắt Recloser + 3 LTD Láng Me
 Tiếp địa trụ trung thế 079
@@ -7564,6 +7694,29 @@
  Tiếp địa hạ thế TBA Láng Me 3</v>
       </c>
     </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <f>ROW()</f>
+        <v>12</v>
+      </c>
+      <c r="B12" t="str">
+        <f>" ngày "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"dd")&amp;" tháng "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"MM")&amp;" năm "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"yyyy")</f>
+        <v xml:space="preserve"> ngày 19 tháng 08 năm 2020</v>
+      </c>
+      <c r="C12" t="str">
+        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!C$2,0)</f>
+        <v>Đấu nối trung thế trụ 021 Nhánh rẽ Thoại Hương 3, 4. Di dời TBA Thoại Hương 4</v>
+      </c>
+      <c r="D12" t="str">
+        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!D$2,0)</f>
+        <v>Tại trụ trạm biến áp Thoại Hương 4 tuyến 471 Xuân Mỹ</v>
+      </c>
+      <c r="E12" t="str">
+        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!E$2,0)</f>
+        <v>Cắt FCO Nhánh rẽ Thoại Hương 3, 4
+Tiếp địa trung hạ áp tại TBA Thoại Hương 3, 4</v>
+      </c>
+    </row>
     <row r="13" spans="1:5">
       <c r="A13">
         <f>ROW()</f>
@@ -7575,16 +7728,16 @@
       </c>
       <c r="C13" t="str">
         <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!C$2,0)</f>
-        <v>Đấu nối trung thế trụ 021 Nhánh rẽ Thoại Hương 3, 4. Di dời TBA Thoại Hương 4</v>
+        <v>Đấu nối trung thế trụ 017 Nhánh rẽ Xuân Tây 19.Cấy TBA Xuân Tây 19A, tách lưới hạ thế TBA Xuân Tây 19 sang TBA Xuân Tây 19A</v>
       </c>
       <c r="D13" t="str">
         <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!D$2,0)</f>
-        <v>Tại trụ trạm biến áp Thoại Hương 4 tuyến 471 Xuân Mỹ</v>
+        <v>Nhấn vẽ Xuân Tây 19 tuyến 471 Xuân Mỹ</v>
       </c>
       <c r="E13" t="str">
         <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!E$2,0)</f>
-        <v>Cắt FCO Nhánh rẽ Thoại Hương 3, 4
-Tiếp địa trung hạ áp tại TBA Thoại Hương 3, 4</v>
+        <v>Cắt FCO Nhánh rẽ Xuân Tây 19
+Tiếp địa trung hạ áp tại TBA Xuân Tây 19</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -7598,36 +7751,13 @@
       </c>
       <c r="C14" t="str">
         <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!C$2,0)</f>
-        <v>Đấu nối trung thế trụ 017 Nhánh rẽ Xuân Tây 19.Cấy TBA Xuân Tây 19A, tách lưới hạ thế TBA Xuân Tây 19 sang TBA Xuân Tây 19A</v>
+        <v>Nâng cấp đường dây trung thế và trạm biến áp Láng Me 5B từ 1 pha lên 3 pha, di dời TBA Láng Me 5, cấy trạm biến áp lá me 5A-1</v>
       </c>
       <c r="D14" t="str">
         <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!D$2,0)</f>
-        <v>Nhấn vẽ Xuân Tây 19 tuyến 471 Xuân Mỹ</v>
+        <v>Từ sau 3 FCO nhánh Láng Me 5 tuyến 471 Xuân Mỹ</v>
       </c>
       <c r="E14" t="str">
-        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!E$2,0)</f>
-        <v>Cắt FCO Nhánh rẽ Xuân Tây 19
-Tiếp địa trung hạ áp tại TBA Xuân Tây 19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15">
-        <f>ROW()</f>
-        <v>15</v>
-      </c>
-      <c r="B15" t="str">
-        <f>" ngày "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"dd")&amp;" tháng "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"MM")&amp;" năm "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"yyyy")</f>
-        <v xml:space="preserve"> ngày 19 tháng 08 năm 2020</v>
-      </c>
-      <c r="C15" t="str">
-        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!C$2,0)</f>
-        <v>Nâng cấp đường dây trung thế và trạm biến áp Láng Me 5B từ 1 pha lên 3 pha, di dời TBA Láng Me 5, cấy trạm biến áp lá me 5A-1</v>
-      </c>
-      <c r="D15" t="str">
-        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!D$2,0)</f>
-        <v>Từ sau 3 FCO nhánh Láng Me 5 tuyến 471 Xuân Mỹ</v>
-      </c>
-      <c r="E15" t="str">
         <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!E$2,0)</f>
         <v>Cắt 3xFCO Nhánh rẽ Láng Me 5
 Tiếp địa trụ trung thế 107
@@ -7635,48 +7765,48 @@
  Tiếp địa hạ thế TBA Láng Me 5, 5A, 5B</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16">
-        <f>ROW()</f>
-        <v>16</v>
-      </c>
-      <c r="B16" t="str">
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <f>ROW()</f>
+        <v>15</v>
+      </c>
+      <c r="B15" t="str">
         <f>" ngày "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"dd")&amp;" tháng "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"MM")&amp;" năm "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"yyyy")</f>
         <v xml:space="preserve"> ngày 19 tháng 08 năm 2020</v>
       </c>
-      <c r="C16" t="str">
+      <c r="C15" t="str">
         <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!C$2,0)</f>
         <v>Di dời TBA Suối Râm 7</v>
       </c>
-      <c r="D16" t="str">
+      <c r="D15" t="str">
         <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!D$2,0)</f>
         <v>Tại trụ trạm suối râm 7 và trụ trung thế 023/007</v>
       </c>
-      <c r="E16" t="str">
+      <c r="E15" t="str">
         <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!E$2,0)</f>
         <v xml:space="preserve">Cắt Recloser + 3 LTD Nhánh rẽ Sông Nhạn
 Tiếp địa trụ trung thế 006
 Tiếp địa trụ trung thế 023A </v>
       </c>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17">
-        <f>ROW()</f>
-        <v>17</v>
-      </c>
-      <c r="B17" t="str">
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <f>ROW()</f>
+        <v>16</v>
+      </c>
+      <c r="B16" t="str">
         <f>" ngày "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"dd")&amp;" tháng "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"MM")&amp;" năm "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"yyyy")</f>
         <v xml:space="preserve"> ngày 19 tháng 08 năm 2020</v>
       </c>
-      <c r="C17" t="str">
+      <c r="C16" t="str">
         <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!C$2,0)</f>
         <v>Lắp đặt trạm biến áp Nam Hà 3B tách lưới hạ thế trạm Nam Hà 3 sang nhận điện trạm Nam Hà 3B đấu nối đường dây trung thế xây dựng mới</v>
       </c>
-      <c r="D17" t="str">
+      <c r="D16" t="str">
         <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!D$2,0)</f>
         <v>Tại trụ trung thế 334/003, 334/003/019 và lưới điện hạ thế thuộc TBA Nam Hà 3</v>
       </c>
-      <c r="E17" t="str">
+      <c r="E16" t="str">
         <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!E$2,0)</f>
         <v>Cắt Recloser + 3 LTD Nhánh rẽ Nam Hà
 Cắt 3 LTD Xuân Bảo - Nam Hà
@@ -7684,48 +7814,48 @@
 Tiếp địa trụ trung thế 351</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18">
-        <f>ROW()</f>
-        <v>18</v>
-      </c>
-      <c r="B18" t="str">
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <f>ROW()</f>
+        <v>17</v>
+      </c>
+      <c r="B17" t="str">
         <f>" ngày "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"dd")&amp;" tháng "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"MM")&amp;" năm "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"yyyy")</f>
         <v xml:space="preserve"> ngày 18 tháng 08 năm 2020</v>
       </c>
-      <c r="C18" t="str">
+      <c r="C17" t="str">
         <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!C$2,0)</f>
         <v>Lắp đặt trạm biến áp Tân Bảo 3A, tách lưới hạ thế trạm Tân Bảo 3 sang nhận điện trạm Tân Bảo 3A</v>
       </c>
-      <c r="D18" t="str">
+      <c r="D17" t="str">
         <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!D$2,0)</f>
         <v>Tại trụ trung thế 018 nhánh Xuân Bảo - Bảo Bình và lưới điện hạ thế thuộc trạm Tân Bảo 3</v>
       </c>
-      <c r="E18" t="str">
+      <c r="E17" t="str">
         <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!E$2,0)</f>
         <v>Cắt Recloser + 3 LTD Nhánh rẽ Tân Bảo
 Tiếp địa trụ trung thế 117
 Tiếp địa trụ trung thế 147</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19">
-        <f>ROW()</f>
-        <v>19</v>
-      </c>
-      <c r="B19" t="str">
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <f>ROW()</f>
+        <v>18</v>
+      </c>
+      <c r="B18" t="str">
         <f>" ngày "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"dd")&amp;" tháng "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"MM")&amp;" năm "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"yyyy")</f>
         <v xml:space="preserve"> ngày 19 tháng 08 năm 2020</v>
       </c>
-      <c r="C19" t="str">
+      <c r="C18" t="str">
         <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!C$2,0)</f>
         <v>Di dời TBA Nam Hà 1, trồng trụ đôn lưới</v>
       </c>
-      <c r="D19" t="str">
+      <c r="D18" t="str">
         <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!D$2,0)</f>
         <v>Tại trụ trung thế 334, 334/001, 335A, 348A, 339A nhánh rẽ Xuân Bảo - Nam Hà</v>
       </c>
-      <c r="E19" t="str">
+      <c r="E18" t="str">
         <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!E$2,0)</f>
         <v>Cắt Recloser + 3 LTD Nhánh rẽ Nam Hà
 Cắt 3 LTD Xuân Bảo - Nam Hà
@@ -7733,30 +7863,53 @@
 Tiếp địa trụ trung thế 351</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20">
-        <f>ROW()</f>
-        <v>20</v>
-      </c>
-      <c r="B20" t="str">
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <f>ROW()</f>
+        <v>19</v>
+      </c>
+      <c r="B19" t="str">
         <f>" ngày "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"dd")&amp;" tháng "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"MM")&amp;" năm "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"yyyy")</f>
         <v xml:space="preserve"> ngày 19 tháng 08 năm 2020</v>
       </c>
-      <c r="C20" t="str">
+      <c r="C19" t="str">
         <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!C$2,0)</f>
         <v>Di dời TBA Tân Bảo 3</v>
       </c>
-      <c r="D20" t="str">
+      <c r="D19" t="str">
         <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!D$2,0)</f>
         <v>Tại trụ trung thế TBA Tân Bảo 3 và trụ trung thế 131 nhánh rẽ Xuân Bảo - Bảo Bình</v>
       </c>
-      <c r="E20" t="str">
+      <c r="E19" t="str">
         <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!E$2,0)</f>
         <v>Cắt Recloser + 3 LTD Nhánh rẽ Tân Bảo
 Tiếp địa trụ trung thế 117
 Tiếp địa trụ trung thế 147</v>
       </c>
     </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <f>ROW()</f>
+        <v>20</v>
+      </c>
+      <c r="B20" t="str">
+        <f>" ngày "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"dd")&amp;" tháng "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"MM")&amp;" năm "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"yyyy")</f>
+        <v xml:space="preserve"> ngày 08 tháng 09 năm 2020</v>
+      </c>
+      <c r="C20" t="str">
+        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!C$2,0)</f>
+        <v>Nâng cấp đường dây hạ thế sau TBA Sông Ray 7</v>
+      </c>
+      <c r="D20" t="str">
+        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!D$2,0)</f>
+        <v>Lưới điện hạ thế thuộc trạm Sông Ray 7</v>
+      </c>
+      <c r="E20" t="str">
+        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!E$2,0)</f>
+        <v>Cắt FCO + MCCB TBA Sông Ray 7
+Tiếp địa hạ thế tại MCCB TBA Sông Ray 7</v>
+      </c>
+    </row>
     <row r="21" spans="1:5">
       <c r="A21">
         <f>ROW()</f>
@@ -7768,16 +7921,107 @@
       </c>
       <c r="C21" t="str">
         <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!C$2,0)</f>
-        <v>Nâng cấp đường dây hạ thế sau TBA Sông Ray 7</v>
+        <v>Đấu nối lưới trung thế Thừa Đức 11, cấy TBA Thừa Đức 11, tách 1 phần lưới hạ thế TBA Thừa Đức 11 sang nhận điện từ TBA Thừa Đức 11A</v>
       </c>
       <c r="D21" t="str">
         <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!D$2,0)</f>
-        <v>Lưới điện hạ thế thuộc trạm Sông Ray 7</v>
+        <v>Tại trụ trung thế 010, 032 và lưới điện hạ thế thuộc TBA Thừa Đức 11</v>
       </c>
       <c r="E21" t="str">
         <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!E$2,0)</f>
-        <v>Cắt FCO + MCCB TBA Sông Ray 7
-Tiếp địa hạ thế tại MCCB TBA Sông Ray 7</v>
+        <v>Cắt 1xFCO nhánh rẽ Thừa Đức 11
+Tiếp địa trụ trạm Thừa Đức 11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <f>ROW()</f>
+        <v>22</v>
+      </c>
+      <c r="B22" t="str">
+        <f>" ngày "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"dd")&amp;" tháng "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"MM")&amp;" năm "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"yyyy")</f>
+        <v xml:space="preserve"> ngày 19 tháng 08 năm 2020</v>
+      </c>
+      <c r="C22" t="str">
+        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!C$2,0)</f>
+        <v>Cấy TBA Suối Râm 7A (1x75kVA) tại trụ trung thế 017 nhánh rẽ Suối Râm 7A, tách 1 phần lưới hạ thế từ TBA Suối Râm 7 sang nhận điện TBA Suối Râm 7A</v>
+      </c>
+      <c r="D22" t="str">
+        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!D$2,0)</f>
+        <v>Lưới điện trung hạ thế thuộc nhánh rẽ Suối Râm 7A</v>
+      </c>
+      <c r="E22" t="str">
+        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!E$2,0)</f>
+        <v>Cắt 1xFCO nhánh rẽ Suối Râm 7A
+Tiếp địa trụ trung thế 002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <f>ROW()</f>
+        <v>23</v>
+      </c>
+      <c r="B23" t="str">
+        <f>" ngày "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"dd")&amp;" tháng "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"MM")&amp;" năm "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"yyyy")</f>
+        <v xml:space="preserve"> ngày 18 tháng 08 năm 2020</v>
+      </c>
+      <c r="C23" t="str">
+        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!C$2,0)</f>
+        <v>Thay dây hạ thế  sau TBA Nam Hà 1</v>
+      </c>
+      <c r="D23" t="str">
+        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!D$2,0)</f>
+        <v> Lưới hạ thế thuộc trạm Nam Hà 1</v>
+      </c>
+      <c r="E23" t="str">
+        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!E$2,0)</f>
+        <v xml:space="preserve">Cắt FCO + MCCB TBA Nam Hà 1
+Tiếp địa hạ thế tại MCCB TBA Nam Hà 1
+ </v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <f>ROW()</f>
+        <v>24</v>
+      </c>
+      <c r="B24" t="str">
+        <f>" ngày "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"dd")&amp;" tháng "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"MM")&amp;" năm "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"yyyy")</f>
+        <v xml:space="preserve"> ngày 00 tháng 01 năm 1900</v>
+      </c>
+      <c r="C24">
+        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!C$2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!D$2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!E$2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <f>ROW()</f>
+        <v>25</v>
+      </c>
+      <c r="B25" t="str">
+        <f>" ngày "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"dd")&amp;" tháng "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"MM")&amp;" năm "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"yyyy")</f>
+        <v xml:space="preserve"> ngày 00 tháng 01 năm 1900</v>
+      </c>
+      <c r="C25">
+        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!C$2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!D$2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!E$2,0)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/TrungThau/20191261297-DLCM-CaiTaoLuoiDien--/PhuongAnThiCong-Ngay.xlsx
+++ b/TrungThau/20191261297-DLCM-CaiTaoLuoiDien--/PhuongAnThiCong-Ngay.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ThucTran\HSTT\TrungThau\20191261297-DLCM-CaiTaoLuoiDien--\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB4F236-C8F6-43E0-9349-52974E3816CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
@@ -24,13 +18,13 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">DS_CongNhan!$C$1:$L$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">KhaoSatHienTruong!$A$1:$U$20</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">NhanSu!$C$1:$Q$55</definedName>
-    <definedName name="DangKyCatDien">KhaoSatHienTruong!$A:$W</definedName>
     <definedName name="data">Data!$A:$Z</definedName>
     <definedName name="HoaDon">#REF!</definedName>
+    <definedName name="KSHT">KhaoSatHienTruong!$A:$W</definedName>
     <definedName name="NhanSu">NhanSu!$D:$I</definedName>
     <definedName name="tab">REPT(" ",10)</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -45,14 +39,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -67,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="258">
   <si>
     <t>STT</t>
   </si>
@@ -878,11 +872,17 @@
   <si>
     <t>Lưới điện trung hạ thế thuộc nhánh rẽ Suối Râm 7A</t>
   </si>
+  <si>
+    <t>Cắt 02 MCCB phân đoạn tại trụ HTĐL 01</t>
+  </si>
+  <si>
+    <t>Lưới điện hạ thế độc lập sau trạm biến áp Sông Ray 7</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="00"/>
@@ -1262,31 +1262,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="23">
-    <cellStyle name="Comma 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Comma 2 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Comma 3" xfId="19" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Comma 4" xfId="21" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="DUNG" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="LIEM" xfId="3" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Comma 2" xfId="1"/>
+    <cellStyle name="Comma 2 2" xfId="20"/>
+    <cellStyle name="Comma 3" xfId="19"/>
+    <cellStyle name="Comma 4" xfId="21"/>
+    <cellStyle name="DUNG" xfId="2"/>
+    <cellStyle name="LIEM" xfId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="Normal 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="Normal 2 3" xfId="6" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="Normal 3" xfId="7" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="Normal 3 2" xfId="22" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="Normal 4" xfId="8" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="Normal 4 2" xfId="9" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="Normal 4 3" xfId="10" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="Normal 5" xfId="11" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="Normal 6" xfId="12" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="Normal 6 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="Normal 7" xfId="14" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="Normal 9" xfId="15" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="Percent 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
-    <cellStyle name="Style 1" xfId="17" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="THUC" xfId="18" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Normal 2" xfId="4"/>
+    <cellStyle name="Normal 2 2" xfId="5"/>
+    <cellStyle name="Normal 2 3" xfId="6"/>
+    <cellStyle name="Normal 3" xfId="7"/>
+    <cellStyle name="Normal 3 2" xfId="22"/>
+    <cellStyle name="Normal 4" xfId="8"/>
+    <cellStyle name="Normal 4 2" xfId="9"/>
+    <cellStyle name="Normal 4 3" xfId="10"/>
+    <cellStyle name="Normal 5" xfId="11"/>
+    <cellStyle name="Normal 6" xfId="12"/>
+    <cellStyle name="Normal 6 2" xfId="13"/>
+    <cellStyle name="Normal 7" xfId="14"/>
+    <cellStyle name="Normal 9" xfId="15"/>
+    <cellStyle name="Percent 2" xfId="16"/>
+    <cellStyle name="Style 1" xfId="17"/>
+    <cellStyle name="THUC" xfId="18"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="21">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1538,7 +1558,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1571,26 +1591,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1623,23 +1626,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1815,38 +1801,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y9"/>
   <sheetViews>
     <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.88671875" defaultRowHeight="24.9" customHeight="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="24.95" customHeight="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="98.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.5546875" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" style="26" customWidth="1"/>
-    <col min="6" max="6" width="22.44140625" customWidth="1"/>
-    <col min="7" max="7" width="25.5546875" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="98.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="26" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" customWidth="1"/>
+    <col min="7" max="7" width="25.5703125" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="10" max="10" width="15.44140625" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" customWidth="1"/>
     <col min="11" max="11" width="20" customWidth="1"/>
     <col min="12" max="12" width="23" customWidth="1"/>
-    <col min="13" max="13" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.6640625" customWidth="1"/>
+    <col min="13" max="13" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" customWidth="1"/>
     <col min="15" max="15" width="22" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25.33203125" customWidth="1"/>
-    <col min="17" max="17" width="26.6640625" customWidth="1"/>
-    <col min="18" max="18" width="14.5546875" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="21" width="8.6640625" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="32" width="8.6640625" customWidth="1"/>
+    <col min="16" max="16" width="25.28515625" customWidth="1"/>
+    <col min="17" max="17" width="26.7109375" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="21" width="8.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="32" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="9" customFormat="1" ht="24.9" customHeight="1">
+    <row r="1" spans="1:25" s="9" customFormat="1" ht="24.95" customHeight="1">
       <c r="A1" s="8">
         <f>ROW()</f>
         <v>1</v>
@@ -1924,11 +1910,11 @@
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="9" customFormat="1" ht="24.9" customHeight="1">
+    <row r="2" spans="1:25" s="9" customFormat="1" ht="24.95" customHeight="1">
       <c r="A2" s="8"/>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:25" ht="24.9" customHeight="1">
+    <row r="3" spans="1:25" ht="24.95" customHeight="1">
       <c r="A3" s="7">
         <f>ROW()</f>
         <v>3</v>
@@ -1976,7 +1962,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="24.9" customHeight="1">
+    <row r="4" spans="1:25" ht="24.95" customHeight="1">
       <c r="A4" s="7">
         <f>ROW()</f>
         <v>4</v>
@@ -2118,7 +2104,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="24.9" customHeight="1">
+    <row r="6" spans="1:25" ht="24.95" customHeight="1">
       <c r="A6" s="7">
         <f>ROW()</f>
         <v>6</v>
@@ -2140,7 +2126,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="24.9" customHeight="1">
+    <row r="7" spans="1:25" ht="24.95" customHeight="1">
       <c r="A7" s="7">
         <f>ROW()</f>
         <v>7</v>
@@ -2159,7 +2145,7 @@
         <v>44080</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="24.9" customHeight="1">
+    <row r="8" spans="1:25" ht="24.95" customHeight="1">
       <c r="A8" s="7">
         <f>ROW()</f>
         <v>8</v>
@@ -2178,7 +2164,7 @@
         <v>44081</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="24.9" customHeight="1">
+    <row r="9" spans="1:25" ht="24.95" customHeight="1">
       <c r="A9" s="7">
         <f>ROW()</f>
         <v>9</v>
@@ -2205,34 +2191,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="3"/>
-    <col min="2" max="2" width="26.33203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="3"/>
+    <col min="2" max="2" width="26.28515625" style="3" customWidth="1"/>
     <col min="3" max="3" width="11" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="34.44140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="36.109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="29.109375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.33203125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="16.6640625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="20.6640625" style="3" customWidth="1"/>
-    <col min="14" max="14" width="8.88671875" style="3"/>
-    <col min="15" max="15" width="13.6640625" style="3" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="3"/>
+    <col min="4" max="4" width="19.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="34.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="36.140625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="29.140625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.28515625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="16.7109375" style="3" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" style="3" customWidth="1"/>
+    <col min="14" max="14" width="8.85546875" style="3"/>
+    <col min="15" max="15" width="13.7109375" style="3" customWidth="1"/>
+    <col min="16" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" ht="34.200000000000003" customHeight="1">
+    <row r="1" spans="1:25" s="1" customFormat="1" ht="34.15" customHeight="1">
       <c r="A1" s="1">
         <f>ROW()</f>
         <v>1</v>
@@ -2330,7 +2316,7 @@
         <v>BanGiao3</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="1" customFormat="1" ht="34.200000000000003" customHeight="1">
+    <row r="2" spans="1:25" s="1" customFormat="1" ht="34.15" customHeight="1">
       <c r="B2" s="1" t="s">
         <v>111</v>
       </c>
@@ -2639,28 +2625,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N27"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="2" width="9.109375" style="14"/>
-    <col min="3" max="3" width="6.33203125" style="14" customWidth="1"/>
-    <col min="4" max="4" width="26.88671875" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" style="33" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" style="14"/>
+    <col min="3" max="3" width="6.28515625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" style="33" customWidth="1"/>
     <col min="6" max="7" width="18" style="22" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="11.109375" style="14" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="11.140625" style="14" customWidth="1" outlineLevel="1"/>
     <col min="9" max="9" width="19" style="14" customWidth="1"/>
-    <col min="10" max="10" width="11.109375" style="14" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="14"/>
-    <col min="12" max="12" width="26.33203125" style="14" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" style="14" customWidth="1"/>
-    <col min="14" max="14" width="10.109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.109375" style="14"/>
+    <col min="10" max="10" width="11.140625" style="14" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="14"/>
+    <col min="12" max="12" width="26.28515625" style="14" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" style="14" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" s="10" customFormat="1" ht="33" customHeight="1">
@@ -2980,7 +2966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:14" ht="16.8">
+    <row r="11" spans="2:14" ht="16.5">
       <c r="B11" s="13"/>
       <c r="C11" s="12">
         <f t="shared" si="2"/>
@@ -3537,26 +3523,26 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:L26" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="C1:L26"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:Q55"/>
   <sheetViews>
     <sheetView showZeros="0" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.88671875" customWidth="1"/>
-    <col min="11" max="11" width="11.109375" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3611,7 +3597,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="3:17" ht="16.8">
+    <row r="2" spans="3:17" ht="16.5">
       <c r="C2" t="s">
         <v>66</v>
       </c>
@@ -3636,7 +3622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="3:17" ht="16.8">
+    <row r="3" spans="3:17" ht="16.5">
       <c r="C3" t="s">
         <v>66</v>
       </c>
@@ -3661,7 +3647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="3:17" ht="16.8">
+    <row r="4" spans="3:17" ht="16.5">
       <c r="C4" t="s">
         <v>66</v>
       </c>
@@ -3696,7 +3682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="3:17" ht="16.8">
+    <row r="5" spans="3:17" ht="16.5">
       <c r="C5" t="s">
         <v>66</v>
       </c>
@@ -3728,7 +3714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="3:17" ht="16.8">
+    <row r="6" spans="3:17" ht="16.5">
       <c r="C6" t="s">
         <v>66</v>
       </c>
@@ -3760,7 +3746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="3:17" ht="16.8">
+    <row r="7" spans="3:17" ht="16.5">
       <c r="C7" t="s">
         <v>66</v>
       </c>
@@ -3795,7 +3781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="3:17" ht="16.8">
+    <row r="8" spans="3:17" ht="16.5">
       <c r="C8" t="s">
         <v>66</v>
       </c>
@@ -3830,7 +3816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="3:17" ht="16.8">
+    <row r="9" spans="3:17" ht="16.5">
       <c r="C9" t="s">
         <v>66</v>
       </c>
@@ -3865,7 +3851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="3:17" ht="16.8">
+    <row r="10" spans="3:17" ht="16.5">
       <c r="C10" t="s">
         <v>66</v>
       </c>
@@ -3900,7 +3886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="3:17" ht="16.8">
+    <row r="11" spans="3:17" ht="16.5">
       <c r="C11" t="s">
         <v>66</v>
       </c>
@@ -3935,7 +3921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="3:17" ht="16.8">
+    <row r="12" spans="3:17" ht="16.5">
       <c r="C12" t="s">
         <v>66</v>
       </c>
@@ -3967,7 +3953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="3:17" ht="16.8">
+    <row r="13" spans="3:17" ht="16.5">
       <c r="C13" t="s">
         <v>66</v>
       </c>
@@ -4002,7 +3988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="3:17" ht="16.8">
+    <row r="14" spans="3:17" ht="16.5">
       <c r="C14" t="s">
         <v>66</v>
       </c>
@@ -4037,7 +4023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="3:17" ht="16.8">
+    <row r="15" spans="3:17" ht="16.5">
       <c r="C15" t="s">
         <v>66</v>
       </c>
@@ -4072,7 +4058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="3:17" ht="16.8">
+    <row r="16" spans="3:17" ht="16.5">
       <c r="C16" t="s">
         <v>66</v>
       </c>
@@ -4104,7 +4090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="3:13" ht="16.8">
+    <row r="17" spans="3:13" ht="16.5">
       <c r="C17" t="s">
         <v>66</v>
       </c>
@@ -4136,7 +4122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="3:13" ht="16.8">
+    <row r="18" spans="3:13" ht="16.5">
       <c r="C18" t="s">
         <v>66</v>
       </c>
@@ -4168,7 +4154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="3:13" ht="16.8">
+    <row r="19" spans="3:13" ht="16.5">
       <c r="C19" t="s">
         <v>66</v>
       </c>
@@ -4203,7 +4189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="3:13" ht="16.8">
+    <row r="20" spans="3:13" ht="16.5">
       <c r="C20" t="s">
         <v>66</v>
       </c>
@@ -4238,7 +4224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="3:13" ht="16.8">
+    <row r="21" spans="3:13" ht="16.5">
       <c r="C21" t="s">
         <v>66</v>
       </c>
@@ -4273,7 +4259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="3:13" ht="16.8">
+    <row r="22" spans="3:13" ht="16.5">
       <c r="C22" t="s">
         <v>66</v>
       </c>
@@ -4308,7 +4294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="3:13" ht="16.8">
+    <row r="23" spans="3:13" ht="16.5">
       <c r="C23" t="s">
         <v>66</v>
       </c>
@@ -4343,7 +4329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="3:13" ht="16.8">
+    <row r="24" spans="3:13" ht="16.5">
       <c r="D24" s="15">
         <f>SUM($J$2:J24)</f>
         <v>16</v>
@@ -4366,7 +4352,7 @@
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
     </row>
-    <row r="25" spans="3:13" ht="16.8">
+    <row r="25" spans="3:13" ht="16.5">
       <c r="D25" s="15">
         <f>SUM($J$2:J25)</f>
         <v>16</v>
@@ -4387,7 +4373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="3:13" ht="16.8">
+    <row r="26" spans="3:13" ht="16.5">
       <c r="D26" s="15">
         <f>SUM($J$2:J26)</f>
         <v>16</v>
@@ -4413,7 +4399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="3:13" ht="16.8">
+    <row r="27" spans="3:13" ht="16.5">
       <c r="D27" s="15">
         <f>SUM($J$2:J27)</f>
         <v>16</v>
@@ -4439,7 +4425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="3:13" ht="16.8">
+    <row r="28" spans="3:13" ht="16.5">
       <c r="D28" s="15">
         <f>SUM($J$2:J28)</f>
         <v>16</v>
@@ -4460,7 +4446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="3:13" ht="16.8">
+    <row r="29" spans="3:13" ht="16.5">
       <c r="D29" s="15">
         <f>SUM($J$2:J29)</f>
         <v>16</v>
@@ -4479,7 +4465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="3:13" ht="16.8">
+    <row r="30" spans="3:13" ht="16.5">
       <c r="D30" s="15">
         <f>SUM($J$2:J30)</f>
         <v>16</v>
@@ -4500,7 +4486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="3:13" ht="16.8">
+    <row r="31" spans="3:13" ht="16.5">
       <c r="D31" s="15">
         <f>SUM($J$2:J31)</f>
         <v>16</v>
@@ -4521,7 +4507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="3:13" ht="16.8">
+    <row r="32" spans="3:13" ht="16.5">
       <c r="D32" s="15">
         <f>SUM($J$2:J32)</f>
         <v>16</v>
@@ -4542,7 +4528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="4:12" ht="16.8">
+    <row r="33" spans="4:12" ht="16.5">
       <c r="D33" s="15">
         <f>SUM($J$2:J33)</f>
         <v>16</v>
@@ -4563,7 +4549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="4:12" ht="16.8">
+    <row r="34" spans="4:12" ht="16.5">
       <c r="D34" s="15">
         <f>SUM($J$2:J34)</f>
         <v>16</v>
@@ -4584,7 +4570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="4:12" ht="16.8">
+    <row r="35" spans="4:12" ht="16.5">
       <c r="D35" s="15">
         <f>SUM($J$2:J35)</f>
         <v>16</v>
@@ -4611,7 +4597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="4:12" ht="16.8">
+    <row r="36" spans="4:12" ht="16.5">
       <c r="D36" s="15">
         <f>SUM($J$2:J36)</f>
         <v>16</v>
@@ -4632,7 +4618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="4:12" ht="16.8">
+    <row r="37" spans="4:12" ht="16.5">
       <c r="D37" s="15">
         <f>SUM($J$2:J37)</f>
         <v>16</v>
@@ -4649,7 +4635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="4:12" ht="16.8">
+    <row r="38" spans="4:12" ht="16.5">
       <c r="D38" s="15">
         <f>SUM($J$2:J38)</f>
         <v>16</v>
@@ -4670,7 +4656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="4:12" ht="16.8">
+    <row r="39" spans="4:12" ht="16.5">
       <c r="D39" s="15">
         <f>SUM($J$2:J39)</f>
         <v>16</v>
@@ -4687,7 +4673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="4:12" ht="16.8">
+    <row r="40" spans="4:12" ht="16.5">
       <c r="D40" s="15">
         <f>SUM($J$2:J40)</f>
         <v>16</v>
@@ -4713,7 +4699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="4:12" ht="16.8">
+    <row r="41" spans="4:12" ht="16.5">
       <c r="D41" s="15">
         <f>SUM($J$2:J41)</f>
         <v>16</v>
@@ -4734,7 +4720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="4:12" ht="16.8">
+    <row r="42" spans="4:12" ht="16.5">
       <c r="D42" s="15">
         <f>SUM($J$2:J42)</f>
         <v>16</v>
@@ -4755,7 +4741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="4:12" ht="16.8">
+    <row r="43" spans="4:12" ht="16.5">
       <c r="D43" s="15">
         <f>SUM($J$2:J43)</f>
         <v>16</v>
@@ -4776,7 +4762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="4:12" ht="16.8">
+    <row r="44" spans="4:12" ht="16.5">
       <c r="D44" s="15">
         <f>SUM($J$2:J44)</f>
         <v>16</v>
@@ -4797,7 +4783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="4:12" ht="16.8">
+    <row r="45" spans="4:12" ht="16.5">
       <c r="D45" s="15">
         <f>SUM($J$2:J45)</f>
         <v>16</v>
@@ -4818,7 +4804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="4:12" ht="16.8">
+    <row r="46" spans="4:12" ht="16.5">
       <c r="D46" s="15">
         <f>SUM($J$2:J46)</f>
         <v>16</v>
@@ -4841,7 +4827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="4:12" ht="16.8">
+    <row r="47" spans="4:12" ht="16.5">
       <c r="D47" s="15">
         <f>SUM($J$2:J47)</f>
         <v>16</v>
@@ -4862,7 +4848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="4:12" ht="16.8">
+    <row r="48" spans="4:12" ht="16.5">
       <c r="D48" s="15">
         <f>SUM($J$2:J48)</f>
         <v>16</v>
@@ -4885,7 +4871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="4:12" ht="16.8">
+    <row r="49" spans="4:12" ht="16.5">
       <c r="D49" s="15">
         <f>SUM($J$2:J49)</f>
         <v>16</v>
@@ -4906,7 +4892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="4:12" ht="16.8">
+    <row r="50" spans="4:12" ht="16.5">
       <c r="D50" s="15">
         <f>SUM($J$2:J50)</f>
         <v>16</v>
@@ -4927,7 +4913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="4:12" ht="16.8">
+    <row r="51" spans="4:12" ht="16.5">
       <c r="D51" s="15">
         <f>SUM($J$2:J51)</f>
         <v>16</v>
@@ -4948,7 +4934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="4:12" ht="16.8">
+    <row r="52" spans="4:12" ht="16.5">
       <c r="D52" s="15">
         <f>SUM($J$2:J52)</f>
         <v>16</v>
@@ -4974,7 +4960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="4:12" ht="16.8">
+    <row r="53" spans="4:12" ht="16.5">
       <c r="D53" s="15">
         <f>SUM($J$2:J53)</f>
         <v>16</v>
@@ -4993,7 +4979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="4:12" ht="16.8">
+    <row r="54" spans="4:12" ht="16.5">
       <c r="D54" s="15">
         <f>SUM($J$2:J54)</f>
         <v>16</v>
@@ -5012,7 +4998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="4:12" ht="16.8">
+    <row r="55" spans="4:12" ht="16.5">
       <c r="D55" s="15">
         <f>SUM($J$2:J55)</f>
         <v>16</v>
@@ -5039,67 +5025,67 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:Q55" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="C1:Q55"/>
   <conditionalFormatting sqref="E10">
-    <cfRule type="duplicateValues" dxfId="18" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53:E54">
-    <cfRule type="duplicateValues" dxfId="17" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="duplicateValues" dxfId="16" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E52 E1:E2 E4:E9">
-    <cfRule type="duplicateValues" dxfId="15" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E2 E4:E1048576">
-    <cfRule type="duplicateValues" dxfId="14" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="duplicateValues" dxfId="13" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V93"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="H34" sqref="H34"/>
+      <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="53.21875" customWidth="1"/>
-    <col min="5" max="5" width="39.6640625" customWidth="1"/>
-    <col min="6" max="6" width="30.44140625" customWidth="1"/>
-    <col min="7" max="8" width="28.88671875" style="48" customWidth="1"/>
-    <col min="9" max="10" width="19.109375" customWidth="1"/>
-    <col min="11" max="11" width="12.5546875" style="26" customWidth="1"/>
-    <col min="12" max="12" width="25.6640625" style="26" customWidth="1"/>
-    <col min="13" max="13" width="21.88671875" style="26" customWidth="1"/>
-    <col min="14" max="14" width="43.88671875" style="26" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.33203125" style="35" customWidth="1"/>
-    <col min="16" max="16" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.33203125" style="26" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="19" width="41.6640625" style="26" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="53.28515625" customWidth="1"/>
+    <col min="5" max="5" width="39.7109375" customWidth="1"/>
+    <col min="6" max="6" width="45.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="28.85546875" style="48" customWidth="1"/>
+    <col min="9" max="10" width="19.140625" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" style="26" customWidth="1"/>
+    <col min="12" max="12" width="25.7109375" style="26" customWidth="1"/>
+    <col min="13" max="13" width="21.85546875" style="26" customWidth="1"/>
+    <col min="14" max="14" width="43.85546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.28515625" style="35" customWidth="1"/>
+    <col min="16" max="16" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.28515625" style="26" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="41.7109375" style="26" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="20" max="20" width="25" style="26" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="21" width="12.5546875" style="26" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="9.109375" collapsed="1"/>
+    <col min="21" max="21" width="12.5703125" style="26" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="9.140625" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="36" customFormat="1" ht="28.8">
+    <row r="1" spans="1:21" s="36" customFormat="1" ht="30">
       <c r="A1" s="36" t="s">
         <v>66</v>
       </c>
@@ -5250,7 +5236,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="28.8">
+    <row r="3" spans="1:21" ht="30">
       <c r="A3">
         <f>ROW()</f>
         <v>3</v>
@@ -5325,7 +5311,7 @@
         <v>Tiếp địa tại TBA Nam Hà 1A</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="28.8">
+    <row r="4" spans="1:21" ht="30">
       <c r="A4">
         <f>ROW()</f>
         <v>4</v>
@@ -5400,7 +5386,7 @@
         <v>Tiếp địa tại TBA Nam Hà 3</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="28.8">
+    <row r="5" spans="1:21" ht="30">
       <c r="A5">
         <f>ROW()</f>
         <v>5</v>
@@ -5552,7 +5538,7 @@
         <v>Tiếp địa tại Tiếp địa hạ thế tại MCCB TBA Sông Ray 8ATBA Sông Ray 8A</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="43.2">
+    <row r="7" spans="1:21" ht="45">
       <c r="A7">
         <f>ROW()</f>
         <v>7</v>
@@ -5642,7 +5628,7 @@
 Tiếp địa hạ thế TBA Sông Ray 7Nhánh rẽ Đồng Tâm 1</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="43.2">
+    <row r="8" spans="1:21" ht="45">
       <c r="A8">
         <f>ROW()</f>
         <v>8</v>
@@ -5723,7 +5709,7 @@
         <v>Tiếp địa tại Tiếp địa trung hạ áp tại TBA Lâm San 11A, 11DNhánh rẽ Lâm San 10, 11, 12</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="28.8">
+    <row r="9" spans="1:21" ht="30">
       <c r="A9">
         <f>ROW()</f>
         <v>9</v>
@@ -5881,7 +5867,7 @@
         <v>Tiếp địa tại Tiếp địa trung hạ áp tại TBA Cánh đồng Xuân Tây 1Nhánh rẽ Cánh đồng Xuân Tây 1</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="28.8">
+    <row r="11" spans="1:21" ht="30">
       <c r="A11">
         <f>ROW()</f>
         <v>11</v>
@@ -6121,7 +6107,7 @@
         <v>Tiếp địa tại Tiếp địa trung hạ áp tại TBA Xuân Tây 19Nhánh rẽ Xuân Tây 19</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="43.2">
+    <row r="14" spans="1:21" ht="30">
       <c r="A14">
         <f>ROW()</f>
         <v>14</v>
@@ -6207,7 +6193,7 @@
  Tiếp địa hạ thế TBA Láng Me 5, 5A, 5BNhánh rẽ Láng Me 5</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="28.8">
+    <row r="15" spans="1:21" ht="30">
       <c r="A15">
         <f>ROW()</f>
         <v>15</v>
@@ -6288,7 +6274,7 @@
         <v>Tiếp địa tại Tiếp địa trụ trung thế 023A Nhánh rẽ Sông Nhạn</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="43.2">
+    <row r="16" spans="1:21" ht="45">
       <c r="A16">
         <f>ROW()</f>
         <v>16</v>
@@ -6373,7 +6359,7 @@
         <v>Tiếp địa tại Tiếp địa trụ trung thế 351Nhánh rẽ Nam Hà</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="28.8">
+    <row r="17" spans="1:21" ht="30">
       <c r="A17">
         <f>ROW()</f>
         <v>17</v>
@@ -6454,7 +6440,7 @@
         <v>Tiếp địa tại Tiếp địa trụ trung thế 147Nhánh rẽ Tân Bảo</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="43.2">
+    <row r="18" spans="1:21" ht="45">
       <c r="A18">
         <f>ROW()</f>
         <v>18</v>
@@ -6539,7 +6525,7 @@
         <v>Tiếp địa tại Tiếp địa trụ trung thế 351Nhánh rẽ Nam Hà</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="28.8">
+    <row r="19" spans="1:21" ht="30">
       <c r="A19">
         <f>ROW()</f>
         <v>19</v>
@@ -6890,7 +6876,72 @@
         <f>ROW()</f>
         <v>24</v>
       </c>
-      <c r="B24" s="44"/>
+      <c r="B24" s="44">
+        <v>44091</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="F24" s="6"/>
+      <c r="G24" s="47" t="s">
+        <v>257</v>
+      </c>
+      <c r="H24" s="47" t="s">
+        <v>241</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="J24" s="6"/>
+      <c r="K24" s="26">
+        <f t="shared" ref="K24" si="17">J24+14</f>
+        <v>14</v>
+      </c>
+      <c r="L24" s="26" t="str">
+        <f>E24</f>
+        <v>Cắt 02 MCCB phân đoạn tại trụ HTĐL 01</v>
+      </c>
+      <c r="M24" s="26" t="str">
+        <f t="shared" ref="M24" si="18">D24</f>
+        <v>TBA Sông Ray 7</v>
+      </c>
+      <c r="N24" s="26" t="str">
+        <f t="shared" ref="N24" si="19">L24&amp;D24</f>
+        <v>Cắt 02 MCCB phân đoạn tại trụ HTĐL 01TBA Sông Ray 7</v>
+      </c>
+      <c r="O24" s="35">
+        <f>B24+14</f>
+        <v>44105</v>
+      </c>
+      <c r="P24" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q24">
+        <f>WEEKDAY(O24)</f>
+        <v>5</v>
+      </c>
+      <c r="R24" s="26" t="str">
+        <f t="shared" ref="R24" si="20">L24&amp;D24</f>
+        <v>Cắt 02 MCCB phân đoạn tại trụ HTĐL 01TBA Sông Ray 7</v>
+      </c>
+      <c r="S24" s="26" t="str">
+        <f t="shared" ref="S24" si="21">H24&amp;LOWER(L24)&amp;D24</f>
+        <v>Nâng cấp đường dây hạ thế sau TBA Sông Ray 7cắt 02 mccb phân đoạn tại trụ htđl 01TBA Sông Ray 7</v>
+      </c>
+      <c r="T24" s="26" t="str">
+        <f t="shared" ref="T24" si="22">"Cắt "&amp;C24&amp;M24</f>
+        <v>Cắt Cắt 02 MCCB phân đoạn tại trụ HTĐL 01TBA Sông Ray 7</v>
+      </c>
+      <c r="U24" s="26" t="str">
+        <f t="shared" ref="U24" si="23">"Tiếp địa tại "&amp;F24&amp;D24</f>
+        <v>Tiếp địa tại TBA Sông Ray 7</v>
+      </c>
     </row>
     <row r="25" spans="1:21">
       <c r="A25">
@@ -7376,55 +7427,63 @@
       <c r="B93" s="44"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U20" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
+  <autoFilter ref="A1:U20"/>
   <conditionalFormatting sqref="Q1:R1 Q7 Q9:Q16 Q20 Q3:Q5 Q23">
+    <cfRule type="cellIs" dxfId="13" priority="18" stopIfTrue="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q6">
+    <cfRule type="cellIs" dxfId="12" priority="17" stopIfTrue="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q8">
     <cfRule type="cellIs" dxfId="11" priority="16" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q6">
-    <cfRule type="cellIs" dxfId="10" priority="15" stopIfTrue="1" operator="equal">
-      <formula>1</formula>
-    </cfRule>
+  <conditionalFormatting sqref="O20 O1 O3:O16 O22:O23 O25:O1048576">
+    <cfRule type="duplicateValues" dxfId="10" priority="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q8">
+  <conditionalFormatting sqref="Q17">
     <cfRule type="cellIs" dxfId="9" priority="14" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O20 O1 O3:O16 O22:O1048576">
+  <conditionalFormatting sqref="O17">
     <cfRule type="duplicateValues" dxfId="8" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q17">
+  <conditionalFormatting sqref="Q18">
     <cfRule type="cellIs" dxfId="7" priority="12" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O17">
+  <conditionalFormatting sqref="O18">
     <cfRule type="duplicateValues" dxfId="6" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q18">
+  <conditionalFormatting sqref="Q19">
     <cfRule type="cellIs" dxfId="5" priority="10" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O18">
+  <conditionalFormatting sqref="O19">
     <cfRule type="duplicateValues" dxfId="4" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q19">
-    <cfRule type="cellIs" dxfId="3" priority="8" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="Q21">
+    <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O19">
-    <cfRule type="duplicateValues" dxfId="2" priority="7"/>
+  <conditionalFormatting sqref="O21">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q21">
+  <conditionalFormatting sqref="Q24">
     <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O21">
+  <conditionalFormatting sqref="O24">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7433,22 +7492,24 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE849143-1DF9-4A8E-925A-0B804B3F18ED}">
-  <dimension ref="A1:E25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38" customWidth="1"/>
-    <col min="4" max="4" width="75.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="75.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="36" customFormat="1" ht="43.2">
+    <row r="1" spans="1:5" s="36" customFormat="1" ht="45">
       <c r="B1" s="36" t="s">
         <v>228</v>
       </c>
@@ -7486,19 +7547,19 @@
         <v>3</v>
       </c>
       <c r="B3" t="str">
-        <f>" ngày "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"dd")&amp;" tháng "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"MM")&amp;" năm "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"yyyy")</f>
+        <f>" ngày "&amp;TEXT(VLOOKUP(ROW(),KSHT,'Merge-PATC'!B$2,0),"dd")&amp;" tháng "&amp;TEXT(VLOOKUP(ROW(),KSHT,'Merge-PATC'!B$2,0),"MM")&amp;" năm "&amp;TEXT(VLOOKUP(ROW(),KSHT,'Merge-PATC'!B$2,0),"yyyy")</f>
         <v xml:space="preserve"> ngày 18 tháng 08 năm 2020</v>
       </c>
       <c r="C3" t="str">
-        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!C$2,0)</f>
+        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!C$2,0)</f>
         <v>Thay dây hạ thế  sau TBA Nam Hà 1A</v>
       </c>
       <c r="D3" t="str">
-        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!D$2,0)</f>
+        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!D$2,0)</f>
         <v>Lưới điện hạ thế thuộc trạm Nam Hà 1A</v>
       </c>
       <c r="E3" t="str">
-        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!E$2,0)</f>
+        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
         <v>Cắt FCO + MCCB TBA Nam Hà 1A
 Tiếp địa hạ thế tại MCCB TBA Nam Hà 1A</v>
       </c>
@@ -7509,19 +7570,19 @@
         <v>4</v>
       </c>
       <c r="B4" t="str">
-        <f>" ngày "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"dd")&amp;" tháng "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"MM")&amp;" năm "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"yyyy")</f>
+        <f>" ngày "&amp;TEXT(VLOOKUP(ROW(),KSHT,'Merge-PATC'!B$2,0),"dd")&amp;" tháng "&amp;TEXT(VLOOKUP(ROW(),KSHT,'Merge-PATC'!B$2,0),"MM")&amp;" năm "&amp;TEXT(VLOOKUP(ROW(),KSHT,'Merge-PATC'!B$2,0),"yyyy")</f>
         <v xml:space="preserve"> ngày 18 tháng 08 năm 2020</v>
       </c>
       <c r="C4" t="str">
-        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!C$2,0)</f>
+        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!C$2,0)</f>
         <v>Thay dây hạ thế  sau TBA Nam Hà 3</v>
       </c>
       <c r="D4" t="str">
-        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!D$2,0)</f>
+        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!D$2,0)</f>
         <v>Lưới điện hạ thế thuộc trạm Nam Hà 3</v>
       </c>
       <c r="E4" t="str">
-        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!E$2,0)</f>
+        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
         <v>Cắt FCO + MCCB TBA Nam Hà 3
 Tiếp địa hạ thế tại MCCB TBA Nam Hà 3</v>
       </c>
@@ -7532,19 +7593,19 @@
         <v>5</v>
       </c>
       <c r="B5" t="str">
-        <f>" ngày "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"dd")&amp;" tháng "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"MM")&amp;" năm "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"yyyy")</f>
+        <f>" ngày "&amp;TEXT(VLOOKUP(ROW(),KSHT,'Merge-PATC'!B$2,0),"dd")&amp;" tháng "&amp;TEXT(VLOOKUP(ROW(),KSHT,'Merge-PATC'!B$2,0),"MM")&amp;" năm "&amp;TEXT(VLOOKUP(ROW(),KSHT,'Merge-PATC'!B$2,0),"yyyy")</f>
         <v xml:space="preserve"> ngày 18 tháng 08 năm 2020</v>
       </c>
       <c r="C5" t="str">
-        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!C$2,0)</f>
+        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!C$2,0)</f>
         <v>Thay dây hạ thế  sau TBA Xuân Tây 10A</v>
       </c>
       <c r="D5" t="str">
-        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!D$2,0)</f>
+        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!D$2,0)</f>
         <v>Đường dây hạ thế thuộc trạm biến áp Xuân Tây 10A</v>
       </c>
       <c r="E5" t="str">
-        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!E$2,0)</f>
+        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
         <v>Cắt FCO + MCCB TBA Xuân Tây 10A
 Tiếp địa hạ thế tại MCCB TBA Xuân Tây 10A</v>
       </c>
@@ -7555,19 +7616,19 @@
         <v>6</v>
       </c>
       <c r="B6" t="str">
-        <f>" ngày "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"dd")&amp;" tháng "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"MM")&amp;" năm "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"yyyy")</f>
+        <f>" ngày "&amp;TEXT(VLOOKUP(ROW(),KSHT,'Merge-PATC'!B$2,0),"dd")&amp;" tháng "&amp;TEXT(VLOOKUP(ROW(),KSHT,'Merge-PATC'!B$2,0),"MM")&amp;" năm "&amp;TEXT(VLOOKUP(ROW(),KSHT,'Merge-PATC'!B$2,0),"yyyy")</f>
         <v xml:space="preserve"> ngày 18 tháng 08 năm 2020</v>
       </c>
       <c r="C6" t="str">
-        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!C$2,0)</f>
+        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!C$2,0)</f>
         <v>Thay dây hạ thế  sau TBA Sông Ray 8A</v>
       </c>
       <c r="D6" t="str">
-        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!D$2,0)</f>
+        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!D$2,0)</f>
         <v>Đường dây hạ thế thuộc Trạm Sông Ray 8A</v>
       </c>
       <c r="E6" t="str">
-        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!E$2,0)</f>
+        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
         <v>Cắt FCO + MCCB TBA Sông Ray 8A
 Tiếp địa hạ thế tại MCCB TBA Sông Ray 8A</v>
       </c>
@@ -7578,19 +7639,19 @@
         <v>7</v>
       </c>
       <c r="B7" t="str">
-        <f>" ngày "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"dd")&amp;" tháng "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"MM")&amp;" năm "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"yyyy")</f>
+        <f>" ngày "&amp;TEXT(VLOOKUP(ROW(),KSHT,'Merge-PATC'!B$2,0),"dd")&amp;" tháng "&amp;TEXT(VLOOKUP(ROW(),KSHT,'Merge-PATC'!B$2,0),"MM")&amp;" năm "&amp;TEXT(VLOOKUP(ROW(),KSHT,'Merge-PATC'!B$2,0),"yyyy")</f>
         <v xml:space="preserve"> ngày 18 tháng 08 năm 2020</v>
       </c>
       <c r="C7" t="str">
-        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!C$2,0)</f>
+        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!C$2,0)</f>
         <v>Nâng cấp đường dây hạ thế và TBA Sông Ray 7 từ 1 pha lên 3 pha, cấy TBA Sông Ray 7A</v>
       </c>
       <c r="D7" t="str">
-        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!D$2,0)</f>
+        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!D$2,0)</f>
         <v>Tại trạm biến áp Sông Ray 7</v>
       </c>
       <c r="E7" t="str">
-        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!E$2,0)</f>
+        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
         <v>Cắt LBS khí Đồng Tâm 1 + 3 LTD Đồng Tâm 1
 Cắt LBS khí Sông Ray + 3 LTD Sông Ray 1
 Tiếp địa trụ trung thế 357 
@@ -7604,19 +7665,19 @@
         <v>8</v>
       </c>
       <c r="B8" t="str">
-        <f>" ngày "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"dd")&amp;" tháng "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"MM")&amp;" năm "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"yyyy")</f>
+        <f>" ngày "&amp;TEXT(VLOOKUP(ROW(),KSHT,'Merge-PATC'!B$2,0),"dd")&amp;" tháng "&amp;TEXT(VLOOKUP(ROW(),KSHT,'Merge-PATC'!B$2,0),"MM")&amp;" năm "&amp;TEXT(VLOOKUP(ROW(),KSHT,'Merge-PATC'!B$2,0),"yyyy")</f>
         <v xml:space="preserve"> ngày 19 tháng 08 năm 2020</v>
       </c>
       <c r="C8" t="str">
-        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!C$2,0)</f>
+        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!C$2,0)</f>
         <v>Nâng cấp đường dây hạ thế và TBA Sông Ray 7 từ 1 pha lên 3 pha, cấy TBA Sông Ray 7A</v>
       </c>
       <c r="D8" t="str">
-        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!D$2,0)</f>
+        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!D$2,0)</f>
         <v>Nhánh rẽ Lâm San 10 11 12 tiếng 471 Xuân Mỹ</v>
       </c>
       <c r="E8" t="str">
-        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!E$2,0)</f>
+        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
         <v>Cắt 3xFCO Nhánh rẽ Lâm San 10, 11, 12
 Tiếp địa trụ trung thế 357 Nhánh rẽ Lâm San 10, 11, 12
 Tiếp địa trung hạ áp tại TBA Lâm San 11A, 11D</v>
@@ -7628,19 +7689,19 @@
         <v>9</v>
       </c>
       <c r="B9" t="str">
-        <f>" ngày "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"dd")&amp;" tháng "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"MM")&amp;" năm "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"yyyy")</f>
+        <f>" ngày "&amp;TEXT(VLOOKUP(ROW(),KSHT,'Merge-PATC'!B$2,0),"dd")&amp;" tháng "&amp;TEXT(VLOOKUP(ROW(),KSHT,'Merge-PATC'!B$2,0),"MM")&amp;" năm "&amp;TEXT(VLOOKUP(ROW(),KSHT,'Merge-PATC'!B$2,0),"yyyy")</f>
         <v xml:space="preserve"> ngày 19 tháng 08 năm 2020</v>
       </c>
       <c r="C9" t="str">
-        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!C$2,0)</f>
+        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!C$2,0)</f>
         <v>Trồng trụ trung thế 015A đấu nối trung thế, tách lưới, sang tải TBA Sông Ray 2, Sông Ray 2A. Đấu nối trung thế và di dời TBA Sông Ray 4A</v>
       </c>
       <c r="D9" t="str">
-        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!D$2,0)</f>
+        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!D$2,0)</f>
         <v>Từ khoản trụ 015, 016, 072 nhánh Lâm San tuyến 471 Xuân Mỹ</v>
       </c>
       <c r="E9" t="str">
-        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!E$2,0)</f>
+        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
         <v xml:space="preserve">Cắt Recloser + 3 LTD Lâm San
 Tiếp địa trụ trung thế 011A
 Tiếp địa trụ trung thế 075 </v>
@@ -7652,19 +7713,19 @@
         <v>10</v>
       </c>
       <c r="B10" t="str">
-        <f>" ngày "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"dd")&amp;" tháng "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"MM")&amp;" năm "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"yyyy")</f>
+        <f>" ngày "&amp;TEXT(VLOOKUP(ROW(),KSHT,'Merge-PATC'!B$2,0),"dd")&amp;" tháng "&amp;TEXT(VLOOKUP(ROW(),KSHT,'Merge-PATC'!B$2,0),"MM")&amp;" năm "&amp;TEXT(VLOOKUP(ROW(),KSHT,'Merge-PATC'!B$2,0),"yyyy")</f>
         <v xml:space="preserve"> ngày 19 tháng 08 năm 2020</v>
       </c>
       <c r="C10" t="str">
-        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!C$2,0)</f>
+        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!C$2,0)</f>
         <v>Đấu nối trung thế trụ 009A, 013. Tách lưới hạ thế sau TBA Cánh đồng Xuân Tây 1A, Cánh đồng Xuân Tây 1B</v>
       </c>
       <c r="D10" t="str">
-        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!D$2,0)</f>
+        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!D$2,0)</f>
         <v>Từ sau 3xFCO nhánh Cánh Đồng Xuân Tây 1</v>
       </c>
       <c r="E10" t="str">
-        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!E$2,0)</f>
+        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
         <v>Cắt 3xFCO Nhánh rẽ Cánh đồng Xuân Tây 1
 Tiếp địa trung hạ áp tại TBA Cánh đồng Xuân Tây 1</v>
       </c>
@@ -7675,19 +7736,19 @@
         <v>11</v>
       </c>
       <c r="B11" t="str">
-        <f>" ngày "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"dd")&amp;" tháng "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"MM")&amp;" năm "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"yyyy")</f>
+        <f>" ngày "&amp;TEXT(VLOOKUP(ROW(),KSHT,'Merge-PATC'!B$2,0),"dd")&amp;" tháng "&amp;TEXT(VLOOKUP(ROW(),KSHT,'Merge-PATC'!B$2,0),"MM")&amp;" năm "&amp;TEXT(VLOOKUP(ROW(),KSHT,'Merge-PATC'!B$2,0),"yyyy")</f>
         <v xml:space="preserve"> ngày 19 tháng 08 năm 2020</v>
       </c>
       <c r="C11" t="str">
-        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!C$2,0)</f>
+        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!C$2,0)</f>
         <v>Đấu nối trung thế trụ 087 nhánh rẽ Láng Me. Cấy TBA Láng Me 3B, Tách lưới hạ thế sau TBA Láng Me 3 sang Láng Me 3B</v>
       </c>
       <c r="D11" t="str">
-        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!D$2,0)</f>
+        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!D$2,0)</f>
         <v>Tại trụ 087 nhánh Láng Me tuyến 471 Xuân Mỹ</v>
       </c>
       <c r="E11" t="str">
-        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!E$2,0)</f>
+        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
         <v>Cắt Recloser + 3 LTD Láng Me
 Tiếp địa trụ trung thế 079
 Tiếp địa trụ trung thế 094
@@ -7700,19 +7761,19 @@
         <v>12</v>
       </c>
       <c r="B12" t="str">
-        <f>" ngày "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"dd")&amp;" tháng "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"MM")&amp;" năm "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"yyyy")</f>
+        <f>" ngày "&amp;TEXT(VLOOKUP(ROW(),KSHT,'Merge-PATC'!B$2,0),"dd")&amp;" tháng "&amp;TEXT(VLOOKUP(ROW(),KSHT,'Merge-PATC'!B$2,0),"MM")&amp;" năm "&amp;TEXT(VLOOKUP(ROW(),KSHT,'Merge-PATC'!B$2,0),"yyyy")</f>
         <v xml:space="preserve"> ngày 19 tháng 08 năm 2020</v>
       </c>
       <c r="C12" t="str">
-        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!C$2,0)</f>
+        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!C$2,0)</f>
         <v>Đấu nối trung thế trụ 021 Nhánh rẽ Thoại Hương 3, 4. Di dời TBA Thoại Hương 4</v>
       </c>
       <c r="D12" t="str">
-        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!D$2,0)</f>
+        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!D$2,0)</f>
         <v>Tại trụ trạm biến áp Thoại Hương 4 tuyến 471 Xuân Mỹ</v>
       </c>
       <c r="E12" t="str">
-        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!E$2,0)</f>
+        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
         <v>Cắt FCO Nhánh rẽ Thoại Hương 3, 4
 Tiếp địa trung hạ áp tại TBA Thoại Hương 3, 4</v>
       </c>
@@ -7723,19 +7784,19 @@
         <v>13</v>
       </c>
       <c r="B13" t="str">
-        <f>" ngày "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"dd")&amp;" tháng "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"MM")&amp;" năm "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"yyyy")</f>
+        <f>" ngày "&amp;TEXT(VLOOKUP(ROW(),KSHT,'Merge-PATC'!B$2,0),"dd")&amp;" tháng "&amp;TEXT(VLOOKUP(ROW(),KSHT,'Merge-PATC'!B$2,0),"MM")&amp;" năm "&amp;TEXT(VLOOKUP(ROW(),KSHT,'Merge-PATC'!B$2,0),"yyyy")</f>
         <v xml:space="preserve"> ngày 19 tháng 08 năm 2020</v>
       </c>
       <c r="C13" t="str">
-        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!C$2,0)</f>
+        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!C$2,0)</f>
         <v>Đấu nối trung thế trụ 017 Nhánh rẽ Xuân Tây 19.Cấy TBA Xuân Tây 19A, tách lưới hạ thế TBA Xuân Tây 19 sang TBA Xuân Tây 19A</v>
       </c>
       <c r="D13" t="str">
-        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!D$2,0)</f>
+        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!D$2,0)</f>
         <v>Nhấn vẽ Xuân Tây 19 tuyến 471 Xuân Mỹ</v>
       </c>
       <c r="E13" t="str">
-        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!E$2,0)</f>
+        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
         <v>Cắt FCO Nhánh rẽ Xuân Tây 19
 Tiếp địa trung hạ áp tại TBA Xuân Tây 19</v>
       </c>
@@ -7746,19 +7807,19 @@
         <v>14</v>
       </c>
       <c r="B14" t="str">
-        <f>" ngày "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"dd")&amp;" tháng "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"MM")&amp;" năm "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"yyyy")</f>
+        <f>" ngày "&amp;TEXT(VLOOKUP(ROW(),KSHT,'Merge-PATC'!B$2,0),"dd")&amp;" tháng "&amp;TEXT(VLOOKUP(ROW(),KSHT,'Merge-PATC'!B$2,0),"MM")&amp;" năm "&amp;TEXT(VLOOKUP(ROW(),KSHT,'Merge-PATC'!B$2,0),"yyyy")</f>
         <v xml:space="preserve"> ngày 19 tháng 08 năm 2020</v>
       </c>
       <c r="C14" t="str">
-        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!C$2,0)</f>
+        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!C$2,0)</f>
         <v>Nâng cấp đường dây trung thế và trạm biến áp Láng Me 5B từ 1 pha lên 3 pha, di dời TBA Láng Me 5, cấy trạm biến áp lá me 5A-1</v>
       </c>
       <c r="D14" t="str">
-        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!D$2,0)</f>
+        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!D$2,0)</f>
         <v>Từ sau 3 FCO nhánh Láng Me 5 tuyến 471 Xuân Mỹ</v>
       </c>
       <c r="E14" t="str">
-        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!E$2,0)</f>
+        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
         <v>Cắt 3xFCO Nhánh rẽ Láng Me 5
 Tiếp địa trụ trung thế 107
 Tiếp địa trụ trung thế 131
@@ -7771,19 +7832,19 @@
         <v>15</v>
       </c>
       <c r="B15" t="str">
-        <f>" ngày "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"dd")&amp;" tháng "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"MM")&amp;" năm "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"yyyy")</f>
+        <f>" ngày "&amp;TEXT(VLOOKUP(ROW(),KSHT,'Merge-PATC'!B$2,0),"dd")&amp;" tháng "&amp;TEXT(VLOOKUP(ROW(),KSHT,'Merge-PATC'!B$2,0),"MM")&amp;" năm "&amp;TEXT(VLOOKUP(ROW(),KSHT,'Merge-PATC'!B$2,0),"yyyy")</f>
         <v xml:space="preserve"> ngày 19 tháng 08 năm 2020</v>
       </c>
       <c r="C15" t="str">
-        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!C$2,0)</f>
+        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!C$2,0)</f>
         <v>Di dời TBA Suối Râm 7</v>
       </c>
       <c r="D15" t="str">
-        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!D$2,0)</f>
+        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!D$2,0)</f>
         <v>Tại trụ trạm suối râm 7 và trụ trung thế 023/007</v>
       </c>
       <c r="E15" t="str">
-        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!E$2,0)</f>
+        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
         <v xml:space="preserve">Cắt Recloser + 3 LTD Nhánh rẽ Sông Nhạn
 Tiếp địa trụ trung thế 006
 Tiếp địa trụ trung thế 023A </v>
@@ -7795,19 +7856,19 @@
         <v>16</v>
       </c>
       <c r="B16" t="str">
-        <f>" ngày "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"dd")&amp;" tháng "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"MM")&amp;" năm "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"yyyy")</f>
+        <f>" ngày "&amp;TEXT(VLOOKUP(ROW(),KSHT,'Merge-PATC'!B$2,0),"dd")&amp;" tháng "&amp;TEXT(VLOOKUP(ROW(),KSHT,'Merge-PATC'!B$2,0),"MM")&amp;" năm "&amp;TEXT(VLOOKUP(ROW(),KSHT,'Merge-PATC'!B$2,0),"yyyy")</f>
         <v xml:space="preserve"> ngày 19 tháng 08 năm 2020</v>
       </c>
       <c r="C16" t="str">
-        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!C$2,0)</f>
+        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!C$2,0)</f>
         <v>Lắp đặt trạm biến áp Nam Hà 3B tách lưới hạ thế trạm Nam Hà 3 sang nhận điện trạm Nam Hà 3B đấu nối đường dây trung thế xây dựng mới</v>
       </c>
       <c r="D16" t="str">
-        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!D$2,0)</f>
+        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!D$2,0)</f>
         <v>Tại trụ trung thế 334/003, 334/003/019 và lưới điện hạ thế thuộc TBA Nam Hà 3</v>
       </c>
       <c r="E16" t="str">
-        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!E$2,0)</f>
+        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
         <v>Cắt Recloser + 3 LTD Nhánh rẽ Nam Hà
 Cắt 3 LTD Xuân Bảo - Nam Hà
 Tiếp địa trụ trung thế 326
@@ -7820,19 +7881,19 @@
         <v>17</v>
       </c>
       <c r="B17" t="str">
-        <f>" ngày "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"dd")&amp;" tháng "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"MM")&amp;" năm "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"yyyy")</f>
+        <f>" ngày "&amp;TEXT(VLOOKUP(ROW(),KSHT,'Merge-PATC'!B$2,0),"dd")&amp;" tháng "&amp;TEXT(VLOOKUP(ROW(),KSHT,'Merge-PATC'!B$2,0),"MM")&amp;" năm "&amp;TEXT(VLOOKUP(ROW(),KSHT,'Merge-PATC'!B$2,0),"yyyy")</f>
         <v xml:space="preserve"> ngày 18 tháng 08 năm 2020</v>
       </c>
       <c r="C17" t="str">
-        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!C$2,0)</f>
+        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!C$2,0)</f>
         <v>Lắp đặt trạm biến áp Tân Bảo 3A, tách lưới hạ thế trạm Tân Bảo 3 sang nhận điện trạm Tân Bảo 3A</v>
       </c>
       <c r="D17" t="str">
-        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!D$2,0)</f>
+        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!D$2,0)</f>
         <v>Tại trụ trung thế 018 nhánh Xuân Bảo - Bảo Bình và lưới điện hạ thế thuộc trạm Tân Bảo 3</v>
       </c>
       <c r="E17" t="str">
-        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!E$2,0)</f>
+        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
         <v>Cắt Recloser + 3 LTD Nhánh rẽ Tân Bảo
 Tiếp địa trụ trung thế 117
 Tiếp địa trụ trung thế 147</v>
@@ -7844,19 +7905,19 @@
         <v>18</v>
       </c>
       <c r="B18" t="str">
-        <f>" ngày "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"dd")&amp;" tháng "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"MM")&amp;" năm "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"yyyy")</f>
+        <f>" ngày "&amp;TEXT(VLOOKUP(ROW(),KSHT,'Merge-PATC'!B$2,0),"dd")&amp;" tháng "&amp;TEXT(VLOOKUP(ROW(),KSHT,'Merge-PATC'!B$2,0),"MM")&amp;" năm "&amp;TEXT(VLOOKUP(ROW(),KSHT,'Merge-PATC'!B$2,0),"yyyy")</f>
         <v xml:space="preserve"> ngày 19 tháng 08 năm 2020</v>
       </c>
       <c r="C18" t="str">
-        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!C$2,0)</f>
+        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!C$2,0)</f>
         <v>Di dời TBA Nam Hà 1, trồng trụ đôn lưới</v>
       </c>
       <c r="D18" t="str">
-        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!D$2,0)</f>
+        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!D$2,0)</f>
         <v>Tại trụ trung thế 334, 334/001, 335A, 348A, 339A nhánh rẽ Xuân Bảo - Nam Hà</v>
       </c>
       <c r="E18" t="str">
-        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!E$2,0)</f>
+        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
         <v>Cắt Recloser + 3 LTD Nhánh rẽ Nam Hà
 Cắt 3 LTD Xuân Bảo - Nam Hà
 Tiếp địa trụ trung thế 326
@@ -7869,19 +7930,19 @@
         <v>19</v>
       </c>
       <c r="B19" t="str">
-        <f>" ngày "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"dd")&amp;" tháng "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"MM")&amp;" năm "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"yyyy")</f>
+        <f>" ngày "&amp;TEXT(VLOOKUP(ROW(),KSHT,'Merge-PATC'!B$2,0),"dd")&amp;" tháng "&amp;TEXT(VLOOKUP(ROW(),KSHT,'Merge-PATC'!B$2,0),"MM")&amp;" năm "&amp;TEXT(VLOOKUP(ROW(),KSHT,'Merge-PATC'!B$2,0),"yyyy")</f>
         <v xml:space="preserve"> ngày 19 tháng 08 năm 2020</v>
       </c>
       <c r="C19" t="str">
-        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!C$2,0)</f>
+        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!C$2,0)</f>
         <v>Di dời TBA Tân Bảo 3</v>
       </c>
       <c r="D19" t="str">
-        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!D$2,0)</f>
+        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!D$2,0)</f>
         <v>Tại trụ trung thế TBA Tân Bảo 3 và trụ trung thế 131 nhánh rẽ Xuân Bảo - Bảo Bình</v>
       </c>
       <c r="E19" t="str">
-        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!E$2,0)</f>
+        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
         <v>Cắt Recloser + 3 LTD Nhánh rẽ Tân Bảo
 Tiếp địa trụ trung thế 117
 Tiếp địa trụ trung thế 147</v>
@@ -7893,19 +7954,19 @@
         <v>20</v>
       </c>
       <c r="B20" t="str">
-        <f>" ngày "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"dd")&amp;" tháng "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"MM")&amp;" năm "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"yyyy")</f>
+        <f>" ngày "&amp;TEXT(VLOOKUP(ROW(),KSHT,'Merge-PATC'!B$2,0),"dd")&amp;" tháng "&amp;TEXT(VLOOKUP(ROW(),KSHT,'Merge-PATC'!B$2,0),"MM")&amp;" năm "&amp;TEXT(VLOOKUP(ROW(),KSHT,'Merge-PATC'!B$2,0),"yyyy")</f>
         <v xml:space="preserve"> ngày 08 tháng 09 năm 2020</v>
       </c>
       <c r="C20" t="str">
-        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!C$2,0)</f>
+        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!C$2,0)</f>
         <v>Nâng cấp đường dây hạ thế sau TBA Sông Ray 7</v>
       </c>
       <c r="D20" t="str">
-        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!D$2,0)</f>
+        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!D$2,0)</f>
         <v>Lưới điện hạ thế thuộc trạm Sông Ray 7</v>
       </c>
       <c r="E20" t="str">
-        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!E$2,0)</f>
+        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
         <v>Cắt FCO + MCCB TBA Sông Ray 7
 Tiếp địa hạ thế tại MCCB TBA Sông Ray 7</v>
       </c>
@@ -7916,19 +7977,19 @@
         <v>21</v>
       </c>
       <c r="B21" t="str">
-        <f>" ngày "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"dd")&amp;" tháng "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"MM")&amp;" năm "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"yyyy")</f>
+        <f>" ngày "&amp;TEXT(VLOOKUP(ROW(),KSHT,'Merge-PATC'!B$2,0),"dd")&amp;" tháng "&amp;TEXT(VLOOKUP(ROW(),KSHT,'Merge-PATC'!B$2,0),"MM")&amp;" năm "&amp;TEXT(VLOOKUP(ROW(),KSHT,'Merge-PATC'!B$2,0),"yyyy")</f>
         <v xml:space="preserve"> ngày 08 tháng 09 năm 2020</v>
       </c>
       <c r="C21" t="str">
-        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!C$2,0)</f>
+        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!C$2,0)</f>
         <v>Đấu nối lưới trung thế Thừa Đức 11, cấy TBA Thừa Đức 11, tách 1 phần lưới hạ thế TBA Thừa Đức 11 sang nhận điện từ TBA Thừa Đức 11A</v>
       </c>
       <c r="D21" t="str">
-        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!D$2,0)</f>
+        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!D$2,0)</f>
         <v>Tại trụ trung thế 010, 032 và lưới điện hạ thế thuộc TBA Thừa Đức 11</v>
       </c>
       <c r="E21" t="str">
-        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!E$2,0)</f>
+        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
         <v>Cắt 1xFCO nhánh rẽ Thừa Đức 11
 Tiếp địa trụ trạm Thừa Đức 11</v>
       </c>
@@ -7939,19 +8000,19 @@
         <v>22</v>
       </c>
       <c r="B22" t="str">
-        <f>" ngày "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"dd")&amp;" tháng "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"MM")&amp;" năm "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"yyyy")</f>
+        <f>" ngày "&amp;TEXT(VLOOKUP(ROW(),KSHT,'Merge-PATC'!B$2,0),"dd")&amp;" tháng "&amp;TEXT(VLOOKUP(ROW(),KSHT,'Merge-PATC'!B$2,0),"MM")&amp;" năm "&amp;TEXT(VLOOKUP(ROW(),KSHT,'Merge-PATC'!B$2,0),"yyyy")</f>
         <v xml:space="preserve"> ngày 19 tháng 08 năm 2020</v>
       </c>
       <c r="C22" t="str">
-        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!C$2,0)</f>
+        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!C$2,0)</f>
         <v>Cấy TBA Suối Râm 7A (1x75kVA) tại trụ trung thế 017 nhánh rẽ Suối Râm 7A, tách 1 phần lưới hạ thế từ TBA Suối Râm 7 sang nhận điện TBA Suối Râm 7A</v>
       </c>
       <c r="D22" t="str">
-        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!D$2,0)</f>
+        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!D$2,0)</f>
         <v>Lưới điện trung hạ thế thuộc nhánh rẽ Suối Râm 7A</v>
       </c>
       <c r="E22" t="str">
-        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!E$2,0)</f>
+        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
         <v>Cắt 1xFCO nhánh rẽ Suối Râm 7A
 Tiếp địa trụ trung thế 002</v>
       </c>
@@ -7962,19 +8023,19 @@
         <v>23</v>
       </c>
       <c r="B23" t="str">
-        <f>" ngày "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"dd")&amp;" tháng "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"MM")&amp;" năm "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"yyyy")</f>
+        <f>" ngày "&amp;TEXT(VLOOKUP(ROW(),KSHT,'Merge-PATC'!B$2,0),"dd")&amp;" tháng "&amp;TEXT(VLOOKUP(ROW(),KSHT,'Merge-PATC'!B$2,0),"MM")&amp;" năm "&amp;TEXT(VLOOKUP(ROW(),KSHT,'Merge-PATC'!B$2,0),"yyyy")</f>
         <v xml:space="preserve"> ngày 18 tháng 08 năm 2020</v>
       </c>
       <c r="C23" t="str">
-        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!C$2,0)</f>
+        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!C$2,0)</f>
         <v>Thay dây hạ thế  sau TBA Nam Hà 1</v>
       </c>
       <c r="D23" t="str">
-        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!D$2,0)</f>
+        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!D$2,0)</f>
         <v> Lưới hạ thế thuộc trạm Nam Hà 1</v>
       </c>
       <c r="E23" t="str">
-        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!E$2,0)</f>
+        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
         <v xml:space="preserve">Cắt FCO + MCCB TBA Nam Hà 1
 Tiếp địa hạ thế tại MCCB TBA Nam Hà 1
  </v>
@@ -7986,42 +8047,20 @@
         <v>24</v>
       </c>
       <c r="B24" t="str">
-        <f>" ngày "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"dd")&amp;" tháng "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"MM")&amp;" năm "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"yyyy")</f>
-        <v xml:space="preserve"> ngày 00 tháng 01 năm 1900</v>
-      </c>
-      <c r="C24">
-        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!C$2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!D$2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!E$2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25">
-        <f>ROW()</f>
-        <v>25</v>
-      </c>
-      <c r="B25" t="str">
-        <f>" ngày "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"dd")&amp;" tháng "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"MM")&amp;" năm "&amp;TEXT(VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!B$2,0),"yyyy")</f>
-        <v xml:space="preserve"> ngày 00 tháng 01 năm 1900</v>
-      </c>
-      <c r="C25">
-        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!C$2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!D$2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <f>VLOOKUP(ROW(),DangKyCatDien,'Merge-PATC'!E$2,0)</f>
-        <v>0</v>
+        <f>" ngày "&amp;TEXT(VLOOKUP(ROW(),KSHT,'Merge-PATC'!B$2,0),"dd")&amp;" tháng "&amp;TEXT(VLOOKUP(ROW(),KSHT,'Merge-PATC'!B$2,0),"MM")&amp;" năm "&amp;TEXT(VLOOKUP(ROW(),KSHT,'Merge-PATC'!B$2,0),"yyyy")</f>
+        <v xml:space="preserve"> ngày 17 tháng 09 năm 2020</v>
+      </c>
+      <c r="C24" t="str">
+        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!C$2,0)</f>
+        <v>Nâng cấp đường dây hạ thế sau TBA Sông Ray 7</v>
+      </c>
+      <c r="D24" t="str">
+        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!D$2,0)</f>
+        <v>Lưới điện hạ thế độc lập sau trạm biến áp Sông Ray 7</v>
+      </c>
+      <c r="E24" t="str">
+        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
+        <v>Cắt 02 MCCB phân đoạn tại trụ HTĐL 01</v>
       </c>
     </row>
   </sheetData>

--- a/TrungThau/20191261297-DLCM-CaiTaoLuoiDien--/PhuongAnThiCong-Ngay.xlsx
+++ b/TrungThau/20191261297-DLCM-CaiTaoLuoiDien--/PhuongAnThiCong-Ngay.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\ThucTran\HSTT\TrungThau\20191261297-DLCM-CaiTaoLuoiDien--\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0420C6D-F7D9-4176-B347-C982E20CF067}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" activeTab="4"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
@@ -16,7 +22,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">DS_CongNhan!$C$1:$L$26</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">KhaoSatHienTruong!$A$1:$U$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">KhaoSatHienTruong!$A$1:$V$93</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">NhanSu!$C$1:$Q$55</definedName>
     <definedName name="data">Data!$A:$Z</definedName>
     <definedName name="HoaDon">#REF!</definedName>
@@ -24,7 +30,7 @@
     <definedName name="NhanSu">NhanSu!$D:$I</definedName>
     <definedName name="tab">REPT(" ",10)</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -39,14 +45,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -61,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="260">
   <si>
     <t>STT</t>
   </si>
@@ -764,9 +770,6 @@
     <t>Tại trạm biến áp Sông Ray 7</t>
   </si>
   <si>
-    <t>Nhánh rẽ Lâm San 10 11 12 tiếng 471 Xuân Mỹ</t>
-  </si>
-  <si>
     <t>Từ khoản trụ 015, 016, 072 nhánh Lâm San tuyến 471 Xuân Mỹ</t>
   </si>
   <si>
@@ -877,16 +880,25 @@
   </si>
   <si>
     <t>Lưới điện hạ thế độc lập sau trạm biến áp Sông Ray 7</t>
+  </si>
+  <si>
+    <t>Đấu nối hạ thế, Nâng cấp đường dây hạ thế sau TBA Sông Ray 7</t>
+  </si>
+  <si>
+    <t>Nâng cấp đường dây hạ thế và TBA Sông Ray 7 từ 1 pha lên 3 pha, cấy TBA Sông Ray 7A, đấu nối trung hạ thế</t>
+  </si>
+  <si>
+    <t>Nhánh rẽ Lâm San 10 11 12 tuyến 471 Xuân Mỹ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="00"/>
-    <numFmt numFmtId="165" formatCode="dd/mm"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="00"/>
+    <numFmt numFmtId="166" formatCode="dd/mm"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1105,9 +1117,9 @@
   </borders>
   <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyBorder="0"/>
-    <xf numFmtId="164" fontId="5" fillId="1" borderId="3" applyNumberFormat="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="165" fontId="5" fillId="1" borderId="3" applyNumberFormat="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
@@ -1133,9 +1145,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
@@ -1184,7 +1196,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1216,13 +1228,13 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1262,29 +1274,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="23">
-    <cellStyle name="Comma 2" xfId="1"/>
-    <cellStyle name="Comma 2 2" xfId="20"/>
-    <cellStyle name="Comma 3" xfId="19"/>
-    <cellStyle name="Comma 4" xfId="21"/>
-    <cellStyle name="DUNG" xfId="2"/>
-    <cellStyle name="LIEM" xfId="3"/>
+    <cellStyle name="Comma 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Comma 2 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Comma 3" xfId="19" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Comma 4" xfId="21" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="DUNG" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="LIEM" xfId="3" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="4"/>
-    <cellStyle name="Normal 2 2" xfId="5"/>
-    <cellStyle name="Normal 2 3" xfId="6"/>
-    <cellStyle name="Normal 3" xfId="7"/>
-    <cellStyle name="Normal 3 2" xfId="22"/>
-    <cellStyle name="Normal 4" xfId="8"/>
-    <cellStyle name="Normal 4 2" xfId="9"/>
-    <cellStyle name="Normal 4 3" xfId="10"/>
-    <cellStyle name="Normal 5" xfId="11"/>
-    <cellStyle name="Normal 6" xfId="12"/>
-    <cellStyle name="Normal 6 2" xfId="13"/>
-    <cellStyle name="Normal 7" xfId="14"/>
-    <cellStyle name="Normal 9" xfId="15"/>
-    <cellStyle name="Percent 2" xfId="16"/>
-    <cellStyle name="Style 1" xfId="17"/>
-    <cellStyle name="THUC" xfId="18"/>
+    <cellStyle name="Normal 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Normal 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Normal 2 3" xfId="6" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Normal 3" xfId="7" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Normal 3 2" xfId="22" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Normal 4" xfId="8" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Normal 4 2" xfId="9" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Normal 4 3" xfId="10" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Normal 5" xfId="11" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Normal 6" xfId="12" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Normal 6 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Normal 7" xfId="14" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Normal 9" xfId="15" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Percent 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Style 1" xfId="17" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="THUC" xfId="18" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
   </cellStyles>
   <dxfs count="21">
     <dxf>
@@ -1558,7 +1570,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1591,9 +1603,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1626,6 +1655,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1801,38 +1847,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y9"/>
   <sheetViews>
     <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="24.95" customHeight="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="4.88671875" defaultRowHeight="24.9" customHeight="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="7" customWidth="1"/>
-    <col min="2" max="2" width="98.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.5703125" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="26" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" customWidth="1"/>
-    <col min="7" max="7" width="25.5703125" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="98.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5546875" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" style="26" customWidth="1"/>
+    <col min="6" max="6" width="22.44140625" customWidth="1"/>
+    <col min="7" max="7" width="25.5546875" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" customWidth="1"/>
+    <col min="10" max="10" width="15.44140625" customWidth="1"/>
     <col min="11" max="11" width="20" customWidth="1"/>
     <col min="12" max="12" width="23" customWidth="1"/>
-    <col min="13" max="13" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" customWidth="1"/>
+    <col min="13" max="13" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" customWidth="1"/>
     <col min="15" max="15" width="22" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25.28515625" customWidth="1"/>
-    <col min="17" max="17" width="26.7109375" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="21" width="8.7109375" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="32" width="8.7109375" customWidth="1"/>
+    <col min="16" max="16" width="25.33203125" customWidth="1"/>
+    <col min="17" max="17" width="26.6640625" customWidth="1"/>
+    <col min="18" max="18" width="14.5546875" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="21" width="8.6640625" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="32" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="9" customFormat="1" ht="24.95" customHeight="1">
+    <row r="1" spans="1:25" s="9" customFormat="1" ht="24.9" customHeight="1">
       <c r="A1" s="8">
         <f>ROW()</f>
         <v>1</v>
@@ -1910,11 +1956,11 @@
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="9" customFormat="1" ht="24.95" customHeight="1">
+    <row r="2" spans="1:25" s="9" customFormat="1" ht="24.9" customHeight="1">
       <c r="A2" s="8"/>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:25" ht="24.95" customHeight="1">
+    <row r="3" spans="1:25" ht="24.9" customHeight="1">
       <c r="A3" s="7">
         <f>ROW()</f>
         <v>3</v>
@@ -1962,7 +2008,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="24.95" customHeight="1">
+    <row r="4" spans="1:25" ht="24.9" customHeight="1">
       <c r="A4" s="7">
         <f>ROW()</f>
         <v>4</v>
@@ -2104,7 +2150,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="24.95" customHeight="1">
+    <row r="6" spans="1:25" ht="24.9" customHeight="1">
       <c r="A6" s="7">
         <f>ROW()</f>
         <v>6</v>
@@ -2126,7 +2172,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="24.95" customHeight="1">
+    <row r="7" spans="1:25" ht="24.9" customHeight="1">
       <c r="A7" s="7">
         <f>ROW()</f>
         <v>7</v>
@@ -2145,7 +2191,7 @@
         <v>44080</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="24.95" customHeight="1">
+    <row r="8" spans="1:25" ht="24.9" customHeight="1">
       <c r="A8" s="7">
         <f>ROW()</f>
         <v>8</v>
@@ -2164,7 +2210,7 @@
         <v>44081</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="24.95" customHeight="1">
+    <row r="9" spans="1:25" ht="24.9" customHeight="1">
       <c r="A9" s="7">
         <f>ROW()</f>
         <v>9</v>
@@ -2191,34 +2237,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="3"/>
-    <col min="2" max="2" width="26.28515625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="3"/>
+    <col min="2" max="2" width="26.33203125" style="3" customWidth="1"/>
     <col min="3" max="3" width="11" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="34.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="36.140625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="29.140625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.28515625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="16.7109375" style="3" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" style="3" customWidth="1"/>
-    <col min="14" max="14" width="8.85546875" style="3"/>
-    <col min="15" max="15" width="13.7109375" style="3" customWidth="1"/>
-    <col min="16" max="16384" width="8.85546875" style="3"/>
+    <col min="4" max="4" width="19.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="34.44140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="36.109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="29.109375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.33203125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="16.6640625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="20.6640625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="8.88671875" style="3"/>
+    <col min="15" max="15" width="13.6640625" style="3" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" ht="34.15" customHeight="1">
+    <row r="1" spans="1:25" s="1" customFormat="1" ht="34.200000000000003" customHeight="1">
       <c r="A1" s="1">
         <f>ROW()</f>
         <v>1</v>
@@ -2316,7 +2362,7 @@
         <v>BanGiao3</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="1" customFormat="1" ht="34.15" customHeight="1">
+    <row r="2" spans="1:25" s="1" customFormat="1" ht="34.200000000000003" customHeight="1">
       <c r="B2" s="1" t="s">
         <v>111</v>
       </c>
@@ -2625,28 +2671,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:N27"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="14"/>
-    <col min="3" max="3" width="6.28515625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" style="33" customWidth="1"/>
+    <col min="1" max="2" width="9.109375" style="14"/>
+    <col min="3" max="3" width="6.33203125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="26.88671875" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" style="33" customWidth="1"/>
     <col min="6" max="7" width="18" style="22" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="11.140625" style="14" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="11.109375" style="14" customWidth="1" outlineLevel="1"/>
     <col min="9" max="9" width="19" style="14" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" style="14" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="14"/>
-    <col min="12" max="12" width="26.28515625" style="14" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" style="14" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="14"/>
+    <col min="10" max="10" width="11.109375" style="14" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="14"/>
+    <col min="12" max="12" width="26.33203125" style="14" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" style="14" customWidth="1"/>
+    <col min="14" max="14" width="10.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.109375" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" s="10" customFormat="1" ht="33" customHeight="1">
@@ -2966,7 +3012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:14" ht="16.5">
+    <row r="11" spans="2:14" ht="16.8">
       <c r="B11" s="13"/>
       <c r="C11" s="12">
         <f t="shared" si="2"/>
@@ -3523,26 +3569,26 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:L26"/>
+  <autoFilter ref="C1:L26" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="C1:Q55"/>
   <sheetViews>
     <sheetView showZeros="0" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="5" max="5" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" customWidth="1"/>
+    <col min="8" max="8" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.88671875" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3597,7 +3643,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="3:17" ht="16.5">
+    <row r="2" spans="3:17" ht="16.8">
       <c r="C2" t="s">
         <v>66</v>
       </c>
@@ -3622,7 +3668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="3:17" ht="16.5">
+    <row r="3" spans="3:17" ht="16.8">
       <c r="C3" t="s">
         <v>66</v>
       </c>
@@ -3647,7 +3693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="3:17" ht="16.5">
+    <row r="4" spans="3:17" ht="16.8">
       <c r="C4" t="s">
         <v>66</v>
       </c>
@@ -3682,7 +3728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="3:17" ht="16.5">
+    <row r="5" spans="3:17" ht="16.8">
       <c r="C5" t="s">
         <v>66</v>
       </c>
@@ -3714,7 +3760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="3:17" ht="16.5">
+    <row r="6" spans="3:17" ht="16.8">
       <c r="C6" t="s">
         <v>66</v>
       </c>
@@ -3746,7 +3792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="3:17" ht="16.5">
+    <row r="7" spans="3:17" ht="16.8">
       <c r="C7" t="s">
         <v>66</v>
       </c>
@@ -3781,7 +3827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="3:17" ht="16.5">
+    <row r="8" spans="3:17" ht="16.8">
       <c r="C8" t="s">
         <v>66</v>
       </c>
@@ -3816,7 +3862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="3:17" ht="16.5">
+    <row r="9" spans="3:17" ht="16.8">
       <c r="C9" t="s">
         <v>66</v>
       </c>
@@ -3851,7 +3897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="3:17" ht="16.5">
+    <row r="10" spans="3:17" ht="16.8">
       <c r="C10" t="s">
         <v>66</v>
       </c>
@@ -3886,7 +3932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="3:17" ht="16.5">
+    <row r="11" spans="3:17" ht="16.8">
       <c r="C11" t="s">
         <v>66</v>
       </c>
@@ -3921,7 +3967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="3:17" ht="16.5">
+    <row r="12" spans="3:17" ht="16.8">
       <c r="C12" t="s">
         <v>66</v>
       </c>
@@ -3953,7 +3999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="3:17" ht="16.5">
+    <row r="13" spans="3:17" ht="16.8">
       <c r="C13" t="s">
         <v>66</v>
       </c>
@@ -3988,7 +4034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="3:17" ht="16.5">
+    <row r="14" spans="3:17" ht="16.8">
       <c r="C14" t="s">
         <v>66</v>
       </c>
@@ -4023,7 +4069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="3:17" ht="16.5">
+    <row r="15" spans="3:17" ht="16.8">
       <c r="C15" t="s">
         <v>66</v>
       </c>
@@ -4058,7 +4104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="3:17" ht="16.5">
+    <row r="16" spans="3:17" ht="16.8">
       <c r="C16" t="s">
         <v>66</v>
       </c>
@@ -4090,7 +4136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="3:13" ht="16.5">
+    <row r="17" spans="3:13" ht="16.8">
       <c r="C17" t="s">
         <v>66</v>
       </c>
@@ -4122,7 +4168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="3:13" ht="16.5">
+    <row r="18" spans="3:13" ht="16.8">
       <c r="C18" t="s">
         <v>66</v>
       </c>
@@ -4154,7 +4200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="3:13" ht="16.5">
+    <row r="19" spans="3:13" ht="16.8">
       <c r="C19" t="s">
         <v>66</v>
       </c>
@@ -4189,7 +4235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="3:13" ht="16.5">
+    <row r="20" spans="3:13" ht="16.8">
       <c r="C20" t="s">
         <v>66</v>
       </c>
@@ -4224,7 +4270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="3:13" ht="16.5">
+    <row r="21" spans="3:13" ht="16.8">
       <c r="C21" t="s">
         <v>66</v>
       </c>
@@ -4259,7 +4305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="3:13" ht="16.5">
+    <row r="22" spans="3:13" ht="16.8">
       <c r="C22" t="s">
         <v>66</v>
       </c>
@@ -4294,7 +4340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="3:13" ht="16.5">
+    <row r="23" spans="3:13" ht="16.8">
       <c r="C23" t="s">
         <v>66</v>
       </c>
@@ -4329,7 +4375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="3:13" ht="16.5">
+    <row r="24" spans="3:13" ht="16.8">
       <c r="D24" s="15">
         <f>SUM($J$2:J24)</f>
         <v>16</v>
@@ -4352,7 +4398,7 @@
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
     </row>
-    <row r="25" spans="3:13" ht="16.5">
+    <row r="25" spans="3:13" ht="16.8">
       <c r="D25" s="15">
         <f>SUM($J$2:J25)</f>
         <v>16</v>
@@ -4373,7 +4419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="3:13" ht="16.5">
+    <row r="26" spans="3:13" ht="16.8">
       <c r="D26" s="15">
         <f>SUM($J$2:J26)</f>
         <v>16</v>
@@ -4399,7 +4445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="3:13" ht="16.5">
+    <row r="27" spans="3:13" ht="16.8">
       <c r="D27" s="15">
         <f>SUM($J$2:J27)</f>
         <v>16</v>
@@ -4425,7 +4471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="3:13" ht="16.5">
+    <row r="28" spans="3:13" ht="16.8">
       <c r="D28" s="15">
         <f>SUM($J$2:J28)</f>
         <v>16</v>
@@ -4446,7 +4492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="3:13" ht="16.5">
+    <row r="29" spans="3:13" ht="16.8">
       <c r="D29" s="15">
         <f>SUM($J$2:J29)</f>
         <v>16</v>
@@ -4465,7 +4511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="3:13" ht="16.5">
+    <row r="30" spans="3:13" ht="16.8">
       <c r="D30" s="15">
         <f>SUM($J$2:J30)</f>
         <v>16</v>
@@ -4486,7 +4532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="3:13" ht="16.5">
+    <row r="31" spans="3:13" ht="16.8">
       <c r="D31" s="15">
         <f>SUM($J$2:J31)</f>
         <v>16</v>
@@ -4507,7 +4553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="3:13" ht="16.5">
+    <row r="32" spans="3:13" ht="16.8">
       <c r="D32" s="15">
         <f>SUM($J$2:J32)</f>
         <v>16</v>
@@ -4528,7 +4574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="4:12" ht="16.5">
+    <row r="33" spans="4:12" ht="16.8">
       <c r="D33" s="15">
         <f>SUM($J$2:J33)</f>
         <v>16</v>
@@ -4549,7 +4595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="4:12" ht="16.5">
+    <row r="34" spans="4:12" ht="16.8">
       <c r="D34" s="15">
         <f>SUM($J$2:J34)</f>
         <v>16</v>
@@ -4570,7 +4616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="4:12" ht="16.5">
+    <row r="35" spans="4:12" ht="16.8">
       <c r="D35" s="15">
         <f>SUM($J$2:J35)</f>
         <v>16</v>
@@ -4597,7 +4643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="4:12" ht="16.5">
+    <row r="36" spans="4:12" ht="16.8">
       <c r="D36" s="15">
         <f>SUM($J$2:J36)</f>
         <v>16</v>
@@ -4618,7 +4664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="4:12" ht="16.5">
+    <row r="37" spans="4:12" ht="16.8">
       <c r="D37" s="15">
         <f>SUM($J$2:J37)</f>
         <v>16</v>
@@ -4635,7 +4681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="4:12" ht="16.5">
+    <row r="38" spans="4:12" ht="16.8">
       <c r="D38" s="15">
         <f>SUM($J$2:J38)</f>
         <v>16</v>
@@ -4656,7 +4702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="4:12" ht="16.5">
+    <row r="39" spans="4:12" ht="16.8">
       <c r="D39" s="15">
         <f>SUM($J$2:J39)</f>
         <v>16</v>
@@ -4673,7 +4719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="4:12" ht="16.5">
+    <row r="40" spans="4:12" ht="16.8">
       <c r="D40" s="15">
         <f>SUM($J$2:J40)</f>
         <v>16</v>
@@ -4699,7 +4745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="4:12" ht="16.5">
+    <row r="41" spans="4:12" ht="16.8">
       <c r="D41" s="15">
         <f>SUM($J$2:J41)</f>
         <v>16</v>
@@ -4720,7 +4766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="4:12" ht="16.5">
+    <row r="42" spans="4:12" ht="16.8">
       <c r="D42" s="15">
         <f>SUM($J$2:J42)</f>
         <v>16</v>
@@ -4741,7 +4787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="4:12" ht="16.5">
+    <row r="43" spans="4:12" ht="16.8">
       <c r="D43" s="15">
         <f>SUM($J$2:J43)</f>
         <v>16</v>
@@ -4762,7 +4808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="4:12" ht="16.5">
+    <row r="44" spans="4:12" ht="16.8">
       <c r="D44" s="15">
         <f>SUM($J$2:J44)</f>
         <v>16</v>
@@ -4783,7 +4829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="4:12" ht="16.5">
+    <row r="45" spans="4:12" ht="16.8">
       <c r="D45" s="15">
         <f>SUM($J$2:J45)</f>
         <v>16</v>
@@ -4804,7 +4850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="4:12" ht="16.5">
+    <row r="46" spans="4:12" ht="16.8">
       <c r="D46" s="15">
         <f>SUM($J$2:J46)</f>
         <v>16</v>
@@ -4827,7 +4873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="4:12" ht="16.5">
+    <row r="47" spans="4:12" ht="16.8">
       <c r="D47" s="15">
         <f>SUM($J$2:J47)</f>
         <v>16</v>
@@ -4848,7 +4894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="4:12" ht="16.5">
+    <row r="48" spans="4:12" ht="16.8">
       <c r="D48" s="15">
         <f>SUM($J$2:J48)</f>
         <v>16</v>
@@ -4871,7 +4917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="4:12" ht="16.5">
+    <row r="49" spans="4:12" ht="16.8">
       <c r="D49" s="15">
         <f>SUM($J$2:J49)</f>
         <v>16</v>
@@ -4892,7 +4938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="4:12" ht="16.5">
+    <row r="50" spans="4:12" ht="16.8">
       <c r="D50" s="15">
         <f>SUM($J$2:J50)</f>
         <v>16</v>
@@ -4913,7 +4959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="4:12" ht="16.5">
+    <row r="51" spans="4:12" ht="16.8">
       <c r="D51" s="15">
         <f>SUM($J$2:J51)</f>
         <v>16</v>
@@ -4934,7 +4980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="4:12" ht="16.5">
+    <row r="52" spans="4:12" ht="16.8">
       <c r="D52" s="15">
         <f>SUM($J$2:J52)</f>
         <v>16</v>
@@ -4960,7 +5006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="4:12" ht="16.5">
+    <row r="53" spans="4:12" ht="16.8">
       <c r="D53" s="15">
         <f>SUM($J$2:J53)</f>
         <v>16</v>
@@ -4979,7 +5025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="4:12" ht="16.5">
+    <row r="54" spans="4:12" ht="16.8">
       <c r="D54" s="15">
         <f>SUM($J$2:J54)</f>
         <v>16</v>
@@ -4998,7 +5044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="4:12" ht="16.5">
+    <row r="55" spans="4:12" ht="16.8">
       <c r="D55" s="15">
         <f>SUM($J$2:J55)</f>
         <v>16</v>
@@ -5025,7 +5071,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:Q55"/>
+  <autoFilter ref="C1:Q55" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <conditionalFormatting sqref="E10">
     <cfRule type="duplicateValues" dxfId="20" priority="6"/>
   </conditionalFormatting>
@@ -5052,45 +5098,47 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:V93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="53.28515625" customWidth="1"/>
-    <col min="5" max="5" width="39.7109375" customWidth="1"/>
-    <col min="6" max="6" width="45.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="28.85546875" style="48" customWidth="1"/>
-    <col min="9" max="10" width="19.140625" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" style="26" customWidth="1"/>
-    <col min="12" max="12" width="25.7109375" style="26" customWidth="1"/>
-    <col min="13" max="13" width="21.85546875" style="26" customWidth="1"/>
-    <col min="14" max="14" width="43.85546875" style="26" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.28515625" style="35" customWidth="1"/>
-    <col min="16" max="16" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.28515625" style="26" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="19" width="41.7109375" style="26" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="25.77734375" customWidth="1"/>
+    <col min="5" max="5" width="39.6640625" customWidth="1"/>
+    <col min="6" max="6" width="21.44140625" customWidth="1"/>
+    <col min="7" max="7" width="28.88671875" style="48" customWidth="1"/>
+    <col min="8" max="8" width="70.6640625" style="45" customWidth="1"/>
+    <col min="9" max="10" width="19.109375" customWidth="1"/>
+    <col min="11" max="11" width="12.5546875" style="26" customWidth="1"/>
+    <col min="12" max="12" width="25.6640625" style="26" customWidth="1"/>
+    <col min="13" max="13" width="21.88671875" style="26" customWidth="1"/>
+    <col min="14" max="14" width="43.88671875" style="26" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.33203125" style="35" customWidth="1"/>
+    <col min="16" max="16" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.33203125" style="26" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="41.6640625" style="26" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="20" max="20" width="25" style="26" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="21" width="12.5703125" style="26" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="9.140625" collapsed="1"/>
+    <col min="21" max="21" width="12.5546875" style="26" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="9.109375" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="36" customFormat="1" ht="30">
+    <row r="1" spans="1:21" s="36" customFormat="1" ht="28.8">
       <c r="A1" s="36" t="s">
         <v>66</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C1" s="36" t="s">
         <v>147</v>
@@ -5105,9 +5153,9 @@
         <v>181</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="H1" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="H1" s="36" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="36" t="s">
@@ -5120,7 +5168,7 @@
         <v>207</v>
       </c>
       <c r="L1" s="37" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M1" s="37" t="s">
         <v>148</v>
@@ -5150,7 +5198,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="36" customFormat="1">
+    <row r="2" spans="1:21" s="36" customFormat="1" hidden="1">
       <c r="A2" s="36">
         <f>COLUMN()</f>
         <v>1</v>
@@ -5179,7 +5227,7 @@
         <f>COLUMN()</f>
         <v>7</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="36">
         <f>COLUMN()</f>
         <v>8</v>
       </c>
@@ -5236,7 +5284,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="30">
+    <row r="3" spans="1:21" ht="28.8" hidden="1">
       <c r="A3">
         <f>ROW()</f>
         <v>3</v>
@@ -5257,11 +5305,11 @@
       <c r="G3" s="47" t="s">
         <v>215</v>
       </c>
-      <c r="H3" s="47" t="s">
-        <v>230</v>
+      <c r="H3" s="24" t="s">
+        <v>229</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="26">
@@ -5311,7 +5359,7 @@
         <v>Tiếp địa tại TBA Nam Hà 1A</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="30">
+    <row r="4" spans="1:21" ht="28.8" hidden="1">
       <c r="A4">
         <f>ROW()</f>
         <v>4</v>
@@ -5332,11 +5380,11 @@
       <c r="G4" s="47" t="s">
         <v>216</v>
       </c>
-      <c r="H4" s="47" t="s">
-        <v>231</v>
+      <c r="H4" s="24" t="s">
+        <v>230</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J4" s="6"/>
       <c r="K4" s="26">
@@ -5386,7 +5434,7 @@
         <v>Tiếp địa tại TBA Nam Hà 3</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="30">
+    <row r="5" spans="1:21" ht="28.8" hidden="1">
       <c r="A5">
         <f>ROW()</f>
         <v>5</v>
@@ -5401,17 +5449,17 @@
         <v>139</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="47" t="s">
         <v>217</v>
       </c>
-      <c r="H5" s="47" t="s">
-        <v>232</v>
+      <c r="H5" s="24" t="s">
+        <v>231</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J5" s="6"/>
       <c r="K5" s="26">
@@ -5461,7 +5509,7 @@
         <v>Tiếp địa tại TBA Xuân Tây 10A</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" hidden="1">
       <c r="A6">
         <f>ROW()</f>
         <v>6</v>
@@ -5476,19 +5524,19 @@
         <v>150</v>
       </c>
       <c r="E6" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>242</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>243</v>
       </c>
       <c r="G6" s="47" t="s">
         <v>218</v>
       </c>
-      <c r="H6" s="47" t="s">
+      <c r="H6" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>233</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>234</v>
       </c>
       <c r="J6" s="6"/>
       <c r="K6" s="26">
@@ -5538,7 +5586,7 @@
         <v>Tiếp địa tại Tiếp địa hạ thế tại MCCB TBA Sông Ray 8ATBA Sông Ray 8A</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="45">
+    <row r="7" spans="1:21" ht="57.6" hidden="1">
       <c r="A7">
         <f>ROW()</f>
         <v>7</v>
@@ -5561,11 +5609,11 @@
       <c r="G7" s="47" t="s">
         <v>219</v>
       </c>
-      <c r="H7" s="47" t="s">
+      <c r="H7" s="24" t="s">
         <v>153</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J7" s="6"/>
       <c r="K7" s="26">
@@ -5628,7 +5676,7 @@
 Tiếp địa hạ thế TBA Sông Ray 7Nhánh rẽ Đồng Tâm 1</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="45">
+    <row r="8" spans="1:21" ht="43.2" hidden="1">
       <c r="A8">
         <f>ROW()</f>
         <v>8</v>
@@ -5649,13 +5697,13 @@
         <v>187</v>
       </c>
       <c r="G8" s="47" t="s">
-        <v>220</v>
-      </c>
-      <c r="H8" s="47" t="s">
-        <v>153</v>
+        <v>259</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>258</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J8" s="6"/>
       <c r="K8" s="26">
@@ -5696,7 +5744,7 @@
       </c>
       <c r="S8" s="26" t="str">
         <f t="shared" si="5"/>
-        <v>Nâng cấp đường dây hạ thế và TBA Sông Ray 7 từ 1 pha lên 3 pha, cấy TBA Sông Ray 7Acắt 3xfco nhánh rẽ lâm san 10, 11, 12
+        <v>Nâng cấp đường dây hạ thế và TBA Sông Ray 7 từ 1 pha lên 3 pha, cấy TBA Sông Ray 7A, đấu nối trung hạ thếcắt 3xfco nhánh rẽ lâm san 10, 11, 12
 tiếp địa trụ trung thế 357 nhánh rẽ lâm san 10, 11, 12
 tiếp địa trung hạ áp tại tba lâm san 11a, 11dNhánh rẽ Lâm San 10, 11, 12</v>
       </c>
@@ -5709,7 +5757,7 @@
         <v>Tiếp địa tại Tiếp địa trung hạ áp tại TBA Lâm San 11A, 11DNhánh rẽ Lâm San 10, 11, 12</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="30">
+    <row r="9" spans="1:21" ht="28.8" hidden="1">
       <c r="A9">
         <f>ROW()</f>
         <v>9</v>
@@ -5730,13 +5778,13 @@
         <v>190</v>
       </c>
       <c r="G9" s="47" t="s">
-        <v>221</v>
-      </c>
-      <c r="H9" s="47" t="s">
+        <v>220</v>
+      </c>
+      <c r="H9" s="24" t="s">
         <v>158</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J9" s="6"/>
       <c r="K9" s="26">
@@ -5790,7 +5838,7 @@
         <v>Tiếp địa tại Tiếp địa trụ trung thế 075 Nhánh rẽ Lâm San</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" ht="28.8" hidden="1">
       <c r="A10">
         <f>ROW()</f>
         <v>10</v>
@@ -5811,13 +5859,13 @@
         <v>192</v>
       </c>
       <c r="G10" s="47" t="s">
-        <v>222</v>
-      </c>
-      <c r="H10" s="47" t="s">
+        <v>221</v>
+      </c>
+      <c r="H10" s="24" t="s">
         <v>161</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J10" s="6"/>
       <c r="K10" s="26">
@@ -5867,7 +5915,7 @@
         <v>Tiếp địa tại Tiếp địa trung hạ áp tại TBA Cánh đồng Xuân Tây 1Nhánh rẽ Cánh đồng Xuân Tây 1</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="30">
+    <row r="11" spans="1:21" ht="57.6">
       <c r="A11">
         <f>ROW()</f>
         <v>11</v>
@@ -5888,13 +5936,13 @@
         <v>194</v>
       </c>
       <c r="G11" s="47" t="s">
-        <v>223</v>
-      </c>
-      <c r="H11" s="47" t="s">
+        <v>222</v>
+      </c>
+      <c r="H11" s="24" t="s">
         <v>162</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J11" s="6"/>
       <c r="K11" s="26">
@@ -5953,7 +6001,7 @@
  Tiếp địa hạ thế TBA Láng Me 3Nhánh rẽ Láng Me</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" hidden="1">
       <c r="A12">
         <f>ROW()</f>
         <v>12</v>
@@ -5974,13 +6022,13 @@
         <v>197</v>
       </c>
       <c r="G12" s="47" t="s">
-        <v>224</v>
-      </c>
-      <c r="H12" s="47" t="s">
+        <v>223</v>
+      </c>
+      <c r="H12" s="24" t="s">
         <v>165</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J12" s="6"/>
       <c r="K12" s="26">
@@ -6030,7 +6078,7 @@
         <v>Tiếp địa tại Tiếp địa trung hạ áp tại TBA Thoại Hương 3, 4Nhánh rẽ Thoại Hương 3, 4</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" ht="28.8" hidden="1">
       <c r="A13">
         <f>ROW()</f>
         <v>13</v>
@@ -6051,13 +6099,13 @@
         <v>198</v>
       </c>
       <c r="G13" s="47" t="s">
-        <v>225</v>
-      </c>
-      <c r="H13" s="47" t="s">
+        <v>224</v>
+      </c>
+      <c r="H13" s="24" t="s">
         <v>167</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J13" s="6"/>
       <c r="K13" s="26">
@@ -6107,7 +6155,7 @@
         <v>Tiếp địa tại Tiếp địa trung hạ áp tại TBA Xuân Tây 19Nhánh rẽ Xuân Tây 19</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="30">
+    <row r="14" spans="1:21" ht="57.6">
       <c r="A14">
         <f>ROW()</f>
         <v>14</v>
@@ -6128,13 +6176,13 @@
         <v>200</v>
       </c>
       <c r="G14" s="47" t="s">
-        <v>226</v>
-      </c>
-      <c r="H14" s="47" t="s">
+        <v>225</v>
+      </c>
+      <c r="H14" s="24" t="s">
         <v>169</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J14" s="6"/>
       <c r="K14" s="26">
@@ -6193,7 +6241,7 @@
  Tiếp địa hạ thế TBA Láng Me 5, 5A, 5BNhánh rẽ Láng Me 5</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="30">
+    <row r="15" spans="1:21" ht="28.8" hidden="1">
       <c r="A15">
         <f>ROW()</f>
         <v>15</v>
@@ -6214,13 +6262,13 @@
         <v>202</v>
       </c>
       <c r="G15" s="47" t="s">
-        <v>227</v>
-      </c>
-      <c r="H15" s="47" t="s">
+        <v>226</v>
+      </c>
+      <c r="H15" s="24" t="s">
         <v>171</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="26">
@@ -6274,7 +6322,7 @@
         <v>Tiếp địa tại Tiếp địa trụ trung thế 023A Nhánh rẽ Sông Nhạn</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="45">
+    <row r="16" spans="1:21" ht="43.2" hidden="1">
       <c r="A16">
         <f>ROW()</f>
         <v>16</v>
@@ -6297,11 +6345,11 @@
       <c r="G16" s="47" t="s">
         <v>205</v>
       </c>
-      <c r="H16" s="47" t="s">
+      <c r="H16" s="24" t="s">
         <v>173</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J16" s="6"/>
       <c r="K16" s="26">
@@ -6359,7 +6407,7 @@
         <v>Tiếp địa tại Tiếp địa trụ trung thế 351Nhánh rẽ Nam Hà</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="30">
+    <row r="17" spans="1:21" ht="28.8" hidden="1">
       <c r="A17">
         <f>ROW()</f>
         <v>17</v>
@@ -6382,11 +6430,11 @@
       <c r="G17" s="47" t="s">
         <v>209</v>
       </c>
-      <c r="H17" s="47" t="s">
+      <c r="H17" s="24" t="s">
         <v>175</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J17" s="6"/>
       <c r="K17" s="26">
@@ -6440,7 +6488,7 @@
         <v>Tiếp địa tại Tiếp địa trụ trung thế 147Nhánh rẽ Tân Bảo</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="45">
+    <row r="18" spans="1:21" ht="43.2" hidden="1">
       <c r="A18">
         <f>ROW()</f>
         <v>18</v>
@@ -6463,11 +6511,11 @@
       <c r="G18" s="47" t="s">
         <v>212</v>
       </c>
-      <c r="H18" s="47" t="s">
+      <c r="H18" s="24" t="s">
         <v>176</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J18" s="6"/>
       <c r="K18" s="26">
@@ -6525,7 +6573,7 @@
         <v>Tiếp địa tại Tiếp địa trụ trung thế 351Nhánh rẽ Nam Hà</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="30">
+    <row r="19" spans="1:21" ht="28.8" hidden="1">
       <c r="A19">
         <f>ROW()</f>
         <v>19</v>
@@ -6548,11 +6596,11 @@
       <c r="G19" s="47" t="s">
         <v>213</v>
       </c>
-      <c r="H19" s="47" t="s">
+      <c r="H19" s="24" t="s">
         <v>177</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J19" s="6"/>
       <c r="K19" s="26">
@@ -6606,7 +6654,7 @@
         <v>Tiếp địa tại Tiếp địa trụ trung thế 147Nhánh rẽ Tân Bảo</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" hidden="1">
       <c r="A20">
         <f>ROW()</f>
         <v>20</v>
@@ -6618,22 +6666,22 @@
         <v>164</v>
       </c>
       <c r="D20" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="F20" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="E20" s="24" t="s">
+      <c r="G20" s="47" t="s">
         <v>239</v>
       </c>
-      <c r="F20" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="G20" s="47" t="s">
-        <v>240</v>
-      </c>
-      <c r="H20" s="47" t="s">
-        <v>241</v>
+      <c r="H20" s="24" t="s">
+        <v>257</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J20" s="6"/>
       <c r="K20" s="26">
@@ -6671,7 +6719,7 @@
       </c>
       <c r="S20" s="26" t="str">
         <f t="shared" si="5"/>
-        <v>Nâng cấp đường dây hạ thế sau TBA Sông Ray 7cắt fco + mccb tba sông ray 7
+        <v>Đấu nối hạ thế, Nâng cấp đường dây hạ thế sau TBA Sông Ray 7cắt fco + mccb tba sông ray 7
 tiếp địa hạ thế tại mccb tba sông ray 7TBA Sông Ray 7</v>
       </c>
       <c r="T20" s="26" t="str">
@@ -6683,7 +6731,7 @@
         <v>Tiếp địa tại Tiếp địa hạ thế tại MCCB TBA Sông Ray 7TBA Sông Ray 7</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" ht="28.8" hidden="1">
       <c r="A21">
         <f>ROW()</f>
         <v>21</v>
@@ -6695,19 +6743,19 @@
         <v>164</v>
       </c>
       <c r="D21" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="E21" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="E21" s="24" t="s">
+      <c r="F21" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="G21" s="47" t="s">
         <v>247</v>
       </c>
-      <c r="G21" s="47" t="s">
+      <c r="H21" s="24" t="s">
         <v>248</v>
-      </c>
-      <c r="H21" s="47" t="s">
-        <v>249</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
@@ -6758,7 +6806,7 @@
         <v>Tiếp địa tại Tiếp địa trụ trạm Thừa Đức 11Nhánh rẽ Thừa Đức 11</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" ht="28.8" hidden="1">
       <c r="A22">
         <f>ROW()</f>
         <v>22</v>
@@ -6770,19 +6818,19 @@
         <v>164</v>
       </c>
       <c r="D22" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="E22" t="s">
+        <v>249</v>
+      </c>
+      <c r="F22" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="E22" t="s">
-        <v>250</v>
-      </c>
-      <c r="F22" s="6" t="s">
+      <c r="G22" s="47" t="s">
+        <v>254</v>
+      </c>
+      <c r="H22" s="24" t="s">
         <v>252</v>
-      </c>
-      <c r="G22" s="47" t="s">
-        <v>255</v>
-      </c>
-      <c r="H22" s="47" t="s">
-        <v>253</v>
       </c>
       <c r="L22" s="26" t="str">
         <f t="array" ref="L22">_xlfn.TEXTJOIN(CHAR(10),TRUE,E22:F22)</f>
@@ -6790,7 +6838,7 @@
 Tiếp địa trụ trung thế 002</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="31.5" customHeight="1">
+    <row r="23" spans="1:21" ht="31.5" hidden="1" customHeight="1">
       <c r="A23">
         <f>ROW()</f>
         <v>23</v>
@@ -6808,16 +6856,16 @@
         <v>182</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G23" s="47" t="s">
         <v>214</v>
       </c>
-      <c r="H23" s="47" t="s">
-        <v>229</v>
+      <c r="H23" s="24" t="s">
+        <v>228</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J23" s="6"/>
       <c r="K23" s="26">
@@ -6871,7 +6919,7 @@
         <v>Tiếp địa tại  TBA Nam Hà 1</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" hidden="1">
       <c r="A24">
         <f>ROW()</f>
         <v>24</v>
@@ -6880,23 +6928,23 @@
         <v>44091</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="47" t="s">
-        <v>257</v>
-      </c>
-      <c r="H24" s="47" t="s">
-        <v>241</v>
+        <v>256</v>
+      </c>
+      <c r="H24" s="24" t="s">
+        <v>240</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J24" s="6"/>
       <c r="K24" s="26">
@@ -6943,483 +6991,483 @@
         <v>Tiếp địa tại TBA Sông Ray 7</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" hidden="1">
       <c r="A25">
         <f>ROW()</f>
         <v>25</v>
       </c>
       <c r="B25" s="44"/>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" hidden="1">
       <c r="A26">
         <f>ROW()</f>
         <v>26</v>
       </c>
       <c r="B26" s="44"/>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" hidden="1">
       <c r="A27">
         <f>ROW()</f>
         <v>27</v>
       </c>
       <c r="B27" s="44"/>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" hidden="1">
       <c r="A28">
         <f>ROW()</f>
         <v>28</v>
       </c>
       <c r="B28" s="44"/>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" hidden="1">
       <c r="A29">
         <f>ROW()</f>
         <v>29</v>
       </c>
       <c r="B29" s="44"/>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" hidden="1">
       <c r="A30">
         <f>ROW()</f>
         <v>30</v>
       </c>
       <c r="B30" s="44"/>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" hidden="1">
       <c r="A31">
         <f>ROW()</f>
         <v>31</v>
       </c>
       <c r="B31" s="44"/>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" hidden="1">
       <c r="A32">
         <f>ROW()</f>
         <v>32</v>
       </c>
       <c r="B32" s="44"/>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" hidden="1">
       <c r="A33">
         <f>ROW()</f>
         <v>33</v>
       </c>
       <c r="B33" s="44"/>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" hidden="1">
       <c r="A34">
         <f>ROW()</f>
         <v>34</v>
       </c>
       <c r="B34" s="44"/>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" hidden="1">
       <c r="A35">
         <f>ROW()</f>
         <v>35</v>
       </c>
       <c r="B35" s="44"/>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" hidden="1">
       <c r="A36">
         <f>ROW()</f>
         <v>36</v>
       </c>
       <c r="B36" s="44"/>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" hidden="1">
       <c r="A37">
         <f>ROW()</f>
         <v>37</v>
       </c>
       <c r="B37" s="44"/>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" hidden="1">
       <c r="A38">
         <f>ROW()</f>
         <v>38</v>
       </c>
       <c r="B38" s="44"/>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" hidden="1">
       <c r="A39">
         <f>ROW()</f>
         <v>39</v>
       </c>
       <c r="B39" s="44"/>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" hidden="1">
       <c r="A40">
         <f>ROW()</f>
         <v>40</v>
       </c>
       <c r="B40" s="44"/>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" hidden="1">
       <c r="A41">
         <f>ROW()</f>
         <v>41</v>
       </c>
       <c r="B41" s="44"/>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" hidden="1">
       <c r="A42">
         <f>ROW()</f>
         <v>42</v>
       </c>
       <c r="B42" s="44"/>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" hidden="1">
       <c r="A43">
         <f>ROW()</f>
         <v>43</v>
       </c>
       <c r="B43" s="44"/>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" hidden="1">
       <c r="A44">
         <f>ROW()</f>
         <v>44</v>
       </c>
       <c r="B44" s="44"/>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" hidden="1">
       <c r="A45">
         <f>ROW()</f>
         <v>45</v>
       </c>
       <c r="B45" s="44"/>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" hidden="1">
       <c r="A46">
         <f>ROW()</f>
         <v>46</v>
       </c>
       <c r="B46" s="44"/>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" hidden="1">
       <c r="A47">
         <f>ROW()</f>
         <v>47</v>
       </c>
       <c r="B47" s="44"/>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" hidden="1">
       <c r="A48">
         <f>ROW()</f>
         <v>48</v>
       </c>
       <c r="B48" s="44"/>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" hidden="1">
       <c r="A49">
         <f>ROW()</f>
         <v>49</v>
       </c>
       <c r="B49" s="44"/>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" hidden="1">
       <c r="A50">
         <f>ROW()</f>
         <v>50</v>
       </c>
       <c r="B50" s="44"/>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" hidden="1">
       <c r="A51">
         <f>ROW()</f>
         <v>51</v>
       </c>
       <c r="B51" s="44"/>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" hidden="1">
       <c r="A52">
         <f>ROW()</f>
         <v>52</v>
       </c>
       <c r="B52" s="44"/>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" hidden="1">
       <c r="A53">
         <f>ROW()</f>
         <v>53</v>
       </c>
       <c r="B53" s="44"/>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" hidden="1">
       <c r="A54">
         <f>ROW()</f>
         <v>54</v>
       </c>
       <c r="B54" s="44"/>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" hidden="1">
       <c r="A55">
         <f>ROW()</f>
         <v>55</v>
       </c>
       <c r="B55" s="44"/>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" hidden="1">
       <c r="A56">
         <f>ROW()</f>
         <v>56</v>
       </c>
       <c r="B56" s="44"/>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" hidden="1">
       <c r="A57">
         <f>ROW()</f>
         <v>57</v>
       </c>
       <c r="B57" s="44"/>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" hidden="1">
       <c r="A58">
         <f>ROW()</f>
         <v>58</v>
       </c>
       <c r="B58" s="44"/>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" hidden="1">
       <c r="A59">
         <f>ROW()</f>
         <v>59</v>
       </c>
       <c r="B59" s="44"/>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" hidden="1">
       <c r="A60">
         <f>ROW()</f>
         <v>60</v>
       </c>
       <c r="B60" s="44"/>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" hidden="1">
       <c r="A61">
         <f>ROW()</f>
         <v>61</v>
       </c>
       <c r="B61" s="44"/>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" hidden="1">
       <c r="A62">
         <f>ROW()</f>
         <v>62</v>
       </c>
       <c r="B62" s="44"/>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" hidden="1">
       <c r="A63">
         <f>ROW()</f>
         <v>63</v>
       </c>
       <c r="B63" s="44"/>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" hidden="1">
       <c r="A64">
         <f>ROW()</f>
         <v>64</v>
       </c>
       <c r="B64" s="44"/>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" hidden="1">
       <c r="A65">
         <f>ROW()</f>
         <v>65</v>
       </c>
       <c r="B65" s="44"/>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" hidden="1">
       <c r="A66">
         <f>ROW()</f>
         <v>66</v>
       </c>
       <c r="B66" s="44"/>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" hidden="1">
       <c r="A67">
         <f>ROW()</f>
         <v>67</v>
       </c>
       <c r="B67" s="44"/>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" hidden="1">
       <c r="A68">
         <f>ROW()</f>
         <v>68</v>
       </c>
       <c r="B68" s="44"/>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" hidden="1">
       <c r="A69">
         <f>ROW()</f>
         <v>69</v>
       </c>
       <c r="B69" s="44"/>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" hidden="1">
       <c r="A70">
         <f>ROW()</f>
         <v>70</v>
       </c>
       <c r="B70" s="44"/>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" hidden="1">
       <c r="A71">
         <f>ROW()</f>
         <v>71</v>
       </c>
       <c r="B71" s="44"/>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" hidden="1">
       <c r="A72">
         <f>ROW()</f>
         <v>72</v>
       </c>
       <c r="B72" s="44"/>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" hidden="1">
       <c r="A73">
         <f>ROW()</f>
         <v>73</v>
       </c>
       <c r="B73" s="44"/>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" hidden="1">
       <c r="A74">
         <f>ROW()</f>
         <v>74</v>
       </c>
       <c r="B74" s="44"/>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" hidden="1">
       <c r="A75">
         <f>ROW()</f>
         <v>75</v>
       </c>
       <c r="B75" s="44"/>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" hidden="1">
       <c r="A76">
         <f>ROW()</f>
         <v>76</v>
       </c>
       <c r="B76" s="44"/>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" hidden="1">
       <c r="A77">
         <f>ROW()</f>
         <v>77</v>
       </c>
       <c r="B77" s="44"/>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" hidden="1">
       <c r="A78">
         <f>ROW()</f>
         <v>78</v>
       </c>
       <c r="B78" s="44"/>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" hidden="1">
       <c r="A79">
         <f>ROW()</f>
         <v>79</v>
       </c>
       <c r="B79" s="44"/>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" hidden="1">
       <c r="A80">
         <f>ROW()</f>
         <v>80</v>
       </c>
       <c r="B80" s="44"/>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" hidden="1">
       <c r="A81">
         <f>ROW()</f>
         <v>81</v>
       </c>
       <c r="B81" s="44"/>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" hidden="1">
       <c r="A82">
         <f>ROW()</f>
         <v>82</v>
       </c>
       <c r="B82" s="44"/>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" hidden="1">
       <c r="A83">
         <f>ROW()</f>
         <v>83</v>
       </c>
       <c r="B83" s="44"/>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" hidden="1">
       <c r="A84">
         <f>ROW()</f>
         <v>84</v>
       </c>
       <c r="B84" s="44"/>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" hidden="1">
       <c r="A85">
         <f>ROW()</f>
         <v>85</v>
       </c>
       <c r="B85" s="44"/>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" hidden="1">
       <c r="A86">
         <f>ROW()</f>
         <v>86</v>
       </c>
       <c r="B86" s="44"/>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" hidden="1">
       <c r="A87">
         <f>ROW()</f>
         <v>87</v>
       </c>
       <c r="B87" s="44"/>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" hidden="1">
       <c r="A88">
         <f>ROW()</f>
         <v>88</v>
       </c>
       <c r="B88" s="44"/>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" hidden="1">
       <c r="A89">
         <f>ROW()</f>
         <v>89</v>
       </c>
       <c r="B89" s="44"/>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" hidden="1">
       <c r="A90">
         <f>ROW()</f>
         <v>90</v>
       </c>
       <c r="B90" s="44"/>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" hidden="1">
       <c r="A91">
         <f>ROW()</f>
         <v>91</v>
       </c>
       <c r="B91" s="44"/>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" hidden="1">
       <c r="A92">
         <f>ROW()</f>
         <v>92</v>
       </c>
       <c r="B92" s="44"/>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" hidden="1">
       <c r="A93">
         <f>ROW()</f>
         <v>93</v>
@@ -7427,7 +7475,14 @@
       <c r="B93" s="44"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U20"/>
+  <autoFilter ref="A1:V93" xr:uid="{1E2C9CD0-1162-478E-AEE8-300E9671FB2E}">
+    <filterColumn colId="7">
+      <filters>
+        <filter val="Đấu nối trung thế trụ 087 nhánh rẽ Láng Me. Cấy TBA Láng Me 3B, Tách lưới hạ thế sau TBA Láng Me 3 sang Láng Me 3B"/>
+        <filter val="Nâng cấp đường dây trung thế và trạm biến áp Láng Me 5B từ 1 pha lên 3 pha, di dời TBA Láng Me 5, cấy trạm biến áp lá me 5A-1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="Q1:R1 Q7 Q9:Q16 Q20 Q3:Q5 Q23">
     <cfRule type="cellIs" dxfId="13" priority="18" stopIfTrue="1" operator="equal">
       <formula>1</formula>
@@ -7492,7 +7547,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -7501,26 +7556,26 @@
       <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38" customWidth="1"/>
-    <col min="4" max="4" width="75.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="75.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="36" customFormat="1" ht="45">
+    <row r="1" spans="1:5" s="36" customFormat="1" ht="43.2">
       <c r="B1" s="36" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C1" s="36" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="36" t="s">
+        <v>234</v>
+      </c>
+      <c r="E1" s="36" t="s">
         <v>235</v>
-      </c>
-      <c r="E1" s="36" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="46" customFormat="1">
@@ -7670,11 +7725,11 @@
       </c>
       <c r="C8" t="str">
         <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!C$2,0)</f>
-        <v>Nâng cấp đường dây hạ thế và TBA Sông Ray 7 từ 1 pha lên 3 pha, cấy TBA Sông Ray 7A</v>
+        <v>Nâng cấp đường dây hạ thế và TBA Sông Ray 7 từ 1 pha lên 3 pha, cấy TBA Sông Ray 7A, đấu nối trung hạ thế</v>
       </c>
       <c r="D8" t="str">
         <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!D$2,0)</f>
-        <v>Nhánh rẽ Lâm San 10 11 12 tiếng 471 Xuân Mỹ</v>
+        <v>Nhánh rẽ Lâm San 10 11 12 tuyến 471 Xuân Mỹ</v>
       </c>
       <c r="E8" t="str">
         <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
@@ -7959,7 +8014,7 @@
       </c>
       <c r="C20" t="str">
         <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!C$2,0)</f>
-        <v>Nâng cấp đường dây hạ thế sau TBA Sông Ray 7</v>
+        <v>Đấu nối hạ thế, Nâng cấp đường dây hạ thế sau TBA Sông Ray 7</v>
       </c>
       <c r="D20" t="str">
         <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!D$2,0)</f>

--- a/TrungThau/20191261297-DLCM-CaiTaoLuoiDien--/PhuongAnThiCong-Ngay.xlsx
+++ b/TrungThau/20191261297-DLCM-CaiTaoLuoiDien--/PhuongAnThiCong-Ngay.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\ThucTran\HSTT\TrungThau\20191261297-DLCM-CaiTaoLuoiDien--\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0420C6D-F7D9-4176-B347-C982E20CF067}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
@@ -30,7 +24,7 @@
     <definedName name="NhanSu">NhanSu!$D:$I</definedName>
     <definedName name="tab">REPT(" ",10)</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -45,14 +39,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -67,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="261">
   <si>
     <t>STT</t>
   </si>
@@ -601,9 +595,6 @@
     <t>Nhánh rẽ Láng Me 5</t>
   </si>
   <si>
-    <t>Nâng cấp đường dây trung thế và trạm biến áp Láng Me 5B từ 1 pha lên 3 pha, di dời TBA Láng Me 5, cấy trạm biến áp lá me 5A-1</t>
-  </si>
-  <si>
     <t>Nhánh rẽ Sông Nhạn</t>
   </si>
   <si>
@@ -620,9 +611,6 @@
   </si>
   <si>
     <t>Lắp đặt trạm biến áp Tân Bảo 3A, tách lưới hạ thế trạm Tân Bảo 3 sang nhận điện trạm Tân Bảo 3A</t>
-  </si>
-  <si>
-    <t>Di dời TBA Nam Hà 1, trồng trụ đôn lưới</t>
   </si>
   <si>
     <t>Di dời TBA Tân Bảo 3</t>
@@ -889,16 +877,26 @@
   </si>
   <si>
     <t>Nhánh rẽ Lâm San 10 11 12 tuyến 471 Xuân Mỹ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nâng cấp đường dây trung thế và trạm biến áp Láng Me 5B từ 1 pha lên 3 pha, di dời TBA Láng Me 5, cấy trạm biến áp lá me 5A-1, Cấy mới TBA Láng Me 5C, tách một phần lưới hạ thế Láng Me 5B sang nhận điện TBA Láng Me 5C, Đấu nối nhánh rẽ nhánh rẽ Láng Me 5C tại trụ 135 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Từ 07 giờ 30 phút – 16 giờ 00 phút. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Di dời TBA Nam Hà 1 từ trụ 344 trục chính tuyến 477 Xuân Bảo về trụ 344/01 XDM, Trồng đôn trụ trung thế 335A, 344, 348A; trồng đôn trụ hạ thế 339A trục chính tuyến 477 Xuân Bảo
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="00"/>
-    <numFmt numFmtId="166" formatCode="dd/mm"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="00"/>
+    <numFmt numFmtId="165" formatCode="dd/mm"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1117,9 +1115,9 @@
   </borders>
   <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyBorder="0"/>
-    <xf numFmtId="165" fontId="5" fillId="1" borderId="3" applyNumberFormat="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="164" fontId="5" fillId="1" borderId="3" applyNumberFormat="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
@@ -1145,9 +1143,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
@@ -1196,7 +1194,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1228,13 +1226,13 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1274,29 +1272,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="23">
-    <cellStyle name="Comma 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Comma 2 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Comma 3" xfId="19" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Comma 4" xfId="21" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="DUNG" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="LIEM" xfId="3" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Comma 2" xfId="1"/>
+    <cellStyle name="Comma 2 2" xfId="20"/>
+    <cellStyle name="Comma 3" xfId="19"/>
+    <cellStyle name="Comma 4" xfId="21"/>
+    <cellStyle name="DUNG" xfId="2"/>
+    <cellStyle name="LIEM" xfId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="Normal 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="Normal 2 3" xfId="6" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="Normal 3" xfId="7" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="Normal 3 2" xfId="22" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="Normal 4" xfId="8" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="Normal 4 2" xfId="9" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="Normal 4 3" xfId="10" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="Normal 5" xfId="11" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="Normal 6" xfId="12" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="Normal 6 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="Normal 7" xfId="14" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="Normal 9" xfId="15" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="Percent 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
-    <cellStyle name="Style 1" xfId="17" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="THUC" xfId="18" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Normal 2" xfId="4"/>
+    <cellStyle name="Normal 2 2" xfId="5"/>
+    <cellStyle name="Normal 2 3" xfId="6"/>
+    <cellStyle name="Normal 3" xfId="7"/>
+    <cellStyle name="Normal 3 2" xfId="22"/>
+    <cellStyle name="Normal 4" xfId="8"/>
+    <cellStyle name="Normal 4 2" xfId="9"/>
+    <cellStyle name="Normal 4 3" xfId="10"/>
+    <cellStyle name="Normal 5" xfId="11"/>
+    <cellStyle name="Normal 6" xfId="12"/>
+    <cellStyle name="Normal 6 2" xfId="13"/>
+    <cellStyle name="Normal 7" xfId="14"/>
+    <cellStyle name="Normal 9" xfId="15"/>
+    <cellStyle name="Percent 2" xfId="16"/>
+    <cellStyle name="Style 1" xfId="17"/>
+    <cellStyle name="THUC" xfId="18"/>
   </cellStyles>
   <dxfs count="21">
     <dxf>
@@ -1570,7 +1568,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1603,26 +1601,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1655,23 +1636,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1847,38 +1811,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y9"/>
   <sheetViews>
     <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.88671875" defaultRowHeight="24.9" customHeight="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="24.95" customHeight="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="98.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.5546875" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" style="26" customWidth="1"/>
-    <col min="6" max="6" width="22.44140625" customWidth="1"/>
-    <col min="7" max="7" width="25.5546875" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="98.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="26" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" customWidth="1"/>
+    <col min="7" max="7" width="25.5703125" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="10" max="10" width="15.44140625" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" customWidth="1"/>
     <col min="11" max="11" width="20" customWidth="1"/>
     <col min="12" max="12" width="23" customWidth="1"/>
-    <col min="13" max="13" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.6640625" customWidth="1"/>
+    <col min="13" max="13" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" customWidth="1"/>
     <col min="15" max="15" width="22" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25.33203125" customWidth="1"/>
-    <col min="17" max="17" width="26.6640625" customWidth="1"/>
-    <col min="18" max="18" width="14.5546875" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="21" width="8.6640625" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="32" width="8.6640625" customWidth="1"/>
+    <col min="16" max="16" width="25.28515625" customWidth="1"/>
+    <col min="17" max="17" width="26.7109375" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="21" width="8.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="32" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="9" customFormat="1" ht="24.9" customHeight="1">
+    <row r="1" spans="1:25" s="9" customFormat="1" ht="24.95" customHeight="1">
       <c r="A1" s="8">
         <f>ROW()</f>
         <v>1</v>
@@ -1956,11 +1920,11 @@
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="9" customFormat="1" ht="24.9" customHeight="1">
+    <row r="2" spans="1:25" s="9" customFormat="1" ht="24.95" customHeight="1">
       <c r="A2" s="8"/>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:25" ht="24.9" customHeight="1">
+    <row r="3" spans="1:25" ht="24.95" customHeight="1">
       <c r="A3" s="7">
         <f>ROW()</f>
         <v>3</v>
@@ -2008,7 +1972,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="24.9" customHeight="1">
+    <row r="4" spans="1:25" ht="24.95" customHeight="1">
       <c r="A4" s="7">
         <f>ROW()</f>
         <v>4</v>
@@ -2039,7 +2003,7 @@
         <v>87</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K4" s="24" t="s">
         <v>107</v>
@@ -2150,7 +2114,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="24.9" customHeight="1">
+    <row r="6" spans="1:25" ht="24.95" customHeight="1">
       <c r="A6" s="7">
         <f>ROW()</f>
         <v>6</v>
@@ -2172,7 +2136,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="24.9" customHeight="1">
+    <row r="7" spans="1:25" ht="24.95" customHeight="1">
       <c r="A7" s="7">
         <f>ROW()</f>
         <v>7</v>
@@ -2191,7 +2155,7 @@
         <v>44080</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="24.9" customHeight="1">
+    <row r="8" spans="1:25" ht="24.95" customHeight="1">
       <c r="A8" s="7">
         <f>ROW()</f>
         <v>8</v>
@@ -2210,7 +2174,7 @@
         <v>44081</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="24.9" customHeight="1">
+    <row r="9" spans="1:25" ht="24.95" customHeight="1">
       <c r="A9" s="7">
         <f>ROW()</f>
         <v>9</v>
@@ -2237,34 +2201,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="3"/>
-    <col min="2" max="2" width="26.33203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="3"/>
+    <col min="2" max="2" width="26.28515625" style="3" customWidth="1"/>
     <col min="3" max="3" width="11" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="34.44140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="36.109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="29.109375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.33203125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="16.6640625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="20.6640625" style="3" customWidth="1"/>
-    <col min="14" max="14" width="8.88671875" style="3"/>
-    <col min="15" max="15" width="13.6640625" style="3" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="3"/>
+    <col min="4" max="4" width="19.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="34.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="36.140625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="29.140625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.28515625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="16.7109375" style="3" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" style="3" customWidth="1"/>
+    <col min="14" max="14" width="8.85546875" style="3"/>
+    <col min="15" max="15" width="13.7109375" style="3" customWidth="1"/>
+    <col min="16" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" ht="34.200000000000003" customHeight="1">
+    <row r="1" spans="1:25" s="1" customFormat="1" ht="34.15" customHeight="1">
       <c r="A1" s="1">
         <f>ROW()</f>
         <v>1</v>
@@ -2362,7 +2326,7 @@
         <v>BanGiao3</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="1" customFormat="1" ht="34.200000000000003" customHeight="1">
+    <row r="2" spans="1:25" s="1" customFormat="1" ht="34.15" customHeight="1">
       <c r="B2" s="1" t="s">
         <v>111</v>
       </c>
@@ -2671,28 +2635,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N27"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="2" width="9.109375" style="14"/>
-    <col min="3" max="3" width="6.33203125" style="14" customWidth="1"/>
-    <col min="4" max="4" width="26.88671875" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" style="33" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" style="14"/>
+    <col min="3" max="3" width="6.28515625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" style="33" customWidth="1"/>
     <col min="6" max="7" width="18" style="22" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="11.109375" style="14" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="11.140625" style="14" customWidth="1" outlineLevel="1"/>
     <col min="9" max="9" width="19" style="14" customWidth="1"/>
-    <col min="10" max="10" width="11.109375" style="14" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="14"/>
-    <col min="12" max="12" width="26.33203125" style="14" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" style="14" customWidth="1"/>
-    <col min="14" max="14" width="10.109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.109375" style="14"/>
+    <col min="10" max="10" width="11.140625" style="14" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="14"/>
+    <col min="12" max="12" width="26.28515625" style="14" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" style="14" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" s="10" customFormat="1" ht="33" customHeight="1">
@@ -3012,7 +2976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:14" ht="16.8">
+    <row r="11" spans="2:14" ht="16.5">
       <c r="B11" s="13"/>
       <c r="C11" s="12">
         <f t="shared" si="2"/>
@@ -3569,26 +3533,26 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:L26" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="C1:L26"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:Q55"/>
   <sheetViews>
     <sheetView showZeros="0" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.88671875" customWidth="1"/>
-    <col min="11" max="11" width="11.109375" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3643,7 +3607,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="3:17" ht="16.8">
+    <row r="2" spans="3:17" ht="16.5">
       <c r="C2" t="s">
         <v>66</v>
       </c>
@@ -3668,7 +3632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="3:17" ht="16.8">
+    <row r="3" spans="3:17" ht="16.5">
       <c r="C3" t="s">
         <v>66</v>
       </c>
@@ -3677,7 +3641,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F3" s="17"/>
       <c r="G3" s="17"/>
@@ -3693,7 +3657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="3:17" ht="16.8">
+    <row r="4" spans="3:17" ht="16.5">
       <c r="C4" t="s">
         <v>66</v>
       </c>
@@ -3728,7 +3692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="3:17" ht="16.8">
+    <row r="5" spans="3:17" ht="16.5">
       <c r="C5" t="s">
         <v>66</v>
       </c>
@@ -3760,7 +3724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="3:17" ht="16.8">
+    <row r="6" spans="3:17" ht="16.5">
       <c r="C6" t="s">
         <v>66</v>
       </c>
@@ -3792,7 +3756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="3:17" ht="16.8">
+    <row r="7" spans="3:17" ht="16.5">
       <c r="C7" t="s">
         <v>66</v>
       </c>
@@ -3827,7 +3791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="3:17" ht="16.8">
+    <row r="8" spans="3:17" ht="16.5">
       <c r="C8" t="s">
         <v>66</v>
       </c>
@@ -3862,7 +3826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="3:17" ht="16.8">
+    <row r="9" spans="3:17" ht="16.5">
       <c r="C9" t="s">
         <v>66</v>
       </c>
@@ -3897,7 +3861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="3:17" ht="16.8">
+    <row r="10" spans="3:17" ht="16.5">
       <c r="C10" t="s">
         <v>66</v>
       </c>
@@ -3932,7 +3896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="3:17" ht="16.8">
+    <row r="11" spans="3:17" ht="16.5">
       <c r="C11" t="s">
         <v>66</v>
       </c>
@@ -3967,7 +3931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="3:17" ht="16.8">
+    <row r="12" spans="3:17" ht="16.5">
       <c r="C12" t="s">
         <v>66</v>
       </c>
@@ -3999,7 +3963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="3:17" ht="16.8">
+    <row r="13" spans="3:17" ht="16.5">
       <c r="C13" t="s">
         <v>66</v>
       </c>
@@ -4034,7 +3998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="3:17" ht="16.8">
+    <row r="14" spans="3:17" ht="16.5">
       <c r="C14" t="s">
         <v>66</v>
       </c>
@@ -4069,7 +4033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="3:17" ht="16.8">
+    <row r="15" spans="3:17" ht="16.5">
       <c r="C15" t="s">
         <v>66</v>
       </c>
@@ -4104,7 +4068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="3:17" ht="16.8">
+    <row r="16" spans="3:17" ht="16.5">
       <c r="C16" t="s">
         <v>66</v>
       </c>
@@ -4136,7 +4100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="3:13" ht="16.8">
+    <row r="17" spans="3:13" ht="16.5">
       <c r="C17" t="s">
         <v>66</v>
       </c>
@@ -4168,7 +4132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="3:13" ht="16.8">
+    <row r="18" spans="3:13" ht="16.5">
       <c r="C18" t="s">
         <v>66</v>
       </c>
@@ -4200,7 +4164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="3:13" ht="16.8">
+    <row r="19" spans="3:13" ht="16.5">
       <c r="C19" t="s">
         <v>66</v>
       </c>
@@ -4235,7 +4199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="3:13" ht="16.8">
+    <row r="20" spans="3:13" ht="16.5">
       <c r="C20" t="s">
         <v>66</v>
       </c>
@@ -4270,7 +4234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="3:13" ht="16.8">
+    <row r="21" spans="3:13" ht="16.5">
       <c r="C21" t="s">
         <v>66</v>
       </c>
@@ -4305,7 +4269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="3:13" ht="16.8">
+    <row r="22" spans="3:13" ht="16.5">
       <c r="C22" t="s">
         <v>66</v>
       </c>
@@ -4340,7 +4304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="3:13" ht="16.8">
+    <row r="23" spans="3:13" ht="16.5">
       <c r="C23" t="s">
         <v>66</v>
       </c>
@@ -4375,7 +4339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="3:13" ht="16.8">
+    <row r="24" spans="3:13" ht="16.5">
       <c r="D24" s="15">
         <f>SUM($J$2:J24)</f>
         <v>16</v>
@@ -4398,7 +4362,7 @@
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
     </row>
-    <row r="25" spans="3:13" ht="16.8">
+    <row r="25" spans="3:13" ht="16.5">
       <c r="D25" s="15">
         <f>SUM($J$2:J25)</f>
         <v>16</v>
@@ -4419,7 +4383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="3:13" ht="16.8">
+    <row r="26" spans="3:13" ht="16.5">
       <c r="D26" s="15">
         <f>SUM($J$2:J26)</f>
         <v>16</v>
@@ -4445,7 +4409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="3:13" ht="16.8">
+    <row r="27" spans="3:13" ht="16.5">
       <c r="D27" s="15">
         <f>SUM($J$2:J27)</f>
         <v>16</v>
@@ -4471,7 +4435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="3:13" ht="16.8">
+    <row r="28" spans="3:13" ht="16.5">
       <c r="D28" s="15">
         <f>SUM($J$2:J28)</f>
         <v>16</v>
@@ -4492,7 +4456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="3:13" ht="16.8">
+    <row r="29" spans="3:13" ht="16.5">
       <c r="D29" s="15">
         <f>SUM($J$2:J29)</f>
         <v>16</v>
@@ -4511,7 +4475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="3:13" ht="16.8">
+    <row r="30" spans="3:13" ht="16.5">
       <c r="D30" s="15">
         <f>SUM($J$2:J30)</f>
         <v>16</v>
@@ -4532,7 +4496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="3:13" ht="16.8">
+    <row r="31" spans="3:13" ht="16.5">
       <c r="D31" s="15">
         <f>SUM($J$2:J31)</f>
         <v>16</v>
@@ -4553,7 +4517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="3:13" ht="16.8">
+    <row r="32" spans="3:13" ht="16.5">
       <c r="D32" s="15">
         <f>SUM($J$2:J32)</f>
         <v>16</v>
@@ -4574,7 +4538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="4:12" ht="16.8">
+    <row r="33" spans="4:12" ht="16.5">
       <c r="D33" s="15">
         <f>SUM($J$2:J33)</f>
         <v>16</v>
@@ -4595,7 +4559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="4:12" ht="16.8">
+    <row r="34" spans="4:12" ht="16.5">
       <c r="D34" s="15">
         <f>SUM($J$2:J34)</f>
         <v>16</v>
@@ -4616,7 +4580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="4:12" ht="16.8">
+    <row r="35" spans="4:12" ht="16.5">
       <c r="D35" s="15">
         <f>SUM($J$2:J35)</f>
         <v>16</v>
@@ -4643,7 +4607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="4:12" ht="16.8">
+    <row r="36" spans="4:12" ht="16.5">
       <c r="D36" s="15">
         <f>SUM($J$2:J36)</f>
         <v>16</v>
@@ -4664,7 +4628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="4:12" ht="16.8">
+    <row r="37" spans="4:12" ht="16.5">
       <c r="D37" s="15">
         <f>SUM($J$2:J37)</f>
         <v>16</v>
@@ -4681,7 +4645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="4:12" ht="16.8">
+    <row r="38" spans="4:12" ht="16.5">
       <c r="D38" s="15">
         <f>SUM($J$2:J38)</f>
         <v>16</v>
@@ -4702,7 +4666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="4:12" ht="16.8">
+    <row r="39" spans="4:12" ht="16.5">
       <c r="D39" s="15">
         <f>SUM($J$2:J39)</f>
         <v>16</v>
@@ -4719,7 +4683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="4:12" ht="16.8">
+    <row r="40" spans="4:12" ht="16.5">
       <c r="D40" s="15">
         <f>SUM($J$2:J40)</f>
         <v>16</v>
@@ -4745,7 +4709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="4:12" ht="16.8">
+    <row r="41" spans="4:12" ht="16.5">
       <c r="D41" s="15">
         <f>SUM($J$2:J41)</f>
         <v>16</v>
@@ -4766,7 +4730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="4:12" ht="16.8">
+    <row r="42" spans="4:12" ht="16.5">
       <c r="D42" s="15">
         <f>SUM($J$2:J42)</f>
         <v>16</v>
@@ -4787,7 +4751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="4:12" ht="16.8">
+    <row r="43" spans="4:12" ht="16.5">
       <c r="D43" s="15">
         <f>SUM($J$2:J43)</f>
         <v>16</v>
@@ -4808,7 +4772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="4:12" ht="16.8">
+    <row r="44" spans="4:12" ht="16.5">
       <c r="D44" s="15">
         <f>SUM($J$2:J44)</f>
         <v>16</v>
@@ -4829,7 +4793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="4:12" ht="16.8">
+    <row r="45" spans="4:12" ht="16.5">
       <c r="D45" s="15">
         <f>SUM($J$2:J45)</f>
         <v>16</v>
@@ -4850,7 +4814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="4:12" ht="16.8">
+    <row r="46" spans="4:12" ht="16.5">
       <c r="D46" s="15">
         <f>SUM($J$2:J46)</f>
         <v>16</v>
@@ -4873,7 +4837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="4:12" ht="16.8">
+    <row r="47" spans="4:12" ht="16.5">
       <c r="D47" s="15">
         <f>SUM($J$2:J47)</f>
         <v>16</v>
@@ -4894,7 +4858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="4:12" ht="16.8">
+    <row r="48" spans="4:12" ht="16.5">
       <c r="D48" s="15">
         <f>SUM($J$2:J48)</f>
         <v>16</v>
@@ -4917,7 +4881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="4:12" ht="16.8">
+    <row r="49" spans="4:12" ht="16.5">
       <c r="D49" s="15">
         <f>SUM($J$2:J49)</f>
         <v>16</v>
@@ -4938,7 +4902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="4:12" ht="16.8">
+    <row r="50" spans="4:12" ht="16.5">
       <c r="D50" s="15">
         <f>SUM($J$2:J50)</f>
         <v>16</v>
@@ -4959,7 +4923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="4:12" ht="16.8">
+    <row r="51" spans="4:12" ht="16.5">
       <c r="D51" s="15">
         <f>SUM($J$2:J51)</f>
         <v>16</v>
@@ -4980,7 +4944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="4:12" ht="16.8">
+    <row r="52" spans="4:12" ht="16.5">
       <c r="D52" s="15">
         <f>SUM($J$2:J52)</f>
         <v>16</v>
@@ -5006,7 +4970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="4:12" ht="16.8">
+    <row r="53" spans="4:12" ht="16.5">
       <c r="D53" s="15">
         <f>SUM($J$2:J53)</f>
         <v>16</v>
@@ -5025,7 +4989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="4:12" ht="16.8">
+    <row r="54" spans="4:12" ht="16.5">
       <c r="D54" s="15">
         <f>SUM($J$2:J54)</f>
         <v>16</v>
@@ -5044,7 +5008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="4:12" ht="16.8">
+    <row r="55" spans="4:12" ht="16.5">
       <c r="D55" s="15">
         <f>SUM($J$2:J55)</f>
         <v>16</v>
@@ -5071,7 +5035,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:Q55" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="C1:Q55"/>
   <conditionalFormatting sqref="E10">
     <cfRule type="duplicateValues" dxfId="20" priority="6"/>
   </conditionalFormatting>
@@ -5098,47 +5062,46 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <sheetPr filterMode="1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.77734375" customWidth="1"/>
-    <col min="5" max="5" width="39.6640625" customWidth="1"/>
-    <col min="6" max="6" width="21.44140625" customWidth="1"/>
-    <col min="7" max="7" width="28.88671875" style="48" customWidth="1"/>
-    <col min="8" max="8" width="70.6640625" style="45" customWidth="1"/>
-    <col min="9" max="10" width="19.109375" customWidth="1"/>
-    <col min="11" max="11" width="12.5546875" style="26" customWidth="1"/>
-    <col min="12" max="12" width="25.6640625" style="26" customWidth="1"/>
-    <col min="13" max="13" width="21.88671875" style="26" customWidth="1"/>
-    <col min="14" max="14" width="43.88671875" style="26" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.33203125" style="35" customWidth="1"/>
-    <col min="16" max="16" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.33203125" style="26" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="19" width="41.6640625" style="26" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="31" customWidth="1"/>
+    <col min="5" max="5" width="39.7109375" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" customWidth="1"/>
+    <col min="7" max="7" width="28.85546875" style="48" customWidth="1"/>
+    <col min="8" max="8" width="70.7109375" style="45" customWidth="1"/>
+    <col min="9" max="10" width="19.140625" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" style="26" customWidth="1"/>
+    <col min="12" max="12" width="25.7109375" style="26" customWidth="1"/>
+    <col min="13" max="13" width="21.85546875" style="26" customWidth="1"/>
+    <col min="14" max="14" width="43.85546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.28515625" style="35" customWidth="1"/>
+    <col min="16" max="16" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.28515625" style="26" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="41.7109375" style="26" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="20" max="20" width="25" style="26" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="21" width="12.5546875" style="26" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="9.109375" collapsed="1"/>
+    <col min="21" max="21" width="12.5703125" style="26" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="9.140625" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="36" customFormat="1" ht="28.8">
+    <row r="1" spans="1:21" s="36" customFormat="1" ht="30">
       <c r="A1" s="36" t="s">
         <v>66</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C1" s="36" t="s">
         <v>147</v>
@@ -5147,28 +5110,28 @@
         <v>131</v>
       </c>
       <c r="E1" s="36" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F1" s="36" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H1" s="36" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="36" t="s">
+        <v>204</v>
+      </c>
+      <c r="J1" s="36" t="s">
         <v>206</v>
       </c>
-      <c r="J1" s="36" t="s">
-        <v>208</v>
-      </c>
       <c r="K1" s="37" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="L1" s="37" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="M1" s="37" t="s">
         <v>148</v>
@@ -5198,7 +5161,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="36" customFormat="1" hidden="1">
+    <row r="2" spans="1:21" s="36" customFormat="1">
       <c r="A2" s="36">
         <f>COLUMN()</f>
         <v>1</v>
@@ -5284,7 +5247,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="28.8" hidden="1">
+    <row r="3" spans="1:21" ht="30">
       <c r="A3">
         <f>ROW()</f>
         <v>3</v>
@@ -5299,36 +5262,34 @@
         <v>137</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="47" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H3" s="24" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="26">
-        <f t="shared" ref="K3:K20" si="0">J3+14</f>
+        <f t="shared" ref="K3:K21" si="0">J3+14</f>
         <v>14</v>
       </c>
-      <c r="L3" s="26" t="str">
-        <f t="array" ref="L3">_xlfn.TEXTJOIN(CHAR(10),TRUE,E3:F3)</f>
-        <v>Cắt FCO + MCCB TBA Nam Hà 1A
-Tiếp địa hạ thế tại MCCB TBA Nam Hà 1A</v>
+      <c r="L3" s="26" t="e">
+        <f t="array" aca="1" ref="L3" ca="1">_xlfn.TEXTJOIN(CHAR(10),TRUE,E3:F3)</f>
+        <v>#NAME?</v>
       </c>
       <c r="M3" s="26" t="str">
-        <f t="shared" ref="M3:M20" si="1">D3</f>
+        <f t="shared" ref="M3:M21" si="1">D3</f>
         <v>TBA Nam Hà 1A</v>
       </c>
-      <c r="N3" s="26" t="str">
-        <f t="shared" ref="N3:N20" si="2">L3&amp;D3</f>
-        <v>Cắt FCO + MCCB TBA Nam Hà 1A
-Tiếp địa hạ thế tại MCCB TBA Nam Hà 1ATBA Nam Hà 1A</v>
+      <c r="N3" s="26" t="e">
+        <f t="shared" ref="N3:N21" ca="1" si="2">L3&amp;D3</f>
+        <v>#NAME?</v>
       </c>
       <c r="O3" s="35">
         <v>44079</v>
@@ -5337,29 +5298,27 @@
         <v>136</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q7" si="3">WEEKDAY(O3)</f>
+        <f t="shared" ref="Q3:Q8" si="3">WEEKDAY(O3)</f>
         <v>7</v>
       </c>
-      <c r="R3" s="26" t="str">
-        <f t="shared" ref="R3:R20" si="4">L3&amp;D3</f>
-        <v>Cắt FCO + MCCB TBA Nam Hà 1A
-Tiếp địa hạ thế tại MCCB TBA Nam Hà 1ATBA Nam Hà 1A</v>
-      </c>
-      <c r="S3" s="26" t="str">
-        <f t="shared" ref="S3:S20" si="5">H3&amp;LOWER(L3)&amp;D3</f>
-        <v>Thay dây hạ thế  sau TBA Nam Hà 1Acắt fco + mccb tba nam hà 1a
-tiếp địa hạ thế tại mccb tba nam hà 1aTBA Nam Hà 1A</v>
+      <c r="R3" s="26" t="e">
+        <f t="shared" ref="R3:R21" ca="1" si="4">L3&amp;D3</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="S3" s="26" t="e">
+        <f t="shared" ref="S3:S21" ca="1" si="5">H3&amp;LOWER(L3)&amp;D3</f>
+        <v>#NAME?</v>
       </c>
       <c r="T3" s="26" t="str">
-        <f t="shared" ref="T3:T20" si="6">"Cắt "&amp;C3&amp;M3</f>
+        <f t="shared" ref="T3:T21" si="6">"Cắt "&amp;C3&amp;M3</f>
         <v>Cắt FCO + MCCB TBA Nam Hà 1A</v>
       </c>
       <c r="U3" s="26" t="str">
-        <f t="shared" ref="U3:U20" si="7">"Tiếp địa tại "&amp;F3&amp;D3</f>
+        <f t="shared" ref="U3:U21" si="7">"Tiếp địa tại "&amp;F3&amp;D3</f>
         <v>Tiếp địa tại TBA Nam Hà 1A</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="28.8" hidden="1">
+    <row r="4" spans="1:21" ht="31.5" customHeight="1">
       <c r="A4">
         <f>ROW()</f>
         <v>4</v>
@@ -5371,39 +5330,39 @@
         <v>149</v>
       </c>
       <c r="D4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="F4" s="6"/>
+        <v>180</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>251</v>
+      </c>
       <c r="G4" s="47" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="H4" s="24" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="J4" s="6"/>
       <c r="K4" s="26">
-        <f t="shared" si="0"/>
+        <f>J4+14</f>
         <v>14</v>
       </c>
-      <c r="L4" s="26" t="str">
-        <f t="array" ref="L4">_xlfn.TEXTJOIN(CHAR(10),TRUE,E4:F4)</f>
-        <v>Cắt FCO + MCCB TBA Nam Hà 3
-Tiếp địa hạ thế tại MCCB TBA Nam Hà 3</v>
+      <c r="L4" s="26" t="e">
+        <f t="array" aca="1" ref="L4" ca="1">_xlfn.TEXTJOIN(CHAR(10),TRUE,E4:F4)</f>
+        <v>#NAME?</v>
       </c>
       <c r="M4" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v>TBA Nam Hà 3</v>
-      </c>
-      <c r="N4" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v>Cắt FCO + MCCB TBA Nam Hà 3
-Tiếp địa hạ thế tại MCCB TBA Nam Hà 3TBA Nam Hà 3</v>
+        <f>D4</f>
+        <v>TBA Nam Hà 1</v>
+      </c>
+      <c r="N4" s="26" t="e">
+        <f ca="1">L4&amp;D4</f>
+        <v>#NAME?</v>
       </c>
       <c r="O4" s="35">
         <v>44079</v>
@@ -5412,29 +5371,27 @@
         <v>136</v>
       </c>
       <c r="Q4">
-        <f t="shared" si="3"/>
+        <f>WEEKDAY(O4)</f>
         <v>7</v>
       </c>
-      <c r="R4" s="26" t="str">
-        <f t="shared" si="4"/>
-        <v>Cắt FCO + MCCB TBA Nam Hà 3
-Tiếp địa hạ thế tại MCCB TBA Nam Hà 3TBA Nam Hà 3</v>
-      </c>
-      <c r="S4" s="26" t="str">
-        <f t="shared" si="5"/>
-        <v>Thay dây hạ thế  sau TBA Nam Hà 3cắt fco + mccb tba nam hà 3
-tiếp địa hạ thế tại mccb tba nam hà 3TBA Nam Hà 3</v>
+      <c r="R4" s="26" t="e">
+        <f ca="1">L4&amp;D4</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="S4" s="26" t="e">
+        <f ca="1">H4&amp;LOWER(L4)&amp;D4</f>
+        <v>#NAME?</v>
       </c>
       <c r="T4" s="26" t="str">
-        <f t="shared" si="6"/>
-        <v>Cắt FCO + MCCB TBA Nam Hà 3</v>
+        <f>"Cắt "&amp;C4&amp;M4</f>
+        <v>Cắt FCO + MCCB TBA Nam Hà 1</v>
       </c>
       <c r="U4" s="26" t="str">
-        <f t="shared" si="7"/>
-        <v>Tiếp địa tại TBA Nam Hà 3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="28.8" hidden="1">
+        <f>"Tiếp địa tại "&amp;F4&amp;D4</f>
+        <v>Tiếp địa tại  TBA Nam Hà 1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="30">
       <c r="A5">
         <f>ROW()</f>
         <v>5</v>
@@ -5446,70 +5403,66 @@
         <v>149</v>
       </c>
       <c r="D5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>243</v>
+        <v>182</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="47" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H5" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>231</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>233</v>
       </c>
       <c r="J5" s="6"/>
       <c r="K5" s="26">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="L5" s="26" t="str">
-        <f t="array" ref="L5">_xlfn.TEXTJOIN(CHAR(10),TRUE,E5:F5)</f>
-        <v>Cắt FCO + MCCB TBA Xuân Tây 10A
-Tiếp địa hạ thế tại MCCB TBA Xuân Tây 10A</v>
+      <c r="L5" s="26" t="e">
+        <f t="array" aca="1" ref="L5" ca="1">_xlfn.TEXTJOIN(CHAR(10),TRUE,E5:F5)</f>
+        <v>#NAME?</v>
       </c>
       <c r="M5" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>TBA Xuân Tây 10A</v>
-      </c>
-      <c r="N5" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v>Cắt FCO + MCCB TBA Xuân Tây 10A
-Tiếp địa hạ thế tại MCCB TBA Xuân Tây 10ATBA Xuân Tây 10A</v>
+        <v>TBA Nam Hà 3</v>
+      </c>
+      <c r="N5" s="26" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
       </c>
       <c r="O5" s="35">
-        <v>44081</v>
+        <v>44079</v>
       </c>
       <c r="P5" t="s">
         <v>136</v>
       </c>
       <c r="Q5">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="R5" s="26" t="str">
-        <f t="shared" si="4"/>
-        <v>Cắt FCO + MCCB TBA Xuân Tây 10A
-Tiếp địa hạ thế tại MCCB TBA Xuân Tây 10ATBA Xuân Tây 10A</v>
-      </c>
-      <c r="S5" s="26" t="str">
-        <f t="shared" si="5"/>
-        <v>Thay dây hạ thế  sau TBA Xuân Tây 10Acắt fco + mccb tba xuân tây 10a
-tiếp địa hạ thế tại mccb tba xuân tây 10aTBA Xuân Tây 10A</v>
+        <v>7</v>
+      </c>
+      <c r="R5" s="26" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="S5" s="26" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#NAME?</v>
       </c>
       <c r="T5" s="26" t="str">
         <f t="shared" si="6"/>
-        <v>Cắt FCO + MCCB TBA Xuân Tây 10A</v>
+        <v>Cắt FCO + MCCB TBA Nam Hà 3</v>
       </c>
       <c r="U5" s="26" t="str">
         <f t="shared" si="7"/>
-        <v>Tiếp địa tại TBA Xuân Tây 10A</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" hidden="1">
+        <v>Tiếp địa tại TBA Nam Hà 3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="30">
       <c r="A6">
         <f>ROW()</f>
         <v>6</v>
@@ -5520,73 +5473,67 @@
       <c r="C6" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>150</v>
+      <c r="D6" t="s">
+        <v>139</v>
       </c>
       <c r="E6" s="24" t="s">
         <v>241</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>242</v>
-      </c>
+      <c r="F6" s="6"/>
       <c r="G6" s="47" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H6" s="24" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="J6" s="6"/>
       <c r="K6" s="26">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="L6" s="26" t="str">
-        <f t="array" ref="L6">_xlfn.TEXTJOIN(CHAR(10),TRUE,E6:F6)</f>
-        <v>Cắt FCO + MCCB TBA Sông Ray 8A
-Tiếp địa hạ thế tại MCCB TBA Sông Ray 8A</v>
+      <c r="L6" s="26" t="e">
+        <f t="array" aca="1" ref="L6" ca="1">_xlfn.TEXTJOIN(CHAR(10),TRUE,E6:F6)</f>
+        <v>#NAME?</v>
       </c>
       <c r="M6" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>TBA Sông Ray 8A</v>
-      </c>
-      <c r="N6" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v>Cắt FCO + MCCB TBA Sông Ray 8A
-Tiếp địa hạ thế tại MCCB TBA Sông Ray 8ATBA Sông Ray 8A</v>
+        <v>TBA Xuân Tây 10A</v>
+      </c>
+      <c r="N6" s="26" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
       </c>
       <c r="O6" s="35">
-        <v>44083</v>
+        <v>44081</v>
       </c>
       <c r="P6" t="s">
         <v>136</v>
       </c>
       <c r="Q6">
         <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="R6" s="26" t="str">
-        <f t="shared" si="4"/>
-        <v>Cắt FCO + MCCB TBA Sông Ray 8A
-Tiếp địa hạ thế tại MCCB TBA Sông Ray 8ATBA Sông Ray 8A</v>
-      </c>
-      <c r="S6" s="26" t="str">
-        <f t="shared" si="5"/>
-        <v>Thay dây hạ thế  sau TBA Sông Ray 8Acắt fco + mccb tba sông ray 8a
-tiếp địa hạ thế tại mccb tba sông ray 8aTBA Sông Ray 8A</v>
+        <v>2</v>
+      </c>
+      <c r="R6" s="26" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="S6" s="26" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#NAME?</v>
       </c>
       <c r="T6" s="26" t="str">
         <f t="shared" si="6"/>
-        <v>Cắt FCO + MCCB TBA Sông Ray 8A</v>
+        <v>Cắt FCO + MCCB TBA Xuân Tây 10A</v>
       </c>
       <c r="U6" s="26" t="str">
         <f t="shared" si="7"/>
-        <v>Tiếp địa tại Tiếp địa hạ thế tại MCCB TBA Sông Ray 8ATBA Sông Ray 8A</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="57.6" hidden="1">
+        <v>Tiếp địa tại TBA Xuân Tây 10A</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7">
         <f>ROW()</f>
         <v>7</v>
@@ -5595,136 +5542,115 @@
         <v>44061</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>186</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>185</v>
+        <v>239</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>240</v>
       </c>
       <c r="G7" s="47" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H7" s="24" t="s">
-        <v>153</v>
+        <v>230</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="J7" s="6"/>
       <c r="K7" s="26">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="L7" s="26" t="str">
-        <f t="array" ref="L7">_xlfn.TEXTJOIN(CHAR(10),TRUE,E7:F7)</f>
-        <v>Cắt LBS khí Đồng Tâm 1 + 3 LTD Đồng Tâm 1
-Cắt LBS khí Sông Ray + 3 LTD Sông Ray 1
-Tiếp địa trụ trung thế 357 
-Tiếp địa trụ trung thế 381 
-Tiếp địa hạ thế TBA Sông Ray 7</v>
+      <c r="L7" s="26" t="e">
+        <f t="array" aca="1" ref="L7" ca="1">_xlfn.TEXTJOIN(CHAR(10),TRUE,E7:F7)</f>
+        <v>#NAME?</v>
       </c>
       <c r="M7" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>Nhánh rẽ Đồng Tâm 1</v>
-      </c>
-      <c r="N7" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v>Cắt LBS khí Đồng Tâm 1 + 3 LTD Đồng Tâm 1
-Cắt LBS khí Sông Ray + 3 LTD Sông Ray 1
-Tiếp địa trụ trung thế 357 
-Tiếp địa trụ trung thế 381 
-Tiếp địa hạ thế TBA Sông Ray 7Nhánh rẽ Đồng Tâm 1</v>
+        <v>TBA Sông Ray 8A</v>
+      </c>
+      <c r="N7" s="26" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
       </c>
       <c r="O7" s="35">
-        <v>44086</v>
+        <v>44083</v>
       </c>
       <c r="P7" t="s">
         <v>136</v>
       </c>
       <c r="Q7">
         <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="R7" s="26" t="str">
-        <f t="shared" si="4"/>
-        <v>Cắt LBS khí Đồng Tâm 1 + 3 LTD Đồng Tâm 1
-Cắt LBS khí Sông Ray + 3 LTD Sông Ray 1
-Tiếp địa trụ trung thế 357 
-Tiếp địa trụ trung thế 381 
-Tiếp địa hạ thế TBA Sông Ray 7Nhánh rẽ Đồng Tâm 1</v>
-      </c>
-      <c r="S7" s="26" t="str">
-        <f t="shared" si="5"/>
-        <v>Nâng cấp đường dây hạ thế và TBA Sông Ray 7 từ 1 pha lên 3 pha, cấy TBA Sông Ray 7Acắt lbs khí đồng tâm 1 + 3 ltd đồng tâm 1
-cắt lbs khí sông ray + 3 ltd sông ray 1
-tiếp địa trụ trung thế 357 
-tiếp địa trụ trung thế 381 
-tiếp địa hạ thế tba sông ray 7Nhánh rẽ Đồng Tâm 1</v>
+        <v>4</v>
+      </c>
+      <c r="R7" s="26" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="S7" s="26" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#NAME?</v>
       </c>
       <c r="T7" s="26" t="str">
         <f t="shared" si="6"/>
-        <v>Cắt LBS khí + 3 LTDNhánh rẽ Đồng Tâm 1</v>
+        <v>Cắt FCO + MCCB TBA Sông Ray 8A</v>
       </c>
       <c r="U7" s="26" t="str">
         <f t="shared" si="7"/>
-        <v>Tiếp địa tại Tiếp địa trụ trung thế 381 
-Tiếp địa hạ thế TBA Sông Ray 7Nhánh rẽ Đồng Tâm 1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="43.2" hidden="1">
+        <v>Tiếp địa tại Tiếp địa hạ thế tại MCCB TBA Sông Ray 8ATBA Sông Ray 8A</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="60">
       <c r="A8">
         <f>ROW()</f>
         <v>8</v>
       </c>
       <c r="B8" s="44">
-        <v>44062</v>
+        <v>44061</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>188</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>183</v>
       </c>
       <c r="G8" s="47" t="s">
-        <v>259</v>
+        <v>217</v>
       </c>
       <c r="H8" s="24" t="s">
-        <v>258</v>
+        <v>153</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="J8" s="6"/>
       <c r="K8" s="26">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="L8" s="26" t="str">
-        <f t="array" ref="L8">_xlfn.TEXTJOIN(CHAR(10),TRUE,E8:F8)</f>
-        <v>Cắt 3xFCO Nhánh rẽ Lâm San 10, 11, 12
-Tiếp địa trụ trung thế 357 Nhánh rẽ Lâm San 10, 11, 12
-Tiếp địa trung hạ áp tại TBA Lâm San 11A, 11D</v>
+      <c r="L8" s="26" t="e">
+        <f t="array" aca="1" ref="L8" ca="1">_xlfn.TEXTJOIN(CHAR(10),TRUE,E8:F8)</f>
+        <v>#NAME?</v>
       </c>
       <c r="M8" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>Nhánh rẽ Lâm San 10, 11, 12</v>
-      </c>
-      <c r="N8" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v>Cắt 3xFCO Nhánh rẽ Lâm San 10, 11, 12
-Tiếp địa trụ trung thế 357 Nhánh rẽ Lâm San 10, 11, 12
-Tiếp địa trung hạ áp tại TBA Lâm San 11A, 11DNhánh rẽ Lâm San 10, 11, 12</v>
+        <v>Nhánh rẽ Đồng Tâm 1</v>
+      </c>
+      <c r="N8" s="26" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
       </c>
       <c r="O8" s="35">
         <v>44086</v>
@@ -5733,31 +5659,28 @@
         <v>136</v>
       </c>
       <c r="Q8">
-        <f t="shared" ref="Q8" si="8">WEEKDAY(O8)</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="R8" s="26" t="str">
-        <f t="shared" si="4"/>
-        <v>Cắt 3xFCO Nhánh rẽ Lâm San 10, 11, 12
-Tiếp địa trụ trung thế 357 Nhánh rẽ Lâm San 10, 11, 12
-Tiếp địa trung hạ áp tại TBA Lâm San 11A, 11DNhánh rẽ Lâm San 10, 11, 12</v>
-      </c>
-      <c r="S8" s="26" t="str">
-        <f t="shared" si="5"/>
-        <v>Nâng cấp đường dây hạ thế và TBA Sông Ray 7 từ 1 pha lên 3 pha, cấy TBA Sông Ray 7A, đấu nối trung hạ thếcắt 3xfco nhánh rẽ lâm san 10, 11, 12
-tiếp địa trụ trung thế 357 nhánh rẽ lâm san 10, 11, 12
-tiếp địa trung hạ áp tại tba lâm san 11a, 11dNhánh rẽ Lâm San 10, 11, 12</v>
+      <c r="R8" s="26" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="S8" s="26" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#NAME?</v>
       </c>
       <c r="T8" s="26" t="str">
         <f t="shared" si="6"/>
-        <v>Cắt 3xFCO Nhánh rẽ Lâm San 10, 11, 12</v>
+        <v>Cắt LBS khí + 3 LTDNhánh rẽ Đồng Tâm 1</v>
       </c>
       <c r="U8" s="26" t="str">
         <f t="shared" si="7"/>
-        <v>Tiếp địa tại Tiếp địa trung hạ áp tại TBA Lâm San 11A, 11DNhánh rẽ Lâm San 10, 11, 12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" ht="28.8" hidden="1">
+        <v>Tiếp địa tại Tiếp địa trụ trung thế 381 
+Tiếp địa hạ thế TBA Sông Ray 7Nhánh rẽ Đồng Tâm 1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="45">
       <c r="A9">
         <f>ROW()</f>
         <v>9</v>
@@ -5766,79 +5689,71 @@
         <v>44062</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G9" s="47" t="s">
-        <v>220</v>
+        <v>257</v>
       </c>
       <c r="H9" s="24" t="s">
-        <v>158</v>
+        <v>256</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="J9" s="6"/>
       <c r="K9" s="26">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="L9" s="26" t="str">
-        <f t="array" ref="L9">_xlfn.TEXTJOIN(CHAR(10),TRUE,E9:F9)</f>
-        <v xml:space="preserve">Cắt Recloser + 3 LTD Lâm San
-Tiếp địa trụ trung thế 011A
-Tiếp địa trụ trung thế 075 </v>
+      <c r="L9" s="26" t="e">
+        <f t="array" aca="1" ref="L9" ca="1">_xlfn.TEXTJOIN(CHAR(10),TRUE,E9:F9)</f>
+        <v>#NAME?</v>
       </c>
       <c r="M9" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>Nhánh rẽ Lâm San</v>
-      </c>
-      <c r="N9" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v>Cắt Recloser + 3 LTD Lâm San
-Tiếp địa trụ trung thế 011A
-Tiếp địa trụ trung thế 075 Nhánh rẽ Lâm San</v>
+        <v>Nhánh rẽ Lâm San 10, 11, 12</v>
+      </c>
+      <c r="N9" s="26" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
       </c>
       <c r="O9" s="35">
-        <v>44093</v>
+        <v>44086</v>
       </c>
       <c r="P9" t="s">
         <v>136</v>
       </c>
       <c r="Q9">
-        <f t="shared" ref="Q9:Q19" si="9">WEEKDAY(O9)</f>
+        <f t="shared" ref="Q9" si="8">WEEKDAY(O9)</f>
         <v>7</v>
       </c>
-      <c r="R9" s="26" t="str">
-        <f t="shared" si="4"/>
-        <v>Cắt Recloser + 3 LTD Lâm San
-Tiếp địa trụ trung thế 011A
-Tiếp địa trụ trung thế 075 Nhánh rẽ Lâm San</v>
-      </c>
-      <c r="S9" s="26" t="str">
-        <f t="shared" si="5"/>
-        <v>Trồng trụ trung thế 015A đấu nối trung thế, tách lưới, sang tải TBA Sông Ray 2, Sông Ray 2A. Đấu nối trung thế và di dời TBA Sông Ray 4Acắt recloser + 3 ltd lâm san
-tiếp địa trụ trung thế 011a
-tiếp địa trụ trung thế 075 Nhánh rẽ Lâm San</v>
+      <c r="R9" s="26" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="S9" s="26" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#NAME?</v>
       </c>
       <c r="T9" s="26" t="str">
         <f t="shared" si="6"/>
-        <v>Cắt Recloser + 3 LTD Nhánh rẽ Lâm San</v>
+        <v>Cắt 3xFCO Nhánh rẽ Lâm San 10, 11, 12</v>
       </c>
       <c r="U9" s="26" t="str">
         <f t="shared" si="7"/>
-        <v>Tiếp địa tại Tiếp địa trụ trung thế 075 Nhánh rẽ Lâm San</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" ht="28.8" hidden="1">
+        <v>Tiếp địa tại Tiếp địa trung hạ áp tại TBA Lâm San 11A, 11DNhánh rẽ Lâm San 10, 11, 12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="30">
       <c r="A10">
         <f>ROW()</f>
         <v>10</v>
@@ -5847,75 +5762,71 @@
         <v>44062</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G10" s="47" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H10" s="24" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="J10" s="6"/>
       <c r="K10" s="26">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="L10" s="26" t="str">
-        <f t="array" ref="L10">_xlfn.TEXTJOIN(CHAR(10),TRUE,E10:F10)</f>
-        <v>Cắt 3xFCO Nhánh rẽ Cánh đồng Xuân Tây 1
-Tiếp địa trung hạ áp tại TBA Cánh đồng Xuân Tây 1</v>
+      <c r="L10" s="26" t="e">
+        <f t="array" aca="1" ref="L10" ca="1">_xlfn.TEXTJOIN(CHAR(10),TRUE,E10:F10)</f>
+        <v>#NAME?</v>
       </c>
       <c r="M10" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>Nhánh rẽ Cánh đồng Xuân Tây 1</v>
-      </c>
-      <c r="N10" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v>Cắt 3xFCO Nhánh rẽ Cánh đồng Xuân Tây 1
-Tiếp địa trung hạ áp tại TBA Cánh đồng Xuân Tây 1Nhánh rẽ Cánh đồng Xuân Tây 1</v>
+        <v>Nhánh rẽ Lâm San</v>
+      </c>
+      <c r="N10" s="26" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
       </c>
       <c r="O10" s="35">
-        <v>44090</v>
+        <v>44093</v>
       </c>
       <c r="P10" t="s">
         <v>136</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="R10" s="26" t="str">
-        <f t="shared" si="4"/>
-        <v>Cắt 3xFCO Nhánh rẽ Cánh đồng Xuân Tây 1
-Tiếp địa trung hạ áp tại TBA Cánh đồng Xuân Tây 1Nhánh rẽ Cánh đồng Xuân Tây 1</v>
-      </c>
-      <c r="S10" s="26" t="str">
-        <f t="shared" si="5"/>
-        <v>Đấu nối trung thế trụ 009A, 013. Tách lưới hạ thế sau TBA Cánh đồng Xuân Tây 1A, Cánh đồng Xuân Tây 1Bcắt 3xfco nhánh rẽ cánh đồng xuân tây 1
-tiếp địa trung hạ áp tại tba cánh đồng xuân tây 1Nhánh rẽ Cánh đồng Xuân Tây 1</v>
+        <f t="shared" ref="Q10:Q20" si="9">WEEKDAY(O10)</f>
+        <v>7</v>
+      </c>
+      <c r="R10" s="26" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="S10" s="26" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#NAME?</v>
       </c>
       <c r="T10" s="26" t="str">
         <f t="shared" si="6"/>
-        <v>Cắt 3xFCO Nhánh rẽ Cánh đồng Xuân Tây 1</v>
+        <v>Cắt Recloser + 3 LTD Nhánh rẽ Lâm San</v>
       </c>
       <c r="U10" s="26" t="str">
         <f t="shared" si="7"/>
-        <v>Tiếp địa tại Tiếp địa trung hạ áp tại TBA Cánh đồng Xuân Tây 1Nhánh rẽ Cánh đồng Xuân Tây 1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" ht="57.6">
+        <v>Tiếp địa tại Tiếp địa trụ trung thế 075 Nhánh rẽ Lâm San</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="30">
       <c r="A11">
         <f>ROW()</f>
         <v>11</v>
@@ -5924,84 +5835,71 @@
         <v>44062</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>193</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>194</v>
+        <v>189</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>190</v>
       </c>
       <c r="G11" s="47" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H11" s="24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="J11" s="6"/>
       <c r="K11" s="26">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="L11" s="26" t="str">
-        <f t="array" ref="L11">_xlfn.TEXTJOIN(CHAR(10),TRUE,E11:F11)</f>
-        <v>Cắt Recloser + 3 LTD Láng Me
-Tiếp địa trụ trung thế 079
-Tiếp địa trụ trung thế 094
- Tiếp địa hạ thế TBA Láng Me 3</v>
+      <c r="L11" s="26" t="e">
+        <f t="array" aca="1" ref="L11" ca="1">_xlfn.TEXTJOIN(CHAR(10),TRUE,E11:F11)</f>
+        <v>#NAME?</v>
       </c>
       <c r="M11" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>Nhánh rẽ Láng Me</v>
-      </c>
-      <c r="N11" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v>Cắt Recloser + 3 LTD Láng Me
-Tiếp địa trụ trung thế 079
-Tiếp địa trụ trung thế 094
- Tiếp địa hạ thế TBA Láng Me 3Nhánh rẽ Láng Me</v>
+        <v>Nhánh rẽ Cánh đồng Xuân Tây 1</v>
+      </c>
+      <c r="N11" s="26" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
       </c>
       <c r="O11" s="35">
-        <v>44089</v>
+        <v>44090</v>
       </c>
       <c r="P11" t="s">
         <v>136</v>
       </c>
       <c r="Q11">
         <f t="shared" si="9"/>
-        <v>3</v>
-      </c>
-      <c r="R11" s="26" t="str">
-        <f t="shared" si="4"/>
-        <v>Cắt Recloser + 3 LTD Láng Me
-Tiếp địa trụ trung thế 079
-Tiếp địa trụ trung thế 094
- Tiếp địa hạ thế TBA Láng Me 3Nhánh rẽ Láng Me</v>
-      </c>
-      <c r="S11" s="26" t="str">
-        <f t="shared" si="5"/>
-        <v>Đấu nối trung thế trụ 087 nhánh rẽ Láng Me. Cấy TBA Láng Me 3B, Tách lưới hạ thế sau TBA Láng Me 3 sang Láng Me 3Bcắt recloser + 3 ltd láng me
-tiếp địa trụ trung thế 079
-tiếp địa trụ trung thế 094
- tiếp địa hạ thế tba láng me 3Nhánh rẽ Láng Me</v>
+        <v>4</v>
+      </c>
+      <c r="R11" s="26" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="S11" s="26" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#NAME?</v>
       </c>
       <c r="T11" s="26" t="str">
         <f t="shared" si="6"/>
-        <v>Cắt Recloser + 3 LTD Nhánh rẽ Láng Me</v>
+        <v>Cắt 3xFCO Nhánh rẽ Cánh đồng Xuân Tây 1</v>
       </c>
       <c r="U11" s="26" t="str">
         <f t="shared" si="7"/>
-        <v>Tiếp địa tại Tiếp địa trụ trung thế 094
- Tiếp địa hạ thế TBA Láng Me 3Nhánh rẽ Láng Me</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" hidden="1">
+        <v>Tiếp địa tại Tiếp địa trung hạ áp tại TBA Cánh đồng Xuân Tây 1Nhánh rẽ Cánh đồng Xuân Tây 1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="60">
       <c r="A12">
         <f>ROW()</f>
         <v>12</v>
@@ -6010,75 +5908,72 @@
         <v>44062</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>195</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>197</v>
+        <v>191</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>192</v>
       </c>
       <c r="G12" s="47" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="H12" s="24" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="J12" s="6"/>
       <c r="K12" s="26">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="L12" s="26" t="str">
-        <f t="array" ref="L12">_xlfn.TEXTJOIN(CHAR(10),TRUE,E12:F12)</f>
-        <v>Cắt FCO Nhánh rẽ Thoại Hương 3, 4
-Tiếp địa trung hạ áp tại TBA Thoại Hương 3, 4</v>
+      <c r="L12" s="26" t="e">
+        <f t="array" aca="1" ref="L12" ca="1">_xlfn.TEXTJOIN(CHAR(10),TRUE,E12:F12)</f>
+        <v>#NAME?</v>
       </c>
       <c r="M12" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>Nhánh rẽ Thoại Hương 3, 4</v>
-      </c>
-      <c r="N12" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v>Cắt FCO Nhánh rẽ Thoại Hương 3, 4
-Tiếp địa trung hạ áp tại TBA Thoại Hương 3, 4Nhánh rẽ Thoại Hương 3, 4</v>
+        <v>Nhánh rẽ Láng Me</v>
+      </c>
+      <c r="N12" s="26" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
       </c>
       <c r="O12" s="35">
-        <v>44088</v>
+        <v>44089</v>
       </c>
       <c r="P12" t="s">
         <v>136</v>
       </c>
       <c r="Q12">
         <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="R12" s="26" t="str">
-        <f t="shared" si="4"/>
-        <v>Cắt FCO Nhánh rẽ Thoại Hương 3, 4
-Tiếp địa trung hạ áp tại TBA Thoại Hương 3, 4Nhánh rẽ Thoại Hương 3, 4</v>
-      </c>
-      <c r="S12" s="26" t="str">
-        <f t="shared" si="5"/>
-        <v>Đấu nối trung thế trụ 021 Nhánh rẽ Thoại Hương 3, 4. Di dời TBA Thoại Hương 4cắt fco nhánh rẽ thoại hương 3, 4
-tiếp địa trung hạ áp tại tba thoại hương 3, 4Nhánh rẽ Thoại Hương 3, 4</v>
+        <v>3</v>
+      </c>
+      <c r="R12" s="26" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="S12" s="26" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#NAME?</v>
       </c>
       <c r="T12" s="26" t="str">
         <f t="shared" si="6"/>
-        <v>Cắt FCO Nhánh rẽ Thoại Hương 3, 4</v>
+        <v>Cắt Recloser + 3 LTD Nhánh rẽ Láng Me</v>
       </c>
       <c r="U12" s="26" t="str">
         <f t="shared" si="7"/>
-        <v>Tiếp địa tại Tiếp địa trung hạ áp tại TBA Thoại Hương 3, 4Nhánh rẽ Thoại Hương 3, 4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" ht="28.8" hidden="1">
+        <v>Tiếp địa tại Tiếp địa trụ trung thế 094
+ Tiếp địa hạ thế TBA Láng Me 3Nhánh rẽ Láng Me</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="30">
       <c r="A13">
         <f>ROW()</f>
         <v>13</v>
@@ -6090,72 +5985,68 @@
         <v>164</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="E13" t="s">
-        <v>196</v>
+        <v>163</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>193</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G13" s="47" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H13" s="24" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="J13" s="6"/>
       <c r="K13" s="26">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="L13" s="26" t="str">
-        <f t="array" ref="L13">_xlfn.TEXTJOIN(CHAR(10),TRUE,E13:F13)</f>
-        <v>Cắt FCO Nhánh rẽ Xuân Tây 19
-Tiếp địa trung hạ áp tại TBA Xuân Tây 19</v>
+      <c r="L13" s="26" t="e">
+        <f t="array" aca="1" ref="L13" ca="1">_xlfn.TEXTJOIN(CHAR(10),TRUE,E13:F13)</f>
+        <v>#NAME?</v>
       </c>
       <c r="M13" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>Nhánh rẽ Xuân Tây 19</v>
-      </c>
-      <c r="N13" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v>Cắt FCO Nhánh rẽ Xuân Tây 19
-Tiếp địa trung hạ áp tại TBA Xuân Tây 19Nhánh rẽ Xuân Tây 19</v>
+        <v>Nhánh rẽ Thoại Hương 3, 4</v>
+      </c>
+      <c r="N13" s="26" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
       </c>
       <c r="O13" s="35">
-        <v>44086</v>
+        <v>44088</v>
       </c>
       <c r="P13" t="s">
         <v>136</v>
       </c>
       <c r="Q13">
         <f t="shared" si="9"/>
-        <v>7</v>
-      </c>
-      <c r="R13" s="26" t="str">
-        <f t="shared" si="4"/>
-        <v>Cắt FCO Nhánh rẽ Xuân Tây 19
-Tiếp địa trung hạ áp tại TBA Xuân Tây 19Nhánh rẽ Xuân Tây 19</v>
-      </c>
-      <c r="S13" s="26" t="str">
-        <f t="shared" si="5"/>
-        <v>Đấu nối trung thế trụ 017 Nhánh rẽ Xuân Tây 19.Cấy TBA Xuân Tây 19A, tách lưới hạ thế TBA Xuân Tây 19 sang TBA Xuân Tây 19Acắt fco nhánh rẽ xuân tây 19
-tiếp địa trung hạ áp tại tba xuân tây 19Nhánh rẽ Xuân Tây 19</v>
+        <v>2</v>
+      </c>
+      <c r="R13" s="26" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="S13" s="26" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#NAME?</v>
       </c>
       <c r="T13" s="26" t="str">
         <f t="shared" si="6"/>
-        <v>Cắt FCO Nhánh rẽ Xuân Tây 19</v>
+        <v>Cắt FCO Nhánh rẽ Thoại Hương 3, 4</v>
       </c>
       <c r="U13" s="26" t="str">
         <f t="shared" si="7"/>
-        <v>Tiếp địa tại Tiếp địa trung hạ áp tại TBA Xuân Tây 19Nhánh rẽ Xuân Tây 19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" ht="57.6">
+        <v>Tiếp địa tại Tiếp địa trung hạ áp tại TBA Thoại Hương 3, 4Nhánh rẽ Thoại Hương 3, 4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="30">
       <c r="A14">
         <f>ROW()</f>
         <v>14</v>
@@ -6164,84 +6055,71 @@
         <v>44062</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="E14" s="45" t="s">
-        <v>199</v>
-      </c>
-      <c r="F14" s="24" t="s">
-        <v>200</v>
+        <v>166</v>
+      </c>
+      <c r="E14" t="s">
+        <v>194</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>196</v>
       </c>
       <c r="G14" s="47" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H14" s="24" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="J14" s="6"/>
       <c r="K14" s="26">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="L14" s="26" t="str">
-        <f t="array" ref="L14">_xlfn.TEXTJOIN(CHAR(10),TRUE,E14:F14)</f>
-        <v>Cắt 3xFCO Nhánh rẽ Láng Me 5
-Tiếp địa trụ trung thế 107
-Tiếp địa trụ trung thế 131
- Tiếp địa hạ thế TBA Láng Me 5, 5A, 5B</v>
+      <c r="L14" s="26" t="e">
+        <f t="array" aca="1" ref="L14" ca="1">_xlfn.TEXTJOIN(CHAR(10),TRUE,E14:F14)</f>
+        <v>#NAME?</v>
       </c>
       <c r="M14" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>Nhánh rẽ Láng Me 5</v>
-      </c>
-      <c r="N14" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v>Cắt 3xFCO Nhánh rẽ Láng Me 5
-Tiếp địa trụ trung thế 107
-Tiếp địa trụ trung thế 131
- Tiếp địa hạ thế TBA Láng Me 5, 5A, 5BNhánh rẽ Láng Me 5</v>
+        <v>Nhánh rẽ Xuân Tây 19</v>
+      </c>
+      <c r="N14" s="26" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
       </c>
       <c r="O14" s="35">
-        <v>44089</v>
+        <v>44086</v>
       </c>
       <c r="P14" t="s">
         <v>136</v>
       </c>
       <c r="Q14">
         <f t="shared" si="9"/>
-        <v>3</v>
-      </c>
-      <c r="R14" s="26" t="str">
-        <f t="shared" si="4"/>
-        <v>Cắt 3xFCO Nhánh rẽ Láng Me 5
-Tiếp địa trụ trung thế 107
-Tiếp địa trụ trung thế 131
- Tiếp địa hạ thế TBA Láng Me 5, 5A, 5BNhánh rẽ Láng Me 5</v>
-      </c>
-      <c r="S14" s="26" t="str">
-        <f t="shared" si="5"/>
-        <v>Nâng cấp đường dây trung thế và trạm biến áp Láng Me 5B từ 1 pha lên 3 pha, di dời TBA Láng Me 5, cấy trạm biến áp lá me 5A-1cắt 3xfco nhánh rẽ láng me 5
-tiếp địa trụ trung thế 107
-tiếp địa trụ trung thế 131
- tiếp địa hạ thế tba láng me 5, 5a, 5bNhánh rẽ Láng Me 5</v>
+        <v>7</v>
+      </c>
+      <c r="R14" s="26" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="S14" s="26" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#NAME?</v>
       </c>
       <c r="T14" s="26" t="str">
         <f t="shared" si="6"/>
-        <v>Cắt 3xFCO Nhánh rẽ Láng Me 5</v>
+        <v>Cắt FCO Nhánh rẽ Xuân Tây 19</v>
       </c>
       <c r="U14" s="26" t="str">
         <f t="shared" si="7"/>
-        <v>Tiếp địa tại Tiếp địa trụ trung thế 131
- Tiếp địa hạ thế TBA Láng Me 5, 5A, 5BNhánh rẽ Láng Me 5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" ht="28.8" hidden="1">
+        <v>Tiếp địa tại Tiếp địa trung hạ áp tại TBA Xuân Tây 19Nhánh rẽ Xuân Tây 19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="60">
       <c r="A15">
         <f>ROW()</f>
         <v>15</v>
@@ -6250,79 +6128,72 @@
         <v>44062</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E15" s="45" t="s">
-        <v>201</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>202</v>
+        <v>197</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>198</v>
       </c>
       <c r="G15" s="47" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H15" s="24" t="s">
-        <v>171</v>
+        <v>258</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>233</v>
+        <v>259</v>
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="26">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="L15" s="26" t="str">
-        <f t="array" ref="L15">_xlfn.TEXTJOIN(CHAR(10),TRUE,E15:F15)</f>
-        <v xml:space="preserve">Cắt Recloser + 3 LTD Nhánh rẽ Sông Nhạn
-Tiếp địa trụ trung thế 006
-Tiếp địa trụ trung thế 023A </v>
+      <c r="L15" s="26" t="e">
+        <f t="array" aca="1" ref="L15" ca="1">_xlfn.TEXTJOIN(CHAR(10),TRUE,E15:F15)</f>
+        <v>#NAME?</v>
       </c>
       <c r="M15" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>Nhánh rẽ Sông Nhạn</v>
-      </c>
-      <c r="N15" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v>Cắt Recloser + 3 LTD Nhánh rẽ Sông Nhạn
-Tiếp địa trụ trung thế 006
-Tiếp địa trụ trung thế 023A Nhánh rẽ Sông Nhạn</v>
+        <v>Nhánh rẽ Láng Me 5</v>
+      </c>
+      <c r="N15" s="26" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
       </c>
       <c r="O15" s="35">
-        <v>44095</v>
+        <v>44089</v>
       </c>
       <c r="P15" t="s">
         <v>136</v>
       </c>
       <c r="Q15">
         <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="R15" s="26" t="str">
-        <f t="shared" si="4"/>
-        <v>Cắt Recloser + 3 LTD Nhánh rẽ Sông Nhạn
-Tiếp địa trụ trung thế 006
-Tiếp địa trụ trung thế 023A Nhánh rẽ Sông Nhạn</v>
-      </c>
-      <c r="S15" s="26" t="str">
-        <f t="shared" si="5"/>
-        <v>Di dời TBA Suối Râm 7cắt recloser + 3 ltd nhánh rẽ sông nhạn
-tiếp địa trụ trung thế 006
-tiếp địa trụ trung thế 023a Nhánh rẽ Sông Nhạn</v>
+        <v>3</v>
+      </c>
+      <c r="R15" s="26" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="S15" s="26" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#NAME?</v>
       </c>
       <c r="T15" s="26" t="str">
         <f t="shared" si="6"/>
-        <v>Cắt Recloser + 3 LTD Nhánh rẽ Sông Nhạn</v>
+        <v>Cắt 3xFCO Nhánh rẽ Láng Me 5</v>
       </c>
       <c r="U15" s="26" t="str">
         <f t="shared" si="7"/>
-        <v>Tiếp địa tại Tiếp địa trụ trung thế 023A Nhánh rẽ Sông Nhạn</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" ht="43.2" hidden="1">
+        <v>Tiếp địa tại Tiếp địa trụ trung thế 131
+ Tiếp địa hạ thế TBA Láng Me 5, 5A, 5BNhánh rẽ Láng Me 5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="30">
       <c r="A16">
         <f>ROW()</f>
         <v>16</v>
@@ -6334,246 +6205,214 @@
         <v>156</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="E16" s="24" t="s">
-        <v>203</v>
+        <v>169</v>
+      </c>
+      <c r="E16" s="45" t="s">
+        <v>199</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G16" s="47" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="H16" s="24" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="J16" s="6"/>
       <c r="K16" s="26">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="L16" s="26" t="str">
-        <f t="array" ref="L16">_xlfn.TEXTJOIN(CHAR(10),TRUE,E16:F16)</f>
-        <v>Cắt Recloser + 3 LTD Nhánh rẽ Nam Hà
-Cắt 3 LTD Xuân Bảo - Nam Hà
-Tiếp địa trụ trung thế 326
-Tiếp địa trụ trung thế 351</v>
+      <c r="L16" s="26" t="e">
+        <f t="array" aca="1" ref="L16" ca="1">_xlfn.TEXTJOIN(CHAR(10),TRUE,E16:F16)</f>
+        <v>#NAME?</v>
       </c>
       <c r="M16" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>Nhánh rẽ Nam Hà</v>
-      </c>
-      <c r="N16" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v>Cắt Recloser + 3 LTD Nhánh rẽ Nam Hà
-Cắt 3 LTD Xuân Bảo - Nam Hà
-Tiếp địa trụ trung thế 326
-Tiếp địa trụ trung thế 351Nhánh rẽ Nam Hà</v>
+        <v>Nhánh rẽ Sông Nhạn</v>
+      </c>
+      <c r="N16" s="26" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
       </c>
       <c r="O16" s="35">
-        <v>44096</v>
+        <v>44095</v>
       </c>
       <c r="P16" t="s">
         <v>136</v>
       </c>
       <c r="Q16">
         <f t="shared" si="9"/>
-        <v>3</v>
-      </c>
-      <c r="R16" s="26" t="str">
-        <f t="shared" si="4"/>
-        <v>Cắt Recloser + 3 LTD Nhánh rẽ Nam Hà
-Cắt 3 LTD Xuân Bảo - Nam Hà
-Tiếp địa trụ trung thế 326
-Tiếp địa trụ trung thế 351Nhánh rẽ Nam Hà</v>
-      </c>
-      <c r="S16" s="26" t="str">
-        <f t="shared" si="5"/>
-        <v>Lắp đặt trạm biến áp Nam Hà 3B tách lưới hạ thế trạm Nam Hà 3 sang nhận điện trạm Nam Hà 3B đấu nối đường dây trung thế xây dựng mớicắt recloser + 3 ltd nhánh rẽ nam hà
-cắt 3 ltd xuân bảo - nam hà
-tiếp địa trụ trung thế 326
-tiếp địa trụ trung thế 351Nhánh rẽ Nam Hà</v>
+        <v>2</v>
+      </c>
+      <c r="R16" s="26" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="S16" s="26" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#NAME?</v>
       </c>
       <c r="T16" s="26" t="str">
         <f t="shared" si="6"/>
-        <v>Cắt Recloser + 3 LTD Nhánh rẽ Nam Hà</v>
+        <v>Cắt Recloser + 3 LTD Nhánh rẽ Sông Nhạn</v>
       </c>
       <c r="U16" s="26" t="str">
         <f t="shared" si="7"/>
-        <v>Tiếp địa tại Tiếp địa trụ trung thế 351Nhánh rẽ Nam Hà</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" ht="28.8" hidden="1">
+        <v>Tiếp địa tại Tiếp địa trụ trung thế 023A Nhánh rẽ Sông Nhạn</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="45">
       <c r="A17">
         <f>ROW()</f>
         <v>17</v>
       </c>
       <c r="B17" s="44">
-        <v>44061</v>
+        <v>44062</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>156</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="G17" s="47" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="H17" s="24" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="J17" s="6"/>
       <c r="K17" s="26">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="L17" s="26" t="str">
-        <f t="array" ref="L17">_xlfn.TEXTJOIN(CHAR(10),TRUE,E17:F17)</f>
-        <v>Cắt Recloser + 3 LTD Nhánh rẽ Tân Bảo
-Tiếp địa trụ trung thế 117
-Tiếp địa trụ trung thế 147</v>
+      <c r="L17" s="26" t="e">
+        <f t="array" aca="1" ref="L17" ca="1">_xlfn.TEXTJOIN(CHAR(10),TRUE,E17:F17)</f>
+        <v>#NAME?</v>
       </c>
       <c r="M17" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>Nhánh rẽ Tân Bảo</v>
-      </c>
-      <c r="N17" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v>Cắt Recloser + 3 LTD Nhánh rẽ Tân Bảo
-Tiếp địa trụ trung thế 117
-Tiếp địa trụ trung thế 147Nhánh rẽ Tân Bảo</v>
+        <v>Nhánh rẽ Nam Hà</v>
+      </c>
+      <c r="N17" s="26" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
       </c>
       <c r="O17" s="35">
-        <v>44097</v>
+        <v>44096</v>
       </c>
       <c r="P17" t="s">
         <v>136</v>
       </c>
       <c r="Q17">
         <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="R17" s="26" t="str">
-        <f t="shared" si="4"/>
-        <v>Cắt Recloser + 3 LTD Nhánh rẽ Tân Bảo
-Tiếp địa trụ trung thế 117
-Tiếp địa trụ trung thế 147Nhánh rẽ Tân Bảo</v>
-      </c>
-      <c r="S17" s="26" t="str">
-        <f t="shared" si="5"/>
-        <v>Lắp đặt trạm biến áp Tân Bảo 3A, tách lưới hạ thế trạm Tân Bảo 3 sang nhận điện trạm Tân Bảo 3Acắt recloser + 3 ltd nhánh rẽ tân bảo
-tiếp địa trụ trung thế 117
-tiếp địa trụ trung thế 147Nhánh rẽ Tân Bảo</v>
+        <v>3</v>
+      </c>
+      <c r="R17" s="26" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="S17" s="26" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#NAME?</v>
       </c>
       <c r="T17" s="26" t="str">
         <f t="shared" si="6"/>
-        <v>Cắt Recloser + 3 LTD Nhánh rẽ Tân Bảo</v>
+        <v>Cắt Recloser + 3 LTD Nhánh rẽ Nam Hà</v>
       </c>
       <c r="U17" s="26" t="str">
         <f t="shared" si="7"/>
-        <v>Tiếp địa tại Tiếp địa trụ trung thế 147Nhánh rẽ Tân Bảo</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" ht="43.2" hidden="1">
+        <v>Tiếp địa tại Tiếp địa trụ trung thế 351Nhánh rẽ Nam Hà</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="30">
       <c r="A18">
         <f>ROW()</f>
         <v>18</v>
       </c>
       <c r="B18" s="44">
-        <v>44062</v>
+        <v>44061</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>156</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="G18" s="47" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="H18" s="24" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="J18" s="6"/>
       <c r="K18" s="26">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="L18" s="26" t="str">
-        <f t="array" ref="L18">_xlfn.TEXTJOIN(CHAR(10),TRUE,E18:F18)</f>
-        <v>Cắt Recloser + 3 LTD Nhánh rẽ Nam Hà
-Cắt 3 LTD Xuân Bảo - Nam Hà
-Tiếp địa trụ trung thế 326
-Tiếp địa trụ trung thế 351</v>
+      <c r="L18" s="26" t="e">
+        <f t="array" aca="1" ref="L18" ca="1">_xlfn.TEXTJOIN(CHAR(10),TRUE,E18:F18)</f>
+        <v>#NAME?</v>
       </c>
       <c r="M18" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>Nhánh rẽ Nam Hà</v>
-      </c>
-      <c r="N18" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v>Cắt Recloser + 3 LTD Nhánh rẽ Nam Hà
-Cắt 3 LTD Xuân Bảo - Nam Hà
-Tiếp địa trụ trung thế 326
-Tiếp địa trụ trung thế 351Nhánh rẽ Nam Hà</v>
+        <v>Nhánh rẽ Tân Bảo</v>
+      </c>
+      <c r="N18" s="26" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
       </c>
       <c r="O18" s="35">
-        <v>44096</v>
+        <v>44097</v>
       </c>
       <c r="P18" t="s">
         <v>136</v>
       </c>
       <c r="Q18">
         <f t="shared" si="9"/>
-        <v>3</v>
-      </c>
-      <c r="R18" s="26" t="str">
-        <f t="shared" si="4"/>
-        <v>Cắt Recloser + 3 LTD Nhánh rẽ Nam Hà
-Cắt 3 LTD Xuân Bảo - Nam Hà
-Tiếp địa trụ trung thế 326
-Tiếp địa trụ trung thế 351Nhánh rẽ Nam Hà</v>
-      </c>
-      <c r="S18" s="26" t="str">
-        <f t="shared" si="5"/>
-        <v>Di dời TBA Nam Hà 1, trồng trụ đôn lướicắt recloser + 3 ltd nhánh rẽ nam hà
-cắt 3 ltd xuân bảo - nam hà
-tiếp địa trụ trung thế 326
-tiếp địa trụ trung thế 351Nhánh rẽ Nam Hà</v>
+        <v>4</v>
+      </c>
+      <c r="R18" s="26" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="S18" s="26" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#NAME?</v>
       </c>
       <c r="T18" s="26" t="str">
         <f t="shared" si="6"/>
-        <v>Cắt Recloser + 3 LTD Nhánh rẽ Nam Hà</v>
+        <v>Cắt Recloser + 3 LTD Nhánh rẽ Tân Bảo</v>
       </c>
       <c r="U18" s="26" t="str">
         <f t="shared" si="7"/>
-        <v>Tiếp địa tại Tiếp địa trụ trung thế 351Nhánh rẽ Nam Hà</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" ht="28.8" hidden="1">
+        <v>Tiếp địa tại Tiếp địa trụ trung thế 147Nhánh rẽ Tân Bảo</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="60">
       <c r="A19">
         <f>ROW()</f>
         <v>19</v>
@@ -6585,153 +6424,141 @@
         <v>156</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E19" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="G19" s="47" t="s">
         <v>210</v>
       </c>
-      <c r="F19" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="G19" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="H19" s="24" t="s">
-        <v>177</v>
+      <c r="H19" s="45" t="s">
+        <v>260</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="J19" s="6"/>
       <c r="K19" s="26">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="L19" s="26" t="str">
-        <f t="array" ref="L19">_xlfn.TEXTJOIN(CHAR(10),TRUE,E19:F19)</f>
-        <v>Cắt Recloser + 3 LTD Nhánh rẽ Tân Bảo
-Tiếp địa trụ trung thế 117
-Tiếp địa trụ trung thế 147</v>
+      <c r="L19" s="26" t="e">
+        <f t="array" aca="1" ref="L19" ca="1">_xlfn.TEXTJOIN(CHAR(10),TRUE,E19:F19)</f>
+        <v>#NAME?</v>
       </c>
       <c r="M19" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>Nhánh rẽ Tân Bảo</v>
-      </c>
-      <c r="N19" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v>Cắt Recloser + 3 LTD Nhánh rẽ Tân Bảo
-Tiếp địa trụ trung thế 117
-Tiếp địa trụ trung thế 147Nhánh rẽ Tân Bảo</v>
+        <v>Nhánh rẽ Nam Hà</v>
+      </c>
+      <c r="N19" s="26" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
       </c>
       <c r="O19" s="35">
-        <v>44097</v>
+        <v>44096</v>
       </c>
       <c r="P19" t="s">
         <v>136</v>
       </c>
       <c r="Q19">
         <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="R19" s="26" t="str">
-        <f t="shared" si="4"/>
-        <v>Cắt Recloser + 3 LTD Nhánh rẽ Tân Bảo
-Tiếp địa trụ trung thế 117
-Tiếp địa trụ trung thế 147Nhánh rẽ Tân Bảo</v>
-      </c>
-      <c r="S19" s="26" t="str">
-        <f t="shared" si="5"/>
-        <v>Di dời TBA Tân Bảo 3cắt recloser + 3 ltd nhánh rẽ tân bảo
-tiếp địa trụ trung thế 117
-tiếp địa trụ trung thế 147Nhánh rẽ Tân Bảo</v>
+        <v>3</v>
+      </c>
+      <c r="R19" s="26" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="S19" s="26" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#NAME?</v>
       </c>
       <c r="T19" s="26" t="str">
         <f t="shared" si="6"/>
-        <v>Cắt Recloser + 3 LTD Nhánh rẽ Tân Bảo</v>
+        <v>Cắt Recloser + 3 LTD Nhánh rẽ Nam Hà</v>
       </c>
       <c r="U19" s="26" t="str">
         <f t="shared" si="7"/>
-        <v>Tiếp địa tại Tiếp địa trụ trung thế 147Nhánh rẽ Tân Bảo</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" hidden="1">
+        <v>Tiếp địa tại Tiếp địa trụ trung thế 351Nhánh rẽ Nam Hà</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="30">
       <c r="A20">
         <f>ROW()</f>
         <v>20</v>
       </c>
       <c r="B20" s="44">
-        <v>44082</v>
+        <v>44062</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>236</v>
+        <v>173</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>238</v>
+        <v>208</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="G20" s="47" t="s">
-        <v>239</v>
+        <v>211</v>
       </c>
       <c r="H20" s="24" t="s">
-        <v>257</v>
+        <v>175</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="J20" s="6"/>
       <c r="K20" s="26">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="L20" s="26" t="str">
-        <f t="array" ref="L20">_xlfn.TEXTJOIN(CHAR(10),TRUE,E20:F20)</f>
-        <v>Cắt FCO + MCCB TBA Sông Ray 7
-Tiếp địa hạ thế tại MCCB TBA Sông Ray 7</v>
+      <c r="L20" s="26" t="e">
+        <f t="array" aca="1" ref="L20" ca="1">_xlfn.TEXTJOIN(CHAR(10),TRUE,E20:F20)</f>
+        <v>#NAME?</v>
       </c>
       <c r="M20" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>TBA Sông Ray 7</v>
-      </c>
-      <c r="N20" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v>Cắt FCO + MCCB TBA Sông Ray 7
-Tiếp địa hạ thế tại MCCB TBA Sông Ray 7TBA Sông Ray 7</v>
+        <v>Nhánh rẽ Tân Bảo</v>
+      </c>
+      <c r="N20" s="26" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
       </c>
       <c r="O20" s="35">
-        <v>44098</v>
+        <v>44097</v>
       </c>
       <c r="P20" t="s">
         <v>136</v>
       </c>
       <c r="Q20">
-        <f>WEEKDAY(O20)</f>
-        <v>5</v>
-      </c>
-      <c r="R20" s="26" t="str">
-        <f t="shared" si="4"/>
-        <v>Cắt FCO + MCCB TBA Sông Ray 7
-Tiếp địa hạ thế tại MCCB TBA Sông Ray 7TBA Sông Ray 7</v>
-      </c>
-      <c r="S20" s="26" t="str">
-        <f t="shared" si="5"/>
-        <v>Đấu nối hạ thế, Nâng cấp đường dây hạ thế sau TBA Sông Ray 7cắt fco + mccb tba sông ray 7
-tiếp địa hạ thế tại mccb tba sông ray 7TBA Sông Ray 7</v>
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="R20" s="26" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="S20" s="26" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#NAME?</v>
       </c>
       <c r="T20" s="26" t="str">
         <f t="shared" si="6"/>
-        <v>Cắt FCO TBA Sông Ray 7</v>
+        <v>Cắt Recloser + 3 LTD Nhánh rẽ Tân Bảo</v>
       </c>
       <c r="U20" s="26" t="str">
         <f t="shared" si="7"/>
-        <v>Tiếp địa tại Tiếp địa hạ thế tại MCCB TBA Sông Ray 7TBA Sông Ray 7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" ht="28.8" hidden="1">
+        <v>Tiếp địa tại Tiếp địa trụ trung thế 147Nhánh rẽ Tân Bảo</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
       <c r="A21">
         <f>ROW()</f>
         <v>21</v>
@@ -6743,39 +6570,39 @@
         <v>164</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="G21" s="47" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="H21" s="24" t="s">
-        <v>248</v>
-      </c>
-      <c r="I21" s="6"/>
+        <v>255</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>231</v>
+      </c>
       <c r="J21" s="6"/>
       <c r="K21" s="26">
-        <f t="shared" ref="K21" si="10">J21+14</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="L21" s="26" t="str">
-        <f t="array" ref="L21">_xlfn.TEXTJOIN(CHAR(10),TRUE,E21:F21)</f>
-        <v>Cắt 1xFCO nhánh rẽ Thừa Đức 11
-Tiếp địa trụ trạm Thừa Đức 11</v>
+      <c r="L21" s="26" t="e">
+        <f t="array" aca="1" ref="L21" ca="1">_xlfn.TEXTJOIN(CHAR(10),TRUE,E21:F21)</f>
+        <v>#NAME?</v>
       </c>
       <c r="M21" s="26" t="str">
-        <f t="shared" ref="M21" si="11">D21</f>
-        <v>Nhánh rẽ Thừa Đức 11</v>
-      </c>
-      <c r="N21" s="26" t="str">
-        <f t="shared" ref="N21" si="12">L21&amp;D21</f>
-        <v>Cắt 1xFCO nhánh rẽ Thừa Đức 11
-Tiếp địa trụ trạm Thừa Đức 11Nhánh rẽ Thừa Đức 11</v>
+        <f t="shared" si="1"/>
+        <v>TBA Sông Ray 7</v>
+      </c>
+      <c r="N21" s="26" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
       </c>
       <c r="O21" s="35">
         <v>44098</v>
@@ -6787,139 +6614,126 @@
         <f>WEEKDAY(O21)</f>
         <v>5</v>
       </c>
-      <c r="R21" s="26" t="str">
-        <f t="shared" ref="R21" si="13">L21&amp;D21</f>
-        <v>Cắt 1xFCO nhánh rẽ Thừa Đức 11
-Tiếp địa trụ trạm Thừa Đức 11Nhánh rẽ Thừa Đức 11</v>
-      </c>
-      <c r="S21" s="26" t="str">
-        <f t="shared" ref="S21" si="14">H21&amp;LOWER(L21)&amp;D21</f>
-        <v>Đấu nối lưới trung thế Thừa Đức 11, cấy TBA Thừa Đức 11, tách 1 phần lưới hạ thế TBA Thừa Đức 11 sang nhận điện từ TBA Thừa Đức 11Acắt 1xfco nhánh rẽ thừa đức 11
-tiếp địa trụ trạm thừa đức 11Nhánh rẽ Thừa Đức 11</v>
+      <c r="R21" s="26" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="S21" s="26" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#NAME?</v>
       </c>
       <c r="T21" s="26" t="str">
-        <f t="shared" ref="T21" si="15">"Cắt "&amp;C21&amp;M21</f>
-        <v>Cắt FCO Nhánh rẽ Thừa Đức 11</v>
+        <f t="shared" si="6"/>
+        <v>Cắt FCO TBA Sông Ray 7</v>
       </c>
       <c r="U21" s="26" t="str">
-        <f t="shared" ref="U21" si="16">"Tiếp địa tại "&amp;F21&amp;D21</f>
-        <v>Tiếp địa tại Tiếp địa trụ trạm Thừa Đức 11Nhánh rẽ Thừa Đức 11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" ht="28.8" hidden="1">
+        <f t="shared" si="7"/>
+        <v>Tiếp địa tại Tiếp địa hạ thế tại MCCB TBA Sông Ray 7TBA Sông Ray 7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="30">
       <c r="A22">
         <f>ROW()</f>
         <v>22</v>
       </c>
       <c r="B22" s="44">
-        <v>44062</v>
+        <v>44082</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>164</v>
       </c>
       <c r="D22" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="G22" s="47" t="s">
+        <v>245</v>
+      </c>
+      <c r="H22" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="26">
+        <f t="shared" ref="K22" si="10">J22+14</f>
+        <v>14</v>
+      </c>
+      <c r="L22" s="26" t="e">
+        <f t="array" aca="1" ref="L22" ca="1">_xlfn.TEXTJOIN(CHAR(10),TRUE,E22:F22)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M22" s="26" t="str">
+        <f t="shared" ref="M22" si="11">D22</f>
+        <v>Nhánh rẽ Thừa Đức 11</v>
+      </c>
+      <c r="N22" s="26" t="e">
+        <f t="shared" ref="N22" ca="1" si="12">L22&amp;D22</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="O22" s="35">
+        <v>44098</v>
+      </c>
+      <c r="P22" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q22">
+        <f>WEEKDAY(O22)</f>
+        <v>5</v>
+      </c>
+      <c r="R22" s="26" t="e">
+        <f t="shared" ref="R22" ca="1" si="13">L22&amp;D22</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="S22" s="26" t="e">
+        <f t="shared" ref="S22" ca="1" si="14">H22&amp;LOWER(L22)&amp;D22</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="T22" s="26" t="str">
+        <f t="shared" ref="T22" si="15">"Cắt "&amp;C22&amp;M22</f>
+        <v>Cắt FCO Nhánh rẽ Thừa Đức 11</v>
+      </c>
+      <c r="U22" s="26" t="str">
+        <f t="shared" ref="U22" si="16">"Tiếp địa tại "&amp;F22&amp;D22</f>
+        <v>Tiếp địa tại Tiếp địa trụ trạm Thừa Đức 11Nhánh rẽ Thừa Đức 11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="30">
+      <c r="A23">
+        <f>ROW()</f>
+        <v>23</v>
+      </c>
+      <c r="B23" s="44">
+        <v>44062</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="E23" t="s">
+        <v>247</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="G23" s="47" t="s">
+        <v>252</v>
+      </c>
+      <c r="H23" s="24" t="s">
         <v>250</v>
       </c>
-      <c r="E22" t="s">
-        <v>249</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="G22" s="47" t="s">
-        <v>254</v>
-      </c>
-      <c r="H22" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="L22" s="26" t="str">
-        <f t="array" ref="L22">_xlfn.TEXTJOIN(CHAR(10),TRUE,E22:F22)</f>
-        <v>Cắt 1xFCO nhánh rẽ Suối Râm 7A
-Tiếp địa trụ trung thế 002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" ht="31.5" hidden="1" customHeight="1">
-      <c r="A23">
-        <f>ROW()</f>
-        <v>23</v>
-      </c>
-      <c r="B23" s="44">
-        <v>44061</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="D23" t="s">
-        <v>135</v>
-      </c>
-      <c r="E23" s="24" t="s">
-        <v>182</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="G23" s="47" t="s">
-        <v>214</v>
-      </c>
-      <c r="H23" s="24" t="s">
-        <v>228</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="J23" s="6"/>
-      <c r="K23" s="26">
-        <f>J23+14</f>
-        <v>14</v>
-      </c>
-      <c r="L23" s="26" t="str">
-        <f t="array" ref="L23">_xlfn.TEXTJOIN(CHAR(10),TRUE,E23:F23)</f>
-        <v xml:space="preserve">Cắt FCO + MCCB TBA Nam Hà 1
-Tiếp địa hạ thế tại MCCB TBA Nam Hà 1
- </v>
-      </c>
-      <c r="M23" s="26" t="str">
-        <f>D23</f>
-        <v>TBA Nam Hà 1</v>
-      </c>
-      <c r="N23" s="26" t="str">
-        <f>L23&amp;D23</f>
-        <v>Cắt FCO + MCCB TBA Nam Hà 1
-Tiếp địa hạ thế tại MCCB TBA Nam Hà 1
- TBA Nam Hà 1</v>
-      </c>
-      <c r="O23" s="35">
-        <v>44079</v>
-      </c>
-      <c r="P23" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q23">
-        <f>WEEKDAY(O23)</f>
-        <v>7</v>
-      </c>
-      <c r="R23" s="26" t="str">
-        <f>L23&amp;D23</f>
-        <v>Cắt FCO + MCCB TBA Nam Hà 1
-Tiếp địa hạ thế tại MCCB TBA Nam Hà 1
- TBA Nam Hà 1</v>
-      </c>
-      <c r="S23" s="26" t="str">
-        <f>H23&amp;LOWER(L23)&amp;D23</f>
-        <v>Thay dây hạ thế  sau TBA Nam Hà 1cắt fco + mccb tba nam hà 1
-tiếp địa hạ thế tại mccb tba nam hà 1
- TBA Nam Hà 1</v>
-      </c>
-      <c r="T23" s="26" t="str">
-        <f>"Cắt "&amp;C23&amp;M23</f>
-        <v>Cắt FCO + MCCB TBA Nam Hà 1</v>
-      </c>
-      <c r="U23" s="26" t="str">
-        <f>"Tiếp địa tại "&amp;F23&amp;D23</f>
-        <v>Tiếp địa tại  TBA Nam Hà 1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" hidden="1">
+      <c r="L23" s="26" t="e">
+        <f t="array" aca="1" ref="L23" ca="1">_xlfn.TEXTJOIN(CHAR(10),TRUE,E23:F23)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
       <c r="A24">
         <f>ROW()</f>
         <v>24</v>
@@ -6928,23 +6742,23 @@
         <v>44091</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="47" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H24" s="24" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="J24" s="6"/>
       <c r="K24" s="26">
@@ -6991,483 +6805,483 @@
         <v>Tiếp địa tại TBA Sông Ray 7</v>
       </c>
     </row>
-    <row r="25" spans="1:21" hidden="1">
+    <row r="25" spans="1:21">
       <c r="A25">
         <f>ROW()</f>
         <v>25</v>
       </c>
       <c r="B25" s="44"/>
     </row>
-    <row r="26" spans="1:21" hidden="1">
+    <row r="26" spans="1:21">
       <c r="A26">
         <f>ROW()</f>
         <v>26</v>
       </c>
       <c r="B26" s="44"/>
     </row>
-    <row r="27" spans="1:21" hidden="1">
+    <row r="27" spans="1:21">
       <c r="A27">
         <f>ROW()</f>
         <v>27</v>
       </c>
       <c r="B27" s="44"/>
     </row>
-    <row r="28" spans="1:21" hidden="1">
+    <row r="28" spans="1:21">
       <c r="A28">
         <f>ROW()</f>
         <v>28</v>
       </c>
       <c r="B28" s="44"/>
     </row>
-    <row r="29" spans="1:21" hidden="1">
+    <row r="29" spans="1:21">
       <c r="A29">
         <f>ROW()</f>
         <v>29</v>
       </c>
       <c r="B29" s="44"/>
     </row>
-    <row r="30" spans="1:21" hidden="1">
+    <row r="30" spans="1:21">
       <c r="A30">
         <f>ROW()</f>
         <v>30</v>
       </c>
       <c r="B30" s="44"/>
     </row>
-    <row r="31" spans="1:21" hidden="1">
+    <row r="31" spans="1:21">
       <c r="A31">
         <f>ROW()</f>
         <v>31</v>
       </c>
       <c r="B31" s="44"/>
     </row>
-    <row r="32" spans="1:21" hidden="1">
+    <row r="32" spans="1:21">
       <c r="A32">
         <f>ROW()</f>
         <v>32</v>
       </c>
       <c r="B32" s="44"/>
     </row>
-    <row r="33" spans="1:2" hidden="1">
+    <row r="33" spans="1:2">
       <c r="A33">
         <f>ROW()</f>
         <v>33</v>
       </c>
       <c r="B33" s="44"/>
     </row>
-    <row r="34" spans="1:2" hidden="1">
+    <row r="34" spans="1:2">
       <c r="A34">
         <f>ROW()</f>
         <v>34</v>
       </c>
       <c r="B34" s="44"/>
     </row>
-    <row r="35" spans="1:2" hidden="1">
+    <row r="35" spans="1:2">
       <c r="A35">
         <f>ROW()</f>
         <v>35</v>
       </c>
       <c r="B35" s="44"/>
     </row>
-    <row r="36" spans="1:2" hidden="1">
+    <row r="36" spans="1:2">
       <c r="A36">
         <f>ROW()</f>
         <v>36</v>
       </c>
       <c r="B36" s="44"/>
     </row>
-    <row r="37" spans="1:2" hidden="1">
+    <row r="37" spans="1:2">
       <c r="A37">
         <f>ROW()</f>
         <v>37</v>
       </c>
       <c r="B37" s="44"/>
     </row>
-    <row r="38" spans="1:2" hidden="1">
+    <row r="38" spans="1:2">
       <c r="A38">
         <f>ROW()</f>
         <v>38</v>
       </c>
       <c r="B38" s="44"/>
     </row>
-    <row r="39" spans="1:2" hidden="1">
+    <row r="39" spans="1:2">
       <c r="A39">
         <f>ROW()</f>
         <v>39</v>
       </c>
       <c r="B39" s="44"/>
     </row>
-    <row r="40" spans="1:2" hidden="1">
+    <row r="40" spans="1:2">
       <c r="A40">
         <f>ROW()</f>
         <v>40</v>
       </c>
       <c r="B40" s="44"/>
     </row>
-    <row r="41" spans="1:2" hidden="1">
+    <row r="41" spans="1:2">
       <c r="A41">
         <f>ROW()</f>
         <v>41</v>
       </c>
       <c r="B41" s="44"/>
     </row>
-    <row r="42" spans="1:2" hidden="1">
+    <row r="42" spans="1:2">
       <c r="A42">
         <f>ROW()</f>
         <v>42</v>
       </c>
       <c r="B42" s="44"/>
     </row>
-    <row r="43" spans="1:2" hidden="1">
+    <row r="43" spans="1:2">
       <c r="A43">
         <f>ROW()</f>
         <v>43</v>
       </c>
       <c r="B43" s="44"/>
     </row>
-    <row r="44" spans="1:2" hidden="1">
+    <row r="44" spans="1:2">
       <c r="A44">
         <f>ROW()</f>
         <v>44</v>
       </c>
       <c r="B44" s="44"/>
     </row>
-    <row r="45" spans="1:2" hidden="1">
+    <row r="45" spans="1:2">
       <c r="A45">
         <f>ROW()</f>
         <v>45</v>
       </c>
       <c r="B45" s="44"/>
     </row>
-    <row r="46" spans="1:2" hidden="1">
+    <row r="46" spans="1:2">
       <c r="A46">
         <f>ROW()</f>
         <v>46</v>
       </c>
       <c r="B46" s="44"/>
     </row>
-    <row r="47" spans="1:2" hidden="1">
+    <row r="47" spans="1:2">
       <c r="A47">
         <f>ROW()</f>
         <v>47</v>
       </c>
       <c r="B47" s="44"/>
     </row>
-    <row r="48" spans="1:2" hidden="1">
+    <row r="48" spans="1:2">
       <c r="A48">
         <f>ROW()</f>
         <v>48</v>
       </c>
       <c r="B48" s="44"/>
     </row>
-    <row r="49" spans="1:2" hidden="1">
+    <row r="49" spans="1:2">
       <c r="A49">
         <f>ROW()</f>
         <v>49</v>
       </c>
       <c r="B49" s="44"/>
     </row>
-    <row r="50" spans="1:2" hidden="1">
+    <row r="50" spans="1:2">
       <c r="A50">
         <f>ROW()</f>
         <v>50</v>
       </c>
       <c r="B50" s="44"/>
     </row>
-    <row r="51" spans="1:2" hidden="1">
+    <row r="51" spans="1:2">
       <c r="A51">
         <f>ROW()</f>
         <v>51</v>
       </c>
       <c r="B51" s="44"/>
     </row>
-    <row r="52" spans="1:2" hidden="1">
+    <row r="52" spans="1:2">
       <c r="A52">
         <f>ROW()</f>
         <v>52</v>
       </c>
       <c r="B52" s="44"/>
     </row>
-    <row r="53" spans="1:2" hidden="1">
+    <row r="53" spans="1:2">
       <c r="A53">
         <f>ROW()</f>
         <v>53</v>
       </c>
       <c r="B53" s="44"/>
     </row>
-    <row r="54" spans="1:2" hidden="1">
+    <row r="54" spans="1:2">
       <c r="A54">
         <f>ROW()</f>
         <v>54</v>
       </c>
       <c r="B54" s="44"/>
     </row>
-    <row r="55" spans="1:2" hidden="1">
+    <row r="55" spans="1:2">
       <c r="A55">
         <f>ROW()</f>
         <v>55</v>
       </c>
       <c r="B55" s="44"/>
     </row>
-    <row r="56" spans="1:2" hidden="1">
+    <row r="56" spans="1:2">
       <c r="A56">
         <f>ROW()</f>
         <v>56</v>
       </c>
       <c r="B56" s="44"/>
     </row>
-    <row r="57" spans="1:2" hidden="1">
+    <row r="57" spans="1:2">
       <c r="A57">
         <f>ROW()</f>
         <v>57</v>
       </c>
       <c r="B57" s="44"/>
     </row>
-    <row r="58" spans="1:2" hidden="1">
+    <row r="58" spans="1:2">
       <c r="A58">
         <f>ROW()</f>
         <v>58</v>
       </c>
       <c r="B58" s="44"/>
     </row>
-    <row r="59" spans="1:2" hidden="1">
+    <row r="59" spans="1:2">
       <c r="A59">
         <f>ROW()</f>
         <v>59</v>
       </c>
       <c r="B59" s="44"/>
     </row>
-    <row r="60" spans="1:2" hidden="1">
+    <row r="60" spans="1:2">
       <c r="A60">
         <f>ROW()</f>
         <v>60</v>
       </c>
       <c r="B60" s="44"/>
     </row>
-    <row r="61" spans="1:2" hidden="1">
+    <row r="61" spans="1:2">
       <c r="A61">
         <f>ROW()</f>
         <v>61</v>
       </c>
       <c r="B61" s="44"/>
     </row>
-    <row r="62" spans="1:2" hidden="1">
+    <row r="62" spans="1:2">
       <c r="A62">
         <f>ROW()</f>
         <v>62</v>
       </c>
       <c r="B62" s="44"/>
     </row>
-    <row r="63" spans="1:2" hidden="1">
+    <row r="63" spans="1:2">
       <c r="A63">
         <f>ROW()</f>
         <v>63</v>
       </c>
       <c r="B63" s="44"/>
     </row>
-    <row r="64" spans="1:2" hidden="1">
+    <row r="64" spans="1:2">
       <c r="A64">
         <f>ROW()</f>
         <v>64</v>
       </c>
       <c r="B64" s="44"/>
     </row>
-    <row r="65" spans="1:2" hidden="1">
+    <row r="65" spans="1:2">
       <c r="A65">
         <f>ROW()</f>
         <v>65</v>
       </c>
       <c r="B65" s="44"/>
     </row>
-    <row r="66" spans="1:2" hidden="1">
+    <row r="66" spans="1:2">
       <c r="A66">
         <f>ROW()</f>
         <v>66</v>
       </c>
       <c r="B66" s="44"/>
     </row>
-    <row r="67" spans="1:2" hidden="1">
+    <row r="67" spans="1:2">
       <c r="A67">
         <f>ROW()</f>
         <v>67</v>
       </c>
       <c r="B67" s="44"/>
     </row>
-    <row r="68" spans="1:2" hidden="1">
+    <row r="68" spans="1:2">
       <c r="A68">
         <f>ROW()</f>
         <v>68</v>
       </c>
       <c r="B68" s="44"/>
     </row>
-    <row r="69" spans="1:2" hidden="1">
+    <row r="69" spans="1:2">
       <c r="A69">
         <f>ROW()</f>
         <v>69</v>
       </c>
       <c r="B69" s="44"/>
     </row>
-    <row r="70" spans="1:2" hidden="1">
+    <row r="70" spans="1:2">
       <c r="A70">
         <f>ROW()</f>
         <v>70</v>
       </c>
       <c r="B70" s="44"/>
     </row>
-    <row r="71" spans="1:2" hidden="1">
+    <row r="71" spans="1:2">
       <c r="A71">
         <f>ROW()</f>
         <v>71</v>
       </c>
       <c r="B71" s="44"/>
     </row>
-    <row r="72" spans="1:2" hidden="1">
+    <row r="72" spans="1:2">
       <c r="A72">
         <f>ROW()</f>
         <v>72</v>
       </c>
       <c r="B72" s="44"/>
     </row>
-    <row r="73" spans="1:2" hidden="1">
+    <row r="73" spans="1:2">
       <c r="A73">
         <f>ROW()</f>
         <v>73</v>
       </c>
       <c r="B73" s="44"/>
     </row>
-    <row r="74" spans="1:2" hidden="1">
+    <row r="74" spans="1:2">
       <c r="A74">
         <f>ROW()</f>
         <v>74</v>
       </c>
       <c r="B74" s="44"/>
     </row>
-    <row r="75" spans="1:2" hidden="1">
+    <row r="75" spans="1:2">
       <c r="A75">
         <f>ROW()</f>
         <v>75</v>
       </c>
       <c r="B75" s="44"/>
     </row>
-    <row r="76" spans="1:2" hidden="1">
+    <row r="76" spans="1:2">
       <c r="A76">
         <f>ROW()</f>
         <v>76</v>
       </c>
       <c r="B76" s="44"/>
     </row>
-    <row r="77" spans="1:2" hidden="1">
+    <row r="77" spans="1:2">
       <c r="A77">
         <f>ROW()</f>
         <v>77</v>
       </c>
       <c r="B77" s="44"/>
     </row>
-    <row r="78" spans="1:2" hidden="1">
+    <row r="78" spans="1:2">
       <c r="A78">
         <f>ROW()</f>
         <v>78</v>
       </c>
       <c r="B78" s="44"/>
     </row>
-    <row r="79" spans="1:2" hidden="1">
+    <row r="79" spans="1:2">
       <c r="A79">
         <f>ROW()</f>
         <v>79</v>
       </c>
       <c r="B79" s="44"/>
     </row>
-    <row r="80" spans="1:2" hidden="1">
+    <row r="80" spans="1:2">
       <c r="A80">
         <f>ROW()</f>
         <v>80</v>
       </c>
       <c r="B80" s="44"/>
     </row>
-    <row r="81" spans="1:2" hidden="1">
+    <row r="81" spans="1:2">
       <c r="A81">
         <f>ROW()</f>
         <v>81</v>
       </c>
       <c r="B81" s="44"/>
     </row>
-    <row r="82" spans="1:2" hidden="1">
+    <row r="82" spans="1:2">
       <c r="A82">
         <f>ROW()</f>
         <v>82</v>
       </c>
       <c r="B82" s="44"/>
     </row>
-    <row r="83" spans="1:2" hidden="1">
+    <row r="83" spans="1:2">
       <c r="A83">
         <f>ROW()</f>
         <v>83</v>
       </c>
       <c r="B83" s="44"/>
     </row>
-    <row r="84" spans="1:2" hidden="1">
+    <row r="84" spans="1:2">
       <c r="A84">
         <f>ROW()</f>
         <v>84</v>
       </c>
       <c r="B84" s="44"/>
     </row>
-    <row r="85" spans="1:2" hidden="1">
+    <row r="85" spans="1:2">
       <c r="A85">
         <f>ROW()</f>
         <v>85</v>
       </c>
       <c r="B85" s="44"/>
     </row>
-    <row r="86" spans="1:2" hidden="1">
+    <row r="86" spans="1:2">
       <c r="A86">
         <f>ROW()</f>
         <v>86</v>
       </c>
       <c r="B86" s="44"/>
     </row>
-    <row r="87" spans="1:2" hidden="1">
+    <row r="87" spans="1:2">
       <c r="A87">
         <f>ROW()</f>
         <v>87</v>
       </c>
       <c r="B87" s="44"/>
     </row>
-    <row r="88" spans="1:2" hidden="1">
+    <row r="88" spans="1:2">
       <c r="A88">
         <f>ROW()</f>
         <v>88</v>
       </c>
       <c r="B88" s="44"/>
     </row>
-    <row r="89" spans="1:2" hidden="1">
+    <row r="89" spans="1:2">
       <c r="A89">
         <f>ROW()</f>
         <v>89</v>
       </c>
       <c r="B89" s="44"/>
     </row>
-    <row r="90" spans="1:2" hidden="1">
+    <row r="90" spans="1:2">
       <c r="A90">
         <f>ROW()</f>
         <v>90</v>
       </c>
       <c r="B90" s="44"/>
     </row>
-    <row r="91" spans="1:2" hidden="1">
+    <row r="91" spans="1:2">
       <c r="A91">
         <f>ROW()</f>
         <v>91</v>
       </c>
       <c r="B91" s="44"/>
     </row>
-    <row r="92" spans="1:2" hidden="1">
+    <row r="92" spans="1:2">
       <c r="A92">
         <f>ROW()</f>
         <v>92</v>
       </c>
       <c r="B92" s="44"/>
     </row>
-    <row r="93" spans="1:2" hidden="1">
+    <row r="93" spans="1:2">
       <c r="A93">
         <f>ROW()</f>
         <v>93</v>
@@ -7475,62 +7289,55 @@
       <c r="B93" s="44"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V93" xr:uid="{1E2C9CD0-1162-478E-AEE8-300E9671FB2E}">
-    <filterColumn colId="7">
-      <filters>
-        <filter val="Đấu nối trung thế trụ 087 nhánh rẽ Láng Me. Cấy TBA Láng Me 3B, Tách lưới hạ thế sau TBA Láng Me 3 sang Láng Me 3B"/>
-        <filter val="Nâng cấp đường dây trung thế và trạm biến áp Láng Me 5B từ 1 pha lên 3 pha, di dời TBA Láng Me 5, cấy trạm biến áp lá me 5A-1"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <conditionalFormatting sqref="Q1:R1 Q7 Q9:Q16 Q20 Q3:Q5 Q23">
+  <autoFilter ref="A1:V93"/>
+  <conditionalFormatting sqref="Q1:R1 Q8 Q10:Q17 Q21 Q3:Q6">
     <cfRule type="cellIs" dxfId="13" priority="18" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q6">
+  <conditionalFormatting sqref="Q7">
     <cfRule type="cellIs" dxfId="12" priority="17" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q8">
+  <conditionalFormatting sqref="Q9">
     <cfRule type="cellIs" dxfId="11" priority="16" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O20 O1 O3:O16 O22:O23 O25:O1048576">
+  <conditionalFormatting sqref="O25:O1048576 O21 O1 O23 O3:O17">
     <cfRule type="duplicateValues" dxfId="10" priority="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q17">
+  <conditionalFormatting sqref="Q18">
     <cfRule type="cellIs" dxfId="9" priority="14" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O17">
+  <conditionalFormatting sqref="O18">
     <cfRule type="duplicateValues" dxfId="8" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q18">
+  <conditionalFormatting sqref="Q19">
     <cfRule type="cellIs" dxfId="7" priority="12" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O18">
+  <conditionalFormatting sqref="O19">
     <cfRule type="duplicateValues" dxfId="6" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q19">
+  <conditionalFormatting sqref="Q20">
     <cfRule type="cellIs" dxfId="5" priority="10" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O19">
+  <conditionalFormatting sqref="O20">
     <cfRule type="duplicateValues" dxfId="4" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q21">
+  <conditionalFormatting sqref="Q22">
     <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O21">
+  <conditionalFormatting sqref="O22">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q24">
@@ -7547,35 +7354,35 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38" customWidth="1"/>
-    <col min="4" max="4" width="75.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="79.7109375" customWidth="1"/>
+    <col min="4" max="4" width="75.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="36" customFormat="1" ht="43.2">
+    <row r="1" spans="1:5" s="36" customFormat="1" ht="45">
       <c r="B1" s="36" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C1" s="36" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="36" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E1" s="36" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="46" customFormat="1">
@@ -7613,10 +7420,9 @@
         <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!D$2,0)</f>
         <v>Lưới điện hạ thế thuộc trạm Nam Hà 1A</v>
       </c>
-      <c r="E3" t="str">
-        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
-        <v>Cắt FCO + MCCB TBA Nam Hà 1A
-Tiếp địa hạ thế tại MCCB TBA Nam Hà 1A</v>
+      <c r="E3" t="e">
+        <f ca="1">VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -7630,16 +7436,15 @@
       </c>
       <c r="C4" t="str">
         <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!C$2,0)</f>
-        <v>Thay dây hạ thế  sau TBA Nam Hà 3</v>
+        <v>Thay dây hạ thế  sau TBA Nam Hà 1</v>
       </c>
       <c r="D4" t="str">
         <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!D$2,0)</f>
-        <v>Lưới điện hạ thế thuộc trạm Nam Hà 3</v>
-      </c>
-      <c r="E4" t="str">
-        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
-        <v>Cắt FCO + MCCB TBA Nam Hà 3
-Tiếp địa hạ thế tại MCCB TBA Nam Hà 3</v>
+        <v> Lưới hạ thế thuộc trạm Nam Hà 1</v>
+      </c>
+      <c r="E4" t="e">
+        <f ca="1">VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7653,16 +7458,15 @@
       </c>
       <c r="C5" t="str">
         <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!C$2,0)</f>
-        <v>Thay dây hạ thế  sau TBA Xuân Tây 10A</v>
+        <v>Thay dây hạ thế  sau TBA Nam Hà 3</v>
       </c>
       <c r="D5" t="str">
         <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!D$2,0)</f>
-        <v>Đường dây hạ thế thuộc trạm biến áp Xuân Tây 10A</v>
-      </c>
-      <c r="E5" t="str">
-        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
-        <v>Cắt FCO + MCCB TBA Xuân Tây 10A
-Tiếp địa hạ thế tại MCCB TBA Xuân Tây 10A</v>
+        <v>Lưới điện hạ thế thuộc trạm Nam Hà 3</v>
+      </c>
+      <c r="E5" t="e">
+        <f ca="1">VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -7676,16 +7480,15 @@
       </c>
       <c r="C6" t="str">
         <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!C$2,0)</f>
-        <v>Thay dây hạ thế  sau TBA Sông Ray 8A</v>
+        <v>Thay dây hạ thế  sau TBA Xuân Tây 10A</v>
       </c>
       <c r="D6" t="str">
         <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!D$2,0)</f>
-        <v>Đường dây hạ thế thuộc Trạm Sông Ray 8A</v>
-      </c>
-      <c r="E6" t="str">
-        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
-        <v>Cắt FCO + MCCB TBA Sông Ray 8A
-Tiếp địa hạ thế tại MCCB TBA Sông Ray 8A</v>
+        <v>Đường dây hạ thế thuộc trạm biến áp Xuân Tây 10A</v>
+      </c>
+      <c r="E6" t="e">
+        <f ca="1">VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -7699,19 +7502,15 @@
       </c>
       <c r="C7" t="str">
         <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!C$2,0)</f>
-        <v>Nâng cấp đường dây hạ thế và TBA Sông Ray 7 từ 1 pha lên 3 pha, cấy TBA Sông Ray 7A</v>
+        <v>Thay dây hạ thế  sau TBA Sông Ray 8A</v>
       </c>
       <c r="D7" t="str">
         <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!D$2,0)</f>
-        <v>Tại trạm biến áp Sông Ray 7</v>
-      </c>
-      <c r="E7" t="str">
-        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
-        <v>Cắt LBS khí Đồng Tâm 1 + 3 LTD Đồng Tâm 1
-Cắt LBS khí Sông Ray + 3 LTD Sông Ray 1
-Tiếp địa trụ trung thế 357 
-Tiếp địa trụ trung thế 381 
-Tiếp địa hạ thế TBA Sông Ray 7</v>
+        <v>Đường dây hạ thế thuộc Trạm Sông Ray 8A</v>
+      </c>
+      <c r="E7" t="e">
+        <f ca="1">VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -7721,21 +7520,19 @@
       </c>
       <c r="B8" t="str">
         <f>" ngày "&amp;TEXT(VLOOKUP(ROW(),KSHT,'Merge-PATC'!B$2,0),"dd")&amp;" tháng "&amp;TEXT(VLOOKUP(ROW(),KSHT,'Merge-PATC'!B$2,0),"MM")&amp;" năm "&amp;TEXT(VLOOKUP(ROW(),KSHT,'Merge-PATC'!B$2,0),"yyyy")</f>
-        <v xml:space="preserve"> ngày 19 tháng 08 năm 2020</v>
+        <v xml:space="preserve"> ngày 18 tháng 08 năm 2020</v>
       </c>
       <c r="C8" t="str">
         <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!C$2,0)</f>
-        <v>Nâng cấp đường dây hạ thế và TBA Sông Ray 7 từ 1 pha lên 3 pha, cấy TBA Sông Ray 7A, đấu nối trung hạ thế</v>
+        <v>Nâng cấp đường dây hạ thế và TBA Sông Ray 7 từ 1 pha lên 3 pha, cấy TBA Sông Ray 7A</v>
       </c>
       <c r="D8" t="str">
         <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!D$2,0)</f>
-        <v>Nhánh rẽ Lâm San 10 11 12 tuyến 471 Xuân Mỹ</v>
-      </c>
-      <c r="E8" t="str">
-        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
-        <v>Cắt 3xFCO Nhánh rẽ Lâm San 10, 11, 12
-Tiếp địa trụ trung thế 357 Nhánh rẽ Lâm San 10, 11, 12
-Tiếp địa trung hạ áp tại TBA Lâm San 11A, 11D</v>
+        <v>Tại trạm biến áp Sông Ray 7</v>
+      </c>
+      <c r="E8" t="e">
+        <f ca="1">VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -7749,17 +7546,15 @@
       </c>
       <c r="C9" t="str">
         <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!C$2,0)</f>
-        <v>Trồng trụ trung thế 015A đấu nối trung thế, tách lưới, sang tải TBA Sông Ray 2, Sông Ray 2A. Đấu nối trung thế và di dời TBA Sông Ray 4A</v>
+        <v>Nâng cấp đường dây hạ thế và TBA Sông Ray 7 từ 1 pha lên 3 pha, cấy TBA Sông Ray 7A, đấu nối trung hạ thế</v>
       </c>
       <c r="D9" t="str">
         <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!D$2,0)</f>
-        <v>Từ khoản trụ 015, 016, 072 nhánh Lâm San tuyến 471 Xuân Mỹ</v>
-      </c>
-      <c r="E9" t="str">
-        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
-        <v xml:space="preserve">Cắt Recloser + 3 LTD Lâm San
-Tiếp địa trụ trung thế 011A
-Tiếp địa trụ trung thế 075 </v>
+        <v>Nhánh rẽ Lâm San 10 11 12 tuyến 471 Xuân Mỹ</v>
+      </c>
+      <c r="E9" t="e">
+        <f ca="1">VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -7773,16 +7568,15 @@
       </c>
       <c r="C10" t="str">
         <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!C$2,0)</f>
-        <v>Đấu nối trung thế trụ 009A, 013. Tách lưới hạ thế sau TBA Cánh đồng Xuân Tây 1A, Cánh đồng Xuân Tây 1B</v>
+        <v>Trồng trụ trung thế 015A đấu nối trung thế, tách lưới, sang tải TBA Sông Ray 2, Sông Ray 2A. Đấu nối trung thế và di dời TBA Sông Ray 4A</v>
       </c>
       <c r="D10" t="str">
         <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!D$2,0)</f>
-        <v>Từ sau 3xFCO nhánh Cánh Đồng Xuân Tây 1</v>
-      </c>
-      <c r="E10" t="str">
-        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
-        <v>Cắt 3xFCO Nhánh rẽ Cánh đồng Xuân Tây 1
-Tiếp địa trung hạ áp tại TBA Cánh đồng Xuân Tây 1</v>
+        <v>Từ khoản trụ 015, 016, 072 nhánh Lâm San tuyến 471 Xuân Mỹ</v>
+      </c>
+      <c r="E10" t="e">
+        <f ca="1">VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -7796,18 +7590,15 @@
       </c>
       <c r="C11" t="str">
         <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!C$2,0)</f>
-        <v>Đấu nối trung thế trụ 087 nhánh rẽ Láng Me. Cấy TBA Láng Me 3B, Tách lưới hạ thế sau TBA Láng Me 3 sang Láng Me 3B</v>
+        <v>Đấu nối trung thế trụ 009A, 013. Tách lưới hạ thế sau TBA Cánh đồng Xuân Tây 1A, Cánh đồng Xuân Tây 1B</v>
       </c>
       <c r="D11" t="str">
         <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!D$2,0)</f>
-        <v>Tại trụ 087 nhánh Láng Me tuyến 471 Xuân Mỹ</v>
-      </c>
-      <c r="E11" t="str">
-        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
-        <v>Cắt Recloser + 3 LTD Láng Me
-Tiếp địa trụ trung thế 079
-Tiếp địa trụ trung thế 094
- Tiếp địa hạ thế TBA Láng Me 3</v>
+        <v>Từ sau 3xFCO nhánh Cánh Đồng Xuân Tây 1</v>
+      </c>
+      <c r="E11" t="e">
+        <f ca="1">VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -7821,16 +7612,15 @@
       </c>
       <c r="C12" t="str">
         <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!C$2,0)</f>
-        <v>Đấu nối trung thế trụ 021 Nhánh rẽ Thoại Hương 3, 4. Di dời TBA Thoại Hương 4</v>
+        <v>Đấu nối trung thế trụ 087 nhánh rẽ Láng Me. Cấy TBA Láng Me 3B, Tách lưới hạ thế sau TBA Láng Me 3 sang Láng Me 3B</v>
       </c>
       <c r="D12" t="str">
         <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!D$2,0)</f>
-        <v>Tại trụ trạm biến áp Thoại Hương 4 tuyến 471 Xuân Mỹ</v>
-      </c>
-      <c r="E12" t="str">
-        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
-        <v>Cắt FCO Nhánh rẽ Thoại Hương 3, 4
-Tiếp địa trung hạ áp tại TBA Thoại Hương 3, 4</v>
+        <v>Tại trụ 087 nhánh Láng Me tuyến 471 Xuân Mỹ</v>
+      </c>
+      <c r="E12" t="e">
+        <f ca="1">VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -7844,16 +7634,15 @@
       </c>
       <c r="C13" t="str">
         <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!C$2,0)</f>
-        <v>Đấu nối trung thế trụ 017 Nhánh rẽ Xuân Tây 19.Cấy TBA Xuân Tây 19A, tách lưới hạ thế TBA Xuân Tây 19 sang TBA Xuân Tây 19A</v>
+        <v>Đấu nối trung thế trụ 021 Nhánh rẽ Thoại Hương 3, 4. Di dời TBA Thoại Hương 4</v>
       </c>
       <c r="D13" t="str">
         <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!D$2,0)</f>
-        <v>Nhấn vẽ Xuân Tây 19 tuyến 471 Xuân Mỹ</v>
-      </c>
-      <c r="E13" t="str">
-        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
-        <v>Cắt FCO Nhánh rẽ Xuân Tây 19
-Tiếp địa trung hạ áp tại TBA Xuân Tây 19</v>
+        <v>Tại trụ trạm biến áp Thoại Hương 4 tuyến 471 Xuân Mỹ</v>
+      </c>
+      <c r="E13" t="e">
+        <f ca="1">VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -7867,18 +7656,15 @@
       </c>
       <c r="C14" t="str">
         <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!C$2,0)</f>
-        <v>Nâng cấp đường dây trung thế và trạm biến áp Láng Me 5B từ 1 pha lên 3 pha, di dời TBA Láng Me 5, cấy trạm biến áp lá me 5A-1</v>
+        <v>Đấu nối trung thế trụ 017 Nhánh rẽ Xuân Tây 19.Cấy TBA Xuân Tây 19A, tách lưới hạ thế TBA Xuân Tây 19 sang TBA Xuân Tây 19A</v>
       </c>
       <c r="D14" t="str">
         <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!D$2,0)</f>
-        <v>Từ sau 3 FCO nhánh Láng Me 5 tuyến 471 Xuân Mỹ</v>
-      </c>
-      <c r="E14" t="str">
-        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
-        <v>Cắt 3xFCO Nhánh rẽ Láng Me 5
-Tiếp địa trụ trung thế 107
-Tiếp địa trụ trung thế 131
- Tiếp địa hạ thế TBA Láng Me 5, 5A, 5B</v>
+        <v>Nhấn vẽ Xuân Tây 19 tuyến 471 Xuân Mỹ</v>
+      </c>
+      <c r="E14" t="e">
+        <f ca="1">VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -7892,17 +7678,15 @@
       </c>
       <c r="C15" t="str">
         <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!C$2,0)</f>
-        <v>Di dời TBA Suối Râm 7</v>
+        <v xml:space="preserve">Nâng cấp đường dây trung thế và trạm biến áp Láng Me 5B từ 1 pha lên 3 pha, di dời TBA Láng Me 5, cấy trạm biến áp lá me 5A-1, Cấy mới TBA Láng Me 5C, tách một phần lưới hạ thế Láng Me 5B sang nhận điện TBA Láng Me 5C, Đấu nối nhánh rẽ nhánh rẽ Láng Me 5C tại trụ 135 </v>
       </c>
       <c r="D15" t="str">
         <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!D$2,0)</f>
-        <v>Tại trụ trạm suối râm 7 và trụ trung thế 023/007</v>
-      </c>
-      <c r="E15" t="str">
-        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
-        <v xml:space="preserve">Cắt Recloser + 3 LTD Nhánh rẽ Sông Nhạn
-Tiếp địa trụ trung thế 006
-Tiếp địa trụ trung thế 023A </v>
+        <v>Từ sau 3 FCO nhánh Láng Me 5 tuyến 471 Xuân Mỹ</v>
+      </c>
+      <c r="E15" t="e">
+        <f ca="1">VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -7916,18 +7700,15 @@
       </c>
       <c r="C16" t="str">
         <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!C$2,0)</f>
-        <v>Lắp đặt trạm biến áp Nam Hà 3B tách lưới hạ thế trạm Nam Hà 3 sang nhận điện trạm Nam Hà 3B đấu nối đường dây trung thế xây dựng mới</v>
+        <v>Di dời TBA Suối Râm 7</v>
       </c>
       <c r="D16" t="str">
         <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!D$2,0)</f>
-        <v>Tại trụ trung thế 334/003, 334/003/019 và lưới điện hạ thế thuộc TBA Nam Hà 3</v>
-      </c>
-      <c r="E16" t="str">
-        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
-        <v>Cắt Recloser + 3 LTD Nhánh rẽ Nam Hà
-Cắt 3 LTD Xuân Bảo - Nam Hà
-Tiếp địa trụ trung thế 326
-Tiếp địa trụ trung thế 351</v>
+        <v>Tại trụ trạm suối râm 7 và trụ trung thế 023/007</v>
+      </c>
+      <c r="E16" t="e">
+        <f ca="1">VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -7937,21 +7718,19 @@
       </c>
       <c r="B17" t="str">
         <f>" ngày "&amp;TEXT(VLOOKUP(ROW(),KSHT,'Merge-PATC'!B$2,0),"dd")&amp;" tháng "&amp;TEXT(VLOOKUP(ROW(),KSHT,'Merge-PATC'!B$2,0),"MM")&amp;" năm "&amp;TEXT(VLOOKUP(ROW(),KSHT,'Merge-PATC'!B$2,0),"yyyy")</f>
-        <v xml:space="preserve"> ngày 18 tháng 08 năm 2020</v>
+        <v xml:space="preserve"> ngày 19 tháng 08 năm 2020</v>
       </c>
       <c r="C17" t="str">
         <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!C$2,0)</f>
-        <v>Lắp đặt trạm biến áp Tân Bảo 3A, tách lưới hạ thế trạm Tân Bảo 3 sang nhận điện trạm Tân Bảo 3A</v>
+        <v>Lắp đặt trạm biến áp Nam Hà 3B tách lưới hạ thế trạm Nam Hà 3 sang nhận điện trạm Nam Hà 3B đấu nối đường dây trung thế xây dựng mới</v>
       </c>
       <c r="D17" t="str">
         <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!D$2,0)</f>
-        <v>Tại trụ trung thế 018 nhánh Xuân Bảo - Bảo Bình và lưới điện hạ thế thuộc trạm Tân Bảo 3</v>
-      </c>
-      <c r="E17" t="str">
-        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
-        <v>Cắt Recloser + 3 LTD Nhánh rẽ Tân Bảo
-Tiếp địa trụ trung thế 117
-Tiếp địa trụ trung thế 147</v>
+        <v>Tại trụ trung thế 334/003, 334/003/019 và lưới điện hạ thế thuộc TBA Nam Hà 3</v>
+      </c>
+      <c r="E17" t="e">
+        <f ca="1">VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -7961,22 +7740,19 @@
       </c>
       <c r="B18" t="str">
         <f>" ngày "&amp;TEXT(VLOOKUP(ROW(),KSHT,'Merge-PATC'!B$2,0),"dd")&amp;" tháng "&amp;TEXT(VLOOKUP(ROW(),KSHT,'Merge-PATC'!B$2,0),"MM")&amp;" năm "&amp;TEXT(VLOOKUP(ROW(),KSHT,'Merge-PATC'!B$2,0),"yyyy")</f>
-        <v xml:space="preserve"> ngày 19 tháng 08 năm 2020</v>
+        <v xml:space="preserve"> ngày 18 tháng 08 năm 2020</v>
       </c>
       <c r="C18" t="str">
         <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!C$2,0)</f>
-        <v>Di dời TBA Nam Hà 1, trồng trụ đôn lưới</v>
+        <v>Lắp đặt trạm biến áp Tân Bảo 3A, tách lưới hạ thế trạm Tân Bảo 3 sang nhận điện trạm Tân Bảo 3A</v>
       </c>
       <c r="D18" t="str">
         <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!D$2,0)</f>
-        <v>Tại trụ trung thế 334, 334/001, 335A, 348A, 339A nhánh rẽ Xuân Bảo - Nam Hà</v>
-      </c>
-      <c r="E18" t="str">
-        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
-        <v>Cắt Recloser + 3 LTD Nhánh rẽ Nam Hà
-Cắt 3 LTD Xuân Bảo - Nam Hà
-Tiếp địa trụ trung thế 326
-Tiếp địa trụ trung thế 351</v>
+        <v>Tại trụ trung thế 018 nhánh Xuân Bảo - Bảo Bình và lưới điện hạ thế thuộc trạm Tân Bảo 3</v>
+      </c>
+      <c r="E18" t="e">
+        <f ca="1">VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -7990,17 +7766,16 @@
       </c>
       <c r="C19" t="str">
         <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!C$2,0)</f>
-        <v>Di dời TBA Tân Bảo 3</v>
+        <v xml:space="preserve">Di dời TBA Nam Hà 1 từ trụ 344 trục chính tuyến 477 Xuân Bảo về trụ 344/01 XDM, Trồng đôn trụ trung thế 335A, 344, 348A; trồng đôn trụ hạ thế 339A trục chính tuyến 477 Xuân Bảo
+</v>
       </c>
       <c r="D19" t="str">
         <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!D$2,0)</f>
-        <v>Tại trụ trung thế TBA Tân Bảo 3 và trụ trung thế 131 nhánh rẽ Xuân Bảo - Bảo Bình</v>
-      </c>
-      <c r="E19" t="str">
-        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
-        <v>Cắt Recloser + 3 LTD Nhánh rẽ Tân Bảo
-Tiếp địa trụ trung thế 117
-Tiếp địa trụ trung thế 147</v>
+        <v>Tại trụ trung thế 334, 334/001, 335A, 348A, 339A nhánh rẽ Xuân Bảo - Nam Hà</v>
+      </c>
+      <c r="E19" t="e">
+        <f ca="1">VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -8010,20 +7785,19 @@
       </c>
       <c r="B20" t="str">
         <f>" ngày "&amp;TEXT(VLOOKUP(ROW(),KSHT,'Merge-PATC'!B$2,0),"dd")&amp;" tháng "&amp;TEXT(VLOOKUP(ROW(),KSHT,'Merge-PATC'!B$2,0),"MM")&amp;" năm "&amp;TEXT(VLOOKUP(ROW(),KSHT,'Merge-PATC'!B$2,0),"yyyy")</f>
-        <v xml:space="preserve"> ngày 08 tháng 09 năm 2020</v>
+        <v xml:space="preserve"> ngày 19 tháng 08 năm 2020</v>
       </c>
       <c r="C20" t="str">
         <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!C$2,0)</f>
-        <v>Đấu nối hạ thế, Nâng cấp đường dây hạ thế sau TBA Sông Ray 7</v>
+        <v>Di dời TBA Tân Bảo 3</v>
       </c>
       <c r="D20" t="str">
         <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!D$2,0)</f>
-        <v>Lưới điện hạ thế thuộc trạm Sông Ray 7</v>
-      </c>
-      <c r="E20" t="str">
-        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
-        <v>Cắt FCO + MCCB TBA Sông Ray 7
-Tiếp địa hạ thế tại MCCB TBA Sông Ray 7</v>
+        <v>Tại trụ trung thế TBA Tân Bảo 3 và trụ trung thế 131 nhánh rẽ Xuân Bảo - Bảo Bình</v>
+      </c>
+      <c r="E20" t="e">
+        <f ca="1">VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -8037,16 +7811,15 @@
       </c>
       <c r="C21" t="str">
         <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!C$2,0)</f>
-        <v>Đấu nối lưới trung thế Thừa Đức 11, cấy TBA Thừa Đức 11, tách 1 phần lưới hạ thế TBA Thừa Đức 11 sang nhận điện từ TBA Thừa Đức 11A</v>
+        <v>Đấu nối hạ thế, Nâng cấp đường dây hạ thế sau TBA Sông Ray 7</v>
       </c>
       <c r="D21" t="str">
         <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!D$2,0)</f>
-        <v>Tại trụ trung thế 010, 032 và lưới điện hạ thế thuộc TBA Thừa Đức 11</v>
-      </c>
-      <c r="E21" t="str">
-        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
-        <v>Cắt 1xFCO nhánh rẽ Thừa Đức 11
-Tiếp địa trụ trạm Thừa Đức 11</v>
+        <v>Lưới điện hạ thế thuộc trạm Sông Ray 7</v>
+      </c>
+      <c r="E21" t="e">
+        <f ca="1">VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -8056,20 +7829,19 @@
       </c>
       <c r="B22" t="str">
         <f>" ngày "&amp;TEXT(VLOOKUP(ROW(),KSHT,'Merge-PATC'!B$2,0),"dd")&amp;" tháng "&amp;TEXT(VLOOKUP(ROW(),KSHT,'Merge-PATC'!B$2,0),"MM")&amp;" năm "&amp;TEXT(VLOOKUP(ROW(),KSHT,'Merge-PATC'!B$2,0),"yyyy")</f>
-        <v xml:space="preserve"> ngày 19 tháng 08 năm 2020</v>
+        <v xml:space="preserve"> ngày 08 tháng 09 năm 2020</v>
       </c>
       <c r="C22" t="str">
         <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!C$2,0)</f>
-        <v>Cấy TBA Suối Râm 7A (1x75kVA) tại trụ trung thế 017 nhánh rẽ Suối Râm 7A, tách 1 phần lưới hạ thế từ TBA Suối Râm 7 sang nhận điện TBA Suối Râm 7A</v>
+        <v>Đấu nối lưới trung thế Thừa Đức 11, cấy TBA Thừa Đức 11, tách 1 phần lưới hạ thế TBA Thừa Đức 11 sang nhận điện từ TBA Thừa Đức 11A</v>
       </c>
       <c r="D22" t="str">
         <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!D$2,0)</f>
-        <v>Lưới điện trung hạ thế thuộc nhánh rẽ Suối Râm 7A</v>
-      </c>
-      <c r="E22" t="str">
-        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
-        <v>Cắt 1xFCO nhánh rẽ Suối Râm 7A
-Tiếp địa trụ trung thế 002</v>
+        <v>Tại trụ trung thế 010, 032 và lưới điện hạ thế thuộc TBA Thừa Đức 11</v>
+      </c>
+      <c r="E22" t="e">
+        <f ca="1">VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -8079,21 +7851,19 @@
       </c>
       <c r="B23" t="str">
         <f>" ngày "&amp;TEXT(VLOOKUP(ROW(),KSHT,'Merge-PATC'!B$2,0),"dd")&amp;" tháng "&amp;TEXT(VLOOKUP(ROW(),KSHT,'Merge-PATC'!B$2,0),"MM")&amp;" năm "&amp;TEXT(VLOOKUP(ROW(),KSHT,'Merge-PATC'!B$2,0),"yyyy")</f>
-        <v xml:space="preserve"> ngày 18 tháng 08 năm 2020</v>
+        <v xml:space="preserve"> ngày 19 tháng 08 năm 2020</v>
       </c>
       <c r="C23" t="str">
         <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!C$2,0)</f>
-        <v>Thay dây hạ thế  sau TBA Nam Hà 1</v>
+        <v>Cấy TBA Suối Râm 7A (1x75kVA) tại trụ trung thế 017 nhánh rẽ Suối Râm 7A, tách 1 phần lưới hạ thế từ TBA Suối Râm 7 sang nhận điện TBA Suối Râm 7A</v>
       </c>
       <c r="D23" t="str">
         <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!D$2,0)</f>
-        <v> Lưới hạ thế thuộc trạm Nam Hà 1</v>
-      </c>
-      <c r="E23" t="str">
-        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
-        <v xml:space="preserve">Cắt FCO + MCCB TBA Nam Hà 1
-Tiếp địa hạ thế tại MCCB TBA Nam Hà 1
- </v>
+        <v>Lưới điện trung hạ thế thuộc nhánh rẽ Suối Râm 7A</v>
+      </c>
+      <c r="E23" t="e">
+        <f ca="1">VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="24" spans="1:5">

--- a/TrungThau/20191261297-DLCM-CaiTaoLuoiDien--/PhuongAnThiCong-Ngay.xlsx
+++ b/TrungThau/20191261297-DLCM-CaiTaoLuoiDien--/PhuongAnThiCong-Ngay.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\ThucTran\HSTT\TrungThau\20191261297-DLCM-CaiTaoLuoiDien--\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB5217E-E13B-44DD-918D-8D287FF087BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" activeTab="5"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
@@ -16,7 +22,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">DS_CongNhan!$C$1:$L$26</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">KhaoSatHienTruong!$A$1:$V$93</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">KhaoSatHienTruong!$A$1:$V$94</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">NhanSu!$C$1:$Q$55</definedName>
     <definedName name="data">Data!$A:$Z</definedName>
     <definedName name="HoaDon">#REF!</definedName>
@@ -24,7 +30,7 @@
     <definedName name="NhanSu">NhanSu!$D:$I</definedName>
     <definedName name="tab">REPT(" ",10)</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -39,14 +45,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -61,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="268">
   <si>
     <t>STT</t>
   </si>
@@ -888,15 +894,37 @@
     <t xml:space="preserve">Di dời TBA Nam Hà 1 từ trụ 344 trục chính tuyến 477 Xuân Bảo về trụ 344/01 XDM, Trồng đôn trụ trung thế 335A, 344, 348A; trồng đôn trụ hạ thế 339A trục chính tuyến 477 Xuân Bảo
 </t>
   </si>
+  <si>
+    <t>Nhánh rẽ Sông Ray 7A</t>
+  </si>
+  <si>
+    <t>Tháo hotline</t>
+  </si>
+  <si>
+    <t>Cắt FCO + MCCB TBA Sông Ray 7A
+Tháo hotline nhánh rẽ Sông Ray 7A</t>
+  </si>
+  <si>
+    <t>Tại trạm biến áp Sông Ray 7A</t>
+  </si>
+  <si>
+    <t>Tiếp địa trung hạ thế  trạm biến áp Sông Ray 7A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     </t>
+  </si>
+  <si>
+    <t>Tách lưới, sang tải TBA  Sông Ray 7 sang TBA  Sông Ray 7A, đấu nối máy biến áp</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="00"/>
-    <numFmt numFmtId="165" formatCode="dd/mm"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="00"/>
+    <numFmt numFmtId="166" formatCode="dd/mm"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1115,9 +1143,9 @@
   </borders>
   <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyBorder="0"/>
-    <xf numFmtId="164" fontId="5" fillId="1" borderId="3" applyNumberFormat="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="165" fontId="5" fillId="1" borderId="3" applyNumberFormat="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
@@ -1143,9 +1171,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
@@ -1194,7 +1222,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1226,13 +1254,13 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1272,31 +1300,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="23">
-    <cellStyle name="Comma 2" xfId="1"/>
-    <cellStyle name="Comma 2 2" xfId="20"/>
-    <cellStyle name="Comma 3" xfId="19"/>
-    <cellStyle name="Comma 4" xfId="21"/>
-    <cellStyle name="DUNG" xfId="2"/>
-    <cellStyle name="LIEM" xfId="3"/>
+    <cellStyle name="Comma 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Comma 2 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Comma 3" xfId="19" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Comma 4" xfId="21" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="DUNG" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="LIEM" xfId="3" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="4"/>
-    <cellStyle name="Normal 2 2" xfId="5"/>
-    <cellStyle name="Normal 2 3" xfId="6"/>
-    <cellStyle name="Normal 3" xfId="7"/>
-    <cellStyle name="Normal 3 2" xfId="22"/>
-    <cellStyle name="Normal 4" xfId="8"/>
-    <cellStyle name="Normal 4 2" xfId="9"/>
-    <cellStyle name="Normal 4 3" xfId="10"/>
-    <cellStyle name="Normal 5" xfId="11"/>
-    <cellStyle name="Normal 6" xfId="12"/>
-    <cellStyle name="Normal 6 2" xfId="13"/>
-    <cellStyle name="Normal 7" xfId="14"/>
-    <cellStyle name="Normal 9" xfId="15"/>
-    <cellStyle name="Percent 2" xfId="16"/>
-    <cellStyle name="Style 1" xfId="17"/>
-    <cellStyle name="THUC" xfId="18"/>
+    <cellStyle name="Normal 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Normal 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Normal 2 3" xfId="6" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Normal 3" xfId="7" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Normal 3 2" xfId="22" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Normal 4" xfId="8" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Normal 4 2" xfId="9" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Normal 4 3" xfId="10" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Normal 5" xfId="11" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Normal 6" xfId="12" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Normal 6 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Normal 7" xfId="14" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Normal 9" xfId="15" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Percent 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Style 1" xfId="17" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="THUC" xfId="18" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="23">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1568,7 +1616,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1601,9 +1649,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1636,6 +1701,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1811,38 +1893,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y9"/>
   <sheetViews>
     <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="24.95" customHeight="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="4.88671875" defaultRowHeight="24.9" customHeight="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="7" customWidth="1"/>
-    <col min="2" max="2" width="98.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.5703125" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="26" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" customWidth="1"/>
-    <col min="7" max="7" width="25.5703125" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="98.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5546875" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" style="26" customWidth="1"/>
+    <col min="6" max="6" width="22.44140625" customWidth="1"/>
+    <col min="7" max="7" width="25.5546875" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" customWidth="1"/>
+    <col min="10" max="10" width="15.44140625" customWidth="1"/>
     <col min="11" max="11" width="20" customWidth="1"/>
     <col min="12" max="12" width="23" customWidth="1"/>
-    <col min="13" max="13" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" customWidth="1"/>
+    <col min="13" max="13" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" customWidth="1"/>
     <col min="15" max="15" width="22" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25.28515625" customWidth="1"/>
-    <col min="17" max="17" width="26.7109375" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="21" width="8.7109375" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="32" width="8.7109375" customWidth="1"/>
+    <col min="16" max="16" width="25.33203125" customWidth="1"/>
+    <col min="17" max="17" width="26.6640625" customWidth="1"/>
+    <col min="18" max="18" width="14.5546875" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="21" width="8.6640625" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="32" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="9" customFormat="1" ht="24.95" customHeight="1">
+    <row r="1" spans="1:25" s="9" customFormat="1" ht="24.9" customHeight="1">
       <c r="A1" s="8">
         <f>ROW()</f>
         <v>1</v>
@@ -1920,11 +2002,11 @@
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="9" customFormat="1" ht="24.95" customHeight="1">
+    <row r="2" spans="1:25" s="9" customFormat="1" ht="24.9" customHeight="1">
       <c r="A2" s="8"/>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:25" ht="24.95" customHeight="1">
+    <row r="3" spans="1:25" ht="24.9" customHeight="1">
       <c r="A3" s="7">
         <f>ROW()</f>
         <v>3</v>
@@ -1972,7 +2054,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="24.95" customHeight="1">
+    <row r="4" spans="1:25" ht="24.9" customHeight="1">
       <c r="A4" s="7">
         <f>ROW()</f>
         <v>4</v>
@@ -2114,7 +2196,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="24.95" customHeight="1">
+    <row r="6" spans="1:25" ht="24.9" customHeight="1">
       <c r="A6" s="7">
         <f>ROW()</f>
         <v>6</v>
@@ -2136,7 +2218,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="24.95" customHeight="1">
+    <row r="7" spans="1:25" ht="24.9" customHeight="1">
       <c r="A7" s="7">
         <f>ROW()</f>
         <v>7</v>
@@ -2155,7 +2237,7 @@
         <v>44080</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="24.95" customHeight="1">
+    <row r="8" spans="1:25" ht="24.9" customHeight="1">
       <c r="A8" s="7">
         <f>ROW()</f>
         <v>8</v>
@@ -2174,7 +2256,7 @@
         <v>44081</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="24.95" customHeight="1">
+    <row r="9" spans="1:25" ht="24.9" customHeight="1">
       <c r="A9" s="7">
         <f>ROW()</f>
         <v>9</v>
@@ -2201,34 +2283,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="3"/>
-    <col min="2" max="2" width="26.28515625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="3"/>
+    <col min="2" max="2" width="26.33203125" style="3" customWidth="1"/>
     <col min="3" max="3" width="11" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="34.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="36.140625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="29.140625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.28515625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="16.7109375" style="3" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" style="3" customWidth="1"/>
-    <col min="14" max="14" width="8.85546875" style="3"/>
-    <col min="15" max="15" width="13.7109375" style="3" customWidth="1"/>
-    <col min="16" max="16384" width="8.85546875" style="3"/>
+    <col min="4" max="4" width="19.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="34.44140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="36.109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="29.109375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.33203125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="16.6640625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="20.6640625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="8.88671875" style="3"/>
+    <col min="15" max="15" width="13.6640625" style="3" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" ht="34.15" customHeight="1">
+    <row r="1" spans="1:25" s="1" customFormat="1" ht="34.200000000000003" customHeight="1">
       <c r="A1" s="1">
         <f>ROW()</f>
         <v>1</v>
@@ -2326,7 +2408,7 @@
         <v>BanGiao3</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="1" customFormat="1" ht="34.15" customHeight="1">
+    <row r="2" spans="1:25" s="1" customFormat="1" ht="34.200000000000003" customHeight="1">
       <c r="B2" s="1" t="s">
         <v>111</v>
       </c>
@@ -2635,28 +2717,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:N27"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="14"/>
-    <col min="3" max="3" width="6.28515625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" style="33" customWidth="1"/>
+    <col min="1" max="2" width="9.109375" style="14"/>
+    <col min="3" max="3" width="6.33203125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="26.88671875" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" style="33" customWidth="1"/>
     <col min="6" max="7" width="18" style="22" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="11.140625" style="14" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="11.109375" style="14" customWidth="1" outlineLevel="1"/>
     <col min="9" max="9" width="19" style="14" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" style="14" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="14"/>
-    <col min="12" max="12" width="26.28515625" style="14" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" style="14" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="14"/>
+    <col min="10" max="10" width="11.109375" style="14" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="14"/>
+    <col min="12" max="12" width="26.33203125" style="14" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" style="14" customWidth="1"/>
+    <col min="14" max="14" width="10.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.109375" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" s="10" customFormat="1" ht="33" customHeight="1">
@@ -2976,7 +3058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:14" ht="16.5">
+    <row r="11" spans="2:14" ht="16.8">
       <c r="B11" s="13"/>
       <c r="C11" s="12">
         <f t="shared" si="2"/>
@@ -3533,26 +3615,26 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:L26"/>
+  <autoFilter ref="C1:L26" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="C1:Q55"/>
   <sheetViews>
     <sheetView showZeros="0" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="5" max="5" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" customWidth="1"/>
+    <col min="8" max="8" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.88671875" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3607,7 +3689,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="3:17" ht="16.5">
+    <row r="2" spans="3:17" ht="16.8">
       <c r="C2" t="s">
         <v>66</v>
       </c>
@@ -3632,7 +3714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="3:17" ht="16.5">
+    <row r="3" spans="3:17" ht="16.8">
       <c r="C3" t="s">
         <v>66</v>
       </c>
@@ -3657,7 +3739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="3:17" ht="16.5">
+    <row r="4" spans="3:17" ht="16.8">
       <c r="C4" t="s">
         <v>66</v>
       </c>
@@ -3692,7 +3774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="3:17" ht="16.5">
+    <row r="5" spans="3:17" ht="16.8">
       <c r="C5" t="s">
         <v>66</v>
       </c>
@@ -3724,7 +3806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="3:17" ht="16.5">
+    <row r="6" spans="3:17" ht="16.8">
       <c r="C6" t="s">
         <v>66</v>
       </c>
@@ -3756,7 +3838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="3:17" ht="16.5">
+    <row r="7" spans="3:17" ht="16.8">
       <c r="C7" t="s">
         <v>66</v>
       </c>
@@ -3791,7 +3873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="3:17" ht="16.5">
+    <row r="8" spans="3:17" ht="16.8">
       <c r="C8" t="s">
         <v>66</v>
       </c>
@@ -3826,7 +3908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="3:17" ht="16.5">
+    <row r="9" spans="3:17" ht="16.8">
       <c r="C9" t="s">
         <v>66</v>
       </c>
@@ -3861,7 +3943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="3:17" ht="16.5">
+    <row r="10" spans="3:17" ht="16.8">
       <c r="C10" t="s">
         <v>66</v>
       </c>
@@ -3896,7 +3978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="3:17" ht="16.5">
+    <row r="11" spans="3:17" ht="16.8">
       <c r="C11" t="s">
         <v>66</v>
       </c>
@@ -3931,7 +4013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="3:17" ht="16.5">
+    <row r="12" spans="3:17" ht="16.8">
       <c r="C12" t="s">
         <v>66</v>
       </c>
@@ -3963,7 +4045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="3:17" ht="16.5">
+    <row r="13" spans="3:17" ht="16.8">
       <c r="C13" t="s">
         <v>66</v>
       </c>
@@ -3998,7 +4080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="3:17" ht="16.5">
+    <row r="14" spans="3:17" ht="16.8">
       <c r="C14" t="s">
         <v>66</v>
       </c>
@@ -4033,7 +4115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="3:17" ht="16.5">
+    <row r="15" spans="3:17" ht="16.8">
       <c r="C15" t="s">
         <v>66</v>
       </c>
@@ -4068,7 +4150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="3:17" ht="16.5">
+    <row r="16" spans="3:17" ht="16.8">
       <c r="C16" t="s">
         <v>66</v>
       </c>
@@ -4100,7 +4182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="3:13" ht="16.5">
+    <row r="17" spans="3:13" ht="16.8">
       <c r="C17" t="s">
         <v>66</v>
       </c>
@@ -4132,7 +4214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="3:13" ht="16.5">
+    <row r="18" spans="3:13" ht="16.8">
       <c r="C18" t="s">
         <v>66</v>
       </c>
@@ -4164,7 +4246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="3:13" ht="16.5">
+    <row r="19" spans="3:13" ht="16.8">
       <c r="C19" t="s">
         <v>66</v>
       </c>
@@ -4199,7 +4281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="3:13" ht="16.5">
+    <row r="20" spans="3:13" ht="16.8">
       <c r="C20" t="s">
         <v>66</v>
       </c>
@@ -4234,7 +4316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="3:13" ht="16.5">
+    <row r="21" spans="3:13" ht="16.8">
       <c r="C21" t="s">
         <v>66</v>
       </c>
@@ -4269,7 +4351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="3:13" ht="16.5">
+    <row r="22" spans="3:13" ht="16.8">
       <c r="C22" t="s">
         <v>66</v>
       </c>
@@ -4304,7 +4386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="3:13" ht="16.5">
+    <row r="23" spans="3:13" ht="16.8">
       <c r="C23" t="s">
         <v>66</v>
       </c>
@@ -4339,7 +4421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="3:13" ht="16.5">
+    <row r="24" spans="3:13" ht="16.8">
       <c r="D24" s="15">
         <f>SUM($J$2:J24)</f>
         <v>16</v>
@@ -4362,7 +4444,7 @@
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
     </row>
-    <row r="25" spans="3:13" ht="16.5">
+    <row r="25" spans="3:13" ht="16.8">
       <c r="D25" s="15">
         <f>SUM($J$2:J25)</f>
         <v>16</v>
@@ -4383,7 +4465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="3:13" ht="16.5">
+    <row r="26" spans="3:13" ht="16.8">
       <c r="D26" s="15">
         <f>SUM($J$2:J26)</f>
         <v>16</v>
@@ -4409,7 +4491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="3:13" ht="16.5">
+    <row r="27" spans="3:13" ht="16.8">
       <c r="D27" s="15">
         <f>SUM($J$2:J27)</f>
         <v>16</v>
@@ -4435,7 +4517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="3:13" ht="16.5">
+    <row r="28" spans="3:13" ht="16.8">
       <c r="D28" s="15">
         <f>SUM($J$2:J28)</f>
         <v>16</v>
@@ -4456,7 +4538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="3:13" ht="16.5">
+    <row r="29" spans="3:13" ht="16.8">
       <c r="D29" s="15">
         <f>SUM($J$2:J29)</f>
         <v>16</v>
@@ -4475,7 +4557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="3:13" ht="16.5">
+    <row r="30" spans="3:13" ht="16.8">
       <c r="D30" s="15">
         <f>SUM($J$2:J30)</f>
         <v>16</v>
@@ -4496,7 +4578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="3:13" ht="16.5">
+    <row r="31" spans="3:13" ht="16.8">
       <c r="D31" s="15">
         <f>SUM($J$2:J31)</f>
         <v>16</v>
@@ -4517,7 +4599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="3:13" ht="16.5">
+    <row r="32" spans="3:13" ht="16.8">
       <c r="D32" s="15">
         <f>SUM($J$2:J32)</f>
         <v>16</v>
@@ -4538,7 +4620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="4:12" ht="16.5">
+    <row r="33" spans="4:12" ht="16.8">
       <c r="D33" s="15">
         <f>SUM($J$2:J33)</f>
         <v>16</v>
@@ -4559,7 +4641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="4:12" ht="16.5">
+    <row r="34" spans="4:12" ht="16.8">
       <c r="D34" s="15">
         <f>SUM($J$2:J34)</f>
         <v>16</v>
@@ -4580,7 +4662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="4:12" ht="16.5">
+    <row r="35" spans="4:12" ht="16.8">
       <c r="D35" s="15">
         <f>SUM($J$2:J35)</f>
         <v>16</v>
@@ -4607,7 +4689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="4:12" ht="16.5">
+    <row r="36" spans="4:12" ht="16.8">
       <c r="D36" s="15">
         <f>SUM($J$2:J36)</f>
         <v>16</v>
@@ -4628,7 +4710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="4:12" ht="16.5">
+    <row r="37" spans="4:12" ht="16.8">
       <c r="D37" s="15">
         <f>SUM($J$2:J37)</f>
         <v>16</v>
@@ -4645,7 +4727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="4:12" ht="16.5">
+    <row r="38" spans="4:12" ht="16.8">
       <c r="D38" s="15">
         <f>SUM($J$2:J38)</f>
         <v>16</v>
@@ -4666,7 +4748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="4:12" ht="16.5">
+    <row r="39" spans="4:12" ht="16.8">
       <c r="D39" s="15">
         <f>SUM($J$2:J39)</f>
         <v>16</v>
@@ -4683,7 +4765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="4:12" ht="16.5">
+    <row r="40" spans="4:12" ht="16.8">
       <c r="D40" s="15">
         <f>SUM($J$2:J40)</f>
         <v>16</v>
@@ -4709,7 +4791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="4:12" ht="16.5">
+    <row r="41" spans="4:12" ht="16.8">
       <c r="D41" s="15">
         <f>SUM($J$2:J41)</f>
         <v>16</v>
@@ -4730,7 +4812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="4:12" ht="16.5">
+    <row r="42" spans="4:12" ht="16.8">
       <c r="D42" s="15">
         <f>SUM($J$2:J42)</f>
         <v>16</v>
@@ -4751,7 +4833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="4:12" ht="16.5">
+    <row r="43" spans="4:12" ht="16.8">
       <c r="D43" s="15">
         <f>SUM($J$2:J43)</f>
         <v>16</v>
@@ -4772,7 +4854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="4:12" ht="16.5">
+    <row r="44" spans="4:12" ht="16.8">
       <c r="D44" s="15">
         <f>SUM($J$2:J44)</f>
         <v>16</v>
@@ -4793,7 +4875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="4:12" ht="16.5">
+    <row r="45" spans="4:12" ht="16.8">
       <c r="D45" s="15">
         <f>SUM($J$2:J45)</f>
         <v>16</v>
@@ -4814,7 +4896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="4:12" ht="16.5">
+    <row r="46" spans="4:12" ht="16.8">
       <c r="D46" s="15">
         <f>SUM($J$2:J46)</f>
         <v>16</v>
@@ -4837,7 +4919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="4:12" ht="16.5">
+    <row r="47" spans="4:12" ht="16.8">
       <c r="D47" s="15">
         <f>SUM($J$2:J47)</f>
         <v>16</v>
@@ -4858,7 +4940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="4:12" ht="16.5">
+    <row r="48" spans="4:12" ht="16.8">
       <c r="D48" s="15">
         <f>SUM($J$2:J48)</f>
         <v>16</v>
@@ -4881,7 +4963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="4:12" ht="16.5">
+    <row r="49" spans="4:12" ht="16.8">
       <c r="D49" s="15">
         <f>SUM($J$2:J49)</f>
         <v>16</v>
@@ -4902,7 +4984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="4:12" ht="16.5">
+    <row r="50" spans="4:12" ht="16.8">
       <c r="D50" s="15">
         <f>SUM($J$2:J50)</f>
         <v>16</v>
@@ -4923,7 +5005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="4:12" ht="16.5">
+    <row r="51" spans="4:12" ht="16.8">
       <c r="D51" s="15">
         <f>SUM($J$2:J51)</f>
         <v>16</v>
@@ -4944,7 +5026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="4:12" ht="16.5">
+    <row r="52" spans="4:12" ht="16.8">
       <c r="D52" s="15">
         <f>SUM($J$2:J52)</f>
         <v>16</v>
@@ -4970,7 +5052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="4:12" ht="16.5">
+    <row r="53" spans="4:12" ht="16.8">
       <c r="D53" s="15">
         <f>SUM($J$2:J53)</f>
         <v>16</v>
@@ -4989,7 +5071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="4:12" ht="16.5">
+    <row r="54" spans="4:12" ht="16.8">
       <c r="D54" s="15">
         <f>SUM($J$2:J54)</f>
         <v>16</v>
@@ -5008,7 +5090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="4:12" ht="16.5">
+    <row r="55" spans="4:12" ht="16.8">
       <c r="D55" s="15">
         <f>SUM($J$2:J55)</f>
         <v>16</v>
@@ -5035,68 +5117,68 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:Q55"/>
+  <autoFilter ref="C1:Q55" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <conditionalFormatting sqref="E10">
-    <cfRule type="duplicateValues" dxfId="20" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53:E54">
-    <cfRule type="duplicateValues" dxfId="19" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="duplicateValues" dxfId="18" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E52 E1:E2 E4:E9">
-    <cfRule type="duplicateValues" dxfId="17" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E2 E4:E1048576">
-    <cfRule type="duplicateValues" dxfId="16" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="duplicateValues" dxfId="15" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V93"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:V94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
+      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31" customWidth="1"/>
-    <col min="5" max="5" width="39.7109375" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" customWidth="1"/>
-    <col min="7" max="7" width="28.85546875" style="48" customWidth="1"/>
-    <col min="8" max="8" width="70.7109375" style="45" customWidth="1"/>
-    <col min="9" max="10" width="19.140625" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" style="26" customWidth="1"/>
-    <col min="12" max="12" width="25.7109375" style="26" customWidth="1"/>
-    <col min="13" max="13" width="21.85546875" style="26" customWidth="1"/>
-    <col min="14" max="14" width="43.85546875" style="26" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.28515625" style="35" customWidth="1"/>
-    <col min="16" max="16" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.28515625" style="26" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="19" width="41.7109375" style="26" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="39.6640625" customWidth="1"/>
+    <col min="6" max="6" width="21.44140625" customWidth="1"/>
+    <col min="7" max="7" width="28.88671875" style="48" customWidth="1"/>
+    <col min="8" max="8" width="70.6640625" style="45" customWidth="1"/>
+    <col min="9" max="10" width="19.109375" customWidth="1"/>
+    <col min="11" max="11" width="12.5546875" style="26" customWidth="1"/>
+    <col min="12" max="12" width="25.6640625" style="26" customWidth="1"/>
+    <col min="13" max="13" width="21.88671875" style="26" customWidth="1"/>
+    <col min="14" max="14" width="43.88671875" style="26" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.33203125" style="35" customWidth="1"/>
+    <col min="16" max="16" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.33203125" style="26" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="41.6640625" style="26" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="20" max="20" width="25" style="26" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="21" width="12.5703125" style="26" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="9.140625" collapsed="1"/>
+    <col min="21" max="21" width="12.5546875" style="26" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="9.109375" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="36" customFormat="1" ht="30">
+    <row r="1" spans="1:21" s="36" customFormat="1" ht="28.8">
       <c r="A1" s="36" t="s">
         <v>66</v>
       </c>
@@ -5247,7 +5329,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="30">
+    <row r="3" spans="1:21" ht="28.8">
       <c r="A3">
         <f>ROW()</f>
         <v>3</v>
@@ -5276,20 +5358,22 @@
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="26">
-        <f t="shared" ref="K3:K21" si="0">J3+14</f>
+        <f t="shared" ref="K3:K22" si="0">J3+14</f>
         <v>14</v>
       </c>
-      <c r="L3" s="26" t="e">
-        <f t="array" aca="1" ref="L3" ca="1">_xlfn.TEXTJOIN(CHAR(10),TRUE,E3:F3)</f>
-        <v>#NAME?</v>
+      <c r="L3" s="26" t="str">
+        <f t="array" ref="L3">_xlfn.TEXTJOIN(CHAR(10),TRUE,E3:F3)</f>
+        <v>Cắt FCO + MCCB TBA Nam Hà 1A
+Tiếp địa hạ thế tại MCCB TBA Nam Hà 1A</v>
       </c>
       <c r="M3" s="26" t="str">
-        <f t="shared" ref="M3:M21" si="1">D3</f>
+        <f t="shared" ref="M3:M22" si="1">D3</f>
         <v>TBA Nam Hà 1A</v>
       </c>
-      <c r="N3" s="26" t="e">
-        <f t="shared" ref="N3:N21" ca="1" si="2">L3&amp;D3</f>
-        <v>#NAME?</v>
+      <c r="N3" s="26" t="str">
+        <f t="shared" ref="N3:N22" si="2">L3&amp;D3</f>
+        <v>Cắt FCO + MCCB TBA Nam Hà 1A
+Tiếp địa hạ thế tại MCCB TBA Nam Hà 1ATBA Nam Hà 1A</v>
       </c>
       <c r="O3" s="35">
         <v>44079</v>
@@ -5298,23 +5382,25 @@
         <v>136</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q8" si="3">WEEKDAY(O3)</f>
+        <f t="shared" ref="Q3:Q9" si="3">WEEKDAY(O3)</f>
         <v>7</v>
       </c>
-      <c r="R3" s="26" t="e">
-        <f t="shared" ref="R3:R21" ca="1" si="4">L3&amp;D3</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="S3" s="26" t="e">
-        <f t="shared" ref="S3:S21" ca="1" si="5">H3&amp;LOWER(L3)&amp;D3</f>
-        <v>#NAME?</v>
+      <c r="R3" s="26" t="str">
+        <f t="shared" ref="R3:R22" si="4">L3&amp;D3</f>
+        <v>Cắt FCO + MCCB TBA Nam Hà 1A
+Tiếp địa hạ thế tại MCCB TBA Nam Hà 1ATBA Nam Hà 1A</v>
+      </c>
+      <c r="S3" s="26" t="str">
+        <f t="shared" ref="S3:S22" si="5">H3&amp;LOWER(L3)&amp;D3</f>
+        <v>Thay dây hạ thế  sau TBA Nam Hà 1Acắt fco + mccb tba nam hà 1a
+tiếp địa hạ thế tại mccb tba nam hà 1aTBA Nam Hà 1A</v>
       </c>
       <c r="T3" s="26" t="str">
-        <f t="shared" ref="T3:T21" si="6">"Cắt "&amp;C3&amp;M3</f>
+        <f t="shared" ref="T3:T22" si="6">"Cắt "&amp;C3&amp;M3</f>
         <v>Cắt FCO + MCCB TBA Nam Hà 1A</v>
       </c>
       <c r="U3" s="26" t="str">
-        <f t="shared" ref="U3:U21" si="7">"Tiếp địa tại "&amp;F3&amp;D3</f>
+        <f t="shared" ref="U3:U22" si="7">"Tiếp địa tại "&amp;F3&amp;D3</f>
         <v>Tiếp địa tại TBA Nam Hà 1A</v>
       </c>
     </row>
@@ -5352,17 +5438,21 @@
         <f>J4+14</f>
         <v>14</v>
       </c>
-      <c r="L4" s="26" t="e">
-        <f t="array" aca="1" ref="L4" ca="1">_xlfn.TEXTJOIN(CHAR(10),TRUE,E4:F4)</f>
-        <v>#NAME?</v>
+      <c r="L4" s="26" t="str">
+        <f t="array" ref="L4">_xlfn.TEXTJOIN(CHAR(10),TRUE,E4:F4)</f>
+        <v xml:space="preserve">Cắt FCO + MCCB TBA Nam Hà 1
+Tiếp địa hạ thế tại MCCB TBA Nam Hà 1
+ </v>
       </c>
       <c r="M4" s="26" t="str">
         <f>D4</f>
         <v>TBA Nam Hà 1</v>
       </c>
-      <c r="N4" s="26" t="e">
-        <f ca="1">L4&amp;D4</f>
-        <v>#NAME?</v>
+      <c r="N4" s="26" t="str">
+        <f>L4&amp;D4</f>
+        <v>Cắt FCO + MCCB TBA Nam Hà 1
+Tiếp địa hạ thế tại MCCB TBA Nam Hà 1
+ TBA Nam Hà 1</v>
       </c>
       <c r="O4" s="35">
         <v>44079</v>
@@ -5374,13 +5464,17 @@
         <f>WEEKDAY(O4)</f>
         <v>7</v>
       </c>
-      <c r="R4" s="26" t="e">
-        <f ca="1">L4&amp;D4</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="S4" s="26" t="e">
-        <f ca="1">H4&amp;LOWER(L4)&amp;D4</f>
-        <v>#NAME?</v>
+      <c r="R4" s="26" t="str">
+        <f>L4&amp;D4</f>
+        <v>Cắt FCO + MCCB TBA Nam Hà 1
+Tiếp địa hạ thế tại MCCB TBA Nam Hà 1
+ TBA Nam Hà 1</v>
+      </c>
+      <c r="S4" s="26" t="str">
+        <f>H4&amp;LOWER(L4)&amp;D4</f>
+        <v>Thay dây hạ thế  sau TBA Nam Hà 1cắt fco + mccb tba nam hà 1
+tiếp địa hạ thế tại mccb tba nam hà 1
+ TBA Nam Hà 1</v>
       </c>
       <c r="T4" s="26" t="str">
         <f>"Cắt "&amp;C4&amp;M4</f>
@@ -5391,7 +5485,7 @@
         <v>Tiếp địa tại  TBA Nam Hà 1</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="30">
+    <row r="5" spans="1:21" ht="28.8">
       <c r="A5">
         <f>ROW()</f>
         <v>5</v>
@@ -5423,17 +5517,19 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="L5" s="26" t="e">
-        <f t="array" aca="1" ref="L5" ca="1">_xlfn.TEXTJOIN(CHAR(10),TRUE,E5:F5)</f>
-        <v>#NAME?</v>
+      <c r="L5" s="26" t="str">
+        <f t="array" ref="L5">_xlfn.TEXTJOIN(CHAR(10),TRUE,E5:F5)</f>
+        <v>Cắt FCO + MCCB TBA Nam Hà 3
+Tiếp địa hạ thế tại MCCB TBA Nam Hà 3</v>
       </c>
       <c r="M5" s="26" t="str">
         <f t="shared" si="1"/>
         <v>TBA Nam Hà 3</v>
       </c>
-      <c r="N5" s="26" t="e">
-        <f t="shared" ca="1" si="2"/>
-        <v>#NAME?</v>
+      <c r="N5" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>Cắt FCO + MCCB TBA Nam Hà 3
+Tiếp địa hạ thế tại MCCB TBA Nam Hà 3TBA Nam Hà 3</v>
       </c>
       <c r="O5" s="35">
         <v>44079</v>
@@ -5445,13 +5541,15 @@
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="R5" s="26" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="S5" s="26" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
+      <c r="R5" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v>Cắt FCO + MCCB TBA Nam Hà 3
+Tiếp địa hạ thế tại MCCB TBA Nam Hà 3TBA Nam Hà 3</v>
+      </c>
+      <c r="S5" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v>Thay dây hạ thế  sau TBA Nam Hà 3cắt fco + mccb tba nam hà 3
+tiếp địa hạ thế tại mccb tba nam hà 3TBA Nam Hà 3</v>
       </c>
       <c r="T5" s="26" t="str">
         <f t="shared" si="6"/>
@@ -5462,7 +5560,7 @@
         <v>Tiếp địa tại TBA Nam Hà 3</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="30">
+    <row r="6" spans="1:21" ht="28.8">
       <c r="A6">
         <f>ROW()</f>
         <v>6</v>
@@ -5494,17 +5592,19 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="L6" s="26" t="e">
-        <f t="array" aca="1" ref="L6" ca="1">_xlfn.TEXTJOIN(CHAR(10),TRUE,E6:F6)</f>
-        <v>#NAME?</v>
+      <c r="L6" s="26" t="str">
+        <f t="array" ref="L6">_xlfn.TEXTJOIN(CHAR(10),TRUE,E6:F6)</f>
+        <v>Cắt FCO + MCCB TBA Xuân Tây 10A
+Tiếp địa hạ thế tại MCCB TBA Xuân Tây 10A</v>
       </c>
       <c r="M6" s="26" t="str">
         <f t="shared" si="1"/>
         <v>TBA Xuân Tây 10A</v>
       </c>
-      <c r="N6" s="26" t="e">
-        <f t="shared" ca="1" si="2"/>
-        <v>#NAME?</v>
+      <c r="N6" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>Cắt FCO + MCCB TBA Xuân Tây 10A
+Tiếp địa hạ thế tại MCCB TBA Xuân Tây 10ATBA Xuân Tây 10A</v>
       </c>
       <c r="O6" s="35">
         <v>44081</v>
@@ -5516,13 +5616,15 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="R6" s="26" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="S6" s="26" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
+      <c r="R6" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v>Cắt FCO + MCCB TBA Xuân Tây 10A
+Tiếp địa hạ thế tại MCCB TBA Xuân Tây 10ATBA Xuân Tây 10A</v>
+      </c>
+      <c r="S6" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v>Thay dây hạ thế  sau TBA Xuân Tây 10Acắt fco + mccb tba xuân tây 10a
+tiếp địa hạ thế tại mccb tba xuân tây 10aTBA Xuân Tây 10A</v>
       </c>
       <c r="T6" s="26" t="str">
         <f t="shared" si="6"/>
@@ -5567,17 +5669,19 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="L7" s="26" t="e">
-        <f t="array" aca="1" ref="L7" ca="1">_xlfn.TEXTJOIN(CHAR(10),TRUE,E7:F7)</f>
-        <v>#NAME?</v>
+      <c r="L7" s="26" t="str">
+        <f t="array" ref="L7">_xlfn.TEXTJOIN(CHAR(10),TRUE,E7:F7)</f>
+        <v>Cắt FCO + MCCB TBA Sông Ray 8A
+Tiếp địa hạ thế tại MCCB TBA Sông Ray 8A</v>
       </c>
       <c r="M7" s="26" t="str">
         <f t="shared" si="1"/>
         <v>TBA Sông Ray 8A</v>
       </c>
-      <c r="N7" s="26" t="e">
-        <f t="shared" ca="1" si="2"/>
-        <v>#NAME?</v>
+      <c r="N7" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>Cắt FCO + MCCB TBA Sông Ray 8A
+Tiếp địa hạ thế tại MCCB TBA Sông Ray 8ATBA Sông Ray 8A</v>
       </c>
       <c r="O7" s="35">
         <v>44083</v>
@@ -5589,13 +5693,15 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="R7" s="26" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="S7" s="26" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
+      <c r="R7" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v>Cắt FCO + MCCB TBA Sông Ray 8A
+Tiếp địa hạ thế tại MCCB TBA Sông Ray 8ATBA Sông Ray 8A</v>
+      </c>
+      <c r="S7" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v>Thay dây hạ thế  sau TBA Sông Ray 8Acắt fco + mccb tba sông ray 8a
+tiếp địa hạ thế tại mccb tba sông ray 8aTBA Sông Ray 8A</v>
       </c>
       <c r="T7" s="26" t="str">
         <f t="shared" si="6"/>
@@ -5606,7 +5712,7 @@
         <v>Tiếp địa tại Tiếp địa hạ thế tại MCCB TBA Sông Ray 8ATBA Sông Ray 8A</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="60">
+    <row r="8" spans="1:21" ht="57.6">
       <c r="A8">
         <f>ROW()</f>
         <v>8</v>
@@ -5637,20 +5743,28 @@
       </c>
       <c r="J8" s="6"/>
       <c r="K8" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="K8" si="8">J8+14</f>
         <v>14</v>
       </c>
-      <c r="L8" s="26" t="e">
-        <f t="array" aca="1" ref="L8" ca="1">_xlfn.TEXTJOIN(CHAR(10),TRUE,E8:F8)</f>
-        <v>#NAME?</v>
+      <c r="L8" s="26" t="str">
+        <f t="array" ref="L8">_xlfn.TEXTJOIN(CHAR(10),TRUE,E8:F8)</f>
+        <v>Cắt LBS khí Đồng Tâm 1 + 3 LTD Đồng Tâm 1
+Cắt LBS khí Sông Ray + 3 LTD Sông Ray 1
+Tiếp địa trụ trung thế 357 
+Tiếp địa trụ trung thế 381 
+Tiếp địa hạ thế TBA Sông Ray 7</v>
       </c>
       <c r="M8" s="26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="M8" si="9">D8</f>
         <v>Nhánh rẽ Đồng Tâm 1</v>
       </c>
-      <c r="N8" s="26" t="e">
-        <f t="shared" ca="1" si="2"/>
-        <v>#NAME?</v>
+      <c r="N8" s="26" t="str">
+        <f t="shared" ref="N8" si="10">L8&amp;D8</f>
+        <v>Cắt LBS khí Đồng Tâm 1 + 3 LTD Đồng Tâm 1
+Cắt LBS khí Sông Ray + 3 LTD Sông Ray 1
+Tiếp địa trụ trung thế 357 
+Tiếp địa trụ trung thế 381 
+Tiếp địa hạ thế TBA Sông Ray 7Nhánh rẽ Đồng Tâm 1</v>
       </c>
       <c r="O8" s="35">
         <v>44086</v>
@@ -5659,52 +5773,60 @@
         <v>136</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="Q8" si="11">WEEKDAY(O8)</f>
         <v>7</v>
       </c>
-      <c r="R8" s="26" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="S8" s="26" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
+      <c r="R8" s="26" t="str">
+        <f t="shared" ref="R8" si="12">L8&amp;D8</f>
+        <v>Cắt LBS khí Đồng Tâm 1 + 3 LTD Đồng Tâm 1
+Cắt LBS khí Sông Ray + 3 LTD Sông Ray 1
+Tiếp địa trụ trung thế 357 
+Tiếp địa trụ trung thế 381 
+Tiếp địa hạ thế TBA Sông Ray 7Nhánh rẽ Đồng Tâm 1</v>
+      </c>
+      <c r="S8" s="26" t="str">
+        <f t="shared" ref="S8" si="13">H8&amp;LOWER(L8)&amp;D8</f>
+        <v>Nâng cấp đường dây hạ thế và TBA Sông Ray 7 từ 1 pha lên 3 pha, cấy TBA Sông Ray 7Acắt lbs khí đồng tâm 1 + 3 ltd đồng tâm 1
+cắt lbs khí sông ray + 3 ltd sông ray 1
+tiếp địa trụ trung thế 357 
+tiếp địa trụ trung thế 381 
+tiếp địa hạ thế tba sông ray 7Nhánh rẽ Đồng Tâm 1</v>
       </c>
       <c r="T8" s="26" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="T8" si="14">"Cắt "&amp;C8&amp;M8</f>
         <v>Cắt LBS khí + 3 LTDNhánh rẽ Đồng Tâm 1</v>
       </c>
       <c r="U8" s="26" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="U8" si="15">"Tiếp địa tại "&amp;F8&amp;D8</f>
         <v>Tiếp địa tại Tiếp địa trụ trung thế 381 
 Tiếp địa hạ thế TBA Sông Ray 7Nhánh rẽ Đồng Tâm 1</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="45">
+    <row r="9" spans="1:21" ht="43.2">
       <c r="A9">
         <f>ROW()</f>
         <v>9</v>
       </c>
-      <c r="B9" s="44">
-        <v>44062</v>
+      <c r="B9" s="44" t="s">
+        <v>266</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>155</v>
+        <v>262</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>154</v>
+        <v>261</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>186</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>185</v>
+        <v>263</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>265</v>
       </c>
       <c r="G9" s="47" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="H9" s="24" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>231</v>
@@ -5714,17 +5836,21 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="L9" s="26" t="e">
-        <f t="array" aca="1" ref="L9" ca="1">_xlfn.TEXTJOIN(CHAR(10),TRUE,E9:F9)</f>
-        <v>#NAME?</v>
+      <c r="L9" s="26" t="str">
+        <f t="array" ref="L9">_xlfn.TEXTJOIN(CHAR(10),TRUE,E9:F9)</f>
+        <v>Cắt FCO + MCCB TBA Sông Ray 7A
+Tháo hotline nhánh rẽ Sông Ray 7A
+Tiếp địa trung hạ thế  trạm biến áp Sông Ray 7A</v>
       </c>
       <c r="M9" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>Nhánh rẽ Lâm San 10, 11, 12</v>
-      </c>
-      <c r="N9" s="26" t="e">
-        <f t="shared" ca="1" si="2"/>
-        <v>#NAME?</v>
+        <v>Nhánh rẽ Sông Ray 7A</v>
+      </c>
+      <c r="N9" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>Cắt FCO + MCCB TBA Sông Ray 7A
+Tháo hotline nhánh rẽ Sông Ray 7A
+Tiếp địa trung hạ thế  trạm biến áp Sông Ray 7ANhánh rẽ Sông Ray 7A</v>
       </c>
       <c r="O9" s="35">
         <v>44086</v>
@@ -5733,27 +5859,31 @@
         <v>136</v>
       </c>
       <c r="Q9">
-        <f t="shared" ref="Q9" si="8">WEEKDAY(O9)</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="R9" s="26" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="S9" s="26" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
+      <c r="R9" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v>Cắt FCO + MCCB TBA Sông Ray 7A
+Tháo hotline nhánh rẽ Sông Ray 7A
+Tiếp địa trung hạ thế  trạm biến áp Sông Ray 7ANhánh rẽ Sông Ray 7A</v>
+      </c>
+      <c r="S9" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v>Tách lưới, sang tải TBA  Sông Ray 7 sang TBA  Sông Ray 7A, đấu nối máy biến ápcắt fco + mccb tba sông ray 7a
+tháo hotline nhánh rẽ sông ray 7a
+tiếp địa trung hạ thế  trạm biến áp sông ray 7aNhánh rẽ Sông Ray 7A</v>
       </c>
       <c r="T9" s="26" t="str">
         <f t="shared" si="6"/>
-        <v>Cắt 3xFCO Nhánh rẽ Lâm San 10, 11, 12</v>
+        <v>Cắt Tháo hotlineNhánh rẽ Sông Ray 7A</v>
       </c>
       <c r="U9" s="26" t="str">
         <f t="shared" si="7"/>
-        <v>Tiếp địa tại Tiếp địa trung hạ áp tại TBA Lâm San 11A, 11DNhánh rẽ Lâm San 10, 11, 12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" ht="30">
+        <v>Tiếp địa tại Tiếp địa trung hạ thế  trạm biến áp Sông Ray 7ANhánh rẽ Sông Ray 7A</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="43.2">
       <c r="A10">
         <f>ROW()</f>
         <v>10</v>
@@ -5762,22 +5892,22 @@
         <v>44062</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G10" s="47" t="s">
-        <v>218</v>
+        <v>257</v>
       </c>
       <c r="H10" s="24" t="s">
-        <v>158</v>
+        <v>256</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>231</v>
@@ -5787,46 +5917,54 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="L10" s="26" t="e">
-        <f t="array" aca="1" ref="L10" ca="1">_xlfn.TEXTJOIN(CHAR(10),TRUE,E10:F10)</f>
-        <v>#NAME?</v>
+      <c r="L10" s="26" t="str">
+        <f t="array" ref="L10">_xlfn.TEXTJOIN(CHAR(10),TRUE,E10:F10)</f>
+        <v>Cắt 3xFCO Nhánh rẽ Lâm San 10, 11, 12
+Tiếp địa trụ trung thế 357 Nhánh rẽ Lâm San 10, 11, 12
+Tiếp địa trung hạ áp tại TBA Lâm San 11A, 11D</v>
       </c>
       <c r="M10" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>Nhánh rẽ Lâm San</v>
-      </c>
-      <c r="N10" s="26" t="e">
-        <f t="shared" ca="1" si="2"/>
-        <v>#NAME?</v>
+        <v>Nhánh rẽ Lâm San 10, 11, 12</v>
+      </c>
+      <c r="N10" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>Cắt 3xFCO Nhánh rẽ Lâm San 10, 11, 12
+Tiếp địa trụ trung thế 357 Nhánh rẽ Lâm San 10, 11, 12
+Tiếp địa trung hạ áp tại TBA Lâm San 11A, 11DNhánh rẽ Lâm San 10, 11, 12</v>
       </c>
       <c r="O10" s="35">
-        <v>44093</v>
+        <v>44086</v>
       </c>
       <c r="P10" t="s">
         <v>136</v>
       </c>
       <c r="Q10">
-        <f t="shared" ref="Q10:Q20" si="9">WEEKDAY(O10)</f>
+        <f t="shared" ref="Q10" si="16">WEEKDAY(O10)</f>
         <v>7</v>
       </c>
-      <c r="R10" s="26" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="S10" s="26" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
+      <c r="R10" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v>Cắt 3xFCO Nhánh rẽ Lâm San 10, 11, 12
+Tiếp địa trụ trung thế 357 Nhánh rẽ Lâm San 10, 11, 12
+Tiếp địa trung hạ áp tại TBA Lâm San 11A, 11DNhánh rẽ Lâm San 10, 11, 12</v>
+      </c>
+      <c r="S10" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v>Nâng cấp đường dây hạ thế và TBA Sông Ray 7 từ 1 pha lên 3 pha, cấy TBA Sông Ray 7A, đấu nối trung hạ thếcắt 3xfco nhánh rẽ lâm san 10, 11, 12
+tiếp địa trụ trung thế 357 nhánh rẽ lâm san 10, 11, 12
+tiếp địa trung hạ áp tại tba lâm san 11a, 11dNhánh rẽ Lâm San 10, 11, 12</v>
       </c>
       <c r="T10" s="26" t="str">
         <f t="shared" si="6"/>
-        <v>Cắt Recloser + 3 LTD Nhánh rẽ Lâm San</v>
+        <v>Cắt 3xFCO Nhánh rẽ Lâm San 10, 11, 12</v>
       </c>
       <c r="U10" s="26" t="str">
         <f t="shared" si="7"/>
-        <v>Tiếp địa tại Tiếp địa trụ trung thế 075 Nhánh rẽ Lâm San</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" ht="30">
+        <v>Tiếp địa tại Tiếp địa trung hạ áp tại TBA Lâm San 11A, 11DNhánh rẽ Lâm San 10, 11, 12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="28.8">
       <c r="A11">
         <f>ROW()</f>
         <v>11</v>
@@ -5835,22 +5973,22 @@
         <v>44062</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G11" s="47" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H11" s="24" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>231</v>
@@ -5860,46 +5998,54 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="L11" s="26" t="e">
-        <f t="array" aca="1" ref="L11" ca="1">_xlfn.TEXTJOIN(CHAR(10),TRUE,E11:F11)</f>
-        <v>#NAME?</v>
+      <c r="L11" s="26" t="str">
+        <f t="array" ref="L11">_xlfn.TEXTJOIN(CHAR(10),TRUE,E11:F11)</f>
+        <v xml:space="preserve">Cắt Recloser + 3 LTD Lâm San
+Tiếp địa trụ trung thế 011A
+Tiếp địa trụ trung thế 075 </v>
       </c>
       <c r="M11" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>Nhánh rẽ Cánh đồng Xuân Tây 1</v>
-      </c>
-      <c r="N11" s="26" t="e">
-        <f t="shared" ca="1" si="2"/>
-        <v>#NAME?</v>
+        <v>Nhánh rẽ Lâm San</v>
+      </c>
+      <c r="N11" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>Cắt Recloser + 3 LTD Lâm San
+Tiếp địa trụ trung thế 011A
+Tiếp địa trụ trung thế 075 Nhánh rẽ Lâm San</v>
       </c>
       <c r="O11" s="35">
-        <v>44090</v>
+        <v>44093</v>
       </c>
       <c r="P11" t="s">
         <v>136</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="R11" s="26" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="S11" s="26" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
+        <f t="shared" ref="Q11:Q21" si="17">WEEKDAY(O11)</f>
+        <v>7</v>
+      </c>
+      <c r="R11" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v>Cắt Recloser + 3 LTD Lâm San
+Tiếp địa trụ trung thế 011A
+Tiếp địa trụ trung thế 075 Nhánh rẽ Lâm San</v>
+      </c>
+      <c r="S11" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v>Trồng trụ trung thế 015A đấu nối trung thế, tách lưới, sang tải TBA Sông Ray 2, Sông Ray 2A. Đấu nối trung thế và di dời TBA Sông Ray 4Acắt recloser + 3 ltd lâm san
+tiếp địa trụ trung thế 011a
+tiếp địa trụ trung thế 075 Nhánh rẽ Lâm San</v>
       </c>
       <c r="T11" s="26" t="str">
         <f t="shared" si="6"/>
-        <v>Cắt 3xFCO Nhánh rẽ Cánh đồng Xuân Tây 1</v>
+        <v>Cắt Recloser + 3 LTD Nhánh rẽ Lâm San</v>
       </c>
       <c r="U11" s="26" t="str">
         <f t="shared" si="7"/>
-        <v>Tiếp địa tại Tiếp địa trung hạ áp tại TBA Cánh đồng Xuân Tây 1Nhánh rẽ Cánh đồng Xuân Tây 1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" ht="60">
+        <v>Tiếp địa tại Tiếp địa trụ trung thế 075 Nhánh rẽ Lâm San</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="28.8">
       <c r="A12">
         <f>ROW()</f>
         <v>12</v>
@@ -5908,22 +6054,22 @@
         <v>44062</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>191</v>
-      </c>
-      <c r="F12" s="24" t="s">
-        <v>192</v>
+        <v>189</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>190</v>
       </c>
       <c r="G12" s="47" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H12" s="24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>231</v>
@@ -5933,47 +6079,50 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="L12" s="26" t="e">
-        <f t="array" aca="1" ref="L12" ca="1">_xlfn.TEXTJOIN(CHAR(10),TRUE,E12:F12)</f>
-        <v>#NAME?</v>
+      <c r="L12" s="26" t="str">
+        <f t="array" ref="L12">_xlfn.TEXTJOIN(CHAR(10),TRUE,E12:F12)</f>
+        <v>Cắt 3xFCO Nhánh rẽ Cánh đồng Xuân Tây 1
+Tiếp địa trung hạ áp tại TBA Cánh đồng Xuân Tây 1</v>
       </c>
       <c r="M12" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>Nhánh rẽ Láng Me</v>
-      </c>
-      <c r="N12" s="26" t="e">
-        <f t="shared" ca="1" si="2"/>
-        <v>#NAME?</v>
+        <v>Nhánh rẽ Cánh đồng Xuân Tây 1</v>
+      </c>
+      <c r="N12" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>Cắt 3xFCO Nhánh rẽ Cánh đồng Xuân Tây 1
+Tiếp địa trung hạ áp tại TBA Cánh đồng Xuân Tây 1Nhánh rẽ Cánh đồng Xuân Tây 1</v>
       </c>
       <c r="O12" s="35">
-        <v>44089</v>
+        <v>44090</v>
       </c>
       <c r="P12" t="s">
         <v>136</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="9"/>
-        <v>3</v>
-      </c>
-      <c r="R12" s="26" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="S12" s="26" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="R12" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v>Cắt 3xFCO Nhánh rẽ Cánh đồng Xuân Tây 1
+Tiếp địa trung hạ áp tại TBA Cánh đồng Xuân Tây 1Nhánh rẽ Cánh đồng Xuân Tây 1</v>
+      </c>
+      <c r="S12" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v>Đấu nối trung thế trụ 009A, 013. Tách lưới hạ thế sau TBA Cánh đồng Xuân Tây 1A, Cánh đồng Xuân Tây 1Bcắt 3xfco nhánh rẽ cánh đồng xuân tây 1
+tiếp địa trung hạ áp tại tba cánh đồng xuân tây 1Nhánh rẽ Cánh đồng Xuân Tây 1</v>
       </c>
       <c r="T12" s="26" t="str">
         <f t="shared" si="6"/>
-        <v>Cắt Recloser + 3 LTD Nhánh rẽ Láng Me</v>
+        <v>Cắt 3xFCO Nhánh rẽ Cánh đồng Xuân Tây 1</v>
       </c>
       <c r="U12" s="26" t="str">
         <f t="shared" si="7"/>
-        <v>Tiếp địa tại Tiếp địa trụ trung thế 094
- Tiếp địa hạ thế TBA Láng Me 3Nhánh rẽ Láng Me</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" ht="30">
+        <v>Tiếp địa tại Tiếp địa trung hạ áp tại TBA Cánh đồng Xuân Tây 1Nhánh rẽ Cánh đồng Xuân Tây 1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="57.6">
       <c r="A13">
         <f>ROW()</f>
         <v>13</v>
@@ -5982,22 +6131,22 @@
         <v>44062</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>193</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>195</v>
+        <v>191</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>192</v>
       </c>
       <c r="G13" s="47" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H13" s="24" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>231</v>
@@ -6007,46 +6156,59 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="L13" s="26" t="e">
-        <f t="array" aca="1" ref="L13" ca="1">_xlfn.TEXTJOIN(CHAR(10),TRUE,E13:F13)</f>
-        <v>#NAME?</v>
+      <c r="L13" s="26" t="str">
+        <f t="array" ref="L13">_xlfn.TEXTJOIN(CHAR(10),TRUE,E13:F13)</f>
+        <v>Cắt Recloser + 3 LTD Láng Me
+Tiếp địa trụ trung thế 079
+Tiếp địa trụ trung thế 094
+ Tiếp địa hạ thế TBA Láng Me 3</v>
       </c>
       <c r="M13" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>Nhánh rẽ Thoại Hương 3, 4</v>
-      </c>
-      <c r="N13" s="26" t="e">
-        <f t="shared" ca="1" si="2"/>
-        <v>#NAME?</v>
+        <v>Nhánh rẽ Láng Me</v>
+      </c>
+      <c r="N13" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>Cắt Recloser + 3 LTD Láng Me
+Tiếp địa trụ trung thế 079
+Tiếp địa trụ trung thế 094
+ Tiếp địa hạ thế TBA Láng Me 3Nhánh rẽ Láng Me</v>
       </c>
       <c r="O13" s="35">
-        <v>44088</v>
+        <v>44089</v>
       </c>
       <c r="P13" t="s">
         <v>136</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="R13" s="26" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="S13" s="26" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="R13" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v>Cắt Recloser + 3 LTD Láng Me
+Tiếp địa trụ trung thế 079
+Tiếp địa trụ trung thế 094
+ Tiếp địa hạ thế TBA Láng Me 3Nhánh rẽ Láng Me</v>
+      </c>
+      <c r="S13" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v>Đấu nối trung thế trụ 087 nhánh rẽ Láng Me. Cấy TBA Láng Me 3B, Tách lưới hạ thế sau TBA Láng Me 3 sang Láng Me 3Bcắt recloser + 3 ltd láng me
+tiếp địa trụ trung thế 079
+tiếp địa trụ trung thế 094
+ tiếp địa hạ thế tba láng me 3Nhánh rẽ Láng Me</v>
       </c>
       <c r="T13" s="26" t="str">
         <f t="shared" si="6"/>
-        <v>Cắt FCO Nhánh rẽ Thoại Hương 3, 4</v>
+        <v>Cắt Recloser + 3 LTD Nhánh rẽ Láng Me</v>
       </c>
       <c r="U13" s="26" t="str">
         <f t="shared" si="7"/>
-        <v>Tiếp địa tại Tiếp địa trung hạ áp tại TBA Thoại Hương 3, 4Nhánh rẽ Thoại Hương 3, 4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" ht="30">
+        <v>Tiếp địa tại Tiếp địa trụ trung thế 094
+ Tiếp địa hạ thế TBA Láng Me 3Nhánh rẽ Láng Me</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14">
         <f>ROW()</f>
         <v>14</v>
@@ -6058,19 +6220,19 @@
         <v>164</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="E14" t="s">
-        <v>194</v>
+        <v>163</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>193</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G14" s="47" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H14" s="24" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>231</v>
@@ -6080,46 +6242,50 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="L14" s="26" t="e">
-        <f t="array" aca="1" ref="L14" ca="1">_xlfn.TEXTJOIN(CHAR(10),TRUE,E14:F14)</f>
-        <v>#NAME?</v>
+      <c r="L14" s="26" t="str">
+        <f t="array" ref="L14">_xlfn.TEXTJOIN(CHAR(10),TRUE,E14:F14)</f>
+        <v>Cắt FCO Nhánh rẽ Thoại Hương 3, 4
+Tiếp địa trung hạ áp tại TBA Thoại Hương 3, 4</v>
       </c>
       <c r="M14" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>Nhánh rẽ Xuân Tây 19</v>
-      </c>
-      <c r="N14" s="26" t="e">
-        <f t="shared" ca="1" si="2"/>
-        <v>#NAME?</v>
+        <v>Nhánh rẽ Thoại Hương 3, 4</v>
+      </c>
+      <c r="N14" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>Cắt FCO Nhánh rẽ Thoại Hương 3, 4
+Tiếp địa trung hạ áp tại TBA Thoại Hương 3, 4Nhánh rẽ Thoại Hương 3, 4</v>
       </c>
       <c r="O14" s="35">
-        <v>44086</v>
+        <v>44088</v>
       </c>
       <c r="P14" t="s">
         <v>136</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="9"/>
-        <v>7</v>
-      </c>
-      <c r="R14" s="26" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="S14" s="26" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="R14" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v>Cắt FCO Nhánh rẽ Thoại Hương 3, 4
+Tiếp địa trung hạ áp tại TBA Thoại Hương 3, 4Nhánh rẽ Thoại Hương 3, 4</v>
+      </c>
+      <c r="S14" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v>Đấu nối trung thế trụ 021 Nhánh rẽ Thoại Hương 3, 4. Di dời TBA Thoại Hương 4cắt fco nhánh rẽ thoại hương 3, 4
+tiếp địa trung hạ áp tại tba thoại hương 3, 4Nhánh rẽ Thoại Hương 3, 4</v>
       </c>
       <c r="T14" s="26" t="str">
         <f t="shared" si="6"/>
-        <v>Cắt FCO Nhánh rẽ Xuân Tây 19</v>
+        <v>Cắt FCO Nhánh rẽ Thoại Hương 3, 4</v>
       </c>
       <c r="U14" s="26" t="str">
         <f t="shared" si="7"/>
-        <v>Tiếp địa tại Tiếp địa trung hạ áp tại TBA Xuân Tây 19Nhánh rẽ Xuân Tây 19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" ht="60">
+        <v>Tiếp địa tại Tiếp địa trung hạ áp tại TBA Thoại Hương 3, 4Nhánh rẽ Thoại Hương 3, 4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="28.8">
       <c r="A15">
         <f>ROW()</f>
         <v>15</v>
@@ -6128,72 +6294,75 @@
         <v>44062</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="E15" s="45" t="s">
-        <v>197</v>
-      </c>
-      <c r="F15" s="24" t="s">
-        <v>198</v>
+        <v>166</v>
+      </c>
+      <c r="E15" t="s">
+        <v>194</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>196</v>
       </c>
       <c r="G15" s="47" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H15" s="24" t="s">
-        <v>258</v>
+        <v>167</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>259</v>
+        <v>231</v>
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="26">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="L15" s="26" t="e">
-        <f t="array" aca="1" ref="L15" ca="1">_xlfn.TEXTJOIN(CHAR(10),TRUE,E15:F15)</f>
-        <v>#NAME?</v>
+      <c r="L15" s="26" t="str">
+        <f t="array" ref="L15">_xlfn.TEXTJOIN(CHAR(10),TRUE,E15:F15)</f>
+        <v>Cắt FCO Nhánh rẽ Xuân Tây 19
+Tiếp địa trung hạ áp tại TBA Xuân Tây 19</v>
       </c>
       <c r="M15" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>Nhánh rẽ Láng Me 5</v>
-      </c>
-      <c r="N15" s="26" t="e">
-        <f t="shared" ca="1" si="2"/>
-        <v>#NAME?</v>
+        <v>Nhánh rẽ Xuân Tây 19</v>
+      </c>
+      <c r="N15" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>Cắt FCO Nhánh rẽ Xuân Tây 19
+Tiếp địa trung hạ áp tại TBA Xuân Tây 19Nhánh rẽ Xuân Tây 19</v>
       </c>
       <c r="O15" s="35">
-        <v>44089</v>
+        <v>44086</v>
       </c>
       <c r="P15" t="s">
         <v>136</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="9"/>
-        <v>3</v>
-      </c>
-      <c r="R15" s="26" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="S15" s="26" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
+        <f t="shared" si="17"/>
+        <v>7</v>
+      </c>
+      <c r="R15" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v>Cắt FCO Nhánh rẽ Xuân Tây 19
+Tiếp địa trung hạ áp tại TBA Xuân Tây 19Nhánh rẽ Xuân Tây 19</v>
+      </c>
+      <c r="S15" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v>Đấu nối trung thế trụ 017 Nhánh rẽ Xuân Tây 19.Cấy TBA Xuân Tây 19A, tách lưới hạ thế TBA Xuân Tây 19 sang TBA Xuân Tây 19Acắt fco nhánh rẽ xuân tây 19
+tiếp địa trung hạ áp tại tba xuân tây 19Nhánh rẽ Xuân Tây 19</v>
       </c>
       <c r="T15" s="26" t="str">
         <f t="shared" si="6"/>
-        <v>Cắt 3xFCO Nhánh rẽ Láng Me 5</v>
+        <v>Cắt FCO Nhánh rẽ Xuân Tây 19</v>
       </c>
       <c r="U15" s="26" t="str">
         <f t="shared" si="7"/>
-        <v>Tiếp địa tại Tiếp địa trụ trung thế 131
- Tiếp địa hạ thế TBA Láng Me 5, 5A, 5BNhánh rẽ Láng Me 5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" ht="30">
+        <v>Tiếp địa tại Tiếp địa trung hạ áp tại TBA Xuân Tây 19Nhánh rẽ Xuân Tây 19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="57.6">
       <c r="A16">
         <f>ROW()</f>
         <v>16</v>
@@ -6202,71 +6371,84 @@
         <v>44062</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E16" s="45" t="s">
-        <v>199</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>198</v>
       </c>
       <c r="G16" s="47" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H16" s="24" t="s">
-        <v>170</v>
+        <v>258</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>231</v>
+        <v>259</v>
       </c>
       <c r="J16" s="6"/>
       <c r="K16" s="26">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="L16" s="26" t="e">
-        <f t="array" aca="1" ref="L16" ca="1">_xlfn.TEXTJOIN(CHAR(10),TRUE,E16:F16)</f>
-        <v>#NAME?</v>
+      <c r="L16" s="26" t="str">
+        <f t="array" ref="L16">_xlfn.TEXTJOIN(CHAR(10),TRUE,E16:F16)</f>
+        <v>Cắt 3xFCO Nhánh rẽ Láng Me 5
+Tiếp địa trụ trung thế 107
+Tiếp địa trụ trung thế 131
+ Tiếp địa hạ thế TBA Láng Me 5, 5A, 5B</v>
       </c>
       <c r="M16" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>Nhánh rẽ Sông Nhạn</v>
-      </c>
-      <c r="N16" s="26" t="e">
-        <f t="shared" ca="1" si="2"/>
-        <v>#NAME?</v>
+        <v>Nhánh rẽ Láng Me 5</v>
+      </c>
+      <c r="N16" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>Cắt 3xFCO Nhánh rẽ Láng Me 5
+Tiếp địa trụ trung thế 107
+Tiếp địa trụ trung thế 131
+ Tiếp địa hạ thế TBA Láng Me 5, 5A, 5BNhánh rẽ Láng Me 5</v>
       </c>
       <c r="O16" s="35">
-        <v>44095</v>
+        <v>44089</v>
       </c>
       <c r="P16" t="s">
         <v>136</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="R16" s="26" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="S16" s="26" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="R16" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v>Cắt 3xFCO Nhánh rẽ Láng Me 5
+Tiếp địa trụ trung thế 107
+Tiếp địa trụ trung thế 131
+ Tiếp địa hạ thế TBA Láng Me 5, 5A, 5BNhánh rẽ Láng Me 5</v>
+      </c>
+      <c r="S16" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v>Nâng cấp đường dây trung thế và trạm biến áp Láng Me 5B từ 1 pha lên 3 pha, di dời TBA Láng Me 5, cấy trạm biến áp lá me 5A-1, Cấy mới TBA Láng Me 5C, tách một phần lưới hạ thế Láng Me 5B sang nhận điện TBA Láng Me 5C, Đấu nối nhánh rẽ nhánh rẽ Láng Me 5C tại trụ 135 cắt 3xfco nhánh rẽ láng me 5
+tiếp địa trụ trung thế 107
+tiếp địa trụ trung thế 131
+ tiếp địa hạ thế tba láng me 5, 5a, 5bNhánh rẽ Láng Me 5</v>
       </c>
       <c r="T16" s="26" t="str">
         <f t="shared" si="6"/>
-        <v>Cắt Recloser + 3 LTD Nhánh rẽ Sông Nhạn</v>
+        <v>Cắt 3xFCO Nhánh rẽ Láng Me 5</v>
       </c>
       <c r="U16" s="26" t="str">
         <f t="shared" si="7"/>
-        <v>Tiếp địa tại Tiếp địa trụ trung thế 023A Nhánh rẽ Sông Nhạn</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" ht="45">
+        <v>Tiếp địa tại Tiếp địa trụ trung thế 131
+ Tiếp địa hạ thế TBA Láng Me 5, 5A, 5BNhánh rẽ Láng Me 5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="28.8">
       <c r="A17">
         <f>ROW()</f>
         <v>17</v>
@@ -6278,19 +6460,19 @@
         <v>156</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>201</v>
+        <v>169</v>
+      </c>
+      <c r="E17" s="45" t="s">
+        <v>199</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G17" s="47" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="H17" s="24" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>231</v>
@@ -6300,70 +6482,78 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="L17" s="26" t="e">
-        <f t="array" aca="1" ref="L17" ca="1">_xlfn.TEXTJOIN(CHAR(10),TRUE,E17:F17)</f>
-        <v>#NAME?</v>
+      <c r="L17" s="26" t="str">
+        <f t="array" ref="L17">_xlfn.TEXTJOIN(CHAR(10),TRUE,E17:F17)</f>
+        <v xml:space="preserve">Cắt Recloser + 3 LTD Nhánh rẽ Sông Nhạn
+Tiếp địa trụ trung thế 006
+Tiếp địa trụ trung thế 023A </v>
       </c>
       <c r="M17" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>Nhánh rẽ Nam Hà</v>
-      </c>
-      <c r="N17" s="26" t="e">
-        <f t="shared" ca="1" si="2"/>
-        <v>#NAME?</v>
+        <v>Nhánh rẽ Sông Nhạn</v>
+      </c>
+      <c r="N17" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>Cắt Recloser + 3 LTD Nhánh rẽ Sông Nhạn
+Tiếp địa trụ trung thế 006
+Tiếp địa trụ trung thế 023A Nhánh rẽ Sông Nhạn</v>
       </c>
       <c r="O17" s="35">
-        <v>44096</v>
+        <v>44095</v>
       </c>
       <c r="P17" t="s">
         <v>136</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="9"/>
-        <v>3</v>
-      </c>
-      <c r="R17" s="26" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="S17" s="26" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="R17" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v>Cắt Recloser + 3 LTD Nhánh rẽ Sông Nhạn
+Tiếp địa trụ trung thế 006
+Tiếp địa trụ trung thế 023A Nhánh rẽ Sông Nhạn</v>
+      </c>
+      <c r="S17" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v>Di dời TBA Suối Râm 7cắt recloser + 3 ltd nhánh rẽ sông nhạn
+tiếp địa trụ trung thế 006
+tiếp địa trụ trung thế 023a Nhánh rẽ Sông Nhạn</v>
       </c>
       <c r="T17" s="26" t="str">
         <f t="shared" si="6"/>
-        <v>Cắt Recloser + 3 LTD Nhánh rẽ Nam Hà</v>
+        <v>Cắt Recloser + 3 LTD Nhánh rẽ Sông Nhạn</v>
       </c>
       <c r="U17" s="26" t="str">
         <f t="shared" si="7"/>
-        <v>Tiếp địa tại Tiếp địa trụ trung thế 351Nhánh rẽ Nam Hà</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" ht="30">
+        <v>Tiếp địa tại Tiếp địa trụ trung thế 023A Nhánh rẽ Sông Nhạn</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="43.2">
       <c r="A18">
         <f>ROW()</f>
         <v>18</v>
       </c>
       <c r="B18" s="44">
-        <v>44061</v>
+        <v>44062</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>156</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="G18" s="47" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="H18" s="24" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>231</v>
@@ -6373,70 +6563,82 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="L18" s="26" t="e">
-        <f t="array" aca="1" ref="L18" ca="1">_xlfn.TEXTJOIN(CHAR(10),TRUE,E18:F18)</f>
-        <v>#NAME?</v>
+      <c r="L18" s="26" t="str">
+        <f t="array" ref="L18">_xlfn.TEXTJOIN(CHAR(10),TRUE,E18:F18)</f>
+        <v>Cắt Recloser + 3 LTD Nhánh rẽ Nam Hà
+Cắt 3 LTD Xuân Bảo - Nam Hà
+Tiếp địa trụ trung thế 326
+Tiếp địa trụ trung thế 351</v>
       </c>
       <c r="M18" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>Nhánh rẽ Tân Bảo</v>
-      </c>
-      <c r="N18" s="26" t="e">
-        <f t="shared" ca="1" si="2"/>
-        <v>#NAME?</v>
+        <v>Nhánh rẽ Nam Hà</v>
+      </c>
+      <c r="N18" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>Cắt Recloser + 3 LTD Nhánh rẽ Nam Hà
+Cắt 3 LTD Xuân Bảo - Nam Hà
+Tiếp địa trụ trung thế 326
+Tiếp địa trụ trung thế 351Nhánh rẽ Nam Hà</v>
       </c>
       <c r="O18" s="35">
-        <v>44097</v>
+        <v>44096</v>
       </c>
       <c r="P18" t="s">
         <v>136</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="R18" s="26" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="S18" s="26" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="R18" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v>Cắt Recloser + 3 LTD Nhánh rẽ Nam Hà
+Cắt 3 LTD Xuân Bảo - Nam Hà
+Tiếp địa trụ trung thế 326
+Tiếp địa trụ trung thế 351Nhánh rẽ Nam Hà</v>
+      </c>
+      <c r="S18" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v>Lắp đặt trạm biến áp Nam Hà 3B tách lưới hạ thế trạm Nam Hà 3 sang nhận điện trạm Nam Hà 3B đấu nối đường dây trung thế xây dựng mớicắt recloser + 3 ltd nhánh rẽ nam hà
+cắt 3 ltd xuân bảo - nam hà
+tiếp địa trụ trung thế 326
+tiếp địa trụ trung thế 351Nhánh rẽ Nam Hà</v>
       </c>
       <c r="T18" s="26" t="str">
         <f t="shared" si="6"/>
-        <v>Cắt Recloser + 3 LTD Nhánh rẽ Tân Bảo</v>
+        <v>Cắt Recloser + 3 LTD Nhánh rẽ Nam Hà</v>
       </c>
       <c r="U18" s="26" t="str">
         <f t="shared" si="7"/>
-        <v>Tiếp địa tại Tiếp địa trụ trung thế 147Nhánh rẽ Tân Bảo</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" ht="60">
+        <v>Tiếp địa tại Tiếp địa trụ trung thế 351Nhánh rẽ Nam Hà</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="28.8">
       <c r="A19">
         <f>ROW()</f>
         <v>19</v>
       </c>
       <c r="B19" s="44">
-        <v>44062</v>
+        <v>44061</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>156</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="G19" s="47" t="s">
-        <v>210</v>
-      </c>
-      <c r="H19" s="45" t="s">
-        <v>260</v>
+        <v>207</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>174</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>231</v>
@@ -6446,46 +6648,54 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="L19" s="26" t="e">
-        <f t="array" aca="1" ref="L19" ca="1">_xlfn.TEXTJOIN(CHAR(10),TRUE,E19:F19)</f>
-        <v>#NAME?</v>
+      <c r="L19" s="26" t="str">
+        <f t="array" ref="L19">_xlfn.TEXTJOIN(CHAR(10),TRUE,E19:F19)</f>
+        <v>Cắt Recloser + 3 LTD Nhánh rẽ Tân Bảo
+Tiếp địa trụ trung thế 117
+Tiếp địa trụ trung thế 147</v>
       </c>
       <c r="M19" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>Nhánh rẽ Nam Hà</v>
-      </c>
-      <c r="N19" s="26" t="e">
-        <f t="shared" ca="1" si="2"/>
-        <v>#NAME?</v>
+        <v>Nhánh rẽ Tân Bảo</v>
+      </c>
+      <c r="N19" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>Cắt Recloser + 3 LTD Nhánh rẽ Tân Bảo
+Tiếp địa trụ trung thế 117
+Tiếp địa trụ trung thế 147Nhánh rẽ Tân Bảo</v>
       </c>
       <c r="O19" s="35">
-        <v>44096</v>
+        <v>44097</v>
       </c>
       <c r="P19" t="s">
         <v>136</v>
       </c>
       <c r="Q19">
-        <f t="shared" si="9"/>
-        <v>3</v>
-      </c>
-      <c r="R19" s="26" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="S19" s="26" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="R19" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v>Cắt Recloser + 3 LTD Nhánh rẽ Tân Bảo
+Tiếp địa trụ trung thế 117
+Tiếp địa trụ trung thế 147Nhánh rẽ Tân Bảo</v>
+      </c>
+      <c r="S19" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v>Lắp đặt trạm biến áp Tân Bảo 3A, tách lưới hạ thế trạm Tân Bảo 3 sang nhận điện trạm Tân Bảo 3Acắt recloser + 3 ltd nhánh rẽ tân bảo
+tiếp địa trụ trung thế 117
+tiếp địa trụ trung thế 147Nhánh rẽ Tân Bảo</v>
       </c>
       <c r="T19" s="26" t="str">
         <f t="shared" si="6"/>
-        <v>Cắt Recloser + 3 LTD Nhánh rẽ Nam Hà</v>
+        <v>Cắt Recloser + 3 LTD Nhánh rẽ Tân Bảo</v>
       </c>
       <c r="U19" s="26" t="str">
         <f t="shared" si="7"/>
-        <v>Tiếp địa tại Tiếp địa trụ trung thế 351Nhánh rẽ Nam Hà</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" ht="30">
+        <v>Tiếp địa tại Tiếp địa trụ trung thế 147Nhánh rẽ Tân Bảo</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="57.6">
       <c r="A20">
         <f>ROW()</f>
         <v>20</v>
@@ -6497,19 +6707,19 @@
         <v>156</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="G20" s="47" t="s">
-        <v>211</v>
-      </c>
-      <c r="H20" s="24" t="s">
-        <v>175</v>
+        <v>210</v>
+      </c>
+      <c r="H20" s="45" t="s">
+        <v>260</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>231</v>
@@ -6519,70 +6729,83 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="L20" s="26" t="e">
-        <f t="array" aca="1" ref="L20" ca="1">_xlfn.TEXTJOIN(CHAR(10),TRUE,E20:F20)</f>
-        <v>#NAME?</v>
+      <c r="L20" s="26" t="str">
+        <f t="array" ref="L20">_xlfn.TEXTJOIN(CHAR(10),TRUE,E20:F20)</f>
+        <v>Cắt Recloser + 3 LTD Nhánh rẽ Nam Hà
+Cắt 3 LTD Xuân Bảo - Nam Hà
+Tiếp địa trụ trung thế 326
+Tiếp địa trụ trung thế 351</v>
       </c>
       <c r="M20" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>Nhánh rẽ Tân Bảo</v>
-      </c>
-      <c r="N20" s="26" t="e">
-        <f t="shared" ca="1" si="2"/>
-        <v>#NAME?</v>
+        <v>Nhánh rẽ Nam Hà</v>
+      </c>
+      <c r="N20" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>Cắt Recloser + 3 LTD Nhánh rẽ Nam Hà
+Cắt 3 LTD Xuân Bảo - Nam Hà
+Tiếp địa trụ trung thế 326
+Tiếp địa trụ trung thế 351Nhánh rẽ Nam Hà</v>
       </c>
       <c r="O20" s="35">
-        <v>44097</v>
+        <v>44096</v>
       </c>
       <c r="P20" t="s">
         <v>136</v>
       </c>
       <c r="Q20">
-        <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="R20" s="26" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="S20" s="26" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="R20" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v>Cắt Recloser + 3 LTD Nhánh rẽ Nam Hà
+Cắt 3 LTD Xuân Bảo - Nam Hà
+Tiếp địa trụ trung thế 326
+Tiếp địa trụ trung thế 351Nhánh rẽ Nam Hà</v>
+      </c>
+      <c r="S20" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v>Di dời TBA Nam Hà 1 từ trụ 344 trục chính tuyến 477 Xuân Bảo về trụ 344/01 XDM, Trồng đôn trụ trung thế 335A, 344, 348A; trồng đôn trụ hạ thế 339A trục chính tuyến 477 Xuân Bảo
+cắt recloser + 3 ltd nhánh rẽ nam hà
+cắt 3 ltd xuân bảo - nam hà
+tiếp địa trụ trung thế 326
+tiếp địa trụ trung thế 351Nhánh rẽ Nam Hà</v>
       </c>
       <c r="T20" s="26" t="str">
         <f t="shared" si="6"/>
-        <v>Cắt Recloser + 3 LTD Nhánh rẽ Tân Bảo</v>
+        <v>Cắt Recloser + 3 LTD Nhánh rẽ Nam Hà</v>
       </c>
       <c r="U20" s="26" t="str">
         <f t="shared" si="7"/>
-        <v>Tiếp địa tại Tiếp địa trụ trung thế 147Nhánh rẽ Tân Bảo</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21">
+        <v>Tiếp địa tại Tiếp địa trụ trung thế 351Nhánh rẽ Nam Hà</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="28.8">
       <c r="A21">
         <f>ROW()</f>
         <v>21</v>
       </c>
       <c r="B21" s="44">
-        <v>44082</v>
+        <v>44062</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>236</v>
+        <v>208</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="G21" s="47" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="H21" s="24" t="s">
-        <v>255</v>
+        <v>175</v>
       </c>
       <c r="I21" s="6" t="s">
         <v>231</v>
@@ -6592,46 +6815,54 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="L21" s="26" t="e">
-        <f t="array" aca="1" ref="L21" ca="1">_xlfn.TEXTJOIN(CHAR(10),TRUE,E21:F21)</f>
-        <v>#NAME?</v>
+      <c r="L21" s="26" t="str">
+        <f t="array" ref="L21">_xlfn.TEXTJOIN(CHAR(10),TRUE,E21:F21)</f>
+        <v>Cắt Recloser + 3 LTD Nhánh rẽ Tân Bảo
+Tiếp địa trụ trung thế 117
+Tiếp địa trụ trung thế 147</v>
       </c>
       <c r="M21" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>TBA Sông Ray 7</v>
-      </c>
-      <c r="N21" s="26" t="e">
-        <f t="shared" ca="1" si="2"/>
-        <v>#NAME?</v>
+        <v>Nhánh rẽ Tân Bảo</v>
+      </c>
+      <c r="N21" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>Cắt Recloser + 3 LTD Nhánh rẽ Tân Bảo
+Tiếp địa trụ trung thế 117
+Tiếp địa trụ trung thế 147Nhánh rẽ Tân Bảo</v>
       </c>
       <c r="O21" s="35">
-        <v>44098</v>
+        <v>44097</v>
       </c>
       <c r="P21" t="s">
         <v>136</v>
       </c>
       <c r="Q21">
-        <f>WEEKDAY(O21)</f>
-        <v>5</v>
-      </c>
-      <c r="R21" s="26" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="S21" s="26" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="R21" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v>Cắt Recloser + 3 LTD Nhánh rẽ Tân Bảo
+Tiếp địa trụ trung thế 117
+Tiếp địa trụ trung thế 147Nhánh rẽ Tân Bảo</v>
+      </c>
+      <c r="S21" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v>Di dời TBA Tân Bảo 3cắt recloser + 3 ltd nhánh rẽ tân bảo
+tiếp địa trụ trung thế 117
+tiếp địa trụ trung thế 147Nhánh rẽ Tân Bảo</v>
       </c>
       <c r="T21" s="26" t="str">
         <f t="shared" si="6"/>
-        <v>Cắt FCO TBA Sông Ray 7</v>
+        <v>Cắt Recloser + 3 LTD Nhánh rẽ Tân Bảo</v>
       </c>
       <c r="U21" s="26" t="str">
         <f t="shared" si="7"/>
-        <v>Tiếp địa tại Tiếp địa hạ thế tại MCCB TBA Sông Ray 7TBA Sông Ray 7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" ht="30">
+        <v>Tiếp địa tại Tiếp địa trụ trung thế 147Nhánh rẽ Tân Bảo</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
       <c r="A22">
         <f>ROW()</f>
         <v>22</v>
@@ -6643,37 +6874,41 @@
         <v>164</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="G22" s="47" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="H22" s="24" t="s">
-        <v>246</v>
-      </c>
-      <c r="I22" s="6"/>
+        <v>255</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>231</v>
+      </c>
       <c r="J22" s="6"/>
       <c r="K22" s="26">
-        <f t="shared" ref="K22" si="10">J22+14</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="L22" s="26" t="e">
-        <f t="array" aca="1" ref="L22" ca="1">_xlfn.TEXTJOIN(CHAR(10),TRUE,E22:F22)</f>
-        <v>#NAME?</v>
+      <c r="L22" s="26" t="str">
+        <f t="array" ref="L22">_xlfn.TEXTJOIN(CHAR(10),TRUE,E22:F22)</f>
+        <v>Cắt FCO + MCCB TBA Sông Ray 7
+Tiếp địa hạ thế tại MCCB TBA Sông Ray 7</v>
       </c>
       <c r="M22" s="26" t="str">
-        <f t="shared" ref="M22" si="11">D22</f>
-        <v>Nhánh rẽ Thừa Đức 11</v>
-      </c>
-      <c r="N22" s="26" t="e">
-        <f t="shared" ref="N22" ca="1" si="12">L22&amp;D22</f>
-        <v>#NAME?</v>
+        <f t="shared" si="1"/>
+        <v>TBA Sông Ray 7</v>
+      </c>
+      <c r="N22" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>Cắt FCO + MCCB TBA Sông Ray 7
+Tiếp địa hạ thế tại MCCB TBA Sông Ray 7TBA Sông Ray 7</v>
       </c>
       <c r="O22" s="35">
         <v>44098</v>
@@ -6685,124 +6920,130 @@
         <f>WEEKDAY(O22)</f>
         <v>5</v>
       </c>
-      <c r="R22" s="26" t="e">
-        <f t="shared" ref="R22" ca="1" si="13">L22&amp;D22</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="S22" s="26" t="e">
-        <f t="shared" ref="S22" ca="1" si="14">H22&amp;LOWER(L22)&amp;D22</f>
-        <v>#NAME?</v>
+      <c r="R22" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v>Cắt FCO + MCCB TBA Sông Ray 7
+Tiếp địa hạ thế tại MCCB TBA Sông Ray 7TBA Sông Ray 7</v>
+      </c>
+      <c r="S22" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v>Đấu nối hạ thế, Nâng cấp đường dây hạ thế sau TBA Sông Ray 7cắt fco + mccb tba sông ray 7
+tiếp địa hạ thế tại mccb tba sông ray 7TBA Sông Ray 7</v>
       </c>
       <c r="T22" s="26" t="str">
-        <f t="shared" ref="T22" si="15">"Cắt "&amp;C22&amp;M22</f>
-        <v>Cắt FCO Nhánh rẽ Thừa Đức 11</v>
+        <f t="shared" si="6"/>
+        <v>Cắt FCO TBA Sông Ray 7</v>
       </c>
       <c r="U22" s="26" t="str">
-        <f t="shared" ref="U22" si="16">"Tiếp địa tại "&amp;F22&amp;D22</f>
-        <v>Tiếp địa tại Tiếp địa trụ trạm Thừa Đức 11Nhánh rẽ Thừa Đức 11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" ht="30">
+        <f t="shared" si="7"/>
+        <v>Tiếp địa tại Tiếp địa hạ thế tại MCCB TBA Sông Ray 7TBA Sông Ray 7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="28.8">
       <c r="A23">
         <f>ROW()</f>
         <v>23</v>
       </c>
       <c r="B23" s="44">
-        <v>44062</v>
+        <v>44082</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>164</v>
       </c>
       <c r="D23" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="G23" s="47" t="s">
+        <v>245</v>
+      </c>
+      <c r="H23" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="26">
+        <f t="shared" ref="K23" si="18">J23+14</f>
+        <v>14</v>
+      </c>
+      <c r="L23" s="26" t="str">
+        <f t="array" ref="L23">_xlfn.TEXTJOIN(CHAR(10),TRUE,E23:F23)</f>
+        <v>Cắt 1xFCO nhánh rẽ Thừa Đức 11
+Tiếp địa trụ trạm Thừa Đức 11</v>
+      </c>
+      <c r="M23" s="26" t="str">
+        <f t="shared" ref="M23" si="19">D23</f>
+        <v>Nhánh rẽ Thừa Đức 11</v>
+      </c>
+      <c r="N23" s="26" t="str">
+        <f t="shared" ref="N23" si="20">L23&amp;D23</f>
+        <v>Cắt 1xFCO nhánh rẽ Thừa Đức 11
+Tiếp địa trụ trạm Thừa Đức 11Nhánh rẽ Thừa Đức 11</v>
+      </c>
+      <c r="O23" s="35">
+        <v>44098</v>
+      </c>
+      <c r="P23" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q23">
+        <f>WEEKDAY(O23)</f>
+        <v>5</v>
+      </c>
+      <c r="R23" s="26" t="str">
+        <f t="shared" ref="R23" si="21">L23&amp;D23</f>
+        <v>Cắt 1xFCO nhánh rẽ Thừa Đức 11
+Tiếp địa trụ trạm Thừa Đức 11Nhánh rẽ Thừa Đức 11</v>
+      </c>
+      <c r="S23" s="26" t="str">
+        <f t="shared" ref="S23" si="22">H23&amp;LOWER(L23)&amp;D23</f>
+        <v>Đấu nối lưới trung thế Thừa Đức 11, cấy TBA Thừa Đức 11, tách 1 phần lưới hạ thế TBA Thừa Đức 11 sang nhận điện từ TBA Thừa Đức 11Acắt 1xfco nhánh rẽ thừa đức 11
+tiếp địa trụ trạm thừa đức 11Nhánh rẽ Thừa Đức 11</v>
+      </c>
+      <c r="T23" s="26" t="str">
+        <f t="shared" ref="T23" si="23">"Cắt "&amp;C23&amp;M23</f>
+        <v>Cắt FCO Nhánh rẽ Thừa Đức 11</v>
+      </c>
+      <c r="U23" s="26" t="str">
+        <f t="shared" ref="U23" si="24">"Tiếp địa tại "&amp;F23&amp;D23</f>
+        <v>Tiếp địa tại Tiếp địa trụ trạm Thừa Đức 11Nhánh rẽ Thừa Đức 11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="28.8">
+      <c r="A24">
+        <f>ROW()</f>
+        <v>24</v>
+      </c>
+      <c r="B24" s="44">
+        <v>44062</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E24" t="s">
         <v>247</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F24" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="G23" s="47" t="s">
+      <c r="G24" s="47" t="s">
         <v>252</v>
       </c>
-      <c r="H23" s="24" t="s">
+      <c r="H24" s="24" t="s">
         <v>250</v>
       </c>
-      <c r="L23" s="26" t="e">
-        <f t="array" aca="1" ref="L23" ca="1">_xlfn.TEXTJOIN(CHAR(10),TRUE,E23:F23)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21">
-      <c r="A24">
-        <f>ROW()</f>
-        <v>24</v>
-      </c>
-      <c r="B24" s="44">
-        <v>44091</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="F24" s="6"/>
-      <c r="G24" s="47" t="s">
-        <v>254</v>
-      </c>
-      <c r="H24" s="24" t="s">
-        <v>238</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="J24" s="6"/>
-      <c r="K24" s="26">
-        <f t="shared" ref="K24" si="17">J24+14</f>
-        <v>14</v>
-      </c>
       <c r="L24" s="26" t="str">
-        <f>E24</f>
-        <v>Cắt 02 MCCB phân đoạn tại trụ HTĐL 01</v>
-      </c>
-      <c r="M24" s="26" t="str">
-        <f t="shared" ref="M24" si="18">D24</f>
-        <v>TBA Sông Ray 7</v>
-      </c>
-      <c r="N24" s="26" t="str">
-        <f t="shared" ref="N24" si="19">L24&amp;D24</f>
-        <v>Cắt 02 MCCB phân đoạn tại trụ HTĐL 01TBA Sông Ray 7</v>
-      </c>
-      <c r="O24" s="35">
-        <f>B24+14</f>
-        <v>44105</v>
-      </c>
-      <c r="P24" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q24">
-        <f>WEEKDAY(O24)</f>
-        <v>5</v>
-      </c>
-      <c r="R24" s="26" t="str">
-        <f t="shared" ref="R24" si="20">L24&amp;D24</f>
-        <v>Cắt 02 MCCB phân đoạn tại trụ HTĐL 01TBA Sông Ray 7</v>
-      </c>
-      <c r="S24" s="26" t="str">
-        <f t="shared" ref="S24" si="21">H24&amp;LOWER(L24)&amp;D24</f>
-        <v>Nâng cấp đường dây hạ thế sau TBA Sông Ray 7cắt 02 mccb phân đoạn tại trụ htđl 01TBA Sông Ray 7</v>
-      </c>
-      <c r="T24" s="26" t="str">
-        <f t="shared" ref="T24" si="22">"Cắt "&amp;C24&amp;M24</f>
-        <v>Cắt Cắt 02 MCCB phân đoạn tại trụ HTĐL 01TBA Sông Ray 7</v>
-      </c>
-      <c r="U24" s="26" t="str">
-        <f t="shared" ref="U24" si="23">"Tiếp địa tại "&amp;F24&amp;D24</f>
-        <v>Tiếp địa tại TBA Sông Ray 7</v>
+        <f t="array" ref="L24">_xlfn.TEXTJOIN(CHAR(10),TRUE,E24:F24)</f>
+        <v>Cắt 1xFCO nhánh rẽ Suối Râm 7A
+Tiếp địa trụ trung thế 002</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -6810,7 +7051,72 @@
         <f>ROW()</f>
         <v>25</v>
       </c>
-      <c r="B25" s="44"/>
+      <c r="B25" s="44">
+        <v>44091</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="F25" s="6"/>
+      <c r="G25" s="47" t="s">
+        <v>254</v>
+      </c>
+      <c r="H25" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="J25" s="6"/>
+      <c r="K25" s="26">
+        <f t="shared" ref="K25" si="25">J25+14</f>
+        <v>14</v>
+      </c>
+      <c r="L25" s="26" t="str">
+        <f>E25</f>
+        <v>Cắt 02 MCCB phân đoạn tại trụ HTĐL 01</v>
+      </c>
+      <c r="M25" s="26" t="str">
+        <f t="shared" ref="M25" si="26">D25</f>
+        <v>TBA Sông Ray 7</v>
+      </c>
+      <c r="N25" s="26" t="str">
+        <f t="shared" ref="N25" si="27">L25&amp;D25</f>
+        <v>Cắt 02 MCCB phân đoạn tại trụ HTĐL 01TBA Sông Ray 7</v>
+      </c>
+      <c r="O25" s="35">
+        <f>B25+14</f>
+        <v>44105</v>
+      </c>
+      <c r="P25" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q25">
+        <f>WEEKDAY(O25)</f>
+        <v>5</v>
+      </c>
+      <c r="R25" s="26" t="str">
+        <f t="shared" ref="R25" si="28">L25&amp;D25</f>
+        <v>Cắt 02 MCCB phân đoạn tại trụ HTĐL 01TBA Sông Ray 7</v>
+      </c>
+      <c r="S25" s="26" t="str">
+        <f t="shared" ref="S25" si="29">H25&amp;LOWER(L25)&amp;D25</f>
+        <v>Nâng cấp đường dây hạ thế sau TBA Sông Ray 7cắt 02 mccb phân đoạn tại trụ htđl 01TBA Sông Ray 7</v>
+      </c>
+      <c r="T25" s="26" t="str">
+        <f t="shared" ref="T25" si="30">"Cắt "&amp;C25&amp;M25</f>
+        <v>Cắt Cắt 02 MCCB phân đoạn tại trụ HTĐL 01TBA Sông Ray 7</v>
+      </c>
+      <c r="U25" s="26" t="str">
+        <f t="shared" ref="U25" si="31">"Tiếp địa tại "&amp;F25&amp;D25</f>
+        <v>Tiếp địa tại TBA Sông Ray 7</v>
+      </c>
     </row>
     <row r="26" spans="1:21">
       <c r="A26">
@@ -7288,64 +7594,79 @@
       </c>
       <c r="B93" s="44"/>
     </row>
+    <row r="94" spans="1:2">
+      <c r="A94">
+        <f>ROW()</f>
+        <v>94</v>
+      </c>
+      <c r="B94" s="44"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:V93"/>
-  <conditionalFormatting sqref="Q1:R1 Q8 Q10:Q17 Q21 Q3:Q6">
+  <autoFilter ref="A1:V94" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
+  <conditionalFormatting sqref="Q1:R1 Q9 Q11:Q18 Q22 Q3:Q6">
+    <cfRule type="cellIs" dxfId="15" priority="20" stopIfTrue="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q7">
+    <cfRule type="cellIs" dxfId="14" priority="19" stopIfTrue="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q10">
     <cfRule type="cellIs" dxfId="13" priority="18" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q7">
-    <cfRule type="cellIs" dxfId="12" priority="17" stopIfTrue="1" operator="equal">
-      <formula>1</formula>
-    </cfRule>
+  <conditionalFormatting sqref="O26:O1048576 O22 O1 O24 O3:O7 O9:O18">
+    <cfRule type="duplicateValues" dxfId="12" priority="17"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q9">
+  <conditionalFormatting sqref="Q19">
     <cfRule type="cellIs" dxfId="11" priority="16" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O25:O1048576 O21 O1 O23 O3:O17">
+  <conditionalFormatting sqref="O19">
     <cfRule type="duplicateValues" dxfId="10" priority="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q18">
+  <conditionalFormatting sqref="Q20">
     <cfRule type="cellIs" dxfId="9" priority="14" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O18">
+  <conditionalFormatting sqref="O20">
     <cfRule type="duplicateValues" dxfId="8" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q19">
+  <conditionalFormatting sqref="Q21">
     <cfRule type="cellIs" dxfId="7" priority="12" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O19">
+  <conditionalFormatting sqref="O21">
     <cfRule type="duplicateValues" dxfId="6" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q20">
-    <cfRule type="cellIs" dxfId="5" priority="10" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="Q23">
+    <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O20">
-    <cfRule type="duplicateValues" dxfId="4" priority="9"/>
+  <conditionalFormatting sqref="O23">
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q22">
+  <conditionalFormatting sqref="Q25">
     <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O22">
+  <conditionalFormatting sqref="O25">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q24">
+  <conditionalFormatting sqref="Q8">
     <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O24">
+  <conditionalFormatting sqref="O8">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7354,24 +7675,24 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="79.7109375" customWidth="1"/>
-    <col min="4" max="4" width="75.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="79.6640625" customWidth="1"/>
+    <col min="4" max="4" width="75.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="36" customFormat="1" ht="45">
+    <row r="1" spans="1:5" s="36" customFormat="1" ht="43.2">
       <c r="B1" s="36" t="s">
         <v>225</v>
       </c>
@@ -7420,9 +7741,10 @@
         <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!D$2,0)</f>
         <v>Lưới điện hạ thế thuộc trạm Nam Hà 1A</v>
       </c>
-      <c r="E3" t="e">
-        <f ca="1">VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
-        <v>#NAME?</v>
+      <c r="E3" t="str">
+        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
+        <v>Cắt FCO + MCCB TBA Nam Hà 1A
+Tiếp địa hạ thế tại MCCB TBA Nam Hà 1A</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -7442,9 +7764,11 @@
         <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!D$2,0)</f>
         <v> Lưới hạ thế thuộc trạm Nam Hà 1</v>
       </c>
-      <c r="E4" t="e">
-        <f ca="1">VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
-        <v>#NAME?</v>
+      <c r="E4" t="str">
+        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
+        <v xml:space="preserve">Cắt FCO + MCCB TBA Nam Hà 1
+Tiếp địa hạ thế tại MCCB TBA Nam Hà 1
+ </v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7464,9 +7788,10 @@
         <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!D$2,0)</f>
         <v>Lưới điện hạ thế thuộc trạm Nam Hà 3</v>
       </c>
-      <c r="E5" t="e">
-        <f ca="1">VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
-        <v>#NAME?</v>
+      <c r="E5" t="str">
+        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
+        <v>Cắt FCO + MCCB TBA Nam Hà 3
+Tiếp địa hạ thế tại MCCB TBA Nam Hà 3</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -7486,9 +7811,10 @@
         <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!D$2,0)</f>
         <v>Đường dây hạ thế thuộc trạm biến áp Xuân Tây 10A</v>
       </c>
-      <c r="E6" t="e">
-        <f ca="1">VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
-        <v>#NAME?</v>
+      <c r="E6" t="str">
+        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
+        <v>Cắt FCO + MCCB TBA Xuân Tây 10A
+Tiếp địa hạ thế tại MCCB TBA Xuân Tây 10A</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -7508,9 +7834,10 @@
         <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!D$2,0)</f>
         <v>Đường dây hạ thế thuộc Trạm Sông Ray 8A</v>
       </c>
-      <c r="E7" t="e">
-        <f ca="1">VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
-        <v>#NAME?</v>
+      <c r="E7" t="str">
+        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
+        <v>Cắt FCO + MCCB TBA Sông Ray 8A
+Tiếp địa hạ thế tại MCCB TBA Sông Ray 8A</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -7530,9 +7857,13 @@
         <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!D$2,0)</f>
         <v>Tại trạm biến áp Sông Ray 7</v>
       </c>
-      <c r="E8" t="e">
-        <f ca="1">VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
-        <v>#NAME?</v>
+      <c r="E8" t="str">
+        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
+        <v>Cắt LBS khí Đồng Tâm 1 + 3 LTD Đồng Tâm 1
+Cắt LBS khí Sông Ray + 3 LTD Sông Ray 1
+Tiếp địa trụ trung thế 357 
+Tiếp địa trụ trung thế 381 
+Tiếp địa hạ thế TBA Sông Ray 7</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -7542,19 +7873,21 @@
       </c>
       <c r="B9" t="str">
         <f>" ngày "&amp;TEXT(VLOOKUP(ROW(),KSHT,'Merge-PATC'!B$2,0),"dd")&amp;" tháng "&amp;TEXT(VLOOKUP(ROW(),KSHT,'Merge-PATC'!B$2,0),"MM")&amp;" năm "&amp;TEXT(VLOOKUP(ROW(),KSHT,'Merge-PATC'!B$2,0),"yyyy")</f>
-        <v xml:space="preserve"> ngày 19 tháng 08 năm 2020</v>
+        <v xml:space="preserve"> ngày       tháng       năm      </v>
       </c>
       <c r="C9" t="str">
         <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!C$2,0)</f>
-        <v>Nâng cấp đường dây hạ thế và TBA Sông Ray 7 từ 1 pha lên 3 pha, cấy TBA Sông Ray 7A, đấu nối trung hạ thế</v>
+        <v>Tách lưới, sang tải TBA  Sông Ray 7 sang TBA  Sông Ray 7A, đấu nối máy biến áp</v>
       </c>
       <c r="D9" t="str">
         <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!D$2,0)</f>
-        <v>Nhánh rẽ Lâm San 10 11 12 tuyến 471 Xuân Mỹ</v>
-      </c>
-      <c r="E9" t="e">
-        <f ca="1">VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
-        <v>#NAME?</v>
+        <v>Tại trạm biến áp Sông Ray 7A</v>
+      </c>
+      <c r="E9" t="str">
+        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
+        <v>Cắt FCO + MCCB TBA Sông Ray 7A
+Tháo hotline nhánh rẽ Sông Ray 7A
+Tiếp địa trung hạ thế  trạm biến áp Sông Ray 7A</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -7568,15 +7901,17 @@
       </c>
       <c r="C10" t="str">
         <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!C$2,0)</f>
-        <v>Trồng trụ trung thế 015A đấu nối trung thế, tách lưới, sang tải TBA Sông Ray 2, Sông Ray 2A. Đấu nối trung thế và di dời TBA Sông Ray 4A</v>
+        <v>Nâng cấp đường dây hạ thế và TBA Sông Ray 7 từ 1 pha lên 3 pha, cấy TBA Sông Ray 7A, đấu nối trung hạ thế</v>
       </c>
       <c r="D10" t="str">
         <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!D$2,0)</f>
-        <v>Từ khoản trụ 015, 016, 072 nhánh Lâm San tuyến 471 Xuân Mỹ</v>
-      </c>
-      <c r="E10" t="e">
-        <f ca="1">VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
-        <v>#NAME?</v>
+        <v>Nhánh rẽ Lâm San 10 11 12 tuyến 471 Xuân Mỹ</v>
+      </c>
+      <c r="E10" t="str">
+        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
+        <v>Cắt 3xFCO Nhánh rẽ Lâm San 10, 11, 12
+Tiếp địa trụ trung thế 357 Nhánh rẽ Lâm San 10, 11, 12
+Tiếp địa trung hạ áp tại TBA Lâm San 11A, 11D</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -7590,15 +7925,17 @@
       </c>
       <c r="C11" t="str">
         <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!C$2,0)</f>
-        <v>Đấu nối trung thế trụ 009A, 013. Tách lưới hạ thế sau TBA Cánh đồng Xuân Tây 1A, Cánh đồng Xuân Tây 1B</v>
+        <v>Trồng trụ trung thế 015A đấu nối trung thế, tách lưới, sang tải TBA Sông Ray 2, Sông Ray 2A. Đấu nối trung thế và di dời TBA Sông Ray 4A</v>
       </c>
       <c r="D11" t="str">
         <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!D$2,0)</f>
-        <v>Từ sau 3xFCO nhánh Cánh Đồng Xuân Tây 1</v>
-      </c>
-      <c r="E11" t="e">
-        <f ca="1">VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
-        <v>#NAME?</v>
+        <v>Từ khoản trụ 015, 016, 072 nhánh Lâm San tuyến 471 Xuân Mỹ</v>
+      </c>
+      <c r="E11" t="str">
+        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
+        <v xml:space="preserve">Cắt Recloser + 3 LTD Lâm San
+Tiếp địa trụ trung thế 011A
+Tiếp địa trụ trung thế 075 </v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -7612,15 +7949,16 @@
       </c>
       <c r="C12" t="str">
         <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!C$2,0)</f>
-        <v>Đấu nối trung thế trụ 087 nhánh rẽ Láng Me. Cấy TBA Láng Me 3B, Tách lưới hạ thế sau TBA Láng Me 3 sang Láng Me 3B</v>
+        <v>Đấu nối trung thế trụ 009A, 013. Tách lưới hạ thế sau TBA Cánh đồng Xuân Tây 1A, Cánh đồng Xuân Tây 1B</v>
       </c>
       <c r="D12" t="str">
         <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!D$2,0)</f>
-        <v>Tại trụ 087 nhánh Láng Me tuyến 471 Xuân Mỹ</v>
-      </c>
-      <c r="E12" t="e">
-        <f ca="1">VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
-        <v>#NAME?</v>
+        <v>Từ sau 3xFCO nhánh Cánh Đồng Xuân Tây 1</v>
+      </c>
+      <c r="E12" t="str">
+        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
+        <v>Cắt 3xFCO Nhánh rẽ Cánh đồng Xuân Tây 1
+Tiếp địa trung hạ áp tại TBA Cánh đồng Xuân Tây 1</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -7634,15 +7972,18 @@
       </c>
       <c r="C13" t="str">
         <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!C$2,0)</f>
-        <v>Đấu nối trung thế trụ 021 Nhánh rẽ Thoại Hương 3, 4. Di dời TBA Thoại Hương 4</v>
+        <v>Đấu nối trung thế trụ 087 nhánh rẽ Láng Me. Cấy TBA Láng Me 3B, Tách lưới hạ thế sau TBA Láng Me 3 sang Láng Me 3B</v>
       </c>
       <c r="D13" t="str">
         <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!D$2,0)</f>
-        <v>Tại trụ trạm biến áp Thoại Hương 4 tuyến 471 Xuân Mỹ</v>
-      </c>
-      <c r="E13" t="e">
-        <f ca="1">VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
-        <v>#NAME?</v>
+        <v>Tại trụ 087 nhánh Láng Me tuyến 471 Xuân Mỹ</v>
+      </c>
+      <c r="E13" t="str">
+        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
+        <v>Cắt Recloser + 3 LTD Láng Me
+Tiếp địa trụ trung thế 079
+Tiếp địa trụ trung thế 094
+ Tiếp địa hạ thế TBA Láng Me 3</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -7656,15 +7997,16 @@
       </c>
       <c r="C14" t="str">
         <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!C$2,0)</f>
-        <v>Đấu nối trung thế trụ 017 Nhánh rẽ Xuân Tây 19.Cấy TBA Xuân Tây 19A, tách lưới hạ thế TBA Xuân Tây 19 sang TBA Xuân Tây 19A</v>
+        <v>Đấu nối trung thế trụ 021 Nhánh rẽ Thoại Hương 3, 4. Di dời TBA Thoại Hương 4</v>
       </c>
       <c r="D14" t="str">
         <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!D$2,0)</f>
-        <v>Nhấn vẽ Xuân Tây 19 tuyến 471 Xuân Mỹ</v>
-      </c>
-      <c r="E14" t="e">
-        <f ca="1">VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
-        <v>#NAME?</v>
+        <v>Tại trụ trạm biến áp Thoại Hương 4 tuyến 471 Xuân Mỹ</v>
+      </c>
+      <c r="E14" t="str">
+        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
+        <v>Cắt FCO Nhánh rẽ Thoại Hương 3, 4
+Tiếp địa trung hạ áp tại TBA Thoại Hương 3, 4</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -7678,15 +8020,16 @@
       </c>
       <c r="C15" t="str">
         <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!C$2,0)</f>
-        <v xml:space="preserve">Nâng cấp đường dây trung thế và trạm biến áp Láng Me 5B từ 1 pha lên 3 pha, di dời TBA Láng Me 5, cấy trạm biến áp lá me 5A-1, Cấy mới TBA Láng Me 5C, tách một phần lưới hạ thế Láng Me 5B sang nhận điện TBA Láng Me 5C, Đấu nối nhánh rẽ nhánh rẽ Láng Me 5C tại trụ 135 </v>
+        <v>Đấu nối trung thế trụ 017 Nhánh rẽ Xuân Tây 19.Cấy TBA Xuân Tây 19A, tách lưới hạ thế TBA Xuân Tây 19 sang TBA Xuân Tây 19A</v>
       </c>
       <c r="D15" t="str">
         <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!D$2,0)</f>
-        <v>Từ sau 3 FCO nhánh Láng Me 5 tuyến 471 Xuân Mỹ</v>
-      </c>
-      <c r="E15" t="e">
-        <f ca="1">VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
-        <v>#NAME?</v>
+        <v>Nhấn vẽ Xuân Tây 19 tuyến 471 Xuân Mỹ</v>
+      </c>
+      <c r="E15" t="str">
+        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
+        <v>Cắt FCO Nhánh rẽ Xuân Tây 19
+Tiếp địa trung hạ áp tại TBA Xuân Tây 19</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -7700,15 +8043,18 @@
       </c>
       <c r="C16" t="str">
         <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!C$2,0)</f>
-        <v>Di dời TBA Suối Râm 7</v>
+        <v xml:space="preserve">Nâng cấp đường dây trung thế và trạm biến áp Láng Me 5B từ 1 pha lên 3 pha, di dời TBA Láng Me 5, cấy trạm biến áp lá me 5A-1, Cấy mới TBA Láng Me 5C, tách một phần lưới hạ thế Láng Me 5B sang nhận điện TBA Láng Me 5C, Đấu nối nhánh rẽ nhánh rẽ Láng Me 5C tại trụ 135 </v>
       </c>
       <c r="D16" t="str">
         <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!D$2,0)</f>
-        <v>Tại trụ trạm suối râm 7 và trụ trung thế 023/007</v>
-      </c>
-      <c r="E16" t="e">
-        <f ca="1">VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
-        <v>#NAME?</v>
+        <v>Từ sau 3 FCO nhánh Láng Me 5 tuyến 471 Xuân Mỹ</v>
+      </c>
+      <c r="E16" t="str">
+        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
+        <v>Cắt 3xFCO Nhánh rẽ Láng Me 5
+Tiếp địa trụ trung thế 107
+Tiếp địa trụ trung thế 131
+ Tiếp địa hạ thế TBA Láng Me 5, 5A, 5B</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -7722,15 +8068,17 @@
       </c>
       <c r="C17" t="str">
         <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!C$2,0)</f>
-        <v>Lắp đặt trạm biến áp Nam Hà 3B tách lưới hạ thế trạm Nam Hà 3 sang nhận điện trạm Nam Hà 3B đấu nối đường dây trung thế xây dựng mới</v>
+        <v>Di dời TBA Suối Râm 7</v>
       </c>
       <c r="D17" t="str">
         <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!D$2,0)</f>
-        <v>Tại trụ trung thế 334/003, 334/003/019 và lưới điện hạ thế thuộc TBA Nam Hà 3</v>
-      </c>
-      <c r="E17" t="e">
-        <f ca="1">VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
-        <v>#NAME?</v>
+        <v>Tại trụ trạm suối râm 7 và trụ trung thế 023/007</v>
+      </c>
+      <c r="E17" t="str">
+        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
+        <v xml:space="preserve">Cắt Recloser + 3 LTD Nhánh rẽ Sông Nhạn
+Tiếp địa trụ trung thế 006
+Tiếp địa trụ trung thế 023A </v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -7740,19 +8088,22 @@
       </c>
       <c r="B18" t="str">
         <f>" ngày "&amp;TEXT(VLOOKUP(ROW(),KSHT,'Merge-PATC'!B$2,0),"dd")&amp;" tháng "&amp;TEXT(VLOOKUP(ROW(),KSHT,'Merge-PATC'!B$2,0),"MM")&amp;" năm "&amp;TEXT(VLOOKUP(ROW(),KSHT,'Merge-PATC'!B$2,0),"yyyy")</f>
-        <v xml:space="preserve"> ngày 18 tháng 08 năm 2020</v>
+        <v xml:space="preserve"> ngày 19 tháng 08 năm 2020</v>
       </c>
       <c r="C18" t="str">
         <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!C$2,0)</f>
-        <v>Lắp đặt trạm biến áp Tân Bảo 3A, tách lưới hạ thế trạm Tân Bảo 3 sang nhận điện trạm Tân Bảo 3A</v>
+        <v>Lắp đặt trạm biến áp Nam Hà 3B tách lưới hạ thế trạm Nam Hà 3 sang nhận điện trạm Nam Hà 3B đấu nối đường dây trung thế xây dựng mới</v>
       </c>
       <c r="D18" t="str">
         <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!D$2,0)</f>
-        <v>Tại trụ trung thế 018 nhánh Xuân Bảo - Bảo Bình và lưới điện hạ thế thuộc trạm Tân Bảo 3</v>
-      </c>
-      <c r="E18" t="e">
-        <f ca="1">VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
-        <v>#NAME?</v>
+        <v>Tại trụ trung thế 334/003, 334/003/019 và lưới điện hạ thế thuộc TBA Nam Hà 3</v>
+      </c>
+      <c r="E18" t="str">
+        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
+        <v>Cắt Recloser + 3 LTD Nhánh rẽ Nam Hà
+Cắt 3 LTD Xuân Bảo - Nam Hà
+Tiếp địa trụ trung thế 326
+Tiếp địa trụ trung thế 351</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -7762,64 +8113,71 @@
       </c>
       <c r="B19" t="str">
         <f>" ngày "&amp;TEXT(VLOOKUP(ROW(),KSHT,'Merge-PATC'!B$2,0),"dd")&amp;" tháng "&amp;TEXT(VLOOKUP(ROW(),KSHT,'Merge-PATC'!B$2,0),"MM")&amp;" năm "&amp;TEXT(VLOOKUP(ROW(),KSHT,'Merge-PATC'!B$2,0),"yyyy")</f>
+        <v xml:space="preserve"> ngày 18 tháng 08 năm 2020</v>
+      </c>
+      <c r="C19" t="str">
+        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!C$2,0)</f>
+        <v>Lắp đặt trạm biến áp Tân Bảo 3A, tách lưới hạ thế trạm Tân Bảo 3 sang nhận điện trạm Tân Bảo 3A</v>
+      </c>
+      <c r="D19" t="str">
+        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!D$2,0)</f>
+        <v>Tại trụ trung thế 018 nhánh Xuân Bảo - Bảo Bình và lưới điện hạ thế thuộc trạm Tân Bảo 3</v>
+      </c>
+      <c r="E19" t="str">
+        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
+        <v>Cắt Recloser + 3 LTD Nhánh rẽ Tân Bảo
+Tiếp địa trụ trung thế 117
+Tiếp địa trụ trung thế 147</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <f>ROW()</f>
+        <v>20</v>
+      </c>
+      <c r="B20" t="str">
+        <f>" ngày "&amp;TEXT(VLOOKUP(ROW(),KSHT,'Merge-PATC'!B$2,0),"dd")&amp;" tháng "&amp;TEXT(VLOOKUP(ROW(),KSHT,'Merge-PATC'!B$2,0),"MM")&amp;" năm "&amp;TEXT(VLOOKUP(ROW(),KSHT,'Merge-PATC'!B$2,0),"yyyy")</f>
         <v xml:space="preserve"> ngày 19 tháng 08 năm 2020</v>
       </c>
-      <c r="C19" t="str">
+      <c r="C20" t="str">
         <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!C$2,0)</f>
         <v xml:space="preserve">Di dời TBA Nam Hà 1 từ trụ 344 trục chính tuyến 477 Xuân Bảo về trụ 344/01 XDM, Trồng đôn trụ trung thế 335A, 344, 348A; trồng đôn trụ hạ thế 339A trục chính tuyến 477 Xuân Bảo
 </v>
       </c>
-      <c r="D19" t="str">
+      <c r="D20" t="str">
         <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!D$2,0)</f>
         <v>Tại trụ trung thế 334, 334/001, 335A, 348A, 339A nhánh rẽ Xuân Bảo - Nam Hà</v>
       </c>
-      <c r="E19" t="e">
-        <f ca="1">VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20">
-        <f>ROW()</f>
-        <v>20</v>
-      </c>
-      <c r="B20" t="str">
+      <c r="E20" t="str">
+        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
+        <v>Cắt Recloser + 3 LTD Nhánh rẽ Nam Hà
+Cắt 3 LTD Xuân Bảo - Nam Hà
+Tiếp địa trụ trung thế 326
+Tiếp địa trụ trung thế 351</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <f>ROW()</f>
+        <v>21</v>
+      </c>
+      <c r="B21" t="str">
         <f>" ngày "&amp;TEXT(VLOOKUP(ROW(),KSHT,'Merge-PATC'!B$2,0),"dd")&amp;" tháng "&amp;TEXT(VLOOKUP(ROW(),KSHT,'Merge-PATC'!B$2,0),"MM")&amp;" năm "&amp;TEXT(VLOOKUP(ROW(),KSHT,'Merge-PATC'!B$2,0),"yyyy")</f>
         <v xml:space="preserve"> ngày 19 tháng 08 năm 2020</v>
       </c>
-      <c r="C20" t="str">
+      <c r="C21" t="str">
         <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!C$2,0)</f>
         <v>Di dời TBA Tân Bảo 3</v>
       </c>
-      <c r="D20" t="str">
+      <c r="D21" t="str">
         <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!D$2,0)</f>
         <v>Tại trụ trung thế TBA Tân Bảo 3 và trụ trung thế 131 nhánh rẽ Xuân Bảo - Bảo Bình</v>
       </c>
-      <c r="E20" t="e">
-        <f ca="1">VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21">
-        <f>ROW()</f>
-        <v>21</v>
-      </c>
-      <c r="B21" t="str">
-        <f>" ngày "&amp;TEXT(VLOOKUP(ROW(),KSHT,'Merge-PATC'!B$2,0),"dd")&amp;" tháng "&amp;TEXT(VLOOKUP(ROW(),KSHT,'Merge-PATC'!B$2,0),"MM")&amp;" năm "&amp;TEXT(VLOOKUP(ROW(),KSHT,'Merge-PATC'!B$2,0),"yyyy")</f>
-        <v xml:space="preserve"> ngày 08 tháng 09 năm 2020</v>
-      </c>
-      <c r="C21" t="str">
-        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!C$2,0)</f>
-        <v>Đấu nối hạ thế, Nâng cấp đường dây hạ thế sau TBA Sông Ray 7</v>
-      </c>
-      <c r="D21" t="str">
-        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!D$2,0)</f>
-        <v>Lưới điện hạ thế thuộc trạm Sông Ray 7</v>
-      </c>
-      <c r="E21" t="e">
-        <f ca="1">VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
-        <v>#NAME?</v>
+      <c r="E21" t="str">
+        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
+        <v>Cắt Recloser + 3 LTD Nhánh rẽ Tân Bảo
+Tiếp địa trụ trung thế 117
+Tiếp địa trụ trung thế 147</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -7833,15 +8191,16 @@
       </c>
       <c r="C22" t="str">
         <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!C$2,0)</f>
-        <v>Đấu nối lưới trung thế Thừa Đức 11, cấy TBA Thừa Đức 11, tách 1 phần lưới hạ thế TBA Thừa Đức 11 sang nhận điện từ TBA Thừa Đức 11A</v>
+        <v>Đấu nối hạ thế, Nâng cấp đường dây hạ thế sau TBA Sông Ray 7</v>
       </c>
       <c r="D22" t="str">
         <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!D$2,0)</f>
-        <v>Tại trụ trung thế 010, 032 và lưới điện hạ thế thuộc TBA Thừa Đức 11</v>
-      </c>
-      <c r="E22" t="e">
-        <f ca="1">VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
-        <v>#NAME?</v>
+        <v>Lưới điện hạ thế thuộc trạm Sông Ray 7</v>
+      </c>
+      <c r="E22" t="str">
+        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
+        <v>Cắt FCO + MCCB TBA Sông Ray 7
+Tiếp địa hạ thế tại MCCB TBA Sông Ray 7</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -7851,19 +8210,20 @@
       </c>
       <c r="B23" t="str">
         <f>" ngày "&amp;TEXT(VLOOKUP(ROW(),KSHT,'Merge-PATC'!B$2,0),"dd")&amp;" tháng "&amp;TEXT(VLOOKUP(ROW(),KSHT,'Merge-PATC'!B$2,0),"MM")&amp;" năm "&amp;TEXT(VLOOKUP(ROW(),KSHT,'Merge-PATC'!B$2,0),"yyyy")</f>
-        <v xml:space="preserve"> ngày 19 tháng 08 năm 2020</v>
+        <v xml:space="preserve"> ngày 08 tháng 09 năm 2020</v>
       </c>
       <c r="C23" t="str">
         <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!C$2,0)</f>
-        <v>Cấy TBA Suối Râm 7A (1x75kVA) tại trụ trung thế 017 nhánh rẽ Suối Râm 7A, tách 1 phần lưới hạ thế từ TBA Suối Râm 7 sang nhận điện TBA Suối Râm 7A</v>
+        <v>Đấu nối lưới trung thế Thừa Đức 11, cấy TBA Thừa Đức 11, tách 1 phần lưới hạ thế TBA Thừa Đức 11 sang nhận điện từ TBA Thừa Đức 11A</v>
       </c>
       <c r="D23" t="str">
         <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!D$2,0)</f>
-        <v>Lưới điện trung hạ thế thuộc nhánh rẽ Suối Râm 7A</v>
-      </c>
-      <c r="E23" t="e">
-        <f ca="1">VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
-        <v>#NAME?</v>
+        <v>Tại trụ trung thế 010, 032 và lưới điện hạ thế thuộc TBA Thừa Đức 11</v>
+      </c>
+      <c r="E23" t="str">
+        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
+        <v>Cắt 1xFCO nhánh rẽ Thừa Đức 11
+Tiếp địa trụ trạm Thừa Đức 11</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -7873,19 +8233,20 @@
       </c>
       <c r="B24" t="str">
         <f>" ngày "&amp;TEXT(VLOOKUP(ROW(),KSHT,'Merge-PATC'!B$2,0),"dd")&amp;" tháng "&amp;TEXT(VLOOKUP(ROW(),KSHT,'Merge-PATC'!B$2,0),"MM")&amp;" năm "&amp;TEXT(VLOOKUP(ROW(),KSHT,'Merge-PATC'!B$2,0),"yyyy")</f>
-        <v xml:space="preserve"> ngày 17 tháng 09 năm 2020</v>
+        <v xml:space="preserve"> ngày 19 tháng 08 năm 2020</v>
       </c>
       <c r="C24" t="str">
         <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!C$2,0)</f>
-        <v>Nâng cấp đường dây hạ thế sau TBA Sông Ray 7</v>
+        <v>Cấy TBA Suối Râm 7A (1x75kVA) tại trụ trung thế 017 nhánh rẽ Suối Râm 7A, tách 1 phần lưới hạ thế từ TBA Suối Râm 7 sang nhận điện TBA Suối Râm 7A</v>
       </c>
       <c r="D24" t="str">
         <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!D$2,0)</f>
-        <v>Lưới điện hạ thế độc lập sau trạm biến áp Sông Ray 7</v>
+        <v>Lưới điện trung hạ thế thuộc nhánh rẽ Suối Râm 7A</v>
       </c>
       <c r="E24" t="str">
         <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
-        <v>Cắt 02 MCCB phân đoạn tại trụ HTĐL 01</v>
+        <v>Cắt 1xFCO nhánh rẽ Suối Râm 7A
+Tiếp địa trụ trung thế 002</v>
       </c>
     </row>
   </sheetData>

--- a/TrungThau/20191261297-DLCM-CaiTaoLuoiDien--/PhuongAnThiCong-Ngay.xlsx
+++ b/TrungThau/20191261297-DLCM-CaiTaoLuoiDien--/PhuongAnThiCong-Ngay.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\ThucTran\HSTT\TrungThau\20191261297-DLCM-CaiTaoLuoiDien--\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB5217E-E13B-44DD-918D-8D287FF087BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{360168F0-C862-4D32-BD6C-B6E8877F389C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="267">
   <si>
     <t>STT</t>
   </si>
@@ -898,23 +898,20 @@
     <t>Nhánh rẽ Sông Ray 7A</t>
   </si>
   <si>
-    <t>Tháo hotline</t>
+    <t>Tại trạm biến áp Sông Ray 7A</t>
+  </si>
+  <si>
+    <t>Tiếp địa trung hạ thế  trạm biến áp Sông Ray 7A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     </t>
+  </si>
+  <si>
+    <t>Tách lưới, sang tải TBA  Sông Ray 7 sang TBA  Sông Ray 7A, đấu nối máy biến áp</t>
   </si>
   <si>
     <t>Cắt FCO + MCCB TBA Sông Ray 7A
-Tháo hotline nhánh rẽ Sông Ray 7A</t>
-  </si>
-  <si>
-    <t>Tại trạm biến áp Sông Ray 7A</t>
-  </si>
-  <si>
-    <t>Tiếp địa trung hạ thế  trạm biến áp Sông Ray 7A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     </t>
-  </si>
-  <si>
-    <t>Tách lưới, sang tải TBA  Sông Ray 7 sang TBA  Sông Ray 7A, đấu nối máy biến áp</t>
+Cắt 3xFCO nhánh rẽ Sông Ray 7A</t>
   </si>
 </sst>
 </file>
@@ -5147,10 +5144,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:V94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -5808,28 +5805,28 @@
         <v>9</v>
       </c>
       <c r="B9" s="44" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>262</v>
+        <v>155</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>261</v>
       </c>
       <c r="E9" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="F9" s="24" t="s">
         <v>263</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="G9" s="47" t="s">
+        <v>262</v>
+      </c>
+      <c r="H9" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="G9" s="47" t="s">
-        <v>264</v>
-      </c>
-      <c r="H9" s="24" t="s">
-        <v>267</v>
-      </c>
       <c r="I9" s="6" t="s">
-        <v>231</v>
+        <v>259</v>
       </c>
       <c r="J9" s="6"/>
       <c r="K9" s="26">
@@ -5839,7 +5836,7 @@
       <c r="L9" s="26" t="str">
         <f t="array" ref="L9">_xlfn.TEXTJOIN(CHAR(10),TRUE,E9:F9)</f>
         <v>Cắt FCO + MCCB TBA Sông Ray 7A
-Tháo hotline nhánh rẽ Sông Ray 7A
+Cắt 3xFCO nhánh rẽ Sông Ray 7A
 Tiếp địa trung hạ thế  trạm biến áp Sông Ray 7A</v>
       </c>
       <c r="M9" s="26" t="str">
@@ -5849,7 +5846,7 @@
       <c r="N9" s="26" t="str">
         <f t="shared" si="2"/>
         <v>Cắt FCO + MCCB TBA Sông Ray 7A
-Tháo hotline nhánh rẽ Sông Ray 7A
+Cắt 3xFCO nhánh rẽ Sông Ray 7A
 Tiếp địa trung hạ thế  trạm biến áp Sông Ray 7ANhánh rẽ Sông Ray 7A</v>
       </c>
       <c r="O9" s="35">
@@ -5865,18 +5862,18 @@
       <c r="R9" s="26" t="str">
         <f t="shared" si="4"/>
         <v>Cắt FCO + MCCB TBA Sông Ray 7A
-Tháo hotline nhánh rẽ Sông Ray 7A
+Cắt 3xFCO nhánh rẽ Sông Ray 7A
 Tiếp địa trung hạ thế  trạm biến áp Sông Ray 7ANhánh rẽ Sông Ray 7A</v>
       </c>
       <c r="S9" s="26" t="str">
         <f t="shared" si="5"/>
         <v>Tách lưới, sang tải TBA  Sông Ray 7 sang TBA  Sông Ray 7A, đấu nối máy biến ápcắt fco + mccb tba sông ray 7a
-tháo hotline nhánh rẽ sông ray 7a
+cắt 3xfco nhánh rẽ sông ray 7a
 tiếp địa trung hạ thế  trạm biến áp sông ray 7aNhánh rẽ Sông Ray 7A</v>
       </c>
       <c r="T9" s="26" t="str">
         <f t="shared" si="6"/>
-        <v>Cắt Tháo hotlineNhánh rẽ Sông Ray 7A</v>
+        <v>Cắt 3xFCO Nhánh rẽ Sông Ray 7A</v>
       </c>
       <c r="U9" s="26" t="str">
         <f t="shared" si="7"/>
@@ -7678,10 +7675,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7886,7 +7883,7 @@
       <c r="E9" t="str">
         <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
         <v>Cắt FCO + MCCB TBA Sông Ray 7A
-Tháo hotline nhánh rẽ Sông Ray 7A
+Cắt 3xFCO nhánh rẽ Sông Ray 7A
 Tiếp địa trung hạ thế  trạm biến áp Sông Ray 7A</v>
       </c>
     </row>
